--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F07D19-0136-46D5-85CA-44C881ABCBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9CC958-D626-4E54-AA4F-6F3E29C0F87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>계급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,26 @@
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>강등 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파괴 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +207,7 @@
     <numFmt numFmtId="182" formatCode="#,##0_ "/>
     <numFmt numFmtId="184" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +220,12 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -367,6 +393,15 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -374,11 +409,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -432,6 +528,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,14 +573,13 @@
     <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -497,6 +595,61 @@
     <xf numFmtId="184" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -651,7 +804,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$3:$E$51</c:f>
+              <c:f>Sheet1!$F$3:$F$51</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -806,7 +959,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$51</c:f>
+              <c:f>Sheet1!$L$3:$L$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="49"/>
@@ -1148,7 +1301,1354 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>실패 확률</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>고정</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$4:$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>이병</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>일병</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>일병</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>일병</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>일병</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>일병</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일병</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>상병</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>상병</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>상병</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>상병</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>상병</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>상병</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>병장</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>병장</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>병장</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>병장</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>하사</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>하사</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>하사</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>중사</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>중사</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>중사</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>상사</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>상사</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>상사</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>소위</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>소위</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>소위</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>중위</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>중위</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>중위</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>대위</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>대위</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>대위</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>소령</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>소령</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>소령</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>중령</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>중령</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>중령</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>대령</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>대령</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>대령</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>준장</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>소장</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>중장</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>대장</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$4:$N$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000053E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000071E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34050000000000036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.34900000000000031</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35950000000000037</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.36800000000000033</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.37650000000000039</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38700000000000045</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.39550000000000041</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.40400000000000047</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41450000000000053</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.42300000000000049</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.43150000000000055</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.4420000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.45050000000000057</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.45900000000000052</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46950000000000058</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47800000000000054</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.48150000000000059</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47700000000000053</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47050000000000058</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.46400000000000052</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.45950000000000057</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45300000000000062</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.44650000000000056</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4420000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43550000000000044</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42900000000000049</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42450000000000043</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.42000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.41550000000000042</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.41100000000000037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C04D-4905-9B0A-83429C74B34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1419701568"/>
+        <c:axId val="1419700128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1419701568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1419700128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1419700128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1419701568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>성공 확률</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>고정</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$4:$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>이병</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>일병</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>일병</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>일병</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>일병</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>일병</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일병</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>상병</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>상병</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>상병</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>상병</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>상병</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>상병</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>병장</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>병장</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>병장</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>병장</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>하사</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>하사</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>하사</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>중사</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>중사</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>중사</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>상사</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>상사</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>상사</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>소위</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>소위</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>소위</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>중위</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>중위</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>중위</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>대위</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>대위</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>대위</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>소령</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>소령</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>소령</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>중령</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>중령</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>중령</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>대령</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>대령</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>대령</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>준장</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>소장</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>중장</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>대장</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63799999999999968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61799999999999966</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59599999999999964</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57599999999999962</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55599999999999961</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53399999999999959</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.51399999999999957</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.49399999999999955</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.47199999999999953</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45199999999999951</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.4319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.40999999999999948</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38999999999999946</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.36999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.34799999999999942</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3279999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.30799999999999939</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.28599999999999937</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.26599999999999935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.24599999999999936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.22399999999999937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.20399999999999938</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.18399999999999939</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.16199999999999939</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1419999999999994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1219999999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.9999999999999395E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.7999999999999403E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.5999999999999404E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3999999999999406E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0D1-42F5-A931-DB2CE7BCDBF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1419701568"/>
+        <c:axId val="1419700128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1419701568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1419700128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1419700128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1419701568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1684,17 +3184,1009 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>687455</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1712,8 +4204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2749825" y="0"/>
-          <a:ext cx="5648739" cy="215348"/>
+          <a:off x="3417794" y="0"/>
+          <a:ext cx="9177618" cy="224118"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1798,13 +4290,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1880,13 +4372,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1904,8 +4396,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14620875" y="0"/>
-          <a:ext cx="3562350" cy="219075"/>
+          <a:off x="16109674" y="0"/>
+          <a:ext cx="3843130" cy="215348"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1962,16 +4454,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1991,6 +4483,872 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAA47FD-2627-4276-BD6D-E7C8D67416D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9734551" y="1514476"/>
+          <a:ext cx="2057400" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이병 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>~ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>병장 강화 총 비용</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="사각형: 둥근 모서리 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F783F34-7BBF-4872-B2EE-FA264D28F053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9734551" y="1952626"/>
+          <a:ext cx="2057399" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이병 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>~ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>상사 강화 총 비용</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="사각형: 둥근 모서리 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72050789-81BF-4B0D-94B5-60D9FCCAB637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9734551" y="1514476"/>
+          <a:ext cx="2057400" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이병 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>~ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>대령 강화 총 비용</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>684609</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="사각형: 둥근 모서리 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0942D9-5B45-40DC-9BF0-344794175B8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9727406" y="2839641"/>
+          <a:ext cx="2053828" cy="220265"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이병 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>~ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>대장 강화 총 비용</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1095374</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="사각형: 둥근 모서리 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2388EB84-F526-4577-9456-9476FD34D7F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11791949" y="1514475"/>
+          <a:ext cx="2143125" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이병 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>~ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>병장 총 획득 금액</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="사각형: 둥근 모서리 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41E8E90-959B-4425-A791-1CFF09DF0208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11791950" y="1952625"/>
+          <a:ext cx="2143125" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이병 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>~ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>상사 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>총 획득 금액</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>684608</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1095374</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="사각형: 둥근 모서리 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44EBE057-081A-4C24-97CA-0F00D0321693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11781233" y="2399109"/>
+          <a:ext cx="2143125" cy="220266"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이병 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>~ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>대령 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>총 획득 금액</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1093938</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="사각형: 둥근 모서리 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D9ACE1-6F84-4971-B7B2-F27E32C1E6D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11771586" y="2804948"/>
+          <a:ext cx="2144973" cy="216776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이병 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>~ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>대장 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>총 획득 금액</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="차트 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473376E3-9C76-2357-25AA-F9F10F5C03C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="차트 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3C9911-1E44-4B09-9370-87529893985F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2262,1548 +5620,2419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:V60"/>
+  <dimension ref="F1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.625" customWidth="1"/>
+    <col min="22" max="22" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="2" t="s">
+    <row r="1" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="K2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="80"/>
+      <c r="S2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="T2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="U2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="V2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="W2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="19" t="s">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="Z2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="AA2" s="20" t="s">
         <v>33</v>
       </c>
+      <c r="AB2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="3" t="s">
+    <row r="3" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="38">
+      <c r="H3" s="39">
         <v>100</v>
       </c>
-      <c r="H3" s="38">
+      <c r="I3" s="39">
         <v>0</v>
       </c>
-      <c r="I3" s="38">
-        <f>G3+H3</f>
+      <c r="J3" s="39">
+        <f>H3+I3</f>
         <v>100</v>
       </c>
-      <c r="J3" s="38">
+      <c r="K3" s="39">
         <v>0</v>
       </c>
-      <c r="K3" s="22">
+      <c r="L3" s="23">
         <v>0</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="M3" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="74">
+        <f t="shared" ref="Q3:Q50" si="0">SUM(M3:P3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="74"/>
+      <c r="S3" s="1">
         <v>1.2250000000000001</v>
       </c>
-      <c r="O3" s="1">
+      <c r="T3" s="1">
         <v>1.78</v>
       </c>
-      <c r="P3" s="1">
+      <c r="U3" s="1">
         <v>1.08</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="V3" s="22">
         <v>1.1499999999999999</v>
       </c>
-      <c r="R3" s="21">
+      <c r="W3" s="22">
         <v>1.2</v>
       </c>
-      <c r="T3" s="1">
+      <c r="Y3" s="1">
         <v>1</v>
       </c>
-      <c r="U3" s="21">
+      <c r="Z3" s="22">
         <v>0.02</v>
       </c>
-      <c r="V3" s="58">
-        <v>2.5000000000000001E-2</v>
+      <c r="AA3" s="79">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AB3" s="79">
+        <v>1.15E-2</v>
+      </c>
+      <c r="AC3" s="79">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="4" t="s">
+    <row r="4" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="39">
-        <f>G3*$N$3</f>
+      <c r="H4" s="40">
+        <f>H3*$S$3</f>
         <v>122.50000000000001</v>
       </c>
-      <c r="H4" s="39">
+      <c r="I4" s="40">
         <v>0</v>
       </c>
-      <c r="I4" s="39">
-        <f t="shared" ref="I4:I51" si="0">G4+H4</f>
+      <c r="J4" s="40">
+        <f t="shared" ref="J4:J51" si="1">H4+I4</f>
         <v>122.50000000000001</v>
       </c>
-      <c r="J4" s="39">
+      <c r="K4" s="40">
         <v>0</v>
       </c>
-      <c r="K4" s="23">
+      <c r="L4" s="24">
         <v>150</v>
       </c>
-      <c r="L4" s="59">
+      <c r="M4" s="59">
         <v>1</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="N4" s="59">
+        <f>100%-(M4+O4+P4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="82">
+        <v>0</v>
+      </c>
+      <c r="P4" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="74">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="74"/>
+      <c r="V4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AB4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="5" t="s">
+    <row r="5" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="40">
-        <f t="shared" ref="G5:G51" si="1">G4*$N$3</f>
+      <c r="H5" s="41">
+        <f t="shared" ref="H5:H51" si="2">H4*$S$3</f>
         <v>150.06250000000003</v>
       </c>
-      <c r="H5" s="40">
+      <c r="I5" s="41">
         <v>500</v>
       </c>
-      <c r="I5" s="40">
+      <c r="J5" s="41">
+        <f t="shared" si="1"/>
+        <v>650.0625</v>
+      </c>
+      <c r="K5" s="41">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <f>L4*$V$5</f>
+        <v>187.5</v>
+      </c>
+      <c r="M5" s="60">
+        <f>M4-$Z$3</f>
+        <v>0.98</v>
+      </c>
+      <c r="N5" s="60">
+        <f t="shared" ref="N5:N50" si="3">100%-(M5+O5+P5)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="O5" s="83">
+        <v>0</v>
+      </c>
+      <c r="P5" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="74">
         <f t="shared" si="0"/>
-        <v>650.0625</v>
-      </c>
-      <c r="J5" s="40">
-        <v>0</v>
-      </c>
-      <c r="K5" s="24">
-        <f>K4*$Q$5</f>
-        <v>187.5</v>
-      </c>
-      <c r="L5" s="60">
-        <f>L4-$U$3</f>
-        <v>0.98</v>
-      </c>
-      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="74"/>
+      <c r="S5" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="V5" s="22">
         <v>1.25</v>
       </c>
-      <c r="R5" s="21">
+      <c r="W5" s="22">
         <v>1.35</v>
       </c>
+      <c r="AB5" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="AC5" s="79">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="6" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E6" s="5" t="s">
+    <row r="6" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="40">
+      <c r="H6" s="41">
+        <f t="shared" si="2"/>
+        <v>183.82656250000005</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41">
         <f t="shared" si="1"/>
         <v>183.82656250000005</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40">
+      <c r="K6" s="41">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <f>L5*$V$3</f>
+        <v>215.62499999999997</v>
+      </c>
+      <c r="M6" s="60">
+        <f t="shared" ref="M6:M10" si="4">M5-$Z$3</f>
+        <v>0.96</v>
+      </c>
+      <c r="N6" s="60">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="O6" s="83">
+        <v>0</v>
+      </c>
+      <c r="P6" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="74">
         <f t="shared" si="0"/>
-        <v>183.82656250000005</v>
-      </c>
-      <c r="J6" s="40">
-        <v>0</v>
-      </c>
-      <c r="K6" s="24">
-        <f>K5*$Q$3</f>
-        <v>215.62499999999997</v>
-      </c>
-      <c r="L6" s="60">
-        <f t="shared" ref="L6:L10" si="2">L5-$U$3</f>
-        <v>0.96</v>
-      </c>
-      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="74"/>
+      <c r="S6" s="94" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="5" t="s">
+    <row r="7" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>3</v>
       </c>
-      <c r="G7" s="40">
+      <c r="H7" s="41">
+        <f t="shared" si="2"/>
+        <v>225.18753906250006</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41">
         <f t="shared" si="1"/>
         <v>225.18753906250006</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40">
+      <c r="K7" s="41">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <f t="shared" ref="L7:L10" si="5">L6*$V$3</f>
+        <v>247.96874999999994</v>
+      </c>
+      <c r="M7" s="60">
+        <f t="shared" si="4"/>
+        <v>0.94</v>
+      </c>
+      <c r="N7" s="60">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="O7" s="83">
+        <v>0</v>
+      </c>
+      <c r="P7" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="74">
         <f t="shared" si="0"/>
-        <v>225.18753906250006</v>
-      </c>
-      <c r="J7" s="40">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" ref="K7:K10" si="3">K6*$Q$3</f>
-        <v>247.96874999999994</v>
-      </c>
-      <c r="L7" s="60">
+        <v>1</v>
+      </c>
+      <c r="R7" s="74"/>
+    </row>
+    <row r="8" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="41">
         <f t="shared" si="2"/>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="8" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4</v>
-      </c>
-      <c r="G8" s="40">
+        <v>275.85473535156262</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41">
         <f t="shared" si="1"/>
         <v>275.85473535156262</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40">
+      <c r="K8" s="41">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
+        <f t="shared" si="5"/>
+        <v>285.16406249999989</v>
+      </c>
+      <c r="M8" s="60">
+        <f t="shared" si="4"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="N8" s="60">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="O8" s="83">
+        <v>0</v>
+      </c>
+      <c r="P8" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="74">
         <f t="shared" si="0"/>
-        <v>275.85473535156262</v>
-      </c>
-      <c r="J8" s="40">
-        <v>0</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="3"/>
-        <v>285.16406249999989</v>
-      </c>
-      <c r="L8" s="60">
+        <v>1</v>
+      </c>
+      <c r="R8" s="74"/>
+    </row>
+    <row r="9" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="41">
         <f t="shared" si="2"/>
-        <v>0.91999999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5</v>
-      </c>
-      <c r="G9" s="40">
+        <v>337.92205080566424</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41">
         <f t="shared" si="1"/>
         <v>337.92205080566424</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40">
+      <c r="K9" s="41">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <f t="shared" si="5"/>
+        <v>327.93867187499984</v>
+      </c>
+      <c r="M9" s="60">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N9" s="60">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="O9" s="83">
+        <v>0</v>
+      </c>
+      <c r="P9" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="74">
         <f t="shared" si="0"/>
-        <v>337.92205080566424</v>
-      </c>
-      <c r="J9" s="40">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="3"/>
-        <v>327.93867187499984</v>
-      </c>
-      <c r="L9" s="60">
+        <v>1</v>
+      </c>
+      <c r="R9" s="74"/>
+      <c r="S9" s="75">
+        <f>SUM(L3:L20)</f>
+        <v>11836.199776625674</v>
+      </c>
+      <c r="T9" s="76"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="78">
+        <f>SUM(J3:J20)</f>
+        <v>21158.478446091838</v>
+      </c>
+      <c r="W9" s="77"/>
+    </row>
+    <row r="10" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5">
+        <v>6</v>
+      </c>
+      <c r="H10" s="41">
         <f t="shared" si="2"/>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="10" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="5">
-        <v>6</v>
-      </c>
-      <c r="G10" s="40">
+        <v>413.95451223693874</v>
+      </c>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41">
         <f t="shared" si="1"/>
         <v>413.95451223693874</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40">
+      <c r="K10" s="41">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <f t="shared" si="5"/>
+        <v>377.12947265624979</v>
+      </c>
+      <c r="M10" s="60">
+        <f t="shared" si="4"/>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="N10" s="60">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="O10" s="83">
+        <v>0</v>
+      </c>
+      <c r="P10" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="74">
         <f t="shared" si="0"/>
-        <v>413.95451223693874</v>
-      </c>
-      <c r="J10" s="40">
+        <v>1</v>
+      </c>
+      <c r="R10" s="74"/>
+    </row>
+    <row r="11" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="42">
+        <f t="shared" si="2"/>
+        <v>507.09427749024997</v>
+      </c>
+      <c r="I11" s="42">
+        <f>H11*$T$3</f>
+        <v>902.62781393264493</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="1"/>
+        <v>1409.7220914228949</v>
+      </c>
+      <c r="K11" s="42">
         <v>0</v>
       </c>
-      <c r="K10" s="24">
+      <c r="L11" s="26">
+        <f>L10*$V$5</f>
+        <v>471.41184082031225</v>
+      </c>
+      <c r="M11" s="61">
+        <f>M10-$Z$3</f>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="N11" s="61">
         <f t="shared" si="3"/>
-        <v>377.12947265624979</v>
-      </c>
-      <c r="L10" s="60">
+        <v>0.14000000000000012</v>
+      </c>
+      <c r="O11" s="84">
+        <v>0</v>
+      </c>
+      <c r="P11" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="74">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="74"/>
+      <c r="S11" s="75">
+        <f>SUM(L3:L29)</f>
+        <v>71388.737290618927</v>
+      </c>
+      <c r="T11" s="76"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="78">
+        <f>SUM(J3:J29)</f>
+        <v>153248.81577491676</v>
+      </c>
+      <c r="W11" s="77"/>
+    </row>
+    <row r="12" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2</v>
+      </c>
+      <c r="H12" s="42">
         <f t="shared" si="2"/>
-        <v>0.87999999999999989</v>
-      </c>
-    </row>
-    <row r="11" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="41">
-        <f t="shared" si="1"/>
-        <v>507.09427749024997</v>
-      </c>
-      <c r="H11" s="41">
-        <f>G11*$O$3</f>
-        <v>902.62781393264493</v>
-      </c>
-      <c r="I11" s="41">
-        <f t="shared" si="0"/>
-        <v>1409.7220914228949</v>
-      </c>
-      <c r="J11" s="41">
-        <v>0</v>
-      </c>
-      <c r="K11" s="25">
-        <f>K10*$Q$5</f>
-        <v>471.41184082031225</v>
-      </c>
-      <c r="L11" s="61">
-        <f>L10-$U$3</f>
-        <v>0.85999999999999988</v>
-      </c>
-    </row>
-    <row r="12" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="41">
+        <v>621.19048992555622</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42">
         <f t="shared" si="1"/>
         <v>621.19048992555622</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41">
+      <c r="K12" s="42">
+        <v>0</v>
+      </c>
+      <c r="L12" s="26">
+        <f>L11*$V$3</f>
+        <v>542.12361694335902</v>
+      </c>
+      <c r="M12" s="61">
+        <f>M11-$Z$3</f>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="N12" s="61">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="O12" s="84">
+        <v>0</v>
+      </c>
+      <c r="P12" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="74">
         <f t="shared" si="0"/>
-        <v>621.19048992555622</v>
-      </c>
-      <c r="J12" s="41">
-        <v>0</v>
-      </c>
-      <c r="K12" s="25">
-        <f>K11*$Q$3</f>
-        <v>542.12361694335902</v>
-      </c>
-      <c r="L12" s="61">
-        <f>L11-$U$3</f>
-        <v>0.83999999999999986</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R12" s="74"/>
     </row>
-    <row r="13" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E13" s="6" t="s">
+    <row r="13" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>3</v>
       </c>
-      <c r="G13" s="41">
+      <c r="H13" s="42">
+        <f t="shared" si="2"/>
+        <v>760.95835015880641</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42">
         <f t="shared" si="1"/>
         <v>760.95835015880641</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41">
+      <c r="K13" s="42">
+        <v>0</v>
+      </c>
+      <c r="L13" s="26">
+        <f t="shared" ref="L13:L16" si="6">L12*$V$3</f>
+        <v>623.44215948486283</v>
+      </c>
+      <c r="M13" s="61">
+        <f t="shared" ref="M13:M16" si="7">M12-$Z$3</f>
+        <v>0.81999999999999984</v>
+      </c>
+      <c r="N13" s="61">
+        <f t="shared" si="3"/>
+        <v>0.18000000000000016</v>
+      </c>
+      <c r="O13" s="84">
+        <v>0</v>
+      </c>
+      <c r="P13" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="74">
         <f t="shared" si="0"/>
-        <v>760.95835015880641</v>
-      </c>
-      <c r="J13" s="41">
-        <v>0</v>
-      </c>
-      <c r="K13" s="25">
-        <f t="shared" ref="K13:K16" si="4">K12*$Q$3</f>
-        <v>623.44215948486283</v>
-      </c>
-      <c r="L13" s="61">
-        <f t="shared" ref="L13:L16" si="5">L12-$U$3</f>
-        <v>0.81999999999999984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R13" s="74"/>
+      <c r="S13" s="75">
+        <f>SUM(L3:L47)</f>
+        <v>3723136.3616102319</v>
+      </c>
+      <c r="T13" s="76"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="78">
+        <f>SUM(J3:J47)</f>
+        <v>6070851.991775875</v>
+      </c>
+      <c r="W13" s="77"/>
     </row>
-    <row r="14" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E14" s="6" t="s">
+    <row r="14" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <v>4</v>
       </c>
-      <c r="G14" s="41">
+      <c r="H14" s="42">
+        <f t="shared" si="2"/>
+        <v>932.17397894453791</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42">
         <f t="shared" si="1"/>
         <v>932.17397894453791</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41">
+      <c r="K14" s="42">
+        <v>0</v>
+      </c>
+      <c r="L14" s="26">
+        <f t="shared" si="6"/>
+        <v>716.95848340759221</v>
+      </c>
+      <c r="M14" s="61">
+        <f t="shared" si="7"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="N14" s="61">
+        <f t="shared" si="3"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="O14" s="84">
+        <v>0</v>
+      </c>
+      <c r="P14" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="74">
         <f t="shared" si="0"/>
-        <v>932.17397894453791</v>
-      </c>
-      <c r="J14" s="41">
-        <v>0</v>
-      </c>
-      <c r="K14" s="25">
-        <f t="shared" si="4"/>
-        <v>716.95848340759221</v>
-      </c>
-      <c r="L14" s="61">
-        <f t="shared" si="5"/>
-        <v>0.79999999999999982</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R14" s="74"/>
     </row>
-    <row r="15" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E15" s="6" t="s">
+    <row r="15" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>5</v>
       </c>
-      <c r="G15" s="41">
+      <c r="H15" s="42">
+        <f t="shared" si="2"/>
+        <v>1141.9131242070591</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42">
         <f t="shared" si="1"/>
         <v>1141.9131242070591</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41">
+      <c r="K15" s="42">
+        <v>0</v>
+      </c>
+      <c r="L15" s="26">
+        <f t="shared" si="6"/>
+        <v>824.50225591873095</v>
+      </c>
+      <c r="M15" s="61">
+        <f t="shared" si="7"/>
+        <v>0.7799999999999998</v>
+      </c>
+      <c r="N15" s="61">
+        <f t="shared" si="3"/>
+        <v>0.2200000000000002</v>
+      </c>
+      <c r="O15" s="84">
+        <v>0</v>
+      </c>
+      <c r="P15" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="74">
         <f t="shared" si="0"/>
-        <v>1141.9131242070591</v>
-      </c>
-      <c r="J15" s="41">
-        <v>0</v>
-      </c>
-      <c r="K15" s="25">
-        <f t="shared" si="4"/>
-        <v>824.50225591873095</v>
-      </c>
-      <c r="L15" s="61">
-        <f t="shared" si="5"/>
-        <v>0.7799999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R15" s="74"/>
+      <c r="S15" s="75">
+        <f>SUM(L3:L51)</f>
+        <v>10123359.998018922</v>
+      </c>
+      <c r="T15" s="76"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="78">
+        <f>SUM(J3:J51)</f>
+        <v>20377812.273321323</v>
+      </c>
+      <c r="W15" s="77"/>
     </row>
-    <row r="16" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E16" s="6" t="s">
+    <row r="16" spans="6:29" x14ac:dyDescent="0.3">
+      <c r="F16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <v>6</v>
       </c>
-      <c r="G16" s="41">
+      <c r="H16" s="42">
+        <f t="shared" si="2"/>
+        <v>1398.8435771536476</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42">
         <f t="shared" si="1"/>
         <v>1398.8435771536476</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41">
+      <c r="K16" s="42">
+        <v>0</v>
+      </c>
+      <c r="L16" s="26">
+        <f t="shared" si="6"/>
+        <v>948.17759430654053</v>
+      </c>
+      <c r="M16" s="61">
+        <f t="shared" si="7"/>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="N16" s="61">
+        <f t="shared" si="3"/>
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="O16" s="84">
+        <v>0</v>
+      </c>
+      <c r="P16" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="74">
         <f t="shared" si="0"/>
-        <v>1398.8435771536476</v>
-      </c>
-      <c r="J16" s="41">
+        <v>1</v>
+      </c>
+      <c r="R16" s="74"/>
+    </row>
+    <row r="17" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="43">
+        <f t="shared" si="2"/>
+        <v>1713.5833820132184</v>
+      </c>
+      <c r="I17" s="43">
+        <f>H17*$T$3</f>
+        <v>3050.1784199835288</v>
+      </c>
+      <c r="J17" s="43">
+        <f t="shared" si="1"/>
+        <v>4763.7618019967467</v>
+      </c>
+      <c r="K17" s="43">
         <v>0</v>
       </c>
-      <c r="K16" s="25">
-        <f t="shared" si="4"/>
-        <v>948.17759430654053</v>
-      </c>
-      <c r="L16" s="61">
-        <f t="shared" si="5"/>
-        <v>0.75999999999999979</v>
-      </c>
+      <c r="L17" s="27">
+        <f>L16*$V$5</f>
+        <v>1185.2219928831757</v>
+      </c>
+      <c r="M17" s="62">
+        <f>M16-$Z$3</f>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="N17" s="62">
+        <f t="shared" si="3"/>
+        <v>0.26000000000000023</v>
+      </c>
+      <c r="O17" s="85">
+        <v>0</v>
+      </c>
+      <c r="P17" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="74">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="74"/>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E17" s="7" t="s">
+    <row r="18" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="42">
-        <f t="shared" si="1"/>
-        <v>1713.5833820132184</v>
-      </c>
-      <c r="H17" s="42">
-        <f>G17*$O$3</f>
-        <v>3050.1784199835288</v>
-      </c>
-      <c r="I17" s="42">
-        <f t="shared" si="0"/>
-        <v>4763.7618019967467</v>
-      </c>
-      <c r="J17" s="42">
-        <v>0</v>
-      </c>
-      <c r="K17" s="26">
-        <f>K16*$Q$5</f>
-        <v>1185.2219928831757</v>
-      </c>
-      <c r="L17" s="62">
-        <f>L16-$U$3</f>
-        <v>0.73999999999999977</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="G18" s="42">
+      <c r="H18" s="43">
+        <f t="shared" si="2"/>
+        <v>2099.1396429661927</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43">
         <f t="shared" si="1"/>
         <v>2099.1396429661927</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42">
+      <c r="K18" s="43">
+        <v>0</v>
+      </c>
+      <c r="L18" s="27">
+        <f>L17*$V$3</f>
+        <v>1363.0052918156521</v>
+      </c>
+      <c r="M18" s="62">
+        <f>M17-$Z$3</f>
+        <v>0.71999999999999975</v>
+      </c>
+      <c r="N18" s="62">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000025</v>
+      </c>
+      <c r="O18" s="85">
+        <v>0</v>
+      </c>
+      <c r="P18" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="74">
         <f t="shared" si="0"/>
-        <v>2099.1396429661927</v>
-      </c>
-      <c r="J18" s="42">
-        <v>0</v>
-      </c>
-      <c r="K18" s="26">
-        <f>K17*$Q$3</f>
-        <v>1363.0052918156521</v>
-      </c>
-      <c r="L18" s="62">
-        <f>L17-$U$3</f>
-        <v>0.71999999999999975</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R18" s="74"/>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E19" s="7" t="s">
+    <row r="19" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19" s="7">
         <v>3</v>
       </c>
-      <c r="G19" s="42">
+      <c r="H19" s="43">
+        <f t="shared" si="2"/>
+        <v>2571.4460626335863</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43">
         <f t="shared" si="1"/>
         <v>2571.4460626335863</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42">
+      <c r="K19" s="43">
+        <v>0</v>
+      </c>
+      <c r="L19" s="27">
+        <f t="shared" ref="L19:L20" si="8">L18*$V$3</f>
+        <v>1567.4560855879997</v>
+      </c>
+      <c r="M19" s="62">
+        <f t="shared" ref="M19" si="9">M18-$Z$3</f>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="N19" s="62">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="O19" s="85">
+        <v>0</v>
+      </c>
+      <c r="P19" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="74">
         <f t="shared" si="0"/>
-        <v>2571.4460626335863</v>
-      </c>
-      <c r="J19" s="42">
-        <v>0</v>
-      </c>
-      <c r="K19" s="26">
-        <f t="shared" ref="K19:K20" si="6">K18*$Q$3</f>
-        <v>1567.4560855879997</v>
-      </c>
-      <c r="L19" s="62">
-        <f t="shared" ref="L19" si="7">L18-$U$3</f>
-        <v>0.69999999999999973</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R19" s="74"/>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E20" s="7" t="s">
+    <row r="20" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20" s="7">
         <v>4</v>
       </c>
-      <c r="G20" s="42">
+      <c r="H20" s="43">
+        <f t="shared" si="2"/>
+        <v>3150.0214267261435</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43">
         <f t="shared" si="1"/>
         <v>3150.0214267261435</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42">
+      <c r="K20" s="43">
+        <v>0</v>
+      </c>
+      <c r="L20" s="27">
+        <f t="shared" si="8"/>
+        <v>1802.5744984261996</v>
+      </c>
+      <c r="M20" s="62">
+        <f>M19-$Z$3</f>
+        <v>0.67999999999999972</v>
+      </c>
+      <c r="N20" s="62">
+        <f t="shared" si="3"/>
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="O20" s="85">
+        <v>0</v>
+      </c>
+      <c r="P20" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="74">
         <f t="shared" si="0"/>
-        <v>3150.0214267261435</v>
-      </c>
-      <c r="J20" s="42">
+        <v>1</v>
+      </c>
+      <c r="R20" s="74"/>
+    </row>
+    <row r="21" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="44">
+        <f t="shared" si="2"/>
+        <v>3858.7762477395263</v>
+      </c>
+      <c r="I21" s="44">
+        <f>H21*$T$3</f>
+        <v>6868.6217209763572</v>
+      </c>
+      <c r="J21" s="44">
+        <f t="shared" si="1"/>
+        <v>10727.397968715883</v>
+      </c>
+      <c r="K21" s="44">
+        <f>(I21+J21)*$U$3</f>
+        <v>19003.701264867621</v>
+      </c>
+      <c r="L21" s="28">
+        <f>L20*$W$5</f>
+        <v>2433.4755728753698</v>
+      </c>
+      <c r="M21" s="63">
+        <f>M20-$AA$3</f>
+        <v>0.6579999999999997</v>
+      </c>
+      <c r="N21" s="63">
+        <f t="shared" si="3"/>
+        <v>0.33200000000000029</v>
+      </c>
+      <c r="O21" s="63">
+        <f>AB5</f>
+        <v>0.01</v>
+      </c>
+      <c r="P21" s="86">
         <v>0</v>
       </c>
-      <c r="K20" s="26">
-        <f t="shared" si="6"/>
-        <v>1802.5744984261996</v>
-      </c>
-      <c r="L20" s="62">
-        <f>L19-$U$3</f>
-        <v>0.67999999999999972</v>
-      </c>
+      <c r="Q21" s="74">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="74"/>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E21" s="8" t="s">
+    <row r="22" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="43">
-        <f t="shared" si="1"/>
-        <v>3858.7762477395263</v>
-      </c>
-      <c r="H21" s="43">
-        <f>G21*$O$3</f>
-        <v>6868.6217209763572</v>
-      </c>
-      <c r="I21" s="43">
-        <f t="shared" si="0"/>
-        <v>10727.397968715883</v>
-      </c>
-      <c r="J21" s="43">
-        <f>(H21+I21)*$P$3</f>
-        <v>19003.701264867621</v>
-      </c>
-      <c r="K21" s="27">
-        <f>K20*$R$5</f>
-        <v>2433.4755728753698</v>
-      </c>
-      <c r="L21" s="63">
-        <f>L20-$V$3</f>
-        <v>0.65499999999999969</v>
-      </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <v>2</v>
       </c>
-      <c r="G22" s="43">
+      <c r="H22" s="44">
+        <f t="shared" si="2"/>
+        <v>4727.00090348092</v>
+      </c>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44">
         <f t="shared" si="1"/>
         <v>4727.00090348092</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43">
+      <c r="K22" s="44"/>
+      <c r="L22" s="28">
+        <f>L21*$W$3</f>
+        <v>2920.1706874504439</v>
+      </c>
+      <c r="M22" s="63">
+        <f>M21-$Z$3</f>
+        <v>0.63799999999999968</v>
+      </c>
+      <c r="N22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.34050000000000036</v>
+      </c>
+      <c r="O22" s="63">
+        <f>O21+$AB$3</f>
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="P22" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="74">
         <f t="shared" si="0"/>
-        <v>4727.00090348092</v>
-      </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="27">
-        <f>K21*$R$3</f>
-        <v>2920.1706874504439</v>
-      </c>
-      <c r="L22" s="63">
-        <f>L21-$U$3</f>
-        <v>0.63499999999999968</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R22" s="74"/>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E23" s="8" t="s">
+    <row r="23" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="8">
+      <c r="G23" s="8">
         <v>3</v>
       </c>
-      <c r="G23" s="43">
+      <c r="H23" s="44">
+        <f t="shared" si="2"/>
+        <v>5790.576106764127</v>
+      </c>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44">
         <f t="shared" si="1"/>
         <v>5790.576106764127</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43">
+      <c r="K23" s="44"/>
+      <c r="L23" s="28">
+        <f>L22*$W$3</f>
+        <v>3504.2048249405325</v>
+      </c>
+      <c r="M23" s="63">
+        <f>M22-$Z$3</f>
+        <v>0.61799999999999966</v>
+      </c>
+      <c r="N23" s="63">
+        <f t="shared" si="3"/>
+        <v>0.34900000000000031</v>
+      </c>
+      <c r="O23" s="63">
+        <f t="shared" ref="O23:O51" si="10">O22+$AB$3</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P23" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="74">
         <f t="shared" si="0"/>
-        <v>5790.576106764127</v>
-      </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="27">
-        <f>K22*$R$3</f>
-        <v>3504.2048249405325</v>
-      </c>
-      <c r="L23" s="63">
-        <f>L22-$U$3</f>
-        <v>0.61499999999999966</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R23" s="74"/>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E24" s="9" t="s">
+    <row r="24" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="9">
+      <c r="G24" s="9">
         <v>1</v>
       </c>
-      <c r="G24" s="44">
+      <c r="H24" s="45">
+        <f t="shared" si="2"/>
+        <v>7093.4557307860559</v>
+      </c>
+      <c r="I24" s="45">
+        <f>H24*$T$3</f>
+        <v>12626.351200799179</v>
+      </c>
+      <c r="J24" s="45">
         <f t="shared" si="1"/>
-        <v>7093.4557307860559</v>
-      </c>
-      <c r="H24" s="44">
-        <f>G24*$O$3</f>
-        <v>12626.351200799179</v>
-      </c>
-      <c r="I24" s="44">
+        <v>19719.806931585234</v>
+      </c>
+      <c r="K24" s="45">
+        <f>(I24+J24)*$U$3</f>
+        <v>34933.850782975169</v>
+      </c>
+      <c r="L24" s="29">
+        <f>L23*$W$5</f>
+        <v>4730.6765136697195</v>
+      </c>
+      <c r="M24" s="64">
+        <f>M23-$AA$3</f>
+        <v>0.59599999999999964</v>
+      </c>
+      <c r="N24" s="64">
+        <f t="shared" si="3"/>
+        <v>0.35950000000000037</v>
+      </c>
+      <c r="O24" s="64">
+        <f t="shared" si="10"/>
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="P24" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="74">
         <f t="shared" si="0"/>
-        <v>19719.806931585234</v>
-      </c>
-      <c r="J24" s="44">
-        <f>(H24+I24)*$P$3</f>
-        <v>34933.850782975169</v>
-      </c>
-      <c r="K24" s="28">
-        <f>K23*$R$5</f>
-        <v>4730.6765136697195</v>
-      </c>
-      <c r="L24" s="64">
-        <f>L21-$V$3</f>
-        <v>0.62999999999999967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R24" s="74"/>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E25" s="9" t="s">
+    <row r="25" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="9">
+      <c r="G25" s="9">
         <v>2</v>
       </c>
-      <c r="G25" s="44">
+      <c r="H25" s="45">
+        <f t="shared" si="2"/>
+        <v>8689.4832702129188</v>
+      </c>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45">
         <f t="shared" si="1"/>
         <v>8689.4832702129188</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44">
+      <c r="K25" s="45"/>
+      <c r="L25" s="29">
+        <f>L24*$W$3</f>
+        <v>5676.8118164036632</v>
+      </c>
+      <c r="M25" s="64">
+        <f>M24-$Z$3</f>
+        <v>0.57599999999999962</v>
+      </c>
+      <c r="N25" s="64">
+        <f t="shared" si="3"/>
+        <v>0.36800000000000033</v>
+      </c>
+      <c r="O25" s="64">
+        <f t="shared" si="10"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="P25" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="74">
         <f t="shared" si="0"/>
-        <v>8689.4832702129188</v>
-      </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="28">
-        <f>K24*$R$3</f>
-        <v>5676.8118164036632</v>
-      </c>
-      <c r="L25" s="64">
-        <f>L24-$U$3</f>
-        <v>0.60999999999999965</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R25" s="74"/>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E26" s="9" t="s">
+    <row r="26" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="9">
+      <c r="G26" s="9">
         <v>3</v>
       </c>
-      <c r="G26" s="44">
+      <c r="H26" s="45">
+        <f t="shared" si="2"/>
+        <v>10644.617006010827</v>
+      </c>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45">
         <f t="shared" si="1"/>
         <v>10644.617006010827</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44">
+      <c r="K26" s="45"/>
+      <c r="L26" s="29">
+        <f>L25*$W$3</f>
+        <v>6812.1741796843953</v>
+      </c>
+      <c r="M26" s="64">
+        <f>M25-$Z$3</f>
+        <v>0.55599999999999961</v>
+      </c>
+      <c r="N26" s="64">
+        <f t="shared" si="3"/>
+        <v>0.37650000000000039</v>
+      </c>
+      <c r="O26" s="64">
+        <f t="shared" si="10"/>
+        <v>6.7499999999999991E-2</v>
+      </c>
+      <c r="P26" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="74">
         <f t="shared" si="0"/>
-        <v>10644.617006010827</v>
-      </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="28">
-        <f>K25*$R$3</f>
-        <v>6812.1741796843953</v>
-      </c>
-      <c r="L26" s="64">
-        <f>L25-$U$3</f>
-        <v>0.58999999999999964</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R26" s="74"/>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E27" s="10" t="s">
+    <row r="27" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="10">
+      <c r="G27" s="10">
         <v>1</v>
       </c>
-      <c r="G27" s="45">
+      <c r="H27" s="46">
+        <f t="shared" si="2"/>
+        <v>13039.655832363263</v>
+      </c>
+      <c r="I27" s="46">
+        <f>H27*$T$3</f>
+        <v>23210.587381606609</v>
+      </c>
+      <c r="J27" s="46">
         <f t="shared" si="1"/>
-        <v>13039.655832363263</v>
-      </c>
-      <c r="H27" s="45">
-        <f>G27*$O$3</f>
-        <v>23210.587381606609</v>
-      </c>
-      <c r="I27" s="45">
+        <v>36250.243213969872</v>
+      </c>
+      <c r="K27" s="46">
+        <f>(I27+J27)*$U$3</f>
+        <v>64217.697043222601</v>
+      </c>
+      <c r="L27" s="30">
+        <f>L26*$W$5</f>
+        <v>9196.4351425739351</v>
+      </c>
+      <c r="M27" s="65">
+        <f>M26-$AA$3</f>
+        <v>0.53399999999999959</v>
+      </c>
+      <c r="N27" s="65">
+        <f t="shared" si="3"/>
+        <v>0.38700000000000045</v>
+      </c>
+      <c r="O27" s="65">
+        <f t="shared" si="10"/>
+        <v>7.8999999999999987E-2</v>
+      </c>
+      <c r="P27" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="74">
         <f t="shared" si="0"/>
-        <v>36250.243213969872</v>
-      </c>
-      <c r="J27" s="45">
-        <f>(H27+I27)*$P$3</f>
-        <v>64217.697043222601</v>
-      </c>
-      <c r="K27" s="29">
-        <f>K26*$R$5</f>
-        <v>9196.4351425739351</v>
-      </c>
-      <c r="L27" s="65">
-        <f>L26-$V$3</f>
-        <v>0.56499999999999961</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R27" s="74"/>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E28" s="10" t="s">
+    <row r="28" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="10">
+      <c r="G28" s="10">
         <v>2</v>
       </c>
-      <c r="G28" s="45">
+      <c r="H28" s="46">
+        <f t="shared" si="2"/>
+        <v>15973.578394644999</v>
+      </c>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46">
         <f t="shared" si="1"/>
         <v>15973.578394644999</v>
       </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45">
+      <c r="K28" s="46"/>
+      <c r="L28" s="30">
+        <f>L27*$W$3</f>
+        <v>11035.722171088722</v>
+      </c>
+      <c r="M28" s="65">
+        <f>M27-$Z$3</f>
+        <v>0.51399999999999957</v>
+      </c>
+      <c r="N28" s="65">
+        <f t="shared" si="3"/>
+        <v>0.39550000000000041</v>
+      </c>
+      <c r="O28" s="65">
+        <f t="shared" si="10"/>
+        <v>9.0499999999999983E-2</v>
+      </c>
+      <c r="P28" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="74">
         <f t="shared" si="0"/>
-        <v>15973.578394644999</v>
-      </c>
-      <c r="J28" s="45"/>
-      <c r="K28" s="29">
-        <f>K27*$R$3</f>
-        <v>11035.722171088722</v>
-      </c>
-      <c r="L28" s="65">
-        <f>L27-$U$3</f>
-        <v>0.5449999999999996</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R28" s="74"/>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E29" s="10" t="s">
+    <row r="29" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="10">
+      <c r="G29" s="10">
         <v>3</v>
       </c>
-      <c r="G29" s="45">
+      <c r="H29" s="46">
+        <f t="shared" si="2"/>
+        <v>19567.633533440126</v>
+      </c>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46">
         <f t="shared" si="1"/>
         <v>19567.633533440126</v>
       </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45">
+      <c r="K29" s="46"/>
+      <c r="L29" s="30">
+        <f>L28*$W$3</f>
+        <v>13242.866605306466</v>
+      </c>
+      <c r="M29" s="65">
+        <f>M28-$Z$3</f>
+        <v>0.49399999999999955</v>
+      </c>
+      <c r="N29" s="65">
+        <f t="shared" si="3"/>
+        <v>0.40400000000000047</v>
+      </c>
+      <c r="O29" s="65">
+        <f t="shared" si="10"/>
+        <v>0.10199999999999998</v>
+      </c>
+      <c r="P29" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="74">
         <f t="shared" si="0"/>
-        <v>19567.633533440126</v>
-      </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="29">
-        <f>K28*$R$3</f>
-        <v>13242.866605306466</v>
-      </c>
-      <c r="L29" s="65">
-        <f>L28-$U$3</f>
-        <v>0.52499999999999958</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R29" s="74"/>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E30" s="11" t="s">
+    <row r="30" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="11">
+      <c r="G30" s="11">
         <v>1</v>
       </c>
-      <c r="G30" s="46">
+      <c r="H30" s="47">
+        <f t="shared" si="2"/>
+        <v>23970.351078464158</v>
+      </c>
+      <c r="I30" s="47">
+        <f>H30*$T$3</f>
+        <v>42667.224919666201</v>
+      </c>
+      <c r="J30" s="47">
         <f t="shared" si="1"/>
-        <v>23970.351078464158</v>
-      </c>
-      <c r="H30" s="46">
-        <f>G30*$O$3</f>
-        <v>42667.224919666201</v>
-      </c>
-      <c r="I30" s="46">
+        <v>66637.575998130356</v>
+      </c>
+      <c r="K30" s="47">
+        <f>(I30+J30)*$U$3</f>
+        <v>118049.18499122029</v>
+      </c>
+      <c r="L30" s="31">
+        <f>L29*$W$5</f>
+        <v>17877.869917163731</v>
+      </c>
+      <c r="M30" s="66">
+        <f>M29-$AA$3</f>
+        <v>0.47199999999999953</v>
+      </c>
+      <c r="N30" s="66">
+        <f t="shared" si="3"/>
+        <v>0.41450000000000053</v>
+      </c>
+      <c r="O30" s="66">
+        <f t="shared" si="10"/>
+        <v>0.11349999999999998</v>
+      </c>
+      <c r="P30" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="74">
         <f t="shared" si="0"/>
-        <v>66637.575998130356</v>
-      </c>
-      <c r="J30" s="46">
-        <f>(H30+I30)*$P$3</f>
-        <v>118049.18499122029</v>
-      </c>
-      <c r="K30" s="30">
-        <f>K29*$R$5</f>
-        <v>17877.869917163731</v>
-      </c>
-      <c r="L30" s="66">
-        <f>L29-$V$3</f>
-        <v>0.49999999999999956</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R30" s="74"/>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E31" s="11" t="s">
+    <row r="31" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="11">
+      <c r="G31" s="11">
         <v>2</v>
       </c>
-      <c r="G31" s="46">
+      <c r="H31" s="47">
+        <f t="shared" si="2"/>
+        <v>29363.680071118597</v>
+      </c>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47">
         <f t="shared" si="1"/>
         <v>29363.680071118597</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46">
+      <c r="K31" s="47"/>
+      <c r="L31" s="31">
+        <f>L30*$W$3</f>
+        <v>21453.443900596478</v>
+      </c>
+      <c r="M31" s="66">
+        <f>M30-$Z$3</f>
+        <v>0.45199999999999951</v>
+      </c>
+      <c r="N31" s="66">
+        <f t="shared" si="3"/>
+        <v>0.42300000000000049</v>
+      </c>
+      <c r="O31" s="66">
+        <f t="shared" si="10"/>
+        <v>0.12499999999999997</v>
+      </c>
+      <c r="P31" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="74">
         <f t="shared" si="0"/>
-        <v>29363.680071118597</v>
-      </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="30">
-        <f>K30*$R$3</f>
-        <v>21453.443900596478</v>
-      </c>
-      <c r="L31" s="66">
-        <f>L30-$U$3</f>
-        <v>0.47999999999999954</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R31" s="74"/>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E32" s="11" t="s">
+    <row r="32" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="11">
+      <c r="G32" s="11">
         <v>3</v>
       </c>
-      <c r="G32" s="46">
+      <c r="H32" s="47">
+        <f t="shared" si="2"/>
+        <v>35970.508087120281</v>
+      </c>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47">
         <f t="shared" si="1"/>
         <v>35970.508087120281</v>
       </c>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46">
+      <c r="K32" s="47"/>
+      <c r="L32" s="31">
+        <f>L31*$W$3</f>
+        <v>25744.132680715771</v>
+      </c>
+      <c r="M32" s="66">
+        <f>M31-$Z$3</f>
+        <v>0.4319999999999995</v>
+      </c>
+      <c r="N32" s="66">
+        <f t="shared" si="3"/>
+        <v>0.43150000000000055</v>
+      </c>
+      <c r="O32" s="66">
+        <f t="shared" si="10"/>
+        <v>0.13649999999999998</v>
+      </c>
+      <c r="P32" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="74">
         <f t="shared" si="0"/>
-        <v>35970.508087120281</v>
-      </c>
-      <c r="J32" s="46"/>
-      <c r="K32" s="30">
-        <f>K31*$R$3</f>
-        <v>25744.132680715771</v>
-      </c>
-      <c r="L32" s="66">
-        <f>L31-$U$3</f>
-        <v>0.45999999999999952</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R32" s="74"/>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E33" s="12" t="s">
+    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="12">
+      <c r="G33" s="12">
         <v>1</v>
       </c>
-      <c r="G33" s="47">
+      <c r="H33" s="48">
+        <f t="shared" si="2"/>
+        <v>44063.872406722345</v>
+      </c>
+      <c r="I33" s="48">
+        <f>H33*$T$3</f>
+        <v>78433.692883965778</v>
+      </c>
+      <c r="J33" s="48">
         <f t="shared" si="1"/>
-        <v>44063.872406722345</v>
-      </c>
-      <c r="H33" s="47">
-        <f>G33*$O$3</f>
-        <v>78433.692883965778</v>
-      </c>
-      <c r="I33" s="47">
+        <v>122497.56529068813</v>
+      </c>
+      <c r="K33" s="48">
+        <f>(I33+J33)*$U$3</f>
+        <v>217005.75882862625</v>
+      </c>
+      <c r="L33" s="32">
+        <f>L32*$W$5</f>
+        <v>34754.579118966292</v>
+      </c>
+      <c r="M33" s="67">
+        <f>M32-$AA$3</f>
+        <v>0.40999999999999948</v>
+      </c>
+      <c r="N33" s="67">
+        <f t="shared" si="3"/>
+        <v>0.4420000000000005</v>
+      </c>
+      <c r="O33" s="67">
+        <f t="shared" si="10"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P33" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="74">
         <f t="shared" si="0"/>
-        <v>122497.56529068813</v>
-      </c>
-      <c r="J33" s="47">
-        <f>(H33+I33)*$P$3</f>
-        <v>217005.75882862625</v>
-      </c>
-      <c r="K33" s="31">
-        <f>K32*$R$5</f>
-        <v>34754.579118966292</v>
-      </c>
-      <c r="L33" s="67">
-        <f>L32-$V$3</f>
-        <v>0.4349999999999995</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R33" s="74"/>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E34" s="12" t="s">
+    <row r="34" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F34" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="12">
+      <c r="G34" s="12">
         <v>2</v>
       </c>
-      <c r="G34" s="47">
+      <c r="H34" s="48">
+        <f t="shared" si="2"/>
+        <v>53978.243698234874</v>
+      </c>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48">
         <f t="shared" si="1"/>
         <v>53978.243698234874</v>
       </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47">
+      <c r="K34" s="48"/>
+      <c r="L34" s="32">
+        <f>L33*$W$3</f>
+        <v>41705.494942759549</v>
+      </c>
+      <c r="M34" s="67">
+        <f>M33-$Z$3</f>
+        <v>0.38999999999999946</v>
+      </c>
+      <c r="N34" s="67">
+        <f t="shared" si="3"/>
+        <v>0.45050000000000057</v>
+      </c>
+      <c r="O34" s="67">
+        <f t="shared" si="10"/>
+        <v>0.1595</v>
+      </c>
+      <c r="P34" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="74">
         <f t="shared" si="0"/>
-        <v>53978.243698234874</v>
-      </c>
-      <c r="J34" s="47"/>
-      <c r="K34" s="31">
-        <f>K33*$R$3</f>
-        <v>41705.494942759549</v>
-      </c>
-      <c r="L34" s="67">
-        <f>L33-$U$3</f>
-        <v>0.41499999999999948</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R34" s="74"/>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E35" s="12" t="s">
+    <row r="35" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F35" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="12">
+      <c r="G35" s="12">
         <v>3</v>
       </c>
-      <c r="G35" s="47">
+      <c r="H35" s="48">
+        <f t="shared" si="2"/>
+        <v>66123.348530337724</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48">
         <f t="shared" si="1"/>
         <v>66123.348530337724</v>
       </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47">
+      <c r="K35" s="48"/>
+      <c r="L35" s="32">
+        <f>L34*$W$3</f>
+        <v>50046.593931311458</v>
+      </c>
+      <c r="M35" s="67">
+        <f>M34-$Z$3</f>
+        <v>0.36999999999999944</v>
+      </c>
+      <c r="N35" s="67">
+        <f t="shared" si="3"/>
+        <v>0.45900000000000052</v>
+      </c>
+      <c r="O35" s="67">
+        <f t="shared" si="10"/>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="P35" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="74">
         <f t="shared" si="0"/>
-        <v>66123.348530337724</v>
-      </c>
-      <c r="J35" s="47"/>
-      <c r="K35" s="31">
-        <f>K34*$R$3</f>
-        <v>50046.593931311458</v>
-      </c>
-      <c r="L35" s="67">
-        <f>L34-$U$3</f>
-        <v>0.39499999999999946</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R35" s="74"/>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E36" s="13" t="s">
+    <row r="36" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="13">
+      <c r="G36" s="13">
         <v>1</v>
       </c>
-      <c r="G36" s="48">
+      <c r="H36" s="49">
+        <f t="shared" si="2"/>
+        <v>81001.101949663716</v>
+      </c>
+      <c r="I36" s="49">
+        <f>H36*$T$3</f>
+        <v>144181.96147040141</v>
+      </c>
+      <c r="J36" s="49">
         <f t="shared" si="1"/>
-        <v>81001.101949663716</v>
-      </c>
-      <c r="H36" s="48">
-        <f>G36*$O$3</f>
-        <v>144181.96147040141</v>
-      </c>
-      <c r="I36" s="48">
+        <v>225183.06342006513</v>
+      </c>
+      <c r="K36" s="49">
+        <f>(I36+J36)*$U$3</f>
+        <v>398914.22688170389</v>
+      </c>
+      <c r="L36" s="33">
+        <f>L35*$W$5</f>
+        <v>67562.901807270478</v>
+      </c>
+      <c r="M36" s="68">
+        <f>M35-$AA$3</f>
+        <v>0.34799999999999942</v>
+      </c>
+      <c r="N36" s="68">
+        <f t="shared" si="3"/>
+        <v>0.46950000000000058</v>
+      </c>
+      <c r="O36" s="68">
+        <f t="shared" si="10"/>
+        <v>0.18250000000000002</v>
+      </c>
+      <c r="P36" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="74">
         <f t="shared" si="0"/>
-        <v>225183.06342006513</v>
-      </c>
-      <c r="J36" s="48">
-        <f>(H36+I36)*$P$3</f>
-        <v>398914.22688170389</v>
-      </c>
-      <c r="K36" s="32">
-        <f>K35*$R$5</f>
-        <v>67562.901807270478</v>
-      </c>
-      <c r="L36" s="68">
-        <f>L35-$V$3</f>
-        <v>0.36999999999999944</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R36" s="74"/>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E37" s="13" t="s">
+    <row r="37" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="13">
+      <c r="G37" s="13">
         <v>2</v>
       </c>
-      <c r="G37" s="48">
+      <c r="H37" s="49">
+        <f t="shared" si="2"/>
+        <v>99226.349888338053</v>
+      </c>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49">
         <f t="shared" si="1"/>
         <v>99226.349888338053</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48">
+      <c r="K37" s="49"/>
+      <c r="L37" s="33">
+        <f>L36*$W$3</f>
+        <v>81075.482168724571</v>
+      </c>
+      <c r="M37" s="68">
+        <f>M36-$Z$3</f>
+        <v>0.3279999999999994</v>
+      </c>
+      <c r="N37" s="68">
+        <f t="shared" si="3"/>
+        <v>0.47800000000000054</v>
+      </c>
+      <c r="O37" s="68">
+        <f t="shared" si="10"/>
+        <v>0.19400000000000003</v>
+      </c>
+      <c r="P37" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="74">
         <f t="shared" si="0"/>
-        <v>99226.349888338053</v>
-      </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="32">
-        <f>K36*$R$3</f>
-        <v>81075.482168724571</v>
-      </c>
-      <c r="L37" s="68">
-        <f>L36-$U$3</f>
-        <v>0.34999999999999942</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R37" s="74"/>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E38" s="13" t="s">
+    <row r="38" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F38" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="13">
+      <c r="G38" s="13">
         <v>3</v>
       </c>
-      <c r="G38" s="48">
+      <c r="H38" s="49">
+        <f t="shared" si="2"/>
+        <v>121552.27861321412</v>
+      </c>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49">
         <f t="shared" si="1"/>
         <v>121552.27861321412</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48">
+      <c r="K38" s="49"/>
+      <c r="L38" s="33">
+        <f>L37*$W$3</f>
+        <v>97290.578602469483</v>
+      </c>
+      <c r="M38" s="68">
+        <f>M37-$Z$3</f>
+        <v>0.30799999999999939</v>
+      </c>
+      <c r="N38" s="68">
+        <f t="shared" si="3"/>
+        <v>0.48150000000000059</v>
+      </c>
+      <c r="O38" s="68">
+        <f t="shared" si="10"/>
+        <v>0.20550000000000004</v>
+      </c>
+      <c r="P38" s="68">
+        <f>AC5</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q38" s="74">
         <f t="shared" si="0"/>
-        <v>121552.27861321412</v>
-      </c>
-      <c r="J38" s="48"/>
-      <c r="K38" s="32">
-        <f>K37*$R$3</f>
-        <v>97290.578602469483</v>
-      </c>
-      <c r="L38" s="68">
-        <f>L37-$U$3</f>
-        <v>0.3299999999999994</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R38" s="74"/>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E39" s="14" t="s">
+    <row r="39" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F39" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="14">
+      <c r="G39" s="14">
         <v>1</v>
       </c>
-      <c r="G39" s="49">
+      <c r="H39" s="50">
+        <f t="shared" si="2"/>
+        <v>148901.5413011873</v>
+      </c>
+      <c r="I39" s="50">
+        <f>H39*$T$3</f>
+        <v>265044.74351611338</v>
+      </c>
+      <c r="J39" s="50">
         <f t="shared" si="1"/>
-        <v>148901.5413011873</v>
-      </c>
-      <c r="H39" s="49">
-        <f>G39*$O$3</f>
-        <v>265044.74351611338</v>
-      </c>
-      <c r="I39" s="49">
+        <v>413946.28481730068</v>
+      </c>
+      <c r="K39" s="50">
+        <f>(I39+J39)*$U$3</f>
+        <v>733310.31060008728</v>
+      </c>
+      <c r="L39" s="34">
+        <f>L38*$W$5</f>
+        <v>131342.2811133338</v>
+      </c>
+      <c r="M39" s="69">
+        <f>M38-$AA$3</f>
+        <v>0.28599999999999937</v>
+      </c>
+      <c r="N39" s="69">
+        <f t="shared" si="3"/>
+        <v>0.47700000000000053</v>
+      </c>
+      <c r="O39" s="69">
+        <f t="shared" si="10"/>
+        <v>0.21700000000000005</v>
+      </c>
+      <c r="P39" s="69">
+        <f>(P38+$AC$3)</f>
+        <v>0.02</v>
+      </c>
+      <c r="Q39" s="74">
         <f t="shared" si="0"/>
-        <v>413946.28481730068</v>
-      </c>
-      <c r="J39" s="49">
-        <f>(H39+I39)*$P$3</f>
-        <v>733310.31060008728</v>
-      </c>
-      <c r="K39" s="33">
-        <f>K38*$R$5</f>
-        <v>131342.2811133338</v>
-      </c>
-      <c r="L39" s="69">
-        <f>L38-$V$3</f>
-        <v>0.30499999999999938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R39" s="74"/>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E40" s="14" t="s">
+    <row r="40" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F40" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="14">
+      <c r="G40" s="14">
         <v>2</v>
       </c>
-      <c r="G40" s="49">
+      <c r="H40" s="50">
+        <f t="shared" si="2"/>
+        <v>182404.38809395445</v>
+      </c>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50">
         <f t="shared" si="1"/>
         <v>182404.38809395445</v>
       </c>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49">
+      <c r="K40" s="50"/>
+      <c r="L40" s="34">
+        <f>L39*$W$3</f>
+        <v>157610.73733600054</v>
+      </c>
+      <c r="M40" s="69">
+        <f>M39-$Z$3</f>
+        <v>0.26599999999999935</v>
+      </c>
+      <c r="N40" s="69">
+        <f t="shared" si="3"/>
+        <v>0.47050000000000058</v>
+      </c>
+      <c r="O40" s="69">
+        <f t="shared" si="10"/>
+        <v>0.22850000000000006</v>
+      </c>
+      <c r="P40" s="69">
+        <f t="shared" ref="P40:P51" si="11">(P39+$AC$3)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Q40" s="74">
         <f t="shared" si="0"/>
-        <v>182404.38809395445</v>
-      </c>
-      <c r="J40" s="49"/>
-      <c r="K40" s="33">
-        <f>K39*$R$3</f>
-        <v>157610.73733600054</v>
-      </c>
-      <c r="L40" s="69">
-        <f>L39-$U$3</f>
-        <v>0.28499999999999936</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R40" s="74"/>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E41" s="14" t="s">
+    <row r="41" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F41" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="14">
+      <c r="G41" s="14">
         <v>3</v>
       </c>
-      <c r="G41" s="49">
+      <c r="H41" s="50">
+        <f t="shared" si="2"/>
+        <v>223445.37541509423</v>
+      </c>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50">
         <f t="shared" si="1"/>
         <v>223445.37541509423</v>
       </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49">
+      <c r="K41" s="50"/>
+      <c r="L41" s="34">
+        <f>L40*$W$3</f>
+        <v>189132.88480320064</v>
+      </c>
+      <c r="M41" s="69">
+        <f>M40-$Z$3</f>
+        <v>0.24599999999999936</v>
+      </c>
+      <c r="N41" s="69">
+        <f t="shared" si="3"/>
+        <v>0.46400000000000052</v>
+      </c>
+      <c r="O41" s="69">
+        <f t="shared" si="10"/>
+        <v>0.24000000000000007</v>
+      </c>
+      <c r="P41" s="69">
+        <f t="shared" si="11"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q41" s="74">
         <f t="shared" si="0"/>
-        <v>223445.37541509423</v>
-      </c>
-      <c r="J41" s="49"/>
-      <c r="K41" s="33">
-        <f>K40*$R$3</f>
-        <v>189132.88480320064</v>
-      </c>
-      <c r="L41" s="69">
-        <f>L40-$U$3</f>
-        <v>0.26499999999999935</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R41" s="74"/>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E42" s="15" t="s">
+    <row r="42" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F42" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="15">
+      <c r="G42" s="15">
         <v>1</v>
       </c>
-      <c r="G42" s="50">
+      <c r="H42" s="51">
+        <f t="shared" si="2"/>
+        <v>273720.58488349046</v>
+      </c>
+      <c r="I42" s="51">
+        <f>H42*$T$3</f>
+        <v>487222.64109261305</v>
+      </c>
+      <c r="J42" s="51">
         <f t="shared" si="1"/>
-        <v>273720.58488349046</v>
-      </c>
-      <c r="H42" s="50">
-        <f>G42*$O$3</f>
-        <v>487222.64109261305</v>
-      </c>
-      <c r="I42" s="50">
+        <v>760943.22597610345</v>
+      </c>
+      <c r="K42" s="51">
+        <f>(I42+J42)*$U$3</f>
+        <v>1348019.136434214</v>
+      </c>
+      <c r="L42" s="35">
+        <f>L41*$W$5</f>
+        <v>255329.39448432089</v>
+      </c>
+      <c r="M42" s="70">
+        <f>M41-$AA$3</f>
+        <v>0.22399999999999937</v>
+      </c>
+      <c r="N42" s="70">
+        <f t="shared" si="3"/>
+        <v>0.45950000000000057</v>
+      </c>
+      <c r="O42" s="70">
+        <f t="shared" si="10"/>
+        <v>0.25150000000000006</v>
+      </c>
+      <c r="P42" s="70">
+        <f t="shared" si="11"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Q42" s="74">
         <f t="shared" si="0"/>
-        <v>760943.22597610345</v>
-      </c>
-      <c r="J42" s="50">
-        <f>(H42+I42)*$P$3</f>
-        <v>1348019.136434214</v>
-      </c>
-      <c r="K42" s="34">
-        <f>K41*$R$5</f>
-        <v>255329.39448432089</v>
-      </c>
-      <c r="L42" s="70">
-        <f>L41-$V$3</f>
-        <v>0.23999999999999935</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R42" s="74"/>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E43" s="15" t="s">
+    <row r="43" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="15">
+      <c r="G43" s="15">
         <v>2</v>
       </c>
-      <c r="G43" s="50">
+      <c r="H43" s="51">
+        <f t="shared" si="2"/>
+        <v>335307.71648227586</v>
+      </c>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51">
         <f t="shared" si="1"/>
         <v>335307.71648227586</v>
       </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50">
+      <c r="K43" s="51"/>
+      <c r="L43" s="35">
+        <f>L42*$W$3</f>
+        <v>306395.27338118508</v>
+      </c>
+      <c r="M43" s="70">
+        <f>M42-$Z$3</f>
+        <v>0.20399999999999938</v>
+      </c>
+      <c r="N43" s="70">
+        <f t="shared" si="3"/>
+        <v>0.45300000000000062</v>
+      </c>
+      <c r="O43" s="70">
+        <f t="shared" si="10"/>
+        <v>0.26300000000000007</v>
+      </c>
+      <c r="P43" s="70">
+        <f t="shared" si="11"/>
+        <v>0.08</v>
+      </c>
+      <c r="Q43" s="74">
         <f t="shared" si="0"/>
-        <v>335307.71648227586</v>
-      </c>
-      <c r="J43" s="50"/>
-      <c r="K43" s="34">
-        <f>K42*$R$3</f>
-        <v>306395.27338118508</v>
-      </c>
-      <c r="L43" s="70">
-        <f>L42-$U$3</f>
-        <v>0.21999999999999936</v>
-      </c>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="R43" s="74"/>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E44" s="15" t="s">
+    <row r="44" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F44" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="15">
+      <c r="G44" s="15">
         <v>3</v>
       </c>
-      <c r="G44" s="50">
+      <c r="H44" s="51">
+        <f t="shared" si="2"/>
+        <v>410751.95269078796</v>
+      </c>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51">
         <f t="shared" si="1"/>
         <v>410751.95269078796</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50">
+      <c r="K44" s="51"/>
+      <c r="L44" s="35">
+        <f>L43*$W$3</f>
+        <v>367674.32805742207</v>
+      </c>
+      <c r="M44" s="70">
+        <f>M43-$Z$3</f>
+        <v>0.18399999999999939</v>
+      </c>
+      <c r="N44" s="70">
+        <f t="shared" si="3"/>
+        <v>0.44650000000000056</v>
+      </c>
+      <c r="O44" s="70">
+        <f t="shared" si="10"/>
+        <v>0.27450000000000008</v>
+      </c>
+      <c r="P44" s="70">
+        <f t="shared" si="11"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Q44" s="74">
         <f t="shared" si="0"/>
-        <v>410751.95269078796</v>
-      </c>
-      <c r="J44" s="50"/>
-      <c r="K44" s="34">
-        <f>K43*$R$3</f>
-        <v>367674.32805742207</v>
-      </c>
-      <c r="L44" s="70">
-        <f>L43-$U$3</f>
-        <v>0.19999999999999937</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R44" s="74"/>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E45" s="16" t="s">
+    <row r="45" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F45" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="16">
+      <c r="G45" s="16">
         <v>1</v>
       </c>
-      <c r="G45" s="51">
+      <c r="H45" s="52">
+        <f t="shared" si="2"/>
+        <v>503171.1420462153</v>
+      </c>
+      <c r="I45" s="52">
+        <f>H45*$T$3</f>
+        <v>895644.63284226321</v>
+      </c>
+      <c r="J45" s="52">
         <f t="shared" si="1"/>
-        <v>503171.1420462153</v>
-      </c>
-      <c r="H45" s="51">
-        <f>G45*$O$3</f>
-        <v>895644.63284226321</v>
-      </c>
-      <c r="I45" s="51">
+        <v>1398815.7748884785</v>
+      </c>
+      <c r="K45" s="52">
+        <f>(I45+J45)*$U$3</f>
+        <v>2478017.240349201</v>
+      </c>
+      <c r="L45" s="36">
+        <f>L44*$W$5</f>
+        <v>496360.34287751984</v>
+      </c>
+      <c r="M45" s="71">
+        <f>M44-$AA$3</f>
+        <v>0.16199999999999939</v>
+      </c>
+      <c r="N45" s="71">
+        <f t="shared" si="3"/>
+        <v>0.4420000000000005</v>
+      </c>
+      <c r="O45" s="71">
+        <f t="shared" si="10"/>
+        <v>0.28600000000000009</v>
+      </c>
+      <c r="P45" s="71">
+        <f t="shared" si="11"/>
+        <v>0.11</v>
+      </c>
+      <c r="Q45" s="74">
         <f t="shared" si="0"/>
-        <v>1398815.7748884785</v>
-      </c>
-      <c r="J45" s="51">
-        <f>(H45+I45)*$P$3</f>
-        <v>2478017.240349201</v>
-      </c>
-      <c r="K45" s="35">
-        <f>K44*$R$5</f>
-        <v>496360.34287751984</v>
-      </c>
-      <c r="L45" s="71">
-        <f>L44-$V$3</f>
-        <v>0.17499999999999938</v>
-      </c>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="R45" s="74"/>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E46" s="16" t="s">
+    <row r="46" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F46" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="16">
+      <c r="G46" s="16">
         <v>2</v>
       </c>
-      <c r="G46" s="51">
+      <c r="H46" s="52">
+        <f t="shared" si="2"/>
+        <v>616384.64900661376</v>
+      </c>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52">
         <f t="shared" si="1"/>
         <v>616384.64900661376</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51">
+      <c r="K46" s="52"/>
+      <c r="L46" s="36">
+        <f>L45*$W$3</f>
+        <v>595632.41145302379</v>
+      </c>
+      <c r="M46" s="71">
+        <f>M45-$Z$3</f>
+        <v>0.1419999999999994</v>
+      </c>
+      <c r="N46" s="71">
+        <f t="shared" si="3"/>
+        <v>0.43550000000000044</v>
+      </c>
+      <c r="O46" s="71">
+        <f t="shared" si="10"/>
+        <v>0.2975000000000001</v>
+      </c>
+      <c r="P46" s="71">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="Q46" s="74">
         <f t="shared" si="0"/>
-        <v>616384.64900661376</v>
-      </c>
-      <c r="J46" s="51"/>
-      <c r="K46" s="35">
-        <f>K45*$R$3</f>
-        <v>595632.41145302379</v>
-      </c>
-      <c r="L46" s="71">
-        <f>L45-$U$3</f>
-        <v>0.15499999999999939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R46" s="74"/>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E47" s="16" t="s">
+    <row r="47" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F47" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="16">
+      <c r="G47" s="16">
         <v>3</v>
       </c>
-      <c r="G47" s="51">
+      <c r="H47" s="52">
+        <f t="shared" si="2"/>
+        <v>755071.19503310195</v>
+      </c>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52">
         <f t="shared" si="1"/>
         <v>755071.19503310195</v>
       </c>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51">
+      <c r="K47" s="52"/>
+      <c r="L47" s="36">
+        <f>L46*$W$3</f>
+        <v>714758.89374362852</v>
+      </c>
+      <c r="M47" s="71">
+        <f>M46-$Z$3</f>
+        <v>0.1219999999999994</v>
+      </c>
+      <c r="N47" s="71">
+        <f t="shared" si="3"/>
+        <v>0.42900000000000049</v>
+      </c>
+      <c r="O47" s="71">
+        <f t="shared" si="10"/>
+        <v>0.30900000000000011</v>
+      </c>
+      <c r="P47" s="71">
+        <f t="shared" si="11"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q47" s="74">
         <f t="shared" si="0"/>
-        <v>755071.19503310195</v>
-      </c>
-      <c r="J47" s="51"/>
-      <c r="K47" s="35">
-        <f>K46*$R$3</f>
-        <v>714758.89374362852</v>
-      </c>
-      <c r="L47" s="71">
-        <f>L46-$U$3</f>
-        <v>0.1349999999999994</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R47" s="74"/>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E48" s="17" t="s">
+    <row r="48" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F48" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="17">
+      <c r="G48" s="17">
         <v>1</v>
       </c>
-      <c r="G48" s="52">
+      <c r="H48" s="53">
+        <f t="shared" si="2"/>
+        <v>924962.21391554992</v>
+      </c>
+      <c r="I48" s="53">
+        <f>H48*$T$3</f>
+        <v>1646432.740769679</v>
+      </c>
+      <c r="J48" s="53">
         <f t="shared" si="1"/>
-        <v>924962.21391554992</v>
-      </c>
-      <c r="H48" s="52">
-        <f>G48*$O$3</f>
-        <v>1646432.740769679</v>
-      </c>
-      <c r="I48" s="52">
+        <v>2571394.9546852289</v>
+      </c>
+      <c r="K48" s="53">
+        <f>(I48+J48)*$U$3</f>
+        <v>4555253.9110913007</v>
+      </c>
+      <c r="L48" s="37">
+        <f>L47*$W$5</f>
+        <v>964924.50655389857</v>
+      </c>
+      <c r="M48" s="72">
+        <f>M47-$AA$3</f>
+        <v>9.9999999999999395E-2</v>
+      </c>
+      <c r="N48" s="81">
+        <f t="shared" si="3"/>
+        <v>0.42450000000000043</v>
+      </c>
+      <c r="O48" s="81">
+        <f t="shared" si="10"/>
+        <v>0.32050000000000012</v>
+      </c>
+      <c r="P48" s="81">
+        <f t="shared" si="11"/>
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="Q48" s="74">
         <f t="shared" si="0"/>
-        <v>2571394.9546852289</v>
-      </c>
-      <c r="J48" s="52">
-        <f>(H48+I48)*$P$3</f>
-        <v>4555253.9110913007</v>
-      </c>
-      <c r="K48" s="36">
-        <f>K47*$R$5</f>
-        <v>964924.50655389857</v>
-      </c>
-      <c r="L48" s="72">
-        <f>L47-$V$3</f>
-        <v>0.1099999999999994</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R48" s="74"/>
     </row>
-    <row r="49" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E49" s="17" t="s">
+    <row r="49" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F49" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="17">
+      <c r="G49" s="17">
         <v>1</v>
       </c>
-      <c r="G49" s="52">
+      <c r="H49" s="53">
+        <f t="shared" si="2"/>
+        <v>1133078.7120465487</v>
+      </c>
+      <c r="I49" s="53">
+        <f>H49*$T$3</f>
+        <v>2016880.1074428568</v>
+      </c>
+      <c r="J49" s="53">
         <f t="shared" si="1"/>
-        <v>1133078.7120465487</v>
-      </c>
-      <c r="H49" s="52">
-        <f>G49*$O$3</f>
-        <v>2016880.1074428568</v>
-      </c>
-      <c r="I49" s="52">
+        <v>3149958.8194894055</v>
+      </c>
+      <c r="K49" s="53">
+        <f>(I49+J49)*$U$3</f>
+        <v>5580186.0410868432</v>
+      </c>
+      <c r="L49" s="37">
+        <f>L48*$W$5</f>
+        <v>1302648.0838477632</v>
+      </c>
+      <c r="M49" s="72">
+        <f t="shared" ref="M49:M51" si="12">M48-$AA$3</f>
+        <v>7.7999999999999403E-2</v>
+      </c>
+      <c r="N49" s="81">
+        <f t="shared" si="3"/>
+        <v>0.42000000000000037</v>
+      </c>
+      <c r="O49" s="81">
+        <f t="shared" si="10"/>
+        <v>0.33200000000000013</v>
+      </c>
+      <c r="P49" s="81">
+        <f t="shared" si="11"/>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="Q49" s="74">
         <f t="shared" si="0"/>
-        <v>3149958.8194894055</v>
-      </c>
-      <c r="J49" s="52">
-        <f>(H49+I49)*$P$3</f>
-        <v>5580186.0410868432</v>
-      </c>
-      <c r="K49" s="36">
-        <f>K48*$R$5</f>
-        <v>1302648.0838477632</v>
-      </c>
-      <c r="L49" s="72">
-        <f t="shared" ref="L49:L51" si="8">L48-$V$3</f>
-        <v>8.4999999999999409E-2</v>
-      </c>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="R49" s="74"/>
     </row>
-    <row r="50" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E50" s="17" t="s">
+    <row r="50" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F50" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="17">
+      <c r="G50" s="17">
         <v>1</v>
       </c>
-      <c r="G50" s="52">
+      <c r="H50" s="53">
+        <f t="shared" si="2"/>
+        <v>1388021.4222570222</v>
+      </c>
+      <c r="I50" s="53">
+        <f>H50*$T$3</f>
+        <v>2470678.1316174995</v>
+      </c>
+      <c r="J50" s="53">
         <f t="shared" si="1"/>
-        <v>1388021.4222570222</v>
-      </c>
-      <c r="H50" s="52">
-        <f>G50*$O$3</f>
-        <v>2470678.1316174995</v>
-      </c>
-      <c r="I50" s="52">
+        <v>3858699.5538745215</v>
+      </c>
+      <c r="K50" s="53">
+        <f>(I50+J50)*$U$3</f>
+        <v>6835727.9003313836</v>
+      </c>
+      <c r="L50" s="37">
+        <f>L49*$W$5</f>
+        <v>1758574.9131944806</v>
+      </c>
+      <c r="M50" s="72">
+        <f t="shared" si="12"/>
+        <v>5.5999999999999404E-2</v>
+      </c>
+      <c r="N50" s="81">
+        <f t="shared" si="3"/>
+        <v>0.41550000000000042</v>
+      </c>
+      <c r="O50" s="81">
+        <f t="shared" si="10"/>
+        <v>0.34350000000000014</v>
+      </c>
+      <c r="P50" s="81">
+        <f t="shared" si="11"/>
+        <v>0.18500000000000005</v>
+      </c>
+      <c r="Q50" s="74">
         <f t="shared" si="0"/>
-        <v>3858699.5538745215</v>
-      </c>
-      <c r="J50" s="52">
-        <f>(H50+I50)*$P$3</f>
-        <v>6835727.9003313836</v>
-      </c>
-      <c r="K50" s="36">
-        <f>K49*$R$5</f>
-        <v>1758574.9131944806</v>
-      </c>
-      <c r="L50" s="72">
-        <f t="shared" si="8"/>
-        <v>5.9999999999999408E-2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R50" s="74"/>
     </row>
-    <row r="51" spans="5:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E51" s="18" t="s">
+    <row r="51" spans="6:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F51" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="18">
+      <c r="G51" s="18">
         <v>1</v>
       </c>
-      <c r="G51" s="53">
+      <c r="H51" s="54">
+        <f t="shared" si="2"/>
+        <v>1700326.2422648524</v>
+      </c>
+      <c r="I51" s="54">
+        <f>H51*$T$3</f>
+        <v>3026580.7112314375</v>
+      </c>
+      <c r="J51" s="54">
         <f t="shared" si="1"/>
-        <v>1700326.2422648524</v>
-      </c>
-      <c r="H51" s="53">
-        <f>G51*$O$3</f>
-        <v>3026580.7112314375</v>
-      </c>
-      <c r="I51" s="53">
-        <f t="shared" si="0"/>
         <v>4726906.9534962904</v>
       </c>
-      <c r="J51" s="53">
-        <f>(H51+I51)*$P$3</f>
+      <c r="K51" s="54">
+        <f>(I51+J51)*$U$3</f>
         <v>8373766.677905947</v>
       </c>
-      <c r="K51" s="37">
-        <f>K50*$R$5</f>
+      <c r="L51" s="38">
+        <f>L50*$W$5</f>
         <v>2374076.1328125489</v>
       </c>
-      <c r="L51" s="73">
-        <f t="shared" si="8"/>
-        <v>3.4999999999999407E-2</v>
-      </c>
+      <c r="M51" s="73">
+        <f t="shared" si="12"/>
+        <v>3.3999999999999406E-2</v>
+      </c>
+      <c r="N51" s="92">
+        <f>100%-(M51+O51+P51)</f>
+        <v>0.41100000000000037</v>
+      </c>
+      <c r="O51" s="92">
+        <f t="shared" si="10"/>
+        <v>0.35500000000000015</v>
+      </c>
+      <c r="P51" s="92">
+        <f t="shared" si="11"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q51" s="74">
+        <f>SUM(M51:P51)</f>
+        <v>1</v>
+      </c>
+      <c r="R51" s="74"/>
     </row>
-    <row r="52" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="F52" s="55" t="s">
+    <row r="52" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="G52" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="56">
-        <f>SUM(G3:G51)</f>
+      <c r="H52" s="57">
+        <f>SUM(H3:H51)</f>
         <v>9256887.3189975265</v>
       </c>
-      <c r="H52" s="56">
-        <f>SUM(H3:H51)</f>
+      <c r="I52" s="57">
+        <f>SUM(I3:I51)</f>
         <v>11120924.954323795</v>
       </c>
-      <c r="I52" s="56">
-        <f>SUM(I3:I51)</f>
+      <c r="J52" s="57">
+        <f>SUM(J3:J51)</f>
         <v>20377812.273321323</v>
       </c>
-      <c r="J52" s="56">
-        <f>SUM(J3:J51)</f>
+      <c r="K52" s="57">
+        <f>SUM(K3:K51)</f>
         <v>30756405.637591593</v>
       </c>
-      <c r="K52" s="56">
-        <f>SUM(K3:K51)</f>
+      <c r="L52" s="57">
+        <f>SUM(L3:L51)</f>
         <v>10123359.998018922</v>
       </c>
     </row>
-    <row r="60" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="N60" t="s">
+    <row r="58" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S58" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V15:W15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="K11 K17 K24:L24 K27:L27 K30:L30 K33:L33 K36:L36 K39:L39 K42:L42 K45:L45 L21" formula="1"/>
+    <ignoredError sqref="L11 L17 L24:M24 L27:M27 L30:M30 L33:M33 L36:M36 L39:M39 L42:M42 L45:M45 M21" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9CC958-D626-4E54-AA4F-6F3E29C0F87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A31794-C9D0-4393-84E5-452AB166537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,9 +203,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="#,##0_ "/>
-    <numFmt numFmtId="184" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -474,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -528,91 +528,76 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -643,18 +628,87 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1120,7 +1174,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1754,7 +1807,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5620,10 +5672,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="F1:AC58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5656,7 +5709,7 @@
       <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="54" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -5677,36 +5730,36 @@
       <c r="Q2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="20" t="s">
+      <c r="R2" s="75"/>
+      <c r="S2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="20" t="s">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5717,39 +5770,39 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>100</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="38">
         <v>0</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="38">
         <f>H3+I3</f>
         <v>100</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="38">
         <v>0</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <v>0</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="N3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="58" t="s">
+      <c r="P3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="74">
+      <c r="Q3" s="73">
         <f t="shared" ref="Q3:Q50" si="0">SUM(M3:P3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="74"/>
+      <c r="R3" s="73"/>
       <c r="S3" s="1">
         <v>1.2250000000000001</v>
       </c>
@@ -5759,25 +5812,25 @@
       <c r="U3" s="1">
         <v>1.08</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="21">
         <v>1.1499999999999999</v>
       </c>
-      <c r="W3" s="22">
+      <c r="W3" s="21">
         <v>1.2</v>
       </c>
       <c r="Y3" s="1">
         <v>1</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="21">
         <v>0.02</v>
       </c>
-      <c r="AA3" s="79">
+      <c r="AA3" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AB3" s="79">
+      <c r="AB3" s="74">
         <v>1.15E-2</v>
       </c>
-      <c r="AC3" s="79">
+      <c r="AC3" s="74">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -5788,41 +5841,41 @@
       <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="39">
         <f>H3*$S$3</f>
         <v>122.50000000000001</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="39">
         <v>0</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="39">
         <f t="shared" ref="J4:J51" si="1">H4+I4</f>
         <v>122.50000000000001</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="39">
         <v>0</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="23">
         <v>150</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="58">
         <v>1</v>
       </c>
-      <c r="N4" s="59">
+      <c r="N4" s="58">
         <f>100%-(M4+O4+P4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="82">
+      <c r="O4" s="77">
         <v>0</v>
       </c>
-      <c r="P4" s="82">
+      <c r="P4" s="77">
         <v>0</v>
       </c>
-      <c r="Q4" s="74">
+      <c r="Q4" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R4" s="74"/>
+      <c r="R4" s="73"/>
       <c r="V4" s="2" t="s">
         <v>28</v>
       </c>
@@ -5843,56 +5896,56 @@
       <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="40">
         <f t="shared" ref="H5:H51" si="2">H4*$S$3</f>
         <v>150.06250000000003</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="40">
         <v>500</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="40">
         <f t="shared" si="1"/>
         <v>650.0625</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="40">
         <v>0</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <f>L4*$V$5</f>
         <v>187.5</v>
       </c>
-      <c r="M5" s="60">
+      <c r="M5" s="59">
         <f>M4-$Z$3</f>
         <v>0.98</v>
       </c>
-      <c r="N5" s="60">
+      <c r="N5" s="59">
         <f t="shared" ref="N5:N50" si="3">100%-(M5+O5+P5)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="O5" s="83">
+      <c r="O5" s="78">
         <v>0</v>
       </c>
-      <c r="P5" s="83">
+      <c r="P5" s="78">
         <v>0</v>
       </c>
-      <c r="Q5" s="74">
+      <c r="Q5" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="93" t="s">
+      <c r="R5" s="73"/>
+      <c r="S5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="22">
+      <c r="V5" s="21">
         <v>1.25</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="21">
         <v>1.35</v>
       </c>
-      <c r="AB5" s="22">
+      <c r="AB5" s="21">
         <v>0.01</v>
       </c>
-      <c r="AC5" s="79">
+      <c r="AC5" s="74">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -5903,42 +5956,42 @@
       <c r="G6" s="5">
         <v>2</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="40">
         <f t="shared" si="2"/>
         <v>183.82656250000005</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41">
+      <c r="I6" s="40"/>
+      <c r="J6" s="40">
         <f t="shared" si="1"/>
         <v>183.82656250000005</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="40">
         <v>0</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <f>L5*$V$3</f>
         <v>215.62499999999997</v>
       </c>
-      <c r="M6" s="60">
+      <c r="M6" s="59">
         <f t="shared" ref="M6:M10" si="4">M5-$Z$3</f>
         <v>0.96</v>
       </c>
-      <c r="N6" s="60">
+      <c r="N6" s="59">
         <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="O6" s="83">
+      <c r="O6" s="78">
         <v>0</v>
       </c>
-      <c r="P6" s="83">
+      <c r="P6" s="78">
         <v>0</v>
       </c>
-      <c r="Q6" s="74">
+      <c r="Q6" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R6" s="74"/>
-      <c r="S6" s="94" t="s">
+      <c r="R6" s="73"/>
+      <c r="S6" s="89" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5949,41 +6002,41 @@
       <c r="G7" s="5">
         <v>3</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="40">
         <f t="shared" si="2"/>
         <v>225.18753906250006</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40">
         <f t="shared" si="1"/>
         <v>225.18753906250006</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="40">
         <v>0</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="24">
         <f t="shared" ref="L7:L10" si="5">L6*$V$3</f>
         <v>247.96874999999994</v>
       </c>
-      <c r="M7" s="60">
+      <c r="M7" s="59">
         <f t="shared" si="4"/>
         <v>0.94</v>
       </c>
-      <c r="N7" s="60">
+      <c r="N7" s="59">
         <f t="shared" si="3"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="O7" s="83">
+      <c r="O7" s="78">
         <v>0</v>
       </c>
-      <c r="P7" s="83">
+      <c r="P7" s="78">
         <v>0</v>
       </c>
-      <c r="Q7" s="74">
+      <c r="Q7" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R7" s="74"/>
+      <c r="R7" s="73"/>
     </row>
     <row r="8" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="5" t="s">
@@ -5992,41 +6045,41 @@
       <c r="G8" s="5">
         <v>4</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="40">
         <f t="shared" si="2"/>
         <v>275.85473535156262</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41">
+      <c r="I8" s="40"/>
+      <c r="J8" s="40">
         <f t="shared" si="1"/>
         <v>275.85473535156262</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="40">
         <v>0</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="24">
         <f t="shared" si="5"/>
         <v>285.16406249999989</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="59">
         <f t="shared" si="4"/>
         <v>0.91999999999999993</v>
       </c>
-      <c r="N8" s="60">
+      <c r="N8" s="59">
         <f t="shared" si="3"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="O8" s="83">
+      <c r="O8" s="78">
         <v>0</v>
       </c>
-      <c r="P8" s="83">
+      <c r="P8" s="78">
         <v>0</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R8" s="74"/>
+      <c r="R8" s="73"/>
     </row>
     <row r="9" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="5" t="s">
@@ -6035,52 +6088,52 @@
       <c r="G9" s="5">
         <v>5</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="40">
         <f t="shared" si="2"/>
         <v>337.92205080566424</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41">
+      <c r="I9" s="40"/>
+      <c r="J9" s="40">
         <f t="shared" si="1"/>
         <v>337.92205080566424</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="40">
         <v>0</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="24">
         <f t="shared" si="5"/>
         <v>327.93867187499984</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="59">
         <f t="shared" si="4"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="N9" s="60">
+      <c r="N9" s="59">
         <f t="shared" si="3"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O9" s="83">
+      <c r="O9" s="78">
         <v>0</v>
       </c>
-      <c r="P9" s="83">
+      <c r="P9" s="78">
         <v>0</v>
       </c>
-      <c r="Q9" s="74">
+      <c r="Q9" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R9" s="74"/>
-      <c r="S9" s="75">
+      <c r="R9" s="73"/>
+      <c r="S9" s="90">
         <f>SUM(L3:L20)</f>
         <v>11836.199776625674</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="78">
+      <c r="T9" s="91"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="93">
         <f>SUM(J3:J20)</f>
         <v>21158.478446091838</v>
       </c>
-      <c r="W9" s="77"/>
+      <c r="W9" s="92"/>
     </row>
     <row r="10" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F10" s="5" t="s">
@@ -6089,41 +6142,41 @@
       <c r="G10" s="5">
         <v>6</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="40">
         <f t="shared" si="2"/>
         <v>413.95451223693874</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41">
+      <c r="I10" s="40"/>
+      <c r="J10" s="40">
         <f t="shared" si="1"/>
         <v>413.95451223693874</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="40">
         <v>0</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="24">
         <f t="shared" si="5"/>
         <v>377.12947265624979</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="59">
         <f t="shared" si="4"/>
         <v>0.87999999999999989</v>
       </c>
-      <c r="N10" s="60">
+      <c r="N10" s="59">
         <f t="shared" si="3"/>
         <v>0.12000000000000011</v>
       </c>
-      <c r="O10" s="83">
+      <c r="O10" s="78">
         <v>0</v>
       </c>
-      <c r="P10" s="83">
+      <c r="P10" s="78">
         <v>0</v>
       </c>
-      <c r="Q10" s="74">
+      <c r="Q10" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R10" s="74"/>
+      <c r="R10" s="73"/>
     </row>
     <row r="11" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F11" s="6" t="s">
@@ -6132,55 +6185,55 @@
       <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="41">
         <f t="shared" si="2"/>
         <v>507.09427749024997</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="41">
         <f>H11*$T$3</f>
         <v>902.62781393264493</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="41">
         <f t="shared" si="1"/>
         <v>1409.7220914228949</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="41">
         <v>0</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="25">
         <f>L10*$V$5</f>
         <v>471.41184082031225</v>
       </c>
-      <c r="M11" s="61">
+      <c r="M11" s="60">
         <f>M10-$Z$3</f>
         <v>0.85999999999999988</v>
       </c>
-      <c r="N11" s="61">
+      <c r="N11" s="60">
         <f t="shared" si="3"/>
         <v>0.14000000000000012</v>
       </c>
-      <c r="O11" s="84">
+      <c r="O11" s="79">
         <v>0</v>
       </c>
-      <c r="P11" s="84">
+      <c r="P11" s="79">
         <v>0</v>
       </c>
-      <c r="Q11" s="74">
+      <c r="Q11" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R11" s="74"/>
-      <c r="S11" s="75">
+      <c r="R11" s="73"/>
+      <c r="S11" s="90">
         <f>SUM(L3:L29)</f>
         <v>71388.737290618927</v>
       </c>
-      <c r="T11" s="76"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="78">
+      <c r="T11" s="91"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="93">
         <f>SUM(J3:J29)</f>
         <v>153248.81577491676</v>
       </c>
-      <c r="W11" s="77"/>
+      <c r="W11" s="92"/>
     </row>
     <row r="12" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="6" t="s">
@@ -6189,41 +6242,41 @@
       <c r="G12" s="6">
         <v>2</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="41">
         <f t="shared" si="2"/>
         <v>621.19048992555622</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42">
+      <c r="I12" s="41"/>
+      <c r="J12" s="41">
         <f t="shared" si="1"/>
         <v>621.19048992555622</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <v>0</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="25">
         <f>L11*$V$3</f>
         <v>542.12361694335902</v>
       </c>
-      <c r="M12" s="61">
+      <c r="M12" s="60">
         <f>M11-$Z$3</f>
         <v>0.83999999999999986</v>
       </c>
-      <c r="N12" s="61">
+      <c r="N12" s="60">
         <f t="shared" si="3"/>
         <v>0.16000000000000014</v>
       </c>
-      <c r="O12" s="84">
+      <c r="O12" s="79">
         <v>0</v>
       </c>
-      <c r="P12" s="84">
+      <c r="P12" s="79">
         <v>0</v>
       </c>
-      <c r="Q12" s="74">
+      <c r="Q12" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R12" s="74"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="6" t="s">
@@ -6232,52 +6285,52 @@
       <c r="G13" s="6">
         <v>3</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="41">
         <f t="shared" si="2"/>
         <v>760.95835015880641</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42">
+      <c r="I13" s="41"/>
+      <c r="J13" s="41">
         <f t="shared" si="1"/>
         <v>760.95835015880641</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="41">
         <v>0</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="25">
         <f t="shared" ref="L13:L16" si="6">L12*$V$3</f>
         <v>623.44215948486283</v>
       </c>
-      <c r="M13" s="61">
+      <c r="M13" s="60">
         <f t="shared" ref="M13:M16" si="7">M12-$Z$3</f>
         <v>0.81999999999999984</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13" s="60">
         <f t="shared" si="3"/>
         <v>0.18000000000000016</v>
       </c>
-      <c r="O13" s="84">
+      <c r="O13" s="79">
         <v>0</v>
       </c>
-      <c r="P13" s="84">
+      <c r="P13" s="79">
         <v>0</v>
       </c>
-      <c r="Q13" s="74">
+      <c r="Q13" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R13" s="74"/>
-      <c r="S13" s="75">
+      <c r="R13" s="73"/>
+      <c r="S13" s="90">
         <f>SUM(L3:L47)</f>
         <v>3723136.3616102319</v>
       </c>
-      <c r="T13" s="76"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="78">
+      <c r="T13" s="91"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="93">
         <f>SUM(J3:J47)</f>
         <v>6070851.991775875</v>
       </c>
-      <c r="W13" s="77"/>
+      <c r="W13" s="92"/>
     </row>
     <row r="14" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F14" s="6" t="s">
@@ -6286,41 +6339,41 @@
       <c r="G14" s="6">
         <v>4</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="41">
         <f t="shared" si="2"/>
         <v>932.17397894453791</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42">
+      <c r="I14" s="41"/>
+      <c r="J14" s="41">
         <f t="shared" si="1"/>
         <v>932.17397894453791</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="41">
         <v>0</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="25">
         <f t="shared" si="6"/>
         <v>716.95848340759221</v>
       </c>
-      <c r="M14" s="61">
+      <c r="M14" s="60">
         <f t="shared" si="7"/>
         <v>0.79999999999999982</v>
       </c>
-      <c r="N14" s="61">
+      <c r="N14" s="60">
         <f t="shared" si="3"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="O14" s="84">
+      <c r="O14" s="79">
         <v>0</v>
       </c>
-      <c r="P14" s="84">
+      <c r="P14" s="79">
         <v>0</v>
       </c>
-      <c r="Q14" s="74">
+      <c r="Q14" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R14" s="74"/>
+      <c r="R14" s="73"/>
     </row>
     <row r="15" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F15" s="6" t="s">
@@ -6329,52 +6382,52 @@
       <c r="G15" s="6">
         <v>5</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="41">
         <f t="shared" si="2"/>
         <v>1141.9131242070591</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42">
+      <c r="I15" s="41"/>
+      <c r="J15" s="41">
         <f t="shared" si="1"/>
         <v>1141.9131242070591</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="41">
         <v>0</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="25">
         <f t="shared" si="6"/>
         <v>824.50225591873095</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="60">
         <f t="shared" si="7"/>
         <v>0.7799999999999998</v>
       </c>
-      <c r="N15" s="61">
+      <c r="N15" s="60">
         <f t="shared" si="3"/>
         <v>0.2200000000000002</v>
       </c>
-      <c r="O15" s="84">
+      <c r="O15" s="79">
         <v>0</v>
       </c>
-      <c r="P15" s="84">
+      <c r="P15" s="79">
         <v>0</v>
       </c>
-      <c r="Q15" s="74">
+      <c r="Q15" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R15" s="74"/>
-      <c r="S15" s="75">
+      <c r="R15" s="73"/>
+      <c r="S15" s="90">
         <f>SUM(L3:L51)</f>
         <v>10123359.998018922</v>
       </c>
-      <c r="T15" s="76"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="78">
+      <c r="T15" s="91"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="93">
         <f>SUM(J3:J51)</f>
         <v>20377812.273321323</v>
       </c>
-      <c r="W15" s="77"/>
+      <c r="W15" s="92"/>
     </row>
     <row r="16" spans="6:29" x14ac:dyDescent="0.3">
       <c r="F16" s="6" t="s">
@@ -6383,41 +6436,41 @@
       <c r="G16" s="6">
         <v>6</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <f t="shared" si="2"/>
         <v>1398.8435771536476</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42">
+      <c r="I16" s="41"/>
+      <c r="J16" s="41">
         <f t="shared" si="1"/>
         <v>1398.8435771536476</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="41">
         <v>0</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="25">
         <f t="shared" si="6"/>
         <v>948.17759430654053</v>
       </c>
-      <c r="M16" s="61">
+      <c r="M16" s="60">
         <f t="shared" si="7"/>
         <v>0.75999999999999979</v>
       </c>
-      <c r="N16" s="61">
+      <c r="N16" s="60">
         <f t="shared" si="3"/>
         <v>0.24000000000000021</v>
       </c>
-      <c r="O16" s="84">
+      <c r="O16" s="79">
         <v>0</v>
       </c>
-      <c r="P16" s="84">
+      <c r="P16" s="79">
         <v>0</v>
       </c>
-      <c r="Q16" s="74">
+      <c r="Q16" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R16" s="74"/>
+      <c r="R16" s="73"/>
     </row>
     <row r="17" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F17" s="7" t="s">
@@ -6426,44 +6479,44 @@
       <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="42">
         <f t="shared" si="2"/>
         <v>1713.5833820132184</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="42">
         <f>H17*$T$3</f>
         <v>3050.1784199835288</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="42">
         <f t="shared" si="1"/>
         <v>4763.7618019967467</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="42">
         <v>0</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="26">
         <f>L16*$V$5</f>
         <v>1185.2219928831757</v>
       </c>
-      <c r="M17" s="62">
+      <c r="M17" s="61">
         <f>M16-$Z$3</f>
         <v>0.73999999999999977</v>
       </c>
-      <c r="N17" s="62">
+      <c r="N17" s="61">
         <f t="shared" si="3"/>
         <v>0.26000000000000023</v>
       </c>
-      <c r="O17" s="85">
+      <c r="O17" s="80">
         <v>0</v>
       </c>
-      <c r="P17" s="85">
+      <c r="P17" s="80">
         <v>0</v>
       </c>
-      <c r="Q17" s="74">
+      <c r="Q17" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R17" s="74"/>
+      <c r="R17" s="73"/>
     </row>
     <row r="18" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F18" s="7" t="s">
@@ -6472,41 +6525,41 @@
       <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="42">
         <f t="shared" si="2"/>
         <v>2099.1396429661927</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43">
+      <c r="I18" s="42"/>
+      <c r="J18" s="42">
         <f t="shared" si="1"/>
         <v>2099.1396429661927</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="42">
         <v>0</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="26">
         <f>L17*$V$3</f>
         <v>1363.0052918156521</v>
       </c>
-      <c r="M18" s="62">
+      <c r="M18" s="61">
         <f>M17-$Z$3</f>
         <v>0.71999999999999975</v>
       </c>
-      <c r="N18" s="62">
+      <c r="N18" s="61">
         <f t="shared" si="3"/>
         <v>0.28000000000000025</v>
       </c>
-      <c r="O18" s="85">
+      <c r="O18" s="80">
         <v>0</v>
       </c>
-      <c r="P18" s="85">
+      <c r="P18" s="80">
         <v>0</v>
       </c>
-      <c r="Q18" s="74">
+      <c r="Q18" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R18" s="74"/>
+      <c r="R18" s="73"/>
     </row>
     <row r="19" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F19" s="7" t="s">
@@ -6515,41 +6568,41 @@
       <c r="G19" s="7">
         <v>3</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="42">
         <f t="shared" si="2"/>
         <v>2571.4460626335863</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43">
+      <c r="I19" s="42"/>
+      <c r="J19" s="42">
         <f t="shared" si="1"/>
         <v>2571.4460626335863</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="42">
         <v>0</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="26">
         <f t="shared" ref="L19:L20" si="8">L18*$V$3</f>
         <v>1567.4560855879997</v>
       </c>
-      <c r="M19" s="62">
+      <c r="M19" s="61">
         <f t="shared" ref="M19" si="9">M18-$Z$3</f>
         <v>0.69999999999999973</v>
       </c>
-      <c r="N19" s="62">
+      <c r="N19" s="61">
         <f t="shared" si="3"/>
         <v>0.30000000000000027</v>
       </c>
-      <c r="O19" s="85">
+      <c r="O19" s="80">
         <v>0</v>
       </c>
-      <c r="P19" s="85">
+      <c r="P19" s="80">
         <v>0</v>
       </c>
-      <c r="Q19" s="74">
+      <c r="Q19" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R19" s="74"/>
+      <c r="R19" s="73"/>
     </row>
     <row r="20" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F20" s="7" t="s">
@@ -6558,41 +6611,41 @@
       <c r="G20" s="7">
         <v>4</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="42">
         <f t="shared" si="2"/>
         <v>3150.0214267261435</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43">
+      <c r="I20" s="42"/>
+      <c r="J20" s="42">
         <f t="shared" si="1"/>
         <v>3150.0214267261435</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="42">
         <v>0</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="26">
         <f t="shared" si="8"/>
         <v>1802.5744984261996</v>
       </c>
-      <c r="M20" s="62">
+      <c r="M20" s="61">
         <f>M19-$Z$3</f>
         <v>0.67999999999999972</v>
       </c>
-      <c r="N20" s="62">
+      <c r="N20" s="61">
         <f t="shared" si="3"/>
         <v>0.32000000000000028</v>
       </c>
-      <c r="O20" s="85">
+      <c r="O20" s="80">
         <v>0</v>
       </c>
-      <c r="P20" s="85">
+      <c r="P20" s="80">
         <v>0</v>
       </c>
-      <c r="Q20" s="74">
+      <c r="Q20" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R20" s="74"/>
+      <c r="R20" s="73"/>
     </row>
     <row r="21" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F21" s="8" t="s">
@@ -6601,46 +6654,46 @@
       <c r="G21" s="8">
         <v>1</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="43">
         <f t="shared" si="2"/>
         <v>3858.7762477395263</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="43">
         <f>H21*$T$3</f>
         <v>6868.6217209763572</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="43">
         <f t="shared" si="1"/>
         <v>10727.397968715883</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="43">
         <f>(I21+J21)*$U$3</f>
         <v>19003.701264867621</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="27">
         <f>L20*$W$5</f>
         <v>2433.4755728753698</v>
       </c>
-      <c r="M21" s="63">
+      <c r="M21" s="62">
         <f>M20-$AA$3</f>
         <v>0.6579999999999997</v>
       </c>
-      <c r="N21" s="63">
+      <c r="N21" s="62">
         <f t="shared" si="3"/>
         <v>0.33200000000000029</v>
       </c>
-      <c r="O21" s="63">
+      <c r="O21" s="62">
         <f>AB5</f>
         <v>0.01</v>
       </c>
-      <c r="P21" s="86">
+      <c r="P21" s="81">
         <v>0</v>
       </c>
-      <c r="Q21" s="74">
+      <c r="Q21" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R21" s="74"/>
+      <c r="R21" s="73"/>
     </row>
     <row r="22" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F22" s="8" t="s">
@@ -6649,40 +6702,40 @@
       <c r="G22" s="8">
         <v>2</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="43">
         <f t="shared" si="2"/>
         <v>4727.00090348092</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44">
+      <c r="I22" s="43"/>
+      <c r="J22" s="43">
         <f t="shared" si="1"/>
         <v>4727.00090348092</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="28">
+      <c r="K22" s="43"/>
+      <c r="L22" s="27">
         <f>L21*$W$3</f>
         <v>2920.1706874504439</v>
       </c>
-      <c r="M22" s="63">
+      <c r="M22" s="62">
         <f>M21-$Z$3</f>
         <v>0.63799999999999968</v>
       </c>
-      <c r="N22" s="63">
+      <c r="N22" s="62">
         <f t="shared" si="3"/>
         <v>0.34050000000000036</v>
       </c>
-      <c r="O22" s="63">
+      <c r="O22" s="62">
         <f>O21+$AB$3</f>
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="P22" s="86">
+      <c r="P22" s="81">
         <v>0</v>
       </c>
-      <c r="Q22" s="74">
+      <c r="Q22" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R22" s="74"/>
+      <c r="R22" s="73"/>
     </row>
     <row r="23" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F23" s="8" t="s">
@@ -6691,40 +6744,40 @@
       <c r="G23" s="8">
         <v>3</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="43">
         <f t="shared" si="2"/>
         <v>5790.576106764127</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44">
+      <c r="I23" s="43"/>
+      <c r="J23" s="43">
         <f t="shared" si="1"/>
         <v>5790.576106764127</v>
       </c>
-      <c r="K23" s="44"/>
-      <c r="L23" s="28">
+      <c r="K23" s="43"/>
+      <c r="L23" s="27">
         <f>L22*$W$3</f>
         <v>3504.2048249405325</v>
       </c>
-      <c r="M23" s="63">
+      <c r="M23" s="62">
         <f>M22-$Z$3</f>
         <v>0.61799999999999966</v>
       </c>
-      <c r="N23" s="63">
+      <c r="N23" s="62">
         <f t="shared" si="3"/>
         <v>0.34900000000000031</v>
       </c>
-      <c r="O23" s="63">
+      <c r="O23" s="62">
         <f t="shared" ref="O23:O51" si="10">O22+$AB$3</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="P23" s="86">
+      <c r="P23" s="81">
         <v>0</v>
       </c>
-      <c r="Q23" s="74">
+      <c r="Q23" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R23" s="74"/>
+      <c r="R23" s="73"/>
     </row>
     <row r="24" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F24" s="9" t="s">
@@ -6733,46 +6786,46 @@
       <c r="G24" s="9">
         <v>1</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="44">
         <f t="shared" si="2"/>
         <v>7093.4557307860559</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="44">
         <f>H24*$T$3</f>
         <v>12626.351200799179</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="44">
         <f t="shared" si="1"/>
         <v>19719.806931585234</v>
       </c>
-      <c r="K24" s="45">
+      <c r="K24" s="44">
         <f>(I24+J24)*$U$3</f>
         <v>34933.850782975169</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="28">
         <f>L23*$W$5</f>
         <v>4730.6765136697195</v>
       </c>
-      <c r="M24" s="64">
+      <c r="M24" s="63">
         <f>M23-$AA$3</f>
         <v>0.59599999999999964</v>
       </c>
-      <c r="N24" s="64">
+      <c r="N24" s="63">
         <f t="shared" si="3"/>
         <v>0.35950000000000037</v>
       </c>
-      <c r="O24" s="64">
+      <c r="O24" s="63">
         <f t="shared" si="10"/>
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="P24" s="87">
+      <c r="P24" s="82">
         <v>0</v>
       </c>
-      <c r="Q24" s="74">
+      <c r="Q24" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R24" s="74"/>
+      <c r="R24" s="73"/>
     </row>
     <row r="25" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F25" s="9" t="s">
@@ -6781,40 +6834,40 @@
       <c r="G25" s="9">
         <v>2</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="44">
         <f t="shared" si="2"/>
         <v>8689.4832702129188</v>
       </c>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45">
+      <c r="I25" s="44"/>
+      <c r="J25" s="44">
         <f t="shared" si="1"/>
         <v>8689.4832702129188</v>
       </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="29">
+      <c r="K25" s="44"/>
+      <c r="L25" s="28">
         <f>L24*$W$3</f>
         <v>5676.8118164036632</v>
       </c>
-      <c r="M25" s="64">
+      <c r="M25" s="63">
         <f>M24-$Z$3</f>
         <v>0.57599999999999962</v>
       </c>
-      <c r="N25" s="64">
+      <c r="N25" s="63">
         <f t="shared" si="3"/>
         <v>0.36800000000000033</v>
       </c>
-      <c r="O25" s="64">
+      <c r="O25" s="63">
         <f t="shared" si="10"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="P25" s="87">
+      <c r="P25" s="82">
         <v>0</v>
       </c>
-      <c r="Q25" s="74">
+      <c r="Q25" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R25" s="74"/>
+      <c r="R25" s="73"/>
     </row>
     <row r="26" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F26" s="9" t="s">
@@ -6823,40 +6876,40 @@
       <c r="G26" s="9">
         <v>3</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="44">
         <f t="shared" si="2"/>
         <v>10644.617006010827</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45">
+      <c r="I26" s="44"/>
+      <c r="J26" s="44">
         <f t="shared" si="1"/>
         <v>10644.617006010827</v>
       </c>
-      <c r="K26" s="45"/>
-      <c r="L26" s="29">
+      <c r="K26" s="44"/>
+      <c r="L26" s="28">
         <f>L25*$W$3</f>
         <v>6812.1741796843953</v>
       </c>
-      <c r="M26" s="64">
+      <c r="M26" s="63">
         <f>M25-$Z$3</f>
         <v>0.55599999999999961</v>
       </c>
-      <c r="N26" s="64">
+      <c r="N26" s="63">
         <f t="shared" si="3"/>
         <v>0.37650000000000039</v>
       </c>
-      <c r="O26" s="64">
+      <c r="O26" s="63">
         <f t="shared" si="10"/>
         <v>6.7499999999999991E-2</v>
       </c>
-      <c r="P26" s="87">
+      <c r="P26" s="82">
         <v>0</v>
       </c>
-      <c r="Q26" s="74">
+      <c r="Q26" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R26" s="74"/>
+      <c r="R26" s="73"/>
     </row>
     <row r="27" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F27" s="10" t="s">
@@ -6865,46 +6918,46 @@
       <c r="G27" s="10">
         <v>1</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="45">
         <f t="shared" si="2"/>
         <v>13039.655832363263</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="45">
         <f>H27*$T$3</f>
         <v>23210.587381606609</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="45">
         <f t="shared" si="1"/>
         <v>36250.243213969872</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="45">
         <f>(I27+J27)*$U$3</f>
         <v>64217.697043222601</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="29">
         <f>L26*$W$5</f>
         <v>9196.4351425739351</v>
       </c>
-      <c r="M27" s="65">
+      <c r="M27" s="64">
         <f>M26-$AA$3</f>
         <v>0.53399999999999959</v>
       </c>
-      <c r="N27" s="65">
+      <c r="N27" s="64">
         <f t="shared" si="3"/>
         <v>0.38700000000000045</v>
       </c>
-      <c r="O27" s="65">
+      <c r="O27" s="64">
         <f t="shared" si="10"/>
         <v>7.8999999999999987E-2</v>
       </c>
-      <c r="P27" s="88">
+      <c r="P27" s="83">
         <v>0</v>
       </c>
-      <c r="Q27" s="74">
+      <c r="Q27" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R27" s="74"/>
+      <c r="R27" s="73"/>
     </row>
     <row r="28" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F28" s="10" t="s">
@@ -6913,40 +6966,40 @@
       <c r="G28" s="10">
         <v>2</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="45">
         <f t="shared" si="2"/>
         <v>15973.578394644999</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46">
+      <c r="I28" s="45"/>
+      <c r="J28" s="45">
         <f t="shared" si="1"/>
         <v>15973.578394644999</v>
       </c>
-      <c r="K28" s="46"/>
-      <c r="L28" s="30">
+      <c r="K28" s="45"/>
+      <c r="L28" s="29">
         <f>L27*$W$3</f>
         <v>11035.722171088722</v>
       </c>
-      <c r="M28" s="65">
+      <c r="M28" s="64">
         <f>M27-$Z$3</f>
         <v>0.51399999999999957</v>
       </c>
-      <c r="N28" s="65">
+      <c r="N28" s="64">
         <f t="shared" si="3"/>
         <v>0.39550000000000041</v>
       </c>
-      <c r="O28" s="65">
+      <c r="O28" s="64">
         <f t="shared" si="10"/>
         <v>9.0499999999999983E-2</v>
       </c>
-      <c r="P28" s="88">
+      <c r="P28" s="83">
         <v>0</v>
       </c>
-      <c r="Q28" s="74">
+      <c r="Q28" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R28" s="74"/>
+      <c r="R28" s="73"/>
     </row>
     <row r="29" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F29" s="10" t="s">
@@ -6955,40 +7008,40 @@
       <c r="G29" s="10">
         <v>3</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="45">
         <f t="shared" si="2"/>
         <v>19567.633533440126</v>
       </c>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46">
+      <c r="I29" s="45"/>
+      <c r="J29" s="45">
         <f t="shared" si="1"/>
         <v>19567.633533440126</v>
       </c>
-      <c r="K29" s="46"/>
-      <c r="L29" s="30">
+      <c r="K29" s="45"/>
+      <c r="L29" s="29">
         <f>L28*$W$3</f>
         <v>13242.866605306466</v>
       </c>
-      <c r="M29" s="65">
+      <c r="M29" s="64">
         <f>M28-$Z$3</f>
         <v>0.49399999999999955</v>
       </c>
-      <c r="N29" s="65">
+      <c r="N29" s="64">
         <f t="shared" si="3"/>
         <v>0.40400000000000047</v>
       </c>
-      <c r="O29" s="65">
+      <c r="O29" s="64">
         <f t="shared" si="10"/>
         <v>0.10199999999999998</v>
       </c>
-      <c r="P29" s="88">
+      <c r="P29" s="83">
         <v>0</v>
       </c>
-      <c r="Q29" s="74">
+      <c r="Q29" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R29" s="74"/>
+      <c r="R29" s="73"/>
     </row>
     <row r="30" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F30" s="11" t="s">
@@ -6997,46 +7050,46 @@
       <c r="G30" s="11">
         <v>1</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="46">
         <f t="shared" si="2"/>
         <v>23970.351078464158</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I30" s="46">
         <f>H30*$T$3</f>
         <v>42667.224919666201</v>
       </c>
-      <c r="J30" s="47">
+      <c r="J30" s="46">
         <f t="shared" si="1"/>
         <v>66637.575998130356</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K30" s="46">
         <f>(I30+J30)*$U$3</f>
         <v>118049.18499122029</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="30">
         <f>L29*$W$5</f>
         <v>17877.869917163731</v>
       </c>
-      <c r="M30" s="66">
+      <c r="M30" s="65">
         <f>M29-$AA$3</f>
         <v>0.47199999999999953</v>
       </c>
-      <c r="N30" s="66">
+      <c r="N30" s="65">
         <f t="shared" si="3"/>
         <v>0.41450000000000053</v>
       </c>
-      <c r="O30" s="66">
+      <c r="O30" s="65">
         <f t="shared" si="10"/>
         <v>0.11349999999999998</v>
       </c>
-      <c r="P30" s="89">
+      <c r="P30" s="84">
         <v>0</v>
       </c>
-      <c r="Q30" s="74">
+      <c r="Q30" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R30" s="74"/>
+      <c r="R30" s="73"/>
     </row>
     <row r="31" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F31" s="11" t="s">
@@ -7045,40 +7098,40 @@
       <c r="G31" s="11">
         <v>2</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="46">
         <f t="shared" si="2"/>
         <v>29363.680071118597</v>
       </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47">
+      <c r="I31" s="46"/>
+      <c r="J31" s="46">
         <f t="shared" si="1"/>
         <v>29363.680071118597</v>
       </c>
-      <c r="K31" s="47"/>
-      <c r="L31" s="31">
+      <c r="K31" s="46"/>
+      <c r="L31" s="30">
         <f>L30*$W$3</f>
         <v>21453.443900596478</v>
       </c>
-      <c r="M31" s="66">
+      <c r="M31" s="65">
         <f>M30-$Z$3</f>
         <v>0.45199999999999951</v>
       </c>
-      <c r="N31" s="66">
+      <c r="N31" s="65">
         <f t="shared" si="3"/>
         <v>0.42300000000000049</v>
       </c>
-      <c r="O31" s="66">
+      <c r="O31" s="65">
         <f t="shared" si="10"/>
         <v>0.12499999999999997</v>
       </c>
-      <c r="P31" s="89">
+      <c r="P31" s="84">
         <v>0</v>
       </c>
-      <c r="Q31" s="74">
+      <c r="Q31" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R31" s="74"/>
+      <c r="R31" s="73"/>
     </row>
     <row r="32" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F32" s="11" t="s">
@@ -7087,40 +7140,40 @@
       <c r="G32" s="11">
         <v>3</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="46">
         <f t="shared" si="2"/>
         <v>35970.508087120281</v>
       </c>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47">
+      <c r="I32" s="46"/>
+      <c r="J32" s="46">
         <f t="shared" si="1"/>
         <v>35970.508087120281</v>
       </c>
-      <c r="K32" s="47"/>
-      <c r="L32" s="31">
+      <c r="K32" s="46"/>
+      <c r="L32" s="30">
         <f>L31*$W$3</f>
         <v>25744.132680715771</v>
       </c>
-      <c r="M32" s="66">
+      <c r="M32" s="65">
         <f>M31-$Z$3</f>
         <v>0.4319999999999995</v>
       </c>
-      <c r="N32" s="66">
+      <c r="N32" s="65">
         <f t="shared" si="3"/>
         <v>0.43150000000000055</v>
       </c>
-      <c r="O32" s="66">
+      <c r="O32" s="65">
         <f t="shared" si="10"/>
         <v>0.13649999999999998</v>
       </c>
-      <c r="P32" s="89">
+      <c r="P32" s="84">
         <v>0</v>
       </c>
-      <c r="Q32" s="74">
+      <c r="Q32" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R32" s="74"/>
+      <c r="R32" s="73"/>
     </row>
     <row r="33" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F33" s="12" t="s">
@@ -7129,46 +7182,46 @@
       <c r="G33" s="12">
         <v>1</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="47">
         <f t="shared" si="2"/>
         <v>44063.872406722345</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="47">
         <f>H33*$T$3</f>
         <v>78433.692883965778</v>
       </c>
-      <c r="J33" s="48">
+      <c r="J33" s="47">
         <f t="shared" si="1"/>
         <v>122497.56529068813</v>
       </c>
-      <c r="K33" s="48">
+      <c r="K33" s="47">
         <f>(I33+J33)*$U$3</f>
         <v>217005.75882862625</v>
       </c>
-      <c r="L33" s="32">
+      <c r="L33" s="31">
         <f>L32*$W$5</f>
         <v>34754.579118966292</v>
       </c>
-      <c r="M33" s="67">
+      <c r="M33" s="66">
         <f>M32-$AA$3</f>
         <v>0.40999999999999948</v>
       </c>
-      <c r="N33" s="67">
+      <c r="N33" s="66">
         <f t="shared" si="3"/>
         <v>0.4420000000000005</v>
       </c>
-      <c r="O33" s="67">
+      <c r="O33" s="66">
         <f t="shared" si="10"/>
         <v>0.14799999999999999</v>
       </c>
-      <c r="P33" s="90">
+      <c r="P33" s="85">
         <v>0</v>
       </c>
-      <c r="Q33" s="74">
+      <c r="Q33" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R33" s="74"/>
+      <c r="R33" s="73"/>
     </row>
     <row r="34" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F34" s="12" t="s">
@@ -7177,40 +7230,40 @@
       <c r="G34" s="12">
         <v>2</v>
       </c>
-      <c r="H34" s="48">
+      <c r="H34" s="47">
         <f t="shared" si="2"/>
         <v>53978.243698234874</v>
       </c>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48">
+      <c r="I34" s="47"/>
+      <c r="J34" s="47">
         <f t="shared" si="1"/>
         <v>53978.243698234874</v>
       </c>
-      <c r="K34" s="48"/>
-      <c r="L34" s="32">
+      <c r="K34" s="47"/>
+      <c r="L34" s="31">
         <f>L33*$W$3</f>
         <v>41705.494942759549</v>
       </c>
-      <c r="M34" s="67">
+      <c r="M34" s="66">
         <f>M33-$Z$3</f>
         <v>0.38999999999999946</v>
       </c>
-      <c r="N34" s="67">
+      <c r="N34" s="66">
         <f t="shared" si="3"/>
         <v>0.45050000000000057</v>
       </c>
-      <c r="O34" s="67">
+      <c r="O34" s="66">
         <f t="shared" si="10"/>
         <v>0.1595</v>
       </c>
-      <c r="P34" s="90">
+      <c r="P34" s="85">
         <v>0</v>
       </c>
-      <c r="Q34" s="74">
+      <c r="Q34" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R34" s="74"/>
+      <c r="R34" s="73"/>
     </row>
     <row r="35" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F35" s="12" t="s">
@@ -7219,40 +7272,40 @@
       <c r="G35" s="12">
         <v>3</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35" s="47">
         <f t="shared" si="2"/>
         <v>66123.348530337724</v>
       </c>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48">
+      <c r="I35" s="47"/>
+      <c r="J35" s="47">
         <f t="shared" si="1"/>
         <v>66123.348530337724</v>
       </c>
-      <c r="K35" s="48"/>
-      <c r="L35" s="32">
+      <c r="K35" s="47"/>
+      <c r="L35" s="31">
         <f>L34*$W$3</f>
         <v>50046.593931311458</v>
       </c>
-      <c r="M35" s="67">
+      <c r="M35" s="66">
         <f>M34-$Z$3</f>
         <v>0.36999999999999944</v>
       </c>
-      <c r="N35" s="67">
+      <c r="N35" s="66">
         <f t="shared" si="3"/>
         <v>0.45900000000000052</v>
       </c>
-      <c r="O35" s="67">
+      <c r="O35" s="66">
         <f t="shared" si="10"/>
         <v>0.17100000000000001</v>
       </c>
-      <c r="P35" s="90">
+      <c r="P35" s="85">
         <v>0</v>
       </c>
-      <c r="Q35" s="74">
+      <c r="Q35" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R35" s="74"/>
+      <c r="R35" s="73"/>
     </row>
     <row r="36" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F36" s="13" t="s">
@@ -7261,46 +7314,46 @@
       <c r="G36" s="13">
         <v>1</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="48">
         <f t="shared" si="2"/>
         <v>81001.101949663716</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="48">
         <f>H36*$T$3</f>
         <v>144181.96147040141</v>
       </c>
-      <c r="J36" s="49">
+      <c r="J36" s="48">
         <f t="shared" si="1"/>
         <v>225183.06342006513</v>
       </c>
-      <c r="K36" s="49">
+      <c r="K36" s="48">
         <f>(I36+J36)*$U$3</f>
         <v>398914.22688170389</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="32">
         <f>L35*$W$5</f>
         <v>67562.901807270478</v>
       </c>
-      <c r="M36" s="68">
+      <c r="M36" s="67">
         <f>M35-$AA$3</f>
         <v>0.34799999999999942</v>
       </c>
-      <c r="N36" s="68">
+      <c r="N36" s="67">
         <f t="shared" si="3"/>
         <v>0.46950000000000058</v>
       </c>
-      <c r="O36" s="68">
+      <c r="O36" s="67">
         <f t="shared" si="10"/>
         <v>0.18250000000000002</v>
       </c>
-      <c r="P36" s="91">
+      <c r="P36" s="86">
         <v>0</v>
       </c>
-      <c r="Q36" s="74">
+      <c r="Q36" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R36" s="74"/>
+      <c r="R36" s="73"/>
     </row>
     <row r="37" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F37" s="13" t="s">
@@ -7309,40 +7362,40 @@
       <c r="G37" s="13">
         <v>2</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="48">
         <f t="shared" si="2"/>
         <v>99226.349888338053</v>
       </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49">
+      <c r="I37" s="48"/>
+      <c r="J37" s="48">
         <f t="shared" si="1"/>
         <v>99226.349888338053</v>
       </c>
-      <c r="K37" s="49"/>
-      <c r="L37" s="33">
+      <c r="K37" s="48"/>
+      <c r="L37" s="32">
         <f>L36*$W$3</f>
         <v>81075.482168724571</v>
       </c>
-      <c r="M37" s="68">
+      <c r="M37" s="67">
         <f>M36-$Z$3</f>
         <v>0.3279999999999994</v>
       </c>
-      <c r="N37" s="68">
+      <c r="N37" s="67">
         <f t="shared" si="3"/>
         <v>0.47800000000000054</v>
       </c>
-      <c r="O37" s="68">
+      <c r="O37" s="67">
         <f t="shared" si="10"/>
         <v>0.19400000000000003</v>
       </c>
-      <c r="P37" s="91">
+      <c r="P37" s="86">
         <v>0</v>
       </c>
-      <c r="Q37" s="74">
+      <c r="Q37" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R37" s="74"/>
+      <c r="R37" s="73"/>
     </row>
     <row r="38" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F38" s="13" t="s">
@@ -7351,41 +7404,41 @@
       <c r="G38" s="13">
         <v>3</v>
       </c>
-      <c r="H38" s="49">
+      <c r="H38" s="48">
         <f t="shared" si="2"/>
         <v>121552.27861321412</v>
       </c>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49">
+      <c r="I38" s="48"/>
+      <c r="J38" s="48">
         <f t="shared" si="1"/>
         <v>121552.27861321412</v>
       </c>
-      <c r="K38" s="49"/>
-      <c r="L38" s="33">
+      <c r="K38" s="48"/>
+      <c r="L38" s="32">
         <f>L37*$W$3</f>
         <v>97290.578602469483</v>
       </c>
-      <c r="M38" s="68">
+      <c r="M38" s="67">
         <f>M37-$Z$3</f>
         <v>0.30799999999999939</v>
       </c>
-      <c r="N38" s="68">
+      <c r="N38" s="67">
         <f t="shared" si="3"/>
         <v>0.48150000000000059</v>
       </c>
-      <c r="O38" s="68">
+      <c r="O38" s="67">
         <f t="shared" si="10"/>
         <v>0.20550000000000004</v>
       </c>
-      <c r="P38" s="68">
+      <c r="P38" s="67">
         <f>AC5</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q38" s="74">
+      <c r="Q38" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R38" s="74"/>
+      <c r="R38" s="73"/>
     </row>
     <row r="39" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F39" s="14" t="s">
@@ -7394,47 +7447,47 @@
       <c r="G39" s="14">
         <v>1</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39" s="49">
         <f t="shared" si="2"/>
         <v>148901.5413011873</v>
       </c>
-      <c r="I39" s="50">
+      <c r="I39" s="49">
         <f>H39*$T$3</f>
         <v>265044.74351611338</v>
       </c>
-      <c r="J39" s="50">
+      <c r="J39" s="49">
         <f t="shared" si="1"/>
         <v>413946.28481730068</v>
       </c>
-      <c r="K39" s="50">
+      <c r="K39" s="49">
         <f>(I39+J39)*$U$3</f>
         <v>733310.31060008728</v>
       </c>
-      <c r="L39" s="34">
+      <c r="L39" s="33">
         <f>L38*$W$5</f>
         <v>131342.2811133338</v>
       </c>
-      <c r="M39" s="69">
+      <c r="M39" s="68">
         <f>M38-$AA$3</f>
         <v>0.28599999999999937</v>
       </c>
-      <c r="N39" s="69">
+      <c r="N39" s="68">
         <f t="shared" si="3"/>
         <v>0.47700000000000053</v>
       </c>
-      <c r="O39" s="69">
+      <c r="O39" s="68">
         <f t="shared" si="10"/>
         <v>0.21700000000000005</v>
       </c>
-      <c r="P39" s="69">
+      <c r="P39" s="68">
         <f>(P38+$AC$3)</f>
         <v>0.02</v>
       </c>
-      <c r="Q39" s="74">
+      <c r="Q39" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R39" s="74"/>
+      <c r="R39" s="73"/>
     </row>
     <row r="40" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F40" s="14" t="s">
@@ -7443,41 +7496,41 @@
       <c r="G40" s="14">
         <v>2</v>
       </c>
-      <c r="H40" s="50">
+      <c r="H40" s="49">
         <f t="shared" si="2"/>
         <v>182404.38809395445</v>
       </c>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50">
+      <c r="I40" s="49"/>
+      <c r="J40" s="49">
         <f t="shared" si="1"/>
         <v>182404.38809395445</v>
       </c>
-      <c r="K40" s="50"/>
-      <c r="L40" s="34">
+      <c r="K40" s="49"/>
+      <c r="L40" s="33">
         <f>L39*$W$3</f>
         <v>157610.73733600054</v>
       </c>
-      <c r="M40" s="69">
+      <c r="M40" s="68">
         <f>M39-$Z$3</f>
         <v>0.26599999999999935</v>
       </c>
-      <c r="N40" s="69">
+      <c r="N40" s="68">
         <f t="shared" si="3"/>
         <v>0.47050000000000058</v>
       </c>
-      <c r="O40" s="69">
+      <c r="O40" s="68">
         <f t="shared" si="10"/>
         <v>0.22850000000000006</v>
       </c>
-      <c r="P40" s="69">
+      <c r="P40" s="68">
         <f t="shared" ref="P40:P51" si="11">(P39+$AC$3)</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Q40" s="74">
+      <c r="Q40" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R40" s="74"/>
+      <c r="R40" s="73"/>
     </row>
     <row r="41" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F41" s="14" t="s">
@@ -7486,41 +7539,41 @@
       <c r="G41" s="14">
         <v>3</v>
       </c>
-      <c r="H41" s="50">
+      <c r="H41" s="49">
         <f t="shared" si="2"/>
         <v>223445.37541509423</v>
       </c>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50">
+      <c r="I41" s="49"/>
+      <c r="J41" s="49">
         <f t="shared" si="1"/>
         <v>223445.37541509423</v>
       </c>
-      <c r="K41" s="50"/>
-      <c r="L41" s="34">
+      <c r="K41" s="49"/>
+      <c r="L41" s="33">
         <f>L40*$W$3</f>
         <v>189132.88480320064</v>
       </c>
-      <c r="M41" s="69">
+      <c r="M41" s="68">
         <f>M40-$Z$3</f>
         <v>0.24599999999999936</v>
       </c>
-      <c r="N41" s="69">
+      <c r="N41" s="68">
         <f t="shared" si="3"/>
         <v>0.46400000000000052</v>
       </c>
-      <c r="O41" s="69">
+      <c r="O41" s="68">
         <f t="shared" si="10"/>
         <v>0.24000000000000007</v>
       </c>
-      <c r="P41" s="69">
+      <c r="P41" s="68">
         <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
-      <c r="Q41" s="74">
+      <c r="Q41" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R41" s="74"/>
+      <c r="R41" s="73"/>
     </row>
     <row r="42" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F42" s="15" t="s">
@@ -7529,47 +7582,47 @@
       <c r="G42" s="15">
         <v>1</v>
       </c>
-      <c r="H42" s="51">
+      <c r="H42" s="50">
         <f t="shared" si="2"/>
         <v>273720.58488349046</v>
       </c>
-      <c r="I42" s="51">
+      <c r="I42" s="50">
         <f>H42*$T$3</f>
         <v>487222.64109261305</v>
       </c>
-      <c r="J42" s="51">
+      <c r="J42" s="50">
         <f t="shared" si="1"/>
         <v>760943.22597610345</v>
       </c>
-      <c r="K42" s="51">
+      <c r="K42" s="50">
         <f>(I42+J42)*$U$3</f>
         <v>1348019.136434214</v>
       </c>
-      <c r="L42" s="35">
+      <c r="L42" s="34">
         <f>L41*$W$5</f>
         <v>255329.39448432089</v>
       </c>
-      <c r="M42" s="70">
+      <c r="M42" s="69">
         <f>M41-$AA$3</f>
         <v>0.22399999999999937</v>
       </c>
-      <c r="N42" s="70">
+      <c r="N42" s="69">
         <f t="shared" si="3"/>
         <v>0.45950000000000057</v>
       </c>
-      <c r="O42" s="70">
+      <c r="O42" s="69">
         <f t="shared" si="10"/>
         <v>0.25150000000000006</v>
       </c>
-      <c r="P42" s="70">
+      <c r="P42" s="69">
         <f t="shared" si="11"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="Q42" s="74">
+      <c r="Q42" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R42" s="74"/>
+      <c r="R42" s="73"/>
     </row>
     <row r="43" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F43" s="15" t="s">
@@ -7578,41 +7631,41 @@
       <c r="G43" s="15">
         <v>2</v>
       </c>
-      <c r="H43" s="51">
+      <c r="H43" s="50">
         <f t="shared" si="2"/>
         <v>335307.71648227586</v>
       </c>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51">
+      <c r="I43" s="50"/>
+      <c r="J43" s="50">
         <f t="shared" si="1"/>
         <v>335307.71648227586</v>
       </c>
-      <c r="K43" s="51"/>
-      <c r="L43" s="35">
+      <c r="K43" s="50"/>
+      <c r="L43" s="34">
         <f>L42*$W$3</f>
         <v>306395.27338118508</v>
       </c>
-      <c r="M43" s="70">
+      <c r="M43" s="69">
         <f>M42-$Z$3</f>
         <v>0.20399999999999938</v>
       </c>
-      <c r="N43" s="70">
+      <c r="N43" s="69">
         <f t="shared" si="3"/>
         <v>0.45300000000000062</v>
       </c>
-      <c r="O43" s="70">
+      <c r="O43" s="69">
         <f t="shared" si="10"/>
         <v>0.26300000000000007</v>
       </c>
-      <c r="P43" s="70">
+      <c r="P43" s="69">
         <f t="shared" si="11"/>
         <v>0.08</v>
       </c>
-      <c r="Q43" s="74">
+      <c r="Q43" s="73">
         <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="R43" s="74"/>
+      <c r="R43" s="73"/>
     </row>
     <row r="44" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F44" s="15" t="s">
@@ -7621,41 +7674,41 @@
       <c r="G44" s="15">
         <v>3</v>
       </c>
-      <c r="H44" s="51">
+      <c r="H44" s="50">
         <f t="shared" si="2"/>
         <v>410751.95269078796</v>
       </c>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51">
+      <c r="I44" s="50"/>
+      <c r="J44" s="50">
         <f t="shared" si="1"/>
         <v>410751.95269078796</v>
       </c>
-      <c r="K44" s="51"/>
-      <c r="L44" s="35">
+      <c r="K44" s="50"/>
+      <c r="L44" s="34">
         <f>L43*$W$3</f>
         <v>367674.32805742207</v>
       </c>
-      <c r="M44" s="70">
+      <c r="M44" s="69">
         <f>M43-$Z$3</f>
         <v>0.18399999999999939</v>
       </c>
-      <c r="N44" s="70">
+      <c r="N44" s="69">
         <f t="shared" si="3"/>
         <v>0.44650000000000056</v>
       </c>
-      <c r="O44" s="70">
+      <c r="O44" s="69">
         <f t="shared" si="10"/>
         <v>0.27450000000000008</v>
       </c>
-      <c r="P44" s="70">
+      <c r="P44" s="69">
         <f t="shared" si="11"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="Q44" s="74">
+      <c r="Q44" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R44" s="74"/>
+      <c r="R44" s="73"/>
     </row>
     <row r="45" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F45" s="16" t="s">
@@ -7664,47 +7717,47 @@
       <c r="G45" s="16">
         <v>1</v>
       </c>
-      <c r="H45" s="52">
+      <c r="H45" s="51">
         <f t="shared" si="2"/>
         <v>503171.1420462153</v>
       </c>
-      <c r="I45" s="52">
+      <c r="I45" s="51">
         <f>H45*$T$3</f>
         <v>895644.63284226321</v>
       </c>
-      <c r="J45" s="52">
+      <c r="J45" s="51">
         <f t="shared" si="1"/>
         <v>1398815.7748884785</v>
       </c>
-      <c r="K45" s="52">
+      <c r="K45" s="51">
         <f>(I45+J45)*$U$3</f>
         <v>2478017.240349201</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="35">
         <f>L44*$W$5</f>
         <v>496360.34287751984</v>
       </c>
-      <c r="M45" s="71">
+      <c r="M45" s="70">
         <f>M44-$AA$3</f>
         <v>0.16199999999999939</v>
       </c>
-      <c r="N45" s="71">
+      <c r="N45" s="70">
         <f t="shared" si="3"/>
         <v>0.4420000000000005</v>
       </c>
-      <c r="O45" s="71">
+      <c r="O45" s="70">
         <f t="shared" si="10"/>
         <v>0.28600000000000009</v>
       </c>
-      <c r="P45" s="71">
+      <c r="P45" s="70">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="Q45" s="74">
+      <c r="Q45" s="73">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="R45" s="74"/>
+      <c r="R45" s="73"/>
     </row>
     <row r="46" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F46" s="16" t="s">
@@ -7713,41 +7766,41 @@
       <c r="G46" s="16">
         <v>2</v>
       </c>
-      <c r="H46" s="52">
+      <c r="H46" s="51">
         <f t="shared" si="2"/>
         <v>616384.64900661376</v>
       </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52">
+      <c r="I46" s="51"/>
+      <c r="J46" s="51">
         <f t="shared" si="1"/>
         <v>616384.64900661376</v>
       </c>
-      <c r="K46" s="52"/>
-      <c r="L46" s="36">
+      <c r="K46" s="51"/>
+      <c r="L46" s="35">
         <f>L45*$W$3</f>
         <v>595632.41145302379</v>
       </c>
-      <c r="M46" s="71">
+      <c r="M46" s="70">
         <f>M45-$Z$3</f>
         <v>0.1419999999999994</v>
       </c>
-      <c r="N46" s="71">
+      <c r="N46" s="70">
         <f t="shared" si="3"/>
         <v>0.43550000000000044</v>
       </c>
-      <c r="O46" s="71">
+      <c r="O46" s="70">
         <f t="shared" si="10"/>
         <v>0.2975000000000001</v>
       </c>
-      <c r="P46" s="71">
+      <c r="P46" s="70">
         <f t="shared" si="11"/>
         <v>0.125</v>
       </c>
-      <c r="Q46" s="74">
+      <c r="Q46" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R46" s="74"/>
+      <c r="R46" s="73"/>
     </row>
     <row r="47" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F47" s="16" t="s">
@@ -7756,41 +7809,41 @@
       <c r="G47" s="16">
         <v>3</v>
       </c>
-      <c r="H47" s="52">
+      <c r="H47" s="51">
         <f t="shared" si="2"/>
         <v>755071.19503310195</v>
       </c>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52">
+      <c r="I47" s="51"/>
+      <c r="J47" s="51">
         <f t="shared" si="1"/>
         <v>755071.19503310195</v>
       </c>
-      <c r="K47" s="52"/>
-      <c r="L47" s="36">
+      <c r="K47" s="51"/>
+      <c r="L47" s="35">
         <f>L46*$W$3</f>
         <v>714758.89374362852</v>
       </c>
-      <c r="M47" s="71">
+      <c r="M47" s="70">
         <f>M46-$Z$3</f>
         <v>0.1219999999999994</v>
       </c>
-      <c r="N47" s="71">
+      <c r="N47" s="70">
         <f t="shared" si="3"/>
         <v>0.42900000000000049</v>
       </c>
-      <c r="O47" s="71">
+      <c r="O47" s="70">
         <f t="shared" si="10"/>
         <v>0.30900000000000011</v>
       </c>
-      <c r="P47" s="71">
+      <c r="P47" s="70">
         <f t="shared" si="11"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q47" s="74">
+      <c r="Q47" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R47" s="74"/>
+      <c r="R47" s="73"/>
     </row>
     <row r="48" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F48" s="17" t="s">
@@ -7799,47 +7852,47 @@
       <c r="G48" s="17">
         <v>1</v>
       </c>
-      <c r="H48" s="53">
+      <c r="H48" s="52">
         <f t="shared" si="2"/>
         <v>924962.21391554992</v>
       </c>
-      <c r="I48" s="53">
+      <c r="I48" s="52">
         <f>H48*$T$3</f>
         <v>1646432.740769679</v>
       </c>
-      <c r="J48" s="53">
+      <c r="J48" s="52">
         <f t="shared" si="1"/>
         <v>2571394.9546852289</v>
       </c>
-      <c r="K48" s="53">
+      <c r="K48" s="52">
         <f>(I48+J48)*$U$3</f>
         <v>4555253.9110913007</v>
       </c>
-      <c r="L48" s="37">
+      <c r="L48" s="36">
         <f>L47*$W$5</f>
         <v>964924.50655389857</v>
       </c>
-      <c r="M48" s="72">
+      <c r="M48" s="71">
         <f>M47-$AA$3</f>
         <v>9.9999999999999395E-2</v>
       </c>
-      <c r="N48" s="81">
+      <c r="N48" s="76">
         <f t="shared" si="3"/>
         <v>0.42450000000000043</v>
       </c>
-      <c r="O48" s="81">
+      <c r="O48" s="76">
         <f t="shared" si="10"/>
         <v>0.32050000000000012</v>
       </c>
-      <c r="P48" s="81">
+      <c r="P48" s="76">
         <f t="shared" si="11"/>
         <v>0.15500000000000003</v>
       </c>
-      <c r="Q48" s="74">
+      <c r="Q48" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R48" s="74"/>
+      <c r="R48" s="73"/>
     </row>
     <row r="49" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F49" s="17" t="s">
@@ -7848,47 +7901,47 @@
       <c r="G49" s="17">
         <v>1</v>
       </c>
-      <c r="H49" s="53">
+      <c r="H49" s="52">
         <f t="shared" si="2"/>
         <v>1133078.7120465487</v>
       </c>
-      <c r="I49" s="53">
+      <c r="I49" s="52">
         <f>H49*$T$3</f>
         <v>2016880.1074428568</v>
       </c>
-      <c r="J49" s="53">
+      <c r="J49" s="52">
         <f t="shared" si="1"/>
         <v>3149958.8194894055</v>
       </c>
-      <c r="K49" s="53">
+      <c r="K49" s="52">
         <f>(I49+J49)*$U$3</f>
         <v>5580186.0410868432</v>
       </c>
-      <c r="L49" s="37">
+      <c r="L49" s="36">
         <f>L48*$W$5</f>
         <v>1302648.0838477632</v>
       </c>
-      <c r="M49" s="72">
+      <c r="M49" s="71">
         <f t="shared" ref="M49:M51" si="12">M48-$AA$3</f>
         <v>7.7999999999999403E-2</v>
       </c>
-      <c r="N49" s="81">
+      <c r="N49" s="76">
         <f t="shared" si="3"/>
         <v>0.42000000000000037</v>
       </c>
-      <c r="O49" s="81">
+      <c r="O49" s="76">
         <f t="shared" si="10"/>
         <v>0.33200000000000013</v>
       </c>
-      <c r="P49" s="81">
+      <c r="P49" s="76">
         <f t="shared" si="11"/>
         <v>0.17000000000000004</v>
       </c>
-      <c r="Q49" s="74">
+      <c r="Q49" s="73">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="R49" s="74"/>
+      <c r="R49" s="73"/>
     </row>
     <row r="50" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F50" s="17" t="s">
@@ -7897,47 +7950,47 @@
       <c r="G50" s="17">
         <v>1</v>
       </c>
-      <c r="H50" s="53">
+      <c r="H50" s="52">
         <f t="shared" si="2"/>
         <v>1388021.4222570222</v>
       </c>
-      <c r="I50" s="53">
+      <c r="I50" s="52">
         <f>H50*$T$3</f>
         <v>2470678.1316174995</v>
       </c>
-      <c r="J50" s="53">
+      <c r="J50" s="52">
         <f t="shared" si="1"/>
         <v>3858699.5538745215</v>
       </c>
-      <c r="K50" s="53">
+      <c r="K50" s="52">
         <f>(I50+J50)*$U$3</f>
         <v>6835727.9003313836</v>
       </c>
-      <c r="L50" s="37">
+      <c r="L50" s="36">
         <f>L49*$W$5</f>
         <v>1758574.9131944806</v>
       </c>
-      <c r="M50" s="72">
+      <c r="M50" s="71">
         <f t="shared" si="12"/>
         <v>5.5999999999999404E-2</v>
       </c>
-      <c r="N50" s="81">
+      <c r="N50" s="76">
         <f t="shared" si="3"/>
         <v>0.41550000000000042</v>
       </c>
-      <c r="O50" s="81">
+      <c r="O50" s="76">
         <f t="shared" si="10"/>
         <v>0.34350000000000014</v>
       </c>
-      <c r="P50" s="81">
+      <c r="P50" s="76">
         <f t="shared" si="11"/>
         <v>0.18500000000000005</v>
       </c>
-      <c r="Q50" s="74">
+      <c r="Q50" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R50" s="74"/>
+      <c r="R50" s="73"/>
     </row>
     <row r="51" spans="6:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F51" s="18" t="s">
@@ -7946,69 +7999,69 @@
       <c r="G51" s="18">
         <v>1</v>
       </c>
-      <c r="H51" s="54">
+      <c r="H51" s="53">
         <f t="shared" si="2"/>
         <v>1700326.2422648524</v>
       </c>
-      <c r="I51" s="54">
+      <c r="I51" s="53">
         <f>H51*$T$3</f>
         <v>3026580.7112314375</v>
       </c>
-      <c r="J51" s="54">
+      <c r="J51" s="53">
         <f t="shared" si="1"/>
         <v>4726906.9534962904</v>
       </c>
-      <c r="K51" s="54">
+      <c r="K51" s="53">
         <f>(I51+J51)*$U$3</f>
         <v>8373766.677905947</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L51" s="37">
         <f>L50*$W$5</f>
         <v>2374076.1328125489</v>
       </c>
-      <c r="M51" s="73">
+      <c r="M51" s="72">
         <f t="shared" si="12"/>
         <v>3.3999999999999406E-2</v>
       </c>
-      <c r="N51" s="92">
+      <c r="N51" s="87">
         <f>100%-(M51+O51+P51)</f>
         <v>0.41100000000000037</v>
       </c>
-      <c r="O51" s="92">
+      <c r="O51" s="87">
         <f t="shared" si="10"/>
         <v>0.35500000000000015</v>
       </c>
-      <c r="P51" s="92">
+      <c r="P51" s="87">
         <f t="shared" si="11"/>
         <v>0.20000000000000007</v>
       </c>
-      <c r="Q51" s="74">
+      <c r="Q51" s="73">
         <f>SUM(M51:P51)</f>
         <v>1</v>
       </c>
-      <c r="R51" s="74"/>
+      <c r="R51" s="73"/>
     </row>
     <row r="52" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="G52" s="56" t="s">
+      <c r="G52" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H52" s="57">
+      <c r="H52" s="56">
         <f>SUM(H3:H51)</f>
         <v>9256887.3189975265</v>
       </c>
-      <c r="I52" s="57">
+      <c r="I52" s="56">
         <f>SUM(I3:I51)</f>
         <v>11120924.954323795</v>
       </c>
-      <c r="J52" s="57">
+      <c r="J52" s="56">
         <f>SUM(J3:J51)</f>
         <v>20377812.273321323</v>
       </c>
-      <c r="K52" s="57">
+      <c r="K52" s="56">
         <f>SUM(K3:K51)</f>
         <v>30756405.637591593</v>
       </c>
-      <c r="L52" s="57">
+      <c r="L52" s="56">
         <f>SUM(L3:L51)</f>
         <v>10123359.998018922</v>
       </c>
@@ -8030,10 +8083,16 @@
     <mergeCell ref="V15:W15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F2:P51">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ROW()=CELL("ROW")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="L11 L17 L24:M24 L27:M27 L30:M30 L33:M33 L36:M36 L39:M39 L42:M42 L45:M45 M21" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A31794-C9D0-4393-84E5-452AB166537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC02B98-901B-4B78-A932-A301D1835694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,56 +651,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -5676,7 +5627,7 @@
   <dimension ref="F1:AC58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORYOUCOM\Desktop\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A31794-C9D0-4393-84E5-452AB166537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E9E9B6-F1DD-4AD6-82C6-8BC595BB3486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -651,56 +640,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -5676,7 +5616,7 @@
   <dimension ref="F1:AC58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6131,7 +6071,7 @@
       <c r="U9" s="92"/>
       <c r="V9" s="93">
         <f>SUM(J3:J20)</f>
-        <v>21158.478446091838</v>
+        <v>16394.71664409509</v>
       </c>
       <c r="W9" s="92"/>
     </row>
@@ -6231,7 +6171,7 @@
       <c r="U11" s="92"/>
       <c r="V11" s="93">
         <f>SUM(J3:J29)</f>
-        <v>153248.81577491676</v>
+        <v>148485.05397292</v>
       </c>
       <c r="W11" s="92"/>
     </row>
@@ -6328,7 +6268,7 @@
       <c r="U13" s="92"/>
       <c r="V13" s="93">
         <f>SUM(J3:J47)</f>
-        <v>6070851.991775875</v>
+        <v>6066088.2299738787</v>
       </c>
       <c r="W13" s="92"/>
     </row>
@@ -6425,7 +6365,7 @@
       <c r="U15" s="92"/>
       <c r="V15" s="93">
         <f>SUM(J3:J51)</f>
-        <v>20377812.273321323</v>
+        <v>20373048.511519328</v>
       </c>
       <c r="W15" s="92"/>
     </row>
@@ -6487,10 +6427,7 @@
         <f>H17*$T$3</f>
         <v>3050.1784199835288</v>
       </c>
-      <c r="J17" s="42">
-        <f t="shared" si="1"/>
-        <v>4763.7618019967467</v>
-      </c>
+      <c r="J17" s="42"/>
       <c r="K17" s="42">
         <v>0</v>
       </c>
@@ -8055,7 +7992,7 @@
       </c>
       <c r="J52" s="56">
         <f>SUM(J3:J51)</f>
-        <v>20377812.273321323</v>
+        <v>20373048.511519328</v>
       </c>
       <c r="K52" s="56">
         <f>SUM(K3:K51)</f>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC02B98-901B-4B78-A932-A301D1835694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240120D6-0864-40FA-8724-0AE179A92A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -809,7 +809,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$3:$F$51</c:f>
+              <c:f>Sheet1!$F$2:$F$50</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -964,7 +964,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$51</c:f>
+              <c:f>Sheet1!$L$2:$L$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="49"/>
@@ -1398,7 +1398,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$3</c:f>
+              <c:f>Sheet1!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1448,7 +1448,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$4:$F$51</c:f>
+              <c:f>Sheet1!$F$3:$F$50</c:f>
               <c:strCache>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
@@ -1600,7 +1600,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$4:$N$51</c:f>
+              <c:f>Sheet1!$N$3:$N$50</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="48"/>
@@ -2031,7 +2031,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$3</c:f>
+              <c:f>Sheet1!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2081,7 +2081,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$4:$F$51</c:f>
+              <c:f>Sheet1!$F$3:$F$50</c:f>
               <c:strCache>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
@@ -2233,7 +2233,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$M$51</c:f>
+              <c:f>Sheet1!$M$3:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="48"/>
@@ -4183,289 +4183,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5669EE-5045-DCC4-EED6-407F64C5C110}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3417794" y="0"/>
-          <a:ext cx="9177618" cy="224118"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>계급 별 확률</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> &amp; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>계급 별 금액</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> 계산</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203740C9-27A9-457D-9E82-911DF9AEB4AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9086022" y="0"/>
-          <a:ext cx="3801717" cy="215348"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>증가 배율</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3374D2F-52B3-410B-9B8C-222E1D70B4AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16109674" y="0"/>
-          <a:ext cx="3843130" cy="215348"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>감소 배율</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4495,13 +4221,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4591,13 +4317,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4687,13 +4413,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4783,13 +4509,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4879,13 +4605,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1095374</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4972,13 +4698,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5077,13 +4803,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>684608</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>220265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1095374</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5182,13 +4908,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1093938</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5287,13 +5013,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5323,13 +5049,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5624,10 +5350,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="F1:AC58"/>
+  <dimension ref="F1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5643,183 +5371,239 @@
     <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="75"/>
+      <c r="S1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="2" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38">
+        <v>100</v>
+      </c>
+      <c r="I2" s="38">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="38">
+        <f>H2+I2</f>
+        <v>100</v>
+      </c>
+      <c r="K2" s="38">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22">
+        <v>0</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="73">
+        <f t="shared" ref="Q2:Q49" si="0">SUM(M2:P2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="73"/>
+      <c r="S2" s="1">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="V2" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="W2" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="Y2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>36</v>
+      <c r="Z2" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="AA2" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AB2" s="74">
+        <v>1.15E-2</v>
+      </c>
+      <c r="AC2" s="74">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="39">
+        <f>H2*$S$2</f>
+        <v>122.50000000000001</v>
+      </c>
+      <c r="I3" s="39">
+        <v>0</v>
+      </c>
+      <c r="J3" s="39">
+        <f t="shared" ref="J3:J50" si="1">H3+I3</f>
+        <v>122.50000000000001</v>
+      </c>
+      <c r="K3" s="39">
+        <v>0</v>
+      </c>
+      <c r="L3" s="23">
+        <v>150</v>
+      </c>
+      <c r="M3" s="58">
         <v>1</v>
       </c>
-      <c r="H3" s="38">
-        <v>100</v>
-      </c>
-      <c r="I3" s="38">
+      <c r="N3" s="58">
+        <f>100%-(M3+O3+P3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="38">
-        <f>H3+I3</f>
-        <v>100</v>
-      </c>
-      <c r="K3" s="38">
+      <c r="O3" s="77">
         <v>0</v>
       </c>
-      <c r="L3" s="22">
+      <c r="P3" s="77">
         <v>0</v>
       </c>
-      <c r="M3" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="57" t="s">
-        <v>32</v>
-      </c>
       <c r="Q3" s="73">
-        <f t="shared" ref="Q3:Q50" si="0">SUM(M3:P3)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="R3" s="73"/>
-      <c r="S3" s="1">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1.78</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1.08</v>
-      </c>
-      <c r="V3" s="21">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="W3" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="AA3" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="AB3" s="74">
-        <v>1.15E-2</v>
-      </c>
-      <c r="AC3" s="74">
-        <v>1.4999999999999999E-2</v>
+      <c r="V3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="39">
-        <f>H3*$S$3</f>
-        <v>122.50000000000001</v>
-      </c>
-      <c r="I4" s="39">
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="40">
+        <f t="shared" ref="H4:H50" si="2">H3*$S$2</f>
+        <v>150.06250000000003</v>
+      </c>
+      <c r="I4" s="40">
+        <v>500</v>
+      </c>
+      <c r="J4" s="40">
+        <f t="shared" si="1"/>
+        <v>650.0625</v>
+      </c>
+      <c r="K4" s="40">
         <v>0</v>
       </c>
-      <c r="J4" s="39">
-        <f t="shared" ref="J4:J51" si="1">H4+I4</f>
-        <v>122.50000000000001</v>
-      </c>
-      <c r="K4" s="39">
+      <c r="L4" s="24">
+        <f>L3*$V$4</f>
+        <v>187.5</v>
+      </c>
+      <c r="M4" s="59">
+        <f>M3-$Z$2</f>
+        <v>0.98</v>
+      </c>
+      <c r="N4" s="59">
+        <f t="shared" ref="N4:N49" si="3">100%-(M4+O4+P4)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="O4" s="78">
         <v>0</v>
       </c>
-      <c r="L4" s="23">
-        <v>150</v>
-      </c>
-      <c r="M4" s="58">
-        <v>1</v>
-      </c>
-      <c r="N4" s="58">
-        <f>100%-(M4+O4+P4)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="77">
-        <v>0</v>
-      </c>
-      <c r="P4" s="77">
+      <c r="P4" s="78">
         <v>0</v>
       </c>
       <c r="Q4" s="73">
@@ -5827,51 +5611,52 @@
         <v>1</v>
       </c>
       <c r="R4" s="73"/>
-      <c r="V4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>37</v>
+      <c r="S4" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="21">
+        <v>1.25</v>
+      </c>
+      <c r="W4" s="21">
+        <v>1.35</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AC4" s="74">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="6:29" x14ac:dyDescent="0.3">
       <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="40">
-        <f t="shared" ref="H5:H51" si="2">H4*$S$3</f>
-        <v>150.06250000000003</v>
-      </c>
-      <c r="I5" s="40">
-        <v>500</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>183.82656250000005</v>
+      </c>
+      <c r="I5" s="40"/>
       <c r="J5" s="40">
         <f t="shared" si="1"/>
-        <v>650.0625</v>
+        <v>183.82656250000005</v>
       </c>
       <c r="K5" s="40">
         <v>0</v>
       </c>
       <c r="L5" s="24">
-        <f>L4*$V$5</f>
-        <v>187.5</v>
+        <f>L4*$V$2</f>
+        <v>215.62499999999997</v>
       </c>
       <c r="M5" s="59">
-        <f>M4-$Z$3</f>
-        <v>0.98</v>
+        <f t="shared" ref="M5:M9" si="4">M4-$Z$2</f>
+        <v>0.96</v>
       </c>
       <c r="N5" s="59">
-        <f t="shared" ref="N5:N50" si="3">100%-(M5+O5+P5)</f>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="O5" s="78">
         <v>0</v>
@@ -5884,20 +5669,8 @@
         <v>1</v>
       </c>
       <c r="R5" s="73"/>
-      <c r="S5" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5" s="21">
-        <v>1.25</v>
-      </c>
-      <c r="W5" s="21">
-        <v>1.35</v>
-      </c>
-      <c r="AB5" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="AC5" s="74">
-        <v>5.0000000000000001E-3</v>
+      <c r="S5" s="89" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="6:29" x14ac:dyDescent="0.3">
@@ -5905,31 +5678,31 @@
         <v>6</v>
       </c>
       <c r="G6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="40">
         <f t="shared" si="2"/>
-        <v>183.82656250000005</v>
+        <v>225.18753906250006</v>
       </c>
       <c r="I6" s="40"/>
       <c r="J6" s="40">
         <f t="shared" si="1"/>
-        <v>183.82656250000005</v>
+        <v>225.18753906250006</v>
       </c>
       <c r="K6" s="40">
         <v>0</v>
       </c>
       <c r="L6" s="24">
-        <f>L5*$V$3</f>
-        <v>215.62499999999997</v>
+        <f t="shared" ref="L6:L9" si="5">L5*$V$2</f>
+        <v>247.96874999999994</v>
       </c>
       <c r="M6" s="59">
-        <f t="shared" ref="M6:M10" si="4">M5-$Z$3</f>
-        <v>0.96</v>
+        <f t="shared" si="4"/>
+        <v>0.94</v>
       </c>
       <c r="N6" s="59">
         <f t="shared" si="3"/>
-        <v>4.0000000000000036E-2</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="O6" s="78">
         <v>0</v>
@@ -5942,40 +5715,37 @@
         <v>1</v>
       </c>
       <c r="R6" s="73"/>
-      <c r="S6" s="89" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="7" spans="6:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="40">
         <f t="shared" si="2"/>
-        <v>225.18753906250006</v>
+        <v>275.85473535156262</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="40">
         <f t="shared" si="1"/>
-        <v>225.18753906250006</v>
+        <v>275.85473535156262</v>
       </c>
       <c r="K7" s="40">
         <v>0</v>
       </c>
       <c r="L7" s="24">
-        <f t="shared" ref="L7:L10" si="5">L6*$V$3</f>
-        <v>247.96874999999994</v>
+        <f t="shared" si="5"/>
+        <v>285.16406249999989</v>
       </c>
       <c r="M7" s="59">
         <f t="shared" si="4"/>
-        <v>0.94</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="N7" s="59">
         <f t="shared" si="3"/>
-        <v>6.0000000000000053E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="O7" s="78">
         <v>0</v>
@@ -5994,31 +5764,31 @@
         <v>6</v>
       </c>
       <c r="G8" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="40">
         <f t="shared" si="2"/>
-        <v>275.85473535156262</v>
+        <v>337.92205080566424</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="40">
         <f t="shared" si="1"/>
-        <v>275.85473535156262</v>
+        <v>337.92205080566424</v>
       </c>
       <c r="K8" s="40">
         <v>0</v>
       </c>
       <c r="L8" s="24">
         <f t="shared" si="5"/>
-        <v>285.16406249999989</v>
+        <v>327.93867187499984</v>
       </c>
       <c r="M8" s="59">
         <f t="shared" si="4"/>
-        <v>0.91999999999999993</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="N8" s="59">
         <f t="shared" si="3"/>
-        <v>8.0000000000000071E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="O8" s="78">
         <v>0</v>
@@ -6031,37 +5801,48 @@
         <v>1</v>
       </c>
       <c r="R8" s="73"/>
+      <c r="S8" s="90">
+        <f>SUM(L2:L19)</f>
+        <v>11836.199776625674</v>
+      </c>
+      <c r="T8" s="91"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="93">
+        <f>SUM(J2:J19)</f>
+        <v>21158.478446091838</v>
+      </c>
+      <c r="W8" s="92"/>
     </row>
     <row r="9" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="40">
         <f t="shared" si="2"/>
-        <v>337.92205080566424</v>
+        <v>413.95451223693874</v>
       </c>
       <c r="I9" s="40"/>
       <c r="J9" s="40">
         <f t="shared" si="1"/>
-        <v>337.92205080566424</v>
+        <v>413.95451223693874</v>
       </c>
       <c r="K9" s="40">
         <v>0</v>
       </c>
       <c r="L9" s="24">
         <f t="shared" si="5"/>
-        <v>327.93867187499984</v>
+        <v>377.12947265624979</v>
       </c>
       <c r="M9" s="59">
         <f t="shared" si="4"/>
-        <v>0.89999999999999991</v>
+        <v>0.87999999999999989</v>
       </c>
       <c r="N9" s="59">
         <f t="shared" si="3"/>
-        <v>0.10000000000000009</v>
+        <v>0.12000000000000011</v>
       </c>
       <c r="O9" s="78">
         <v>0</v>
@@ -6074,53 +5855,45 @@
         <v>1</v>
       </c>
       <c r="R9" s="73"/>
-      <c r="S9" s="90">
-        <f>SUM(L3:L20)</f>
-        <v>11836.199776625674</v>
-      </c>
-      <c r="T9" s="91"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="93">
-        <f>SUM(J3:J20)</f>
-        <v>21158.478446091838</v>
-      </c>
-      <c r="W9" s="92"/>
     </row>
     <row r="10" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="5">
-        <v>6</v>
-      </c>
-      <c r="H10" s="40">
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="41">
         <f t="shared" si="2"/>
-        <v>413.95451223693874</v>
-      </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40">
+        <v>507.09427749024997</v>
+      </c>
+      <c r="I10" s="41">
+        <f>H10*$T$2</f>
+        <v>902.62781393264493</v>
+      </c>
+      <c r="J10" s="41">
         <f t="shared" si="1"/>
-        <v>413.95451223693874</v>
-      </c>
-      <c r="K10" s="40">
+        <v>1409.7220914228949</v>
+      </c>
+      <c r="K10" s="41">
         <v>0</v>
       </c>
-      <c r="L10" s="24">
-        <f t="shared" si="5"/>
-        <v>377.12947265624979</v>
-      </c>
-      <c r="M10" s="59">
-        <f t="shared" si="4"/>
-        <v>0.87999999999999989</v>
-      </c>
-      <c r="N10" s="59">
+      <c r="L10" s="25">
+        <f>L9*$V$4</f>
+        <v>471.41184082031225</v>
+      </c>
+      <c r="M10" s="60">
+        <f>M9-$Z$2</f>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="N10" s="60">
         <f t="shared" si="3"/>
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="O10" s="78">
+        <v>0.14000000000000012</v>
+      </c>
+      <c r="O10" s="79">
         <v>0</v>
       </c>
-      <c r="P10" s="78">
+      <c r="P10" s="79">
         <v>0</v>
       </c>
       <c r="Q10" s="73">
@@ -6128,40 +5901,48 @@
         <v>1</v>
       </c>
       <c r="R10" s="73"/>
+      <c r="S10" s="90">
+        <f>SUM(L2:L28)</f>
+        <v>71388.737290618927</v>
+      </c>
+      <c r="T10" s="91"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="93">
+        <f>SUM(J2:J28)</f>
+        <v>153248.81577491676</v>
+      </c>
+      <c r="W10" s="92"/>
     </row>
     <row r="11" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="41">
         <f t="shared" si="2"/>
-        <v>507.09427749024997</v>
-      </c>
-      <c r="I11" s="41">
-        <f>H11*$T$3</f>
-        <v>902.62781393264493</v>
-      </c>
+        <v>621.19048992555622</v>
+      </c>
+      <c r="I11" s="41"/>
       <c r="J11" s="41">
         <f t="shared" si="1"/>
-        <v>1409.7220914228949</v>
+        <v>621.19048992555622</v>
       </c>
       <c r="K11" s="41">
         <v>0</v>
       </c>
       <c r="L11" s="25">
-        <f>L10*$V$5</f>
-        <v>471.41184082031225</v>
+        <f>L10*$V$2</f>
+        <v>542.12361694335902</v>
       </c>
       <c r="M11" s="60">
-        <f>M10-$Z$3</f>
-        <v>0.85999999999999988</v>
+        <f>M10-$Z$2</f>
+        <v>0.83999999999999986</v>
       </c>
       <c r="N11" s="60">
         <f t="shared" si="3"/>
-        <v>0.14000000000000012</v>
+        <v>0.16000000000000014</v>
       </c>
       <c r="O11" s="79">
         <v>0</v>
@@ -6174,48 +5955,37 @@
         <v>1</v>
       </c>
       <c r="R11" s="73"/>
-      <c r="S11" s="90">
-        <f>SUM(L3:L29)</f>
-        <v>71388.737290618927</v>
-      </c>
-      <c r="T11" s="91"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="93">
-        <f>SUM(J3:J29)</f>
-        <v>153248.81577491676</v>
-      </c>
-      <c r="W11" s="92"/>
     </row>
     <row r="12" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="41">
         <f t="shared" si="2"/>
-        <v>621.19048992555622</v>
+        <v>760.95835015880641</v>
       </c>
       <c r="I12" s="41"/>
       <c r="J12" s="41">
         <f t="shared" si="1"/>
-        <v>621.19048992555622</v>
+        <v>760.95835015880641</v>
       </c>
       <c r="K12" s="41">
         <v>0</v>
       </c>
       <c r="L12" s="25">
-        <f>L11*$V$3</f>
-        <v>542.12361694335902</v>
+        <f t="shared" ref="L12:L15" si="6">L11*$V$2</f>
+        <v>623.44215948486283</v>
       </c>
       <c r="M12" s="60">
-        <f>M11-$Z$3</f>
-        <v>0.83999999999999986</v>
+        <f t="shared" ref="M12:M15" si="7">M11-$Z$2</f>
+        <v>0.81999999999999984</v>
       </c>
       <c r="N12" s="60">
         <f t="shared" si="3"/>
-        <v>0.16000000000000014</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="O12" s="79">
         <v>0</v>
@@ -6228,37 +5998,48 @@
         <v>1</v>
       </c>
       <c r="R12" s="73"/>
+      <c r="S12" s="90">
+        <f>SUM(L2:L46)</f>
+        <v>3723136.3616102319</v>
+      </c>
+      <c r="T12" s="91"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="93">
+        <f>SUM(J2:J46)</f>
+        <v>6070851.991775875</v>
+      </c>
+      <c r="W12" s="92"/>
     </row>
     <row r="13" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="41">
         <f t="shared" si="2"/>
-        <v>760.95835015880641</v>
+        <v>932.17397894453791</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="41">
         <f t="shared" si="1"/>
-        <v>760.95835015880641</v>
+        <v>932.17397894453791</v>
       </c>
       <c r="K13" s="41">
         <v>0</v>
       </c>
       <c r="L13" s="25">
-        <f t="shared" ref="L13:L16" si="6">L12*$V$3</f>
-        <v>623.44215948486283</v>
+        <f t="shared" si="6"/>
+        <v>716.95848340759221</v>
       </c>
       <c r="M13" s="60">
-        <f t="shared" ref="M13:M16" si="7">M12-$Z$3</f>
-        <v>0.81999999999999984</v>
+        <f t="shared" si="7"/>
+        <v>0.79999999999999982</v>
       </c>
       <c r="N13" s="60">
         <f t="shared" si="3"/>
-        <v>0.18000000000000016</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="O13" s="79">
         <v>0</v>
@@ -6271,48 +6052,37 @@
         <v>1</v>
       </c>
       <c r="R13" s="73"/>
-      <c r="S13" s="90">
-        <f>SUM(L3:L47)</f>
-        <v>3723136.3616102319</v>
-      </c>
-      <c r="T13" s="91"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="93">
-        <f>SUM(J3:J47)</f>
-        <v>6070851.991775875</v>
-      </c>
-      <c r="W13" s="92"/>
     </row>
     <row r="14" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="41">
         <f t="shared" si="2"/>
-        <v>932.17397894453791</v>
+        <v>1141.9131242070591</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="41">
         <f t="shared" si="1"/>
-        <v>932.17397894453791</v>
+        <v>1141.9131242070591</v>
       </c>
       <c r="K14" s="41">
         <v>0</v>
       </c>
       <c r="L14" s="25">
         <f t="shared" si="6"/>
-        <v>716.95848340759221</v>
+        <v>824.50225591873095</v>
       </c>
       <c r="M14" s="60">
         <f t="shared" si="7"/>
-        <v>0.79999999999999982</v>
+        <v>0.7799999999999998</v>
       </c>
       <c r="N14" s="60">
         <f t="shared" si="3"/>
-        <v>0.20000000000000018</v>
+        <v>0.2200000000000002</v>
       </c>
       <c r="O14" s="79">
         <v>0</v>
@@ -6325,37 +6095,48 @@
         <v>1</v>
       </c>
       <c r="R14" s="73"/>
+      <c r="S14" s="90">
+        <f>SUM(L2:L50)</f>
+        <v>10123359.998018922</v>
+      </c>
+      <c r="T14" s="91"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="93">
+        <f>SUM(J2:J50)</f>
+        <v>20377812.273321323</v>
+      </c>
+      <c r="W14" s="92"/>
     </row>
-    <row r="15" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="6:29" x14ac:dyDescent="0.3">
       <c r="F15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="41">
         <f t="shared" si="2"/>
-        <v>1141.9131242070591</v>
+        <v>1398.8435771536476</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="41">
         <f t="shared" si="1"/>
-        <v>1141.9131242070591</v>
+        <v>1398.8435771536476</v>
       </c>
       <c r="K15" s="41">
         <v>0</v>
       </c>
       <c r="L15" s="25">
         <f t="shared" si="6"/>
-        <v>824.50225591873095</v>
+        <v>948.17759430654053</v>
       </c>
       <c r="M15" s="60">
         <f t="shared" si="7"/>
-        <v>0.7799999999999998</v>
+        <v>0.75999999999999979</v>
       </c>
       <c r="N15" s="60">
         <f t="shared" si="3"/>
-        <v>0.2200000000000002</v>
+        <v>0.24000000000000021</v>
       </c>
       <c r="O15" s="79">
         <v>0</v>
@@ -6368,53 +6149,45 @@
         <v>1</v>
       </c>
       <c r="R15" s="73"/>
-      <c r="S15" s="90">
-        <f>SUM(L3:L51)</f>
-        <v>10123359.998018922</v>
-      </c>
-      <c r="T15" s="91"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="93">
-        <f>SUM(J3:J51)</f>
-        <v>20377812.273321323</v>
-      </c>
-      <c r="W15" s="92"/>
     </row>
     <row r="16" spans="6:29" x14ac:dyDescent="0.3">
-      <c r="F16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="6">
-        <v>6</v>
-      </c>
-      <c r="H16" s="41">
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="42">
         <f t="shared" si="2"/>
-        <v>1398.8435771536476</v>
-      </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41">
+        <v>1713.5833820132184</v>
+      </c>
+      <c r="I16" s="42">
+        <f>H16*$T$2</f>
+        <v>3050.1784199835288</v>
+      </c>
+      <c r="J16" s="42">
         <f t="shared" si="1"/>
-        <v>1398.8435771536476</v>
-      </c>
-      <c r="K16" s="41">
+        <v>4763.7618019967467</v>
+      </c>
+      <c r="K16" s="42">
         <v>0</v>
       </c>
-      <c r="L16" s="25">
-        <f t="shared" si="6"/>
-        <v>948.17759430654053</v>
-      </c>
-      <c r="M16" s="60">
-        <f t="shared" si="7"/>
-        <v>0.75999999999999979</v>
-      </c>
-      <c r="N16" s="60">
+      <c r="L16" s="26">
+        <f>L15*$V$4</f>
+        <v>1185.2219928831757</v>
+      </c>
+      <c r="M16" s="61">
+        <f>M15-$Z$2</f>
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="N16" s="61">
         <f t="shared" si="3"/>
-        <v>0.24000000000000021</v>
-      </c>
-      <c r="O16" s="79">
+        <v>0.26000000000000023</v>
+      </c>
+      <c r="O16" s="80">
         <v>0</v>
       </c>
-      <c r="P16" s="79">
+      <c r="P16" s="80">
         <v>0</v>
       </c>
       <c r="Q16" s="73">
@@ -6428,34 +6201,31 @@
         <v>9</v>
       </c>
       <c r="G17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="42">
         <f t="shared" si="2"/>
-        <v>1713.5833820132184</v>
-      </c>
-      <c r="I17" s="42">
-        <f>H17*$T$3</f>
-        <v>3050.1784199835288</v>
-      </c>
+        <v>2099.1396429661927</v>
+      </c>
+      <c r="I17" s="42"/>
       <c r="J17" s="42">
         <f t="shared" si="1"/>
-        <v>4763.7618019967467</v>
+        <v>2099.1396429661927</v>
       </c>
       <c r="K17" s="42">
         <v>0</v>
       </c>
       <c r="L17" s="26">
-        <f>L16*$V$5</f>
-        <v>1185.2219928831757</v>
+        <f>L16*$V$2</f>
+        <v>1363.0052918156521</v>
       </c>
       <c r="M17" s="61">
-        <f>M16-$Z$3</f>
-        <v>0.73999999999999977</v>
+        <f>M16-$Z$2</f>
+        <v>0.71999999999999975</v>
       </c>
       <c r="N17" s="61">
         <f t="shared" si="3"/>
-        <v>0.26000000000000023</v>
+        <v>0.28000000000000025</v>
       </c>
       <c r="O17" s="80">
         <v>0</v>
@@ -6474,31 +6244,31 @@
         <v>9</v>
       </c>
       <c r="G18" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="42">
         <f t="shared" si="2"/>
-        <v>2099.1396429661927</v>
+        <v>2571.4460626335863</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="42">
         <f t="shared" si="1"/>
-        <v>2099.1396429661927</v>
+        <v>2571.4460626335863</v>
       </c>
       <c r="K18" s="42">
         <v>0</v>
       </c>
       <c r="L18" s="26">
-        <f>L17*$V$3</f>
-        <v>1363.0052918156521</v>
+        <f t="shared" ref="L18:L19" si="8">L17*$V$2</f>
+        <v>1567.4560855879997</v>
       </c>
       <c r="M18" s="61">
-        <f>M17-$Z$3</f>
-        <v>0.71999999999999975</v>
+        <f t="shared" ref="M18" si="9">M17-$Z$2</f>
+        <v>0.69999999999999973</v>
       </c>
       <c r="N18" s="61">
         <f t="shared" si="3"/>
-        <v>0.28000000000000025</v>
+        <v>0.30000000000000027</v>
       </c>
       <c r="O18" s="80">
         <v>0</v>
@@ -6517,31 +6287,31 @@
         <v>9</v>
       </c>
       <c r="G19" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="42">
         <f t="shared" si="2"/>
-        <v>2571.4460626335863</v>
+        <v>3150.0214267261435</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="42">
         <f t="shared" si="1"/>
-        <v>2571.4460626335863</v>
+        <v>3150.0214267261435</v>
       </c>
       <c r="K19" s="42">
         <v>0</v>
       </c>
       <c r="L19" s="26">
-        <f t="shared" ref="L19:L20" si="8">L18*$V$3</f>
-        <v>1567.4560855879997</v>
+        <f t="shared" si="8"/>
+        <v>1802.5744984261996</v>
       </c>
       <c r="M19" s="61">
-        <f t="shared" ref="M19" si="9">M18-$Z$3</f>
-        <v>0.69999999999999973</v>
+        <f>M18-$Z$2</f>
+        <v>0.67999999999999972</v>
       </c>
       <c r="N19" s="61">
         <f t="shared" si="3"/>
-        <v>0.30000000000000027</v>
+        <v>0.32000000000000028</v>
       </c>
       <c r="O19" s="80">
         <v>0</v>
@@ -6556,40 +6326,45 @@
       <c r="R19" s="73"/>
     </row>
     <row r="20" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="7">
-        <v>4</v>
-      </c>
-      <c r="H20" s="42">
+      <c r="F20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="43">
         <f t="shared" si="2"/>
-        <v>3150.0214267261435</v>
-      </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42">
+        <v>3858.7762477395263</v>
+      </c>
+      <c r="I20" s="43">
+        <f>H20*$T$2</f>
+        <v>6868.6217209763572</v>
+      </c>
+      <c r="J20" s="43">
         <f t="shared" si="1"/>
-        <v>3150.0214267261435</v>
-      </c>
-      <c r="K20" s="42">
-        <v>0</v>
-      </c>
-      <c r="L20" s="26">
-        <f t="shared" si="8"/>
-        <v>1802.5744984261996</v>
-      </c>
-      <c r="M20" s="61">
-        <f>M19-$Z$3</f>
-        <v>0.67999999999999972</v>
-      </c>
-      <c r="N20" s="61">
+        <v>10727.397968715883</v>
+      </c>
+      <c r="K20" s="43">
+        <f>(I20+J20)*$U$2</f>
+        <v>19003.701264867621</v>
+      </c>
+      <c r="L20" s="27">
+        <f>L19*$W$4</f>
+        <v>2433.4755728753698</v>
+      </c>
+      <c r="M20" s="62">
+        <f>M19-$AA$2</f>
+        <v>0.6579999999999997</v>
+      </c>
+      <c r="N20" s="62">
         <f t="shared" si="3"/>
-        <v>0.32000000000000028</v>
-      </c>
-      <c r="O20" s="80">
-        <v>0</v>
-      </c>
-      <c r="P20" s="80">
+        <v>0.33200000000000029</v>
+      </c>
+      <c r="O20" s="62">
+        <f>AB4</f>
+        <v>0.01</v>
+      </c>
+      <c r="P20" s="81">
         <v>0</v>
       </c>
       <c r="Q20" s="73">
@@ -6603,39 +6378,33 @@
         <v>10</v>
       </c>
       <c r="G21" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="43">
         <f t="shared" si="2"/>
-        <v>3858.7762477395263</v>
-      </c>
-      <c r="I21" s="43">
-        <f>H21*$T$3</f>
-        <v>6868.6217209763572</v>
-      </c>
+        <v>4727.00090348092</v>
+      </c>
+      <c r="I21" s="43"/>
       <c r="J21" s="43">
         <f t="shared" si="1"/>
-        <v>10727.397968715883</v>
-      </c>
-      <c r="K21" s="43">
-        <f>(I21+J21)*$U$3</f>
-        <v>19003.701264867621</v>
-      </c>
+        <v>4727.00090348092</v>
+      </c>
+      <c r="K21" s="43"/>
       <c r="L21" s="27">
-        <f>L20*$W$5</f>
-        <v>2433.4755728753698</v>
+        <f>L20*$W$2</f>
+        <v>2920.1706874504439</v>
       </c>
       <c r="M21" s="62">
-        <f>M20-$AA$3</f>
-        <v>0.6579999999999997</v>
+        <f>M20-$Z$2</f>
+        <v>0.63799999999999968</v>
       </c>
       <c r="N21" s="62">
         <f t="shared" si="3"/>
-        <v>0.33200000000000029</v>
+        <v>0.34050000000000036</v>
       </c>
       <c r="O21" s="62">
-        <f>AB5</f>
-        <v>0.01</v>
+        <f>O20+$AB$2</f>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="P21" s="81">
         <v>0</v>
@@ -6651,33 +6420,33 @@
         <v>10</v>
       </c>
       <c r="G22" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="43">
         <f t="shared" si="2"/>
-        <v>4727.00090348092</v>
+        <v>5790.576106764127</v>
       </c>
       <c r="I22" s="43"/>
       <c r="J22" s="43">
         <f t="shared" si="1"/>
-        <v>4727.00090348092</v>
+        <v>5790.576106764127</v>
       </c>
       <c r="K22" s="43"/>
       <c r="L22" s="27">
-        <f>L21*$W$3</f>
-        <v>2920.1706874504439</v>
+        <f>L21*$W$2</f>
+        <v>3504.2048249405325</v>
       </c>
       <c r="M22" s="62">
-        <f>M21-$Z$3</f>
-        <v>0.63799999999999968</v>
+        <f>M21-$Z$2</f>
+        <v>0.61799999999999966</v>
       </c>
       <c r="N22" s="62">
         <f t="shared" si="3"/>
-        <v>0.34050000000000036</v>
+        <v>0.34900000000000031</v>
       </c>
       <c r="O22" s="62">
-        <f>O21+$AB$3</f>
-        <v>2.1499999999999998E-2</v>
+        <f t="shared" ref="O22:O50" si="10">O21+$AB$2</f>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="P22" s="81">
         <v>0</v>
@@ -6689,39 +6458,45 @@
       <c r="R22" s="73"/>
     </row>
     <row r="23" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="8">
-        <v>3</v>
-      </c>
-      <c r="H23" s="43">
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="44">
         <f t="shared" si="2"/>
-        <v>5790.576106764127</v>
-      </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43">
+        <v>7093.4557307860559</v>
+      </c>
+      <c r="I23" s="44">
+        <f>H23*$T$2</f>
+        <v>12626.351200799179</v>
+      </c>
+      <c r="J23" s="44">
         <f t="shared" si="1"/>
-        <v>5790.576106764127</v>
-      </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="27">
-        <f>L22*$W$3</f>
-        <v>3504.2048249405325</v>
-      </c>
-      <c r="M23" s="62">
-        <f>M22-$Z$3</f>
-        <v>0.61799999999999966</v>
-      </c>
-      <c r="N23" s="62">
+        <v>19719.806931585234</v>
+      </c>
+      <c r="K23" s="44">
+        <f>(I23+J23)*$U$2</f>
+        <v>34933.850782975169</v>
+      </c>
+      <c r="L23" s="28">
+        <f>L22*$W$4</f>
+        <v>4730.6765136697195</v>
+      </c>
+      <c r="M23" s="63">
+        <f>M22-$AA$2</f>
+        <v>0.59599999999999964</v>
+      </c>
+      <c r="N23" s="63">
         <f t="shared" si="3"/>
-        <v>0.34900000000000031</v>
-      </c>
-      <c r="O23" s="62">
-        <f t="shared" ref="O23:O51" si="10">O22+$AB$3</f>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="P23" s="81">
+        <v>0.35950000000000037</v>
+      </c>
+      <c r="O23" s="63">
+        <f t="shared" si="10"/>
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="P23" s="82">
         <v>0</v>
       </c>
       <c r="Q23" s="73">
@@ -6735,39 +6510,33 @@
         <v>11</v>
       </c>
       <c r="G24" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="44">
         <f t="shared" si="2"/>
-        <v>7093.4557307860559</v>
-      </c>
-      <c r="I24" s="44">
-        <f>H24*$T$3</f>
-        <v>12626.351200799179</v>
-      </c>
+        <v>8689.4832702129188</v>
+      </c>
+      <c r="I24" s="44"/>
       <c r="J24" s="44">
         <f t="shared" si="1"/>
-        <v>19719.806931585234</v>
-      </c>
-      <c r="K24" s="44">
-        <f>(I24+J24)*$U$3</f>
-        <v>34933.850782975169</v>
-      </c>
+        <v>8689.4832702129188</v>
+      </c>
+      <c r="K24" s="44"/>
       <c r="L24" s="28">
-        <f>L23*$W$5</f>
-        <v>4730.6765136697195</v>
+        <f>L23*$W$2</f>
+        <v>5676.8118164036632</v>
       </c>
       <c r="M24" s="63">
-        <f>M23-$AA$3</f>
-        <v>0.59599999999999964</v>
+        <f>M23-$Z$2</f>
+        <v>0.57599999999999962</v>
       </c>
       <c r="N24" s="63">
         <f t="shared" si="3"/>
-        <v>0.35950000000000037</v>
+        <v>0.36800000000000033</v>
       </c>
       <c r="O24" s="63">
         <f t="shared" si="10"/>
-        <v>4.4499999999999998E-2</v>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="P24" s="82">
         <v>0</v>
@@ -6783,33 +6552,33 @@
         <v>11</v>
       </c>
       <c r="G25" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="44">
         <f t="shared" si="2"/>
-        <v>8689.4832702129188</v>
+        <v>10644.617006010827</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44">
         <f t="shared" si="1"/>
-        <v>8689.4832702129188</v>
+        <v>10644.617006010827</v>
       </c>
       <c r="K25" s="44"/>
       <c r="L25" s="28">
-        <f>L24*$W$3</f>
-        <v>5676.8118164036632</v>
+        <f>L24*$W$2</f>
+        <v>6812.1741796843953</v>
       </c>
       <c r="M25" s="63">
-        <f>M24-$Z$3</f>
-        <v>0.57599999999999962</v>
+        <f>M24-$Z$2</f>
+        <v>0.55599999999999961</v>
       </c>
       <c r="N25" s="63">
         <f t="shared" si="3"/>
-        <v>0.36800000000000033</v>
+        <v>0.37650000000000039</v>
       </c>
       <c r="O25" s="63">
         <f t="shared" si="10"/>
-        <v>5.5999999999999994E-2</v>
+        <v>6.7499999999999991E-2</v>
       </c>
       <c r="P25" s="82">
         <v>0</v>
@@ -6821,39 +6590,45 @@
       <c r="R25" s="73"/>
     </row>
     <row r="26" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="9">
-        <v>3</v>
-      </c>
-      <c r="H26" s="44">
+      <c r="F26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="45">
         <f t="shared" si="2"/>
-        <v>10644.617006010827</v>
-      </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44">
+        <v>13039.655832363263</v>
+      </c>
+      <c r="I26" s="45">
+        <f>H26*$T$2</f>
+        <v>23210.587381606609</v>
+      </c>
+      <c r="J26" s="45">
         <f t="shared" si="1"/>
-        <v>10644.617006010827</v>
-      </c>
-      <c r="K26" s="44"/>
-      <c r="L26" s="28">
-        <f>L25*$W$3</f>
-        <v>6812.1741796843953</v>
-      </c>
-      <c r="M26" s="63">
-        <f>M25-$Z$3</f>
-        <v>0.55599999999999961</v>
-      </c>
-      <c r="N26" s="63">
+        <v>36250.243213969872</v>
+      </c>
+      <c r="K26" s="45">
+        <f>(I26+J26)*$U$2</f>
+        <v>64217.697043222601</v>
+      </c>
+      <c r="L26" s="29">
+        <f>L25*$W$4</f>
+        <v>9196.4351425739351</v>
+      </c>
+      <c r="M26" s="64">
+        <f>M25-$AA$2</f>
+        <v>0.53399999999999959</v>
+      </c>
+      <c r="N26" s="64">
         <f t="shared" si="3"/>
-        <v>0.37650000000000039</v>
-      </c>
-      <c r="O26" s="63">
+        <v>0.38700000000000045</v>
+      </c>
+      <c r="O26" s="64">
         <f t="shared" si="10"/>
-        <v>6.7499999999999991E-2</v>
-      </c>
-      <c r="P26" s="82">
+        <v>7.8999999999999987E-2</v>
+      </c>
+      <c r="P26" s="83">
         <v>0</v>
       </c>
       <c r="Q26" s="73">
@@ -6867,39 +6642,33 @@
         <v>12</v>
       </c>
       <c r="G27" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="45">
         <f t="shared" si="2"/>
-        <v>13039.655832363263</v>
-      </c>
-      <c r="I27" s="45">
-        <f>H27*$T$3</f>
-        <v>23210.587381606609</v>
-      </c>
+        <v>15973.578394644999</v>
+      </c>
+      <c r="I27" s="45"/>
       <c r="J27" s="45">
         <f t="shared" si="1"/>
-        <v>36250.243213969872</v>
-      </c>
-      <c r="K27" s="45">
-        <f>(I27+J27)*$U$3</f>
-        <v>64217.697043222601</v>
-      </c>
+        <v>15973.578394644999</v>
+      </c>
+      <c r="K27" s="45"/>
       <c r="L27" s="29">
-        <f>L26*$W$5</f>
-        <v>9196.4351425739351</v>
+        <f>L26*$W$2</f>
+        <v>11035.722171088722</v>
       </c>
       <c r="M27" s="64">
-        <f>M26-$AA$3</f>
-        <v>0.53399999999999959</v>
+        <f>M26-$Z$2</f>
+        <v>0.51399999999999957</v>
       </c>
       <c r="N27" s="64">
         <f t="shared" si="3"/>
-        <v>0.38700000000000045</v>
+        <v>0.39550000000000041</v>
       </c>
       <c r="O27" s="64">
         <f t="shared" si="10"/>
-        <v>7.8999999999999987E-2</v>
+        <v>9.0499999999999983E-2</v>
       </c>
       <c r="P27" s="83">
         <v>0</v>
@@ -6915,33 +6684,33 @@
         <v>12</v>
       </c>
       <c r="G28" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" s="45">
         <f t="shared" si="2"/>
-        <v>15973.578394644999</v>
+        <v>19567.633533440126</v>
       </c>
       <c r="I28" s="45"/>
       <c r="J28" s="45">
         <f t="shared" si="1"/>
-        <v>15973.578394644999</v>
+        <v>19567.633533440126</v>
       </c>
       <c r="K28" s="45"/>
       <c r="L28" s="29">
-        <f>L27*$W$3</f>
-        <v>11035.722171088722</v>
+        <f>L27*$W$2</f>
+        <v>13242.866605306466</v>
       </c>
       <c r="M28" s="64">
-        <f>M27-$Z$3</f>
-        <v>0.51399999999999957</v>
+        <f>M27-$Z$2</f>
+        <v>0.49399999999999955</v>
       </c>
       <c r="N28" s="64">
         <f t="shared" si="3"/>
-        <v>0.39550000000000041</v>
+        <v>0.40400000000000047</v>
       </c>
       <c r="O28" s="64">
         <f t="shared" si="10"/>
-        <v>9.0499999999999983E-2</v>
+        <v>0.10199999999999998</v>
       </c>
       <c r="P28" s="83">
         <v>0</v>
@@ -6953,39 +6722,45 @@
       <c r="R28" s="73"/>
     </row>
     <row r="29" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="10">
-        <v>3</v>
-      </c>
-      <c r="H29" s="45">
+      <c r="F29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="46">
         <f t="shared" si="2"/>
-        <v>19567.633533440126</v>
-      </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45">
+        <v>23970.351078464158</v>
+      </c>
+      <c r="I29" s="46">
+        <f>H29*$T$2</f>
+        <v>42667.224919666201</v>
+      </c>
+      <c r="J29" s="46">
         <f t="shared" si="1"/>
-        <v>19567.633533440126</v>
-      </c>
-      <c r="K29" s="45"/>
-      <c r="L29" s="29">
-        <f>L28*$W$3</f>
-        <v>13242.866605306466</v>
-      </c>
-      <c r="M29" s="64">
-        <f>M28-$Z$3</f>
-        <v>0.49399999999999955</v>
-      </c>
-      <c r="N29" s="64">
+        <v>66637.575998130356</v>
+      </c>
+      <c r="K29" s="46">
+        <f>(I29+J29)*$U$2</f>
+        <v>118049.18499122029</v>
+      </c>
+      <c r="L29" s="30">
+        <f>L28*$W$4</f>
+        <v>17877.869917163731</v>
+      </c>
+      <c r="M29" s="65">
+        <f>M28-$AA$2</f>
+        <v>0.47199999999999953</v>
+      </c>
+      <c r="N29" s="65">
         <f t="shared" si="3"/>
-        <v>0.40400000000000047</v>
-      </c>
-      <c r="O29" s="64">
+        <v>0.41450000000000053</v>
+      </c>
+      <c r="O29" s="65">
         <f t="shared" si="10"/>
-        <v>0.10199999999999998</v>
-      </c>
-      <c r="P29" s="83">
+        <v>0.11349999999999998</v>
+      </c>
+      <c r="P29" s="84">
         <v>0</v>
       </c>
       <c r="Q29" s="73">
@@ -6999,39 +6774,33 @@
         <v>13</v>
       </c>
       <c r="G30" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="46">
         <f t="shared" si="2"/>
-        <v>23970.351078464158</v>
-      </c>
-      <c r="I30" s="46">
-        <f>H30*$T$3</f>
-        <v>42667.224919666201</v>
-      </c>
+        <v>29363.680071118597</v>
+      </c>
+      <c r="I30" s="46"/>
       <c r="J30" s="46">
         <f t="shared" si="1"/>
-        <v>66637.575998130356</v>
-      </c>
-      <c r="K30" s="46">
-        <f>(I30+J30)*$U$3</f>
-        <v>118049.18499122029</v>
-      </c>
+        <v>29363.680071118597</v>
+      </c>
+      <c r="K30" s="46"/>
       <c r="L30" s="30">
-        <f>L29*$W$5</f>
-        <v>17877.869917163731</v>
+        <f>L29*$W$2</f>
+        <v>21453.443900596478</v>
       </c>
       <c r="M30" s="65">
-        <f>M29-$AA$3</f>
-        <v>0.47199999999999953</v>
+        <f>M29-$Z$2</f>
+        <v>0.45199999999999951</v>
       </c>
       <c r="N30" s="65">
         <f t="shared" si="3"/>
-        <v>0.41450000000000053</v>
+        <v>0.42300000000000049</v>
       </c>
       <c r="O30" s="65">
         <f t="shared" si="10"/>
-        <v>0.11349999999999998</v>
+        <v>0.12499999999999997</v>
       </c>
       <c r="P30" s="84">
         <v>0</v>
@@ -7047,33 +6816,33 @@
         <v>13</v>
       </c>
       <c r="G31" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" s="46">
         <f t="shared" si="2"/>
-        <v>29363.680071118597</v>
+        <v>35970.508087120281</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>29363.680071118597</v>
+        <v>35970.508087120281</v>
       </c>
       <c r="K31" s="46"/>
       <c r="L31" s="30">
-        <f>L30*$W$3</f>
-        <v>21453.443900596478</v>
+        <f>L30*$W$2</f>
+        <v>25744.132680715771</v>
       </c>
       <c r="M31" s="65">
-        <f>M30-$Z$3</f>
-        <v>0.45199999999999951</v>
+        <f>M30-$Z$2</f>
+        <v>0.4319999999999995</v>
       </c>
       <c r="N31" s="65">
         <f t="shared" si="3"/>
-        <v>0.42300000000000049</v>
+        <v>0.43150000000000055</v>
       </c>
       <c r="O31" s="65">
         <f t="shared" si="10"/>
-        <v>0.12499999999999997</v>
+        <v>0.13649999999999998</v>
       </c>
       <c r="P31" s="84">
         <v>0</v>
@@ -7085,39 +6854,45 @@
       <c r="R31" s="73"/>
     </row>
     <row r="32" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="11">
-        <v>3</v>
-      </c>
-      <c r="H32" s="46">
+      <c r="F32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="47">
         <f t="shared" si="2"/>
-        <v>35970.508087120281</v>
-      </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46">
+        <v>44063.872406722345</v>
+      </c>
+      <c r="I32" s="47">
+        <f>H32*$T$2</f>
+        <v>78433.692883965778</v>
+      </c>
+      <c r="J32" s="47">
         <f t="shared" si="1"/>
-        <v>35970.508087120281</v>
-      </c>
-      <c r="K32" s="46"/>
-      <c r="L32" s="30">
-        <f>L31*$W$3</f>
-        <v>25744.132680715771</v>
-      </c>
-      <c r="M32" s="65">
-        <f>M31-$Z$3</f>
-        <v>0.4319999999999995</v>
-      </c>
-      <c r="N32" s="65">
+        <v>122497.56529068813</v>
+      </c>
+      <c r="K32" s="47">
+        <f>(I32+J32)*$U$2</f>
+        <v>217005.75882862625</v>
+      </c>
+      <c r="L32" s="31">
+        <f>L31*$W$4</f>
+        <v>34754.579118966292</v>
+      </c>
+      <c r="M32" s="66">
+        <f>M31-$AA$2</f>
+        <v>0.40999999999999948</v>
+      </c>
+      <c r="N32" s="66">
         <f t="shared" si="3"/>
-        <v>0.43150000000000055</v>
-      </c>
-      <c r="O32" s="65">
+        <v>0.4420000000000005</v>
+      </c>
+      <c r="O32" s="66">
         <f t="shared" si="10"/>
-        <v>0.13649999999999998</v>
-      </c>
-      <c r="P32" s="84">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P32" s="85">
         <v>0</v>
       </c>
       <c r="Q32" s="73">
@@ -7131,39 +6906,33 @@
         <v>14</v>
       </c>
       <c r="G33" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="47">
         <f t="shared" si="2"/>
-        <v>44063.872406722345</v>
-      </c>
-      <c r="I33" s="47">
-        <f>H33*$T$3</f>
-        <v>78433.692883965778</v>
-      </c>
+        <v>53978.243698234874</v>
+      </c>
+      <c r="I33" s="47"/>
       <c r="J33" s="47">
         <f t="shared" si="1"/>
-        <v>122497.56529068813</v>
-      </c>
-      <c r="K33" s="47">
-        <f>(I33+J33)*$U$3</f>
-        <v>217005.75882862625</v>
-      </c>
+        <v>53978.243698234874</v>
+      </c>
+      <c r="K33" s="47"/>
       <c r="L33" s="31">
-        <f>L32*$W$5</f>
-        <v>34754.579118966292</v>
+        <f>L32*$W$2</f>
+        <v>41705.494942759549</v>
       </c>
       <c r="M33" s="66">
-        <f>M32-$AA$3</f>
-        <v>0.40999999999999948</v>
+        <f>M32-$Z$2</f>
+        <v>0.38999999999999946</v>
       </c>
       <c r="N33" s="66">
         <f t="shared" si="3"/>
-        <v>0.4420000000000005</v>
+        <v>0.45050000000000057</v>
       </c>
       <c r="O33" s="66">
         <f t="shared" si="10"/>
-        <v>0.14799999999999999</v>
+        <v>0.1595</v>
       </c>
       <c r="P33" s="85">
         <v>0</v>
@@ -7179,33 +6948,33 @@
         <v>14</v>
       </c>
       <c r="G34" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="47">
         <f t="shared" si="2"/>
-        <v>53978.243698234874</v>
+        <v>66123.348530337724</v>
       </c>
       <c r="I34" s="47"/>
       <c r="J34" s="47">
         <f t="shared" si="1"/>
-        <v>53978.243698234874</v>
+        <v>66123.348530337724</v>
       </c>
       <c r="K34" s="47"/>
       <c r="L34" s="31">
-        <f>L33*$W$3</f>
-        <v>41705.494942759549</v>
+        <f>L33*$W$2</f>
+        <v>50046.593931311458</v>
       </c>
       <c r="M34" s="66">
-        <f>M33-$Z$3</f>
-        <v>0.38999999999999946</v>
+        <f>M33-$Z$2</f>
+        <v>0.36999999999999944</v>
       </c>
       <c r="N34" s="66">
         <f t="shared" si="3"/>
-        <v>0.45050000000000057</v>
+        <v>0.45900000000000052</v>
       </c>
       <c r="O34" s="66">
         <f t="shared" si="10"/>
-        <v>0.1595</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="P34" s="85">
         <v>0</v>
@@ -7217,39 +6986,45 @@
       <c r="R34" s="73"/>
     </row>
     <row r="35" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F35" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="12">
-        <v>3</v>
-      </c>
-      <c r="H35" s="47">
+      <c r="F35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="13">
+        <v>1</v>
+      </c>
+      <c r="H35" s="48">
         <f t="shared" si="2"/>
-        <v>66123.348530337724</v>
-      </c>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47">
+        <v>81001.101949663716</v>
+      </c>
+      <c r="I35" s="48">
+        <f>H35*$T$2</f>
+        <v>144181.96147040141</v>
+      </c>
+      <c r="J35" s="48">
         <f t="shared" si="1"/>
-        <v>66123.348530337724</v>
-      </c>
-      <c r="K35" s="47"/>
-      <c r="L35" s="31">
-        <f>L34*$W$3</f>
-        <v>50046.593931311458</v>
-      </c>
-      <c r="M35" s="66">
-        <f>M34-$Z$3</f>
-        <v>0.36999999999999944</v>
-      </c>
-      <c r="N35" s="66">
+        <v>225183.06342006513</v>
+      </c>
+      <c r="K35" s="48">
+        <f>(I35+J35)*$U$2</f>
+        <v>398914.22688170389</v>
+      </c>
+      <c r="L35" s="32">
+        <f>L34*$W$4</f>
+        <v>67562.901807270478</v>
+      </c>
+      <c r="M35" s="67">
+        <f>M34-$AA$2</f>
+        <v>0.34799999999999942</v>
+      </c>
+      <c r="N35" s="67">
         <f t="shared" si="3"/>
-        <v>0.45900000000000052</v>
-      </c>
-      <c r="O35" s="66">
+        <v>0.46950000000000058</v>
+      </c>
+      <c r="O35" s="67">
         <f t="shared" si="10"/>
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="P35" s="85">
+        <v>0.18250000000000002</v>
+      </c>
+      <c r="P35" s="86">
         <v>0</v>
       </c>
       <c r="Q35" s="73">
@@ -7263,39 +7038,33 @@
         <v>15</v>
       </c>
       <c r="G36" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="48">
         <f t="shared" si="2"/>
-        <v>81001.101949663716</v>
-      </c>
-      <c r="I36" s="48">
-        <f>H36*$T$3</f>
-        <v>144181.96147040141</v>
-      </c>
+        <v>99226.349888338053</v>
+      </c>
+      <c r="I36" s="48"/>
       <c r="J36" s="48">
         <f t="shared" si="1"/>
-        <v>225183.06342006513</v>
-      </c>
-      <c r="K36" s="48">
-        <f>(I36+J36)*$U$3</f>
-        <v>398914.22688170389</v>
-      </c>
+        <v>99226.349888338053</v>
+      </c>
+      <c r="K36" s="48"/>
       <c r="L36" s="32">
-        <f>L35*$W$5</f>
-        <v>67562.901807270478</v>
+        <f>L35*$W$2</f>
+        <v>81075.482168724571</v>
       </c>
       <c r="M36" s="67">
-        <f>M35-$AA$3</f>
-        <v>0.34799999999999942</v>
+        <f>M35-$Z$2</f>
+        <v>0.3279999999999994</v>
       </c>
       <c r="N36" s="67">
         <f t="shared" si="3"/>
-        <v>0.46950000000000058</v>
+        <v>0.47800000000000054</v>
       </c>
       <c r="O36" s="67">
         <f t="shared" si="10"/>
-        <v>0.18250000000000002</v>
+        <v>0.19400000000000003</v>
       </c>
       <c r="P36" s="86">
         <v>0</v>
@@ -7311,36 +7080,37 @@
         <v>15</v>
       </c>
       <c r="G37" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="48">
         <f t="shared" si="2"/>
-        <v>99226.349888338053</v>
+        <v>121552.27861321412</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="48">
         <f t="shared" si="1"/>
-        <v>99226.349888338053</v>
+        <v>121552.27861321412</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="32">
-        <f>L36*$W$3</f>
-        <v>81075.482168724571</v>
+        <f>L36*$W$2</f>
+        <v>97290.578602469483</v>
       </c>
       <c r="M37" s="67">
-        <f>M36-$Z$3</f>
-        <v>0.3279999999999994</v>
+        <f>M36-$Z$2</f>
+        <v>0.30799999999999939</v>
       </c>
       <c r="N37" s="67">
         <f t="shared" si="3"/>
-        <v>0.47800000000000054</v>
+        <v>0.48150000000000059</v>
       </c>
       <c r="O37" s="67">
         <f t="shared" si="10"/>
-        <v>0.19400000000000003</v>
-      </c>
-      <c r="P37" s="86">
-        <v>0</v>
+        <v>0.20550000000000004</v>
+      </c>
+      <c r="P37" s="67">
+        <f>AC4</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q37" s="73">
         <f t="shared" si="0"/>
@@ -7349,41 +7119,47 @@
       <c r="R37" s="73"/>
     </row>
     <row r="38" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F38" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="13">
-        <v>3</v>
-      </c>
-      <c r="H38" s="48">
+      <c r="F38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1</v>
+      </c>
+      <c r="H38" s="49">
         <f t="shared" si="2"/>
-        <v>121552.27861321412</v>
-      </c>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48">
+        <v>148901.5413011873</v>
+      </c>
+      <c r="I38" s="49">
+        <f>H38*$T$2</f>
+        <v>265044.74351611338</v>
+      </c>
+      <c r="J38" s="49">
         <f t="shared" si="1"/>
-        <v>121552.27861321412</v>
-      </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="32">
-        <f>L37*$W$3</f>
-        <v>97290.578602469483</v>
-      </c>
-      <c r="M38" s="67">
-        <f>M37-$Z$3</f>
-        <v>0.30799999999999939</v>
-      </c>
-      <c r="N38" s="67">
+        <v>413946.28481730068</v>
+      </c>
+      <c r="K38" s="49">
+        <f>(I38+J38)*$U$2</f>
+        <v>733310.31060008728</v>
+      </c>
+      <c r="L38" s="33">
+        <f>L37*$W$4</f>
+        <v>131342.2811133338</v>
+      </c>
+      <c r="M38" s="68">
+        <f>M37-$AA$2</f>
+        <v>0.28599999999999937</v>
+      </c>
+      <c r="N38" s="68">
         <f t="shared" si="3"/>
-        <v>0.48150000000000059</v>
-      </c>
-      <c r="O38" s="67">
+        <v>0.47700000000000053</v>
+      </c>
+      <c r="O38" s="68">
         <f t="shared" si="10"/>
-        <v>0.20550000000000004</v>
-      </c>
-      <c r="P38" s="67">
-        <f>AC5</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.21700000000000005</v>
+      </c>
+      <c r="P38" s="68">
+        <f>(P37+$AC$2)</f>
+        <v>0.02</v>
       </c>
       <c r="Q38" s="73">
         <f t="shared" si="0"/>
@@ -7396,43 +7172,37 @@
         <v>16</v>
       </c>
       <c r="G39" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="49">
         <f t="shared" si="2"/>
-        <v>148901.5413011873</v>
-      </c>
-      <c r="I39" s="49">
-        <f>H39*$T$3</f>
-        <v>265044.74351611338</v>
-      </c>
+        <v>182404.38809395445</v>
+      </c>
+      <c r="I39" s="49"/>
       <c r="J39" s="49">
         <f t="shared" si="1"/>
-        <v>413946.28481730068</v>
-      </c>
-      <c r="K39" s="49">
-        <f>(I39+J39)*$U$3</f>
-        <v>733310.31060008728</v>
-      </c>
+        <v>182404.38809395445</v>
+      </c>
+      <c r="K39" s="49"/>
       <c r="L39" s="33">
-        <f>L38*$W$5</f>
-        <v>131342.2811133338</v>
+        <f>L38*$W$2</f>
+        <v>157610.73733600054</v>
       </c>
       <c r="M39" s="68">
-        <f>M38-$AA$3</f>
-        <v>0.28599999999999937</v>
+        <f>M38-$Z$2</f>
+        <v>0.26599999999999935</v>
       </c>
       <c r="N39" s="68">
         <f t="shared" si="3"/>
-        <v>0.47700000000000053</v>
+        <v>0.47050000000000058</v>
       </c>
       <c r="O39" s="68">
         <f t="shared" si="10"/>
-        <v>0.21700000000000005</v>
+        <v>0.22850000000000006</v>
       </c>
       <c r="P39" s="68">
-        <f>(P38+$AC$3)</f>
-        <v>0.02</v>
+        <f t="shared" ref="P39:P50" si="11">(P38+$AC$2)</f>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="Q39" s="73">
         <f t="shared" si="0"/>
@@ -7445,37 +7215,37 @@
         <v>16</v>
       </c>
       <c r="G40" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" s="49">
         <f t="shared" si="2"/>
-        <v>182404.38809395445</v>
+        <v>223445.37541509423</v>
       </c>
       <c r="I40" s="49"/>
       <c r="J40" s="49">
         <f t="shared" si="1"/>
-        <v>182404.38809395445</v>
+        <v>223445.37541509423</v>
       </c>
       <c r="K40" s="49"/>
       <c r="L40" s="33">
-        <f>L39*$W$3</f>
-        <v>157610.73733600054</v>
+        <f>L39*$W$2</f>
+        <v>189132.88480320064</v>
       </c>
       <c r="M40" s="68">
-        <f>M39-$Z$3</f>
-        <v>0.26599999999999935</v>
+        <f>M39-$Z$2</f>
+        <v>0.24599999999999936</v>
       </c>
       <c r="N40" s="68">
         <f t="shared" si="3"/>
-        <v>0.47050000000000058</v>
+        <v>0.46400000000000052</v>
       </c>
       <c r="O40" s="68">
         <f t="shared" si="10"/>
-        <v>0.22850000000000006</v>
+        <v>0.24000000000000007</v>
       </c>
       <c r="P40" s="68">
-        <f t="shared" ref="P40:P51" si="11">(P39+$AC$3)</f>
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.05</v>
       </c>
       <c r="Q40" s="73">
         <f t="shared" si="0"/>
@@ -7484,41 +7254,47 @@
       <c r="R40" s="73"/>
     </row>
     <row r="41" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F41" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="14">
-        <v>3</v>
-      </c>
-      <c r="H41" s="49">
+      <c r="F41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1</v>
+      </c>
+      <c r="H41" s="50">
         <f t="shared" si="2"/>
-        <v>223445.37541509423</v>
-      </c>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49">
+        <v>273720.58488349046</v>
+      </c>
+      <c r="I41" s="50">
+        <f>H41*$T$2</f>
+        <v>487222.64109261305</v>
+      </c>
+      <c r="J41" s="50">
         <f t="shared" si="1"/>
-        <v>223445.37541509423</v>
-      </c>
-      <c r="K41" s="49"/>
-      <c r="L41" s="33">
-        <f>L40*$W$3</f>
-        <v>189132.88480320064</v>
-      </c>
-      <c r="M41" s="68">
-        <f>M40-$Z$3</f>
-        <v>0.24599999999999936</v>
-      </c>
-      <c r="N41" s="68">
+        <v>760943.22597610345</v>
+      </c>
+      <c r="K41" s="50">
+        <f>(I41+J41)*$U$2</f>
+        <v>1348019.136434214</v>
+      </c>
+      <c r="L41" s="34">
+        <f>L40*$W$4</f>
+        <v>255329.39448432089</v>
+      </c>
+      <c r="M41" s="69">
+        <f>M40-$AA$2</f>
+        <v>0.22399999999999937</v>
+      </c>
+      <c r="N41" s="69">
         <f t="shared" si="3"/>
-        <v>0.46400000000000052</v>
-      </c>
-      <c r="O41" s="68">
+        <v>0.45950000000000057</v>
+      </c>
+      <c r="O41" s="69">
         <f t="shared" si="10"/>
-        <v>0.24000000000000007</v>
-      </c>
-      <c r="P41" s="68">
+        <v>0.25150000000000006</v>
+      </c>
+      <c r="P41" s="69">
         <f t="shared" si="11"/>
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q41" s="73">
         <f t="shared" si="0"/>
@@ -7531,47 +7307,41 @@
         <v>17</v>
       </c>
       <c r="G42" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="50">
         <f t="shared" si="2"/>
-        <v>273720.58488349046</v>
-      </c>
-      <c r="I42" s="50">
-        <f>H42*$T$3</f>
-        <v>487222.64109261305</v>
-      </c>
+        <v>335307.71648227586</v>
+      </c>
+      <c r="I42" s="50"/>
       <c r="J42" s="50">
         <f t="shared" si="1"/>
-        <v>760943.22597610345</v>
-      </c>
-      <c r="K42" s="50">
-        <f>(I42+J42)*$U$3</f>
-        <v>1348019.136434214</v>
-      </c>
+        <v>335307.71648227586</v>
+      </c>
+      <c r="K42" s="50"/>
       <c r="L42" s="34">
-        <f>L41*$W$5</f>
-        <v>255329.39448432089</v>
+        <f>L41*$W$2</f>
+        <v>306395.27338118508</v>
       </c>
       <c r="M42" s="69">
-        <f>M41-$AA$3</f>
-        <v>0.22399999999999937</v>
+        <f>M41-$Z$2</f>
+        <v>0.20399999999999938</v>
       </c>
       <c r="N42" s="69">
         <f t="shared" si="3"/>
-        <v>0.45950000000000057</v>
+        <v>0.45300000000000062</v>
       </c>
       <c r="O42" s="69">
         <f t="shared" si="10"/>
-        <v>0.25150000000000006</v>
+        <v>0.26300000000000007</v>
       </c>
       <c r="P42" s="69">
         <f t="shared" si="11"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q42" s="73">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="R42" s="73"/>
     </row>
@@ -7580,84 +7350,90 @@
         <v>17</v>
       </c>
       <c r="G43" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" s="50">
         <f t="shared" si="2"/>
-        <v>335307.71648227586</v>
+        <v>410751.95269078796</v>
       </c>
       <c r="I43" s="50"/>
       <c r="J43" s="50">
         <f t="shared" si="1"/>
-        <v>335307.71648227586</v>
+        <v>410751.95269078796</v>
       </c>
       <c r="K43" s="50"/>
       <c r="L43" s="34">
-        <f>L42*$W$3</f>
-        <v>306395.27338118508</v>
+        <f>L42*$W$2</f>
+        <v>367674.32805742207</v>
       </c>
       <c r="M43" s="69">
-        <f>M42-$Z$3</f>
-        <v>0.20399999999999938</v>
+        <f>M42-$Z$2</f>
+        <v>0.18399999999999939</v>
       </c>
       <c r="N43" s="69">
         <f t="shared" si="3"/>
-        <v>0.45300000000000062</v>
+        <v>0.44650000000000056</v>
       </c>
       <c r="O43" s="69">
         <f t="shared" si="10"/>
-        <v>0.26300000000000007</v>
+        <v>0.27450000000000008</v>
       </c>
       <c r="P43" s="69">
         <f t="shared" si="11"/>
-        <v>0.08</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q43" s="73">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="R43" s="73"/>
     </row>
     <row r="44" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F44" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="15">
-        <v>3</v>
-      </c>
-      <c r="H44" s="50">
+      <c r="F44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="16">
+        <v>1</v>
+      </c>
+      <c r="H44" s="51">
         <f t="shared" si="2"/>
-        <v>410751.95269078796</v>
-      </c>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50">
+        <v>503171.1420462153</v>
+      </c>
+      <c r="I44" s="51">
+        <f>H44*$T$2</f>
+        <v>895644.63284226321</v>
+      </c>
+      <c r="J44" s="51">
         <f t="shared" si="1"/>
-        <v>410751.95269078796</v>
-      </c>
-      <c r="K44" s="50"/>
-      <c r="L44" s="34">
-        <f>L43*$W$3</f>
-        <v>367674.32805742207</v>
-      </c>
-      <c r="M44" s="69">
-        <f>M43-$Z$3</f>
-        <v>0.18399999999999939</v>
-      </c>
-      <c r="N44" s="69">
+        <v>1398815.7748884785</v>
+      </c>
+      <c r="K44" s="51">
+        <f>(I44+J44)*$U$2</f>
+        <v>2478017.240349201</v>
+      </c>
+      <c r="L44" s="35">
+        <f>L43*$W$4</f>
+        <v>496360.34287751984</v>
+      </c>
+      <c r="M44" s="70">
+        <f>M43-$AA$2</f>
+        <v>0.16199999999999939</v>
+      </c>
+      <c r="N44" s="70">
         <f t="shared" si="3"/>
-        <v>0.44650000000000056</v>
-      </c>
-      <c r="O44" s="69">
+        <v>0.4420000000000005</v>
+      </c>
+      <c r="O44" s="70">
         <f t="shared" si="10"/>
-        <v>0.27450000000000008</v>
-      </c>
-      <c r="P44" s="69">
+        <v>0.28600000000000009</v>
+      </c>
+      <c r="P44" s="70">
         <f t="shared" si="11"/>
-        <v>9.5000000000000001E-2</v>
+        <v>0.11</v>
       </c>
       <c r="Q44" s="73">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="R44" s="73"/>
     </row>
@@ -7666,47 +7442,41 @@
         <v>18</v>
       </c>
       <c r="G45" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="51">
         <f t="shared" si="2"/>
-        <v>503171.1420462153</v>
-      </c>
-      <c r="I45" s="51">
-        <f>H45*$T$3</f>
-        <v>895644.63284226321</v>
-      </c>
+        <v>616384.64900661376</v>
+      </c>
+      <c r="I45" s="51"/>
       <c r="J45" s="51">
         <f t="shared" si="1"/>
-        <v>1398815.7748884785</v>
-      </c>
-      <c r="K45" s="51">
-        <f>(I45+J45)*$U$3</f>
-        <v>2478017.240349201</v>
-      </c>
+        <v>616384.64900661376</v>
+      </c>
+      <c r="K45" s="51"/>
       <c r="L45" s="35">
-        <f>L44*$W$5</f>
-        <v>496360.34287751984</v>
+        <f>L44*$W$2</f>
+        <v>595632.41145302379</v>
       </c>
       <c r="M45" s="70">
-        <f>M44-$AA$3</f>
-        <v>0.16199999999999939</v>
+        <f>M44-$Z$2</f>
+        <v>0.1419999999999994</v>
       </c>
       <c r="N45" s="70">
         <f t="shared" si="3"/>
-        <v>0.4420000000000005</v>
+        <v>0.43550000000000044</v>
       </c>
       <c r="O45" s="70">
         <f t="shared" si="10"/>
-        <v>0.28600000000000009</v>
+        <v>0.2975000000000001</v>
       </c>
       <c r="P45" s="70">
         <f t="shared" si="11"/>
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="Q45" s="73">
         <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="R45" s="73"/>
     </row>
@@ -7715,37 +7485,37 @@
         <v>18</v>
       </c>
       <c r="G46" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" s="51">
         <f t="shared" si="2"/>
-        <v>616384.64900661376</v>
+        <v>755071.19503310195</v>
       </c>
       <c r="I46" s="51"/>
       <c r="J46" s="51">
         <f t="shared" si="1"/>
-        <v>616384.64900661376</v>
+        <v>755071.19503310195</v>
       </c>
       <c r="K46" s="51"/>
       <c r="L46" s="35">
-        <f>L45*$W$3</f>
-        <v>595632.41145302379</v>
+        <f>L45*$W$2</f>
+        <v>714758.89374362852</v>
       </c>
       <c r="M46" s="70">
-        <f>M45-$Z$3</f>
-        <v>0.1419999999999994</v>
+        <f>M45-$Z$2</f>
+        <v>0.1219999999999994</v>
       </c>
       <c r="N46" s="70">
         <f t="shared" si="3"/>
-        <v>0.43550000000000044</v>
+        <v>0.42900000000000049</v>
       </c>
       <c r="O46" s="70">
         <f t="shared" si="10"/>
-        <v>0.2975000000000001</v>
+        <v>0.30900000000000011</v>
       </c>
       <c r="P46" s="70">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q46" s="73">
         <f t="shared" si="0"/>
@@ -7754,41 +7524,47 @@
       <c r="R46" s="73"/>
     </row>
     <row r="47" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F47" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="16">
-        <v>3</v>
-      </c>
-      <c r="H47" s="51">
+      <c r="F47" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="17">
+        <v>1</v>
+      </c>
+      <c r="H47" s="52">
         <f t="shared" si="2"/>
-        <v>755071.19503310195</v>
-      </c>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51">
+        <v>924962.21391554992</v>
+      </c>
+      <c r="I47" s="52">
+        <f>H47*$T$2</f>
+        <v>1646432.740769679</v>
+      </c>
+      <c r="J47" s="52">
         <f t="shared" si="1"/>
-        <v>755071.19503310195</v>
-      </c>
-      <c r="K47" s="51"/>
-      <c r="L47" s="35">
-        <f>L46*$W$3</f>
-        <v>714758.89374362852</v>
-      </c>
-      <c r="M47" s="70">
-        <f>M46-$Z$3</f>
-        <v>0.1219999999999994</v>
-      </c>
-      <c r="N47" s="70">
+        <v>2571394.9546852289</v>
+      </c>
+      <c r="K47" s="52">
+        <f>(I47+J47)*$U$2</f>
+        <v>4555253.9110913007</v>
+      </c>
+      <c r="L47" s="36">
+        <f>L46*$W$4</f>
+        <v>964924.50655389857</v>
+      </c>
+      <c r="M47" s="71">
+        <f>M46-$AA$2</f>
+        <v>9.9999999999999395E-2</v>
+      </c>
+      <c r="N47" s="76">
         <f t="shared" si="3"/>
-        <v>0.42900000000000049</v>
-      </c>
-      <c r="O47" s="70">
+        <v>0.42450000000000043</v>
+      </c>
+      <c r="O47" s="76">
         <f t="shared" si="10"/>
-        <v>0.30900000000000011</v>
-      </c>
-      <c r="P47" s="70">
+        <v>0.32050000000000012</v>
+      </c>
+      <c r="P47" s="76">
         <f t="shared" si="11"/>
-        <v>0.14000000000000001</v>
+        <v>0.15500000000000003</v>
       </c>
       <c r="Q47" s="73">
         <f t="shared" si="0"/>
@@ -7798,243 +7574,194 @@
     </row>
     <row r="48" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F48" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G48" s="17">
         <v>1</v>
       </c>
       <c r="H48" s="52">
         <f t="shared" si="2"/>
-        <v>924962.21391554992</v>
+        <v>1133078.7120465487</v>
       </c>
       <c r="I48" s="52">
-        <f>H48*$T$3</f>
-        <v>1646432.740769679</v>
+        <f>H48*$T$2</f>
+        <v>2016880.1074428568</v>
       </c>
       <c r="J48" s="52">
         <f t="shared" si="1"/>
-        <v>2571394.9546852289</v>
+        <v>3149958.8194894055</v>
       </c>
       <c r="K48" s="52">
-        <f>(I48+J48)*$U$3</f>
-        <v>4555253.9110913007</v>
+        <f>(I48+J48)*$U$2</f>
+        <v>5580186.0410868432</v>
       </c>
       <c r="L48" s="36">
-        <f>L47*$W$5</f>
-        <v>964924.50655389857</v>
+        <f>L47*$W$4</f>
+        <v>1302648.0838477632</v>
       </c>
       <c r="M48" s="71">
-        <f>M47-$AA$3</f>
-        <v>9.9999999999999395E-2</v>
+        <f t="shared" ref="M48:M50" si="12">M47-$AA$2</f>
+        <v>7.7999999999999403E-2</v>
       </c>
       <c r="N48" s="76">
         <f t="shared" si="3"/>
-        <v>0.42450000000000043</v>
+        <v>0.42000000000000037</v>
       </c>
       <c r="O48" s="76">
         <f t="shared" si="10"/>
-        <v>0.32050000000000012</v>
+        <v>0.33200000000000013</v>
       </c>
       <c r="P48" s="76">
         <f t="shared" si="11"/>
-        <v>0.15500000000000003</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="Q48" s="73">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="R48" s="73"/>
     </row>
     <row r="49" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F49" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G49" s="17">
         <v>1</v>
       </c>
       <c r="H49" s="52">
         <f t="shared" si="2"/>
-        <v>1133078.7120465487</v>
+        <v>1388021.4222570222</v>
       </c>
       <c r="I49" s="52">
-        <f>H49*$T$3</f>
-        <v>2016880.1074428568</v>
+        <f>H49*$T$2</f>
+        <v>2470678.1316174995</v>
       </c>
       <c r="J49" s="52">
         <f t="shared" si="1"/>
-        <v>3149958.8194894055</v>
+        <v>3858699.5538745215</v>
       </c>
       <c r="K49" s="52">
-        <f>(I49+J49)*$U$3</f>
-        <v>5580186.0410868432</v>
+        <f>(I49+J49)*$U$2</f>
+        <v>6835727.9003313836</v>
       </c>
       <c r="L49" s="36">
-        <f>L48*$W$5</f>
-        <v>1302648.0838477632</v>
+        <f>L48*$W$4</f>
+        <v>1758574.9131944806</v>
       </c>
       <c r="M49" s="71">
-        <f t="shared" ref="M49:M51" si="12">M48-$AA$3</f>
-        <v>7.7999999999999403E-2</v>
+        <f t="shared" si="12"/>
+        <v>5.5999999999999404E-2</v>
       </c>
       <c r="N49" s="76">
         <f t="shared" si="3"/>
-        <v>0.42000000000000037</v>
+        <v>0.41550000000000042</v>
       </c>
       <c r="O49" s="76">
         <f t="shared" si="10"/>
-        <v>0.33200000000000013</v>
+        <v>0.34350000000000014</v>
       </c>
       <c r="P49" s="76">
         <f t="shared" si="11"/>
-        <v>0.17000000000000004</v>
+        <v>0.18500000000000005</v>
       </c>
       <c r="Q49" s="73">
         <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="R49" s="73"/>
     </row>
-    <row r="50" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F50" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="17">
+    <row r="50" spans="6:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F50" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="18">
         <v>1</v>
       </c>
-      <c r="H50" s="52">
+      <c r="H50" s="53">
         <f t="shared" si="2"/>
-        <v>1388021.4222570222</v>
-      </c>
-      <c r="I50" s="52">
-        <f>H50*$T$3</f>
-        <v>2470678.1316174995</v>
-      </c>
-      <c r="J50" s="52">
+        <v>1700326.2422648524</v>
+      </c>
+      <c r="I50" s="53">
+        <f>H50*$T$2</f>
+        <v>3026580.7112314375</v>
+      </c>
+      <c r="J50" s="53">
         <f t="shared" si="1"/>
-        <v>3858699.5538745215</v>
-      </c>
-      <c r="K50" s="52">
-        <f>(I50+J50)*$U$3</f>
-        <v>6835727.9003313836</v>
-      </c>
-      <c r="L50" s="36">
-        <f>L49*$W$5</f>
-        <v>1758574.9131944806</v>
-      </c>
-      <c r="M50" s="71">
+        <v>4726906.9534962904</v>
+      </c>
+      <c r="K50" s="53">
+        <f>(I50+J50)*$U$2</f>
+        <v>8373766.677905947</v>
+      </c>
+      <c r="L50" s="37">
+        <f>L49*$W$4</f>
+        <v>2374076.1328125489</v>
+      </c>
+      <c r="M50" s="72">
         <f t="shared" si="12"/>
-        <v>5.5999999999999404E-2</v>
-      </c>
-      <c r="N50" s="76">
-        <f t="shared" si="3"/>
-        <v>0.41550000000000042</v>
-      </c>
-      <c r="O50" s="76">
+        <v>3.3999999999999406E-2</v>
+      </c>
+      <c r="N50" s="87">
+        <f>100%-(M50+O50+P50)</f>
+        <v>0.41100000000000037</v>
+      </c>
+      <c r="O50" s="87">
         <f t="shared" si="10"/>
-        <v>0.34350000000000014</v>
-      </c>
-      <c r="P50" s="76">
+        <v>0.35500000000000015</v>
+      </c>
+      <c r="P50" s="87">
         <f t="shared" si="11"/>
-        <v>0.18500000000000005</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="Q50" s="73">
-        <f t="shared" si="0"/>
+        <f>SUM(M50:P50)</f>
         <v>1</v>
       </c>
       <c r="R50" s="73"/>
     </row>
-    <row r="51" spans="6:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F51" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1</v>
-      </c>
-      <c r="H51" s="53">
-        <f t="shared" si="2"/>
-        <v>1700326.2422648524</v>
-      </c>
-      <c r="I51" s="53">
-        <f>H51*$T$3</f>
-        <v>3026580.7112314375</v>
-      </c>
-      <c r="J51" s="53">
-        <f t="shared" si="1"/>
-        <v>4726906.9534962904</v>
-      </c>
-      <c r="K51" s="53">
-        <f>(I51+J51)*$U$3</f>
-        <v>8373766.677905947</v>
-      </c>
-      <c r="L51" s="37">
-        <f>L50*$W$5</f>
-        <v>2374076.1328125489</v>
-      </c>
-      <c r="M51" s="72">
-        <f t="shared" si="12"/>
-        <v>3.3999999999999406E-2</v>
-      </c>
-      <c r="N51" s="87">
-        <f>100%-(M51+O51+P51)</f>
-        <v>0.41100000000000037</v>
-      </c>
-      <c r="O51" s="87">
-        <f t="shared" si="10"/>
-        <v>0.35500000000000015</v>
-      </c>
-      <c r="P51" s="87">
-        <f t="shared" si="11"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="Q51" s="73">
-        <f>SUM(M51:P51)</f>
-        <v>1</v>
-      </c>
-      <c r="R51" s="73"/>
+    <row r="51" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="G51" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="56">
+        <f>SUM(H2:H50)</f>
+        <v>9256887.3189975265</v>
+      </c>
+      <c r="I51" s="56">
+        <f>SUM(I2:I50)</f>
+        <v>11120924.954323795</v>
+      </c>
+      <c r="J51" s="56">
+        <f>SUM(J2:J50)</f>
+        <v>20377812.273321323</v>
+      </c>
+      <c r="K51" s="56">
+        <f>SUM(K2:K50)</f>
+        <v>30756405.637591593</v>
+      </c>
+      <c r="L51" s="56">
+        <f>SUM(L2:L50)</f>
+        <v>10123359.998018922</v>
+      </c>
     </row>
-    <row r="52" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="G52" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" s="56">
-        <f>SUM(H3:H51)</f>
-        <v>9256887.3189975265</v>
-      </c>
-      <c r="I52" s="56">
-        <f>SUM(I3:I51)</f>
-        <v>11120924.954323795</v>
-      </c>
-      <c r="J52" s="56">
-        <f>SUM(J3:J51)</f>
-        <v>20377812.273321323</v>
-      </c>
-      <c r="K52" s="56">
-        <f>SUM(K3:K51)</f>
-        <v>30756405.637591593</v>
-      </c>
-      <c r="L52" s="56">
-        <f>SUM(L3:L51)</f>
-        <v>10123359.998018922</v>
-      </c>
-    </row>
-    <row r="58" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="S58" t="s">
+    <row r="57" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S57" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F2:P51">
+  <conditionalFormatting sqref="F1:P50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ROW()=CELL("ROW")</formula>
     </cfRule>
@@ -8042,7 +7769,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L11 L17 L24:M24 L27:M27 L30:M30 L33:M33 L36:M36 L39:M39 L42:M42 L45:M45 M21" formula="1"/>
+    <ignoredError sqref="L10 L16 L23:M23 L26:M26 L29:M29 L32:M32 L35:M35 L38:M38 L41:M41 L44:M44 M20" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240120D6-0864-40FA-8724-0AE179A92A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D7983-8017-4638-A242-3D69E79F5304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>계급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,14 @@
   </si>
   <si>
     <t>확률 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도 횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +659,41 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -975,145 +1017,145 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>187.5</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.62499999999997</c:v>
+                  <c:v>198.37499999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247.96874999999994</c:v>
+                  <c:v>228.13124999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>285.16406249999989</c:v>
+                  <c:v>262.35093749999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>327.93867187499984</c:v>
+                  <c:v>301.70357812499992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>377.12947265624979</c:v>
+                  <c:v>346.95911484374989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>471.41184082031225</c:v>
+                  <c:v>399.00298207031233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>542.12361694335902</c:v>
+                  <c:v>458.85342938085915</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>623.44215948486283</c:v>
+                  <c:v>527.68144378798797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>716.95848340759221</c:v>
+                  <c:v>606.8336603561861</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>824.50225591873095</c:v>
+                  <c:v>697.85870940961399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>948.17759430654053</c:v>
+                  <c:v>802.53751582105599</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1185.2219928831757</c:v>
+                  <c:v>922.91814319421428</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1363.0052918156521</c:v>
+                  <c:v>1061.3558646733463</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1567.4560855879997</c:v>
+                  <c:v>1220.5592443743483</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1802.5744984261996</c:v>
+                  <c:v>1403.6431310305004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2433.4755728753698</c:v>
+                  <c:v>1937.0275208220903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2920.1706874504439</c:v>
+                  <c:v>2518.1357770687173</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3504.2048249405325</c:v>
+                  <c:v>3273.5765101893326</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4730.6765136697195</c:v>
+                  <c:v>4517.5355840612783</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5676.8118164036632</c:v>
+                  <c:v>5872.7962592796621</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6812.1741796843953</c:v>
+                  <c:v>7634.6351370635612</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9196.4351425739351</c:v>
+                  <c:v>10535.796489147713</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11035.722171088722</c:v>
+                  <c:v>13696.535435892027</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13242.866605306466</c:v>
+                  <c:v>17805.496066659634</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17877.869917163731</c:v>
+                  <c:v>24571.584571990294</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21453.443900596478</c:v>
+                  <c:v>31943.059943587381</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>25744.132680715771</c:v>
+                  <c:v>41525.977926663596</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34754.579118966292</c:v>
+                  <c:v>57305.849538795759</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41705.494942759549</c:v>
+                  <c:v>74497.604400434488</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50046.593931311458</c:v>
+                  <c:v>96846.885720564838</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>67562.901807270478</c:v>
+                  <c:v>133648.70229437947</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>81075.482168724571</c:v>
+                  <c:v>173743.31298269331</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>97290.578602469483</c:v>
+                  <c:v>225866.30687750131</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>131342.2811133338</c:v>
+                  <c:v>311695.50349095179</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>157610.73733600054</c:v>
+                  <c:v>405204.15453823732</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>189132.88480320064</c:v>
+                  <c:v>526765.4008997085</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>255329.39448432089</c:v>
+                  <c:v>726936.25324159767</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>306395.27338118508</c:v>
+                  <c:v>945017.12921407702</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>367674.32805742207</c:v>
+                  <c:v>1228522.2679783001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>496360.34287751984</c:v>
+                  <c:v>1695360.7298100539</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>595632.41145302379</c:v>
+                  <c:v>2203968.9487530701</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>714758.89374362852</c:v>
+                  <c:v>2865159.6333789914</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>964924.50655389857</c:v>
+                  <c:v>3953920.2940630079</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1302648.0838477632</c:v>
+                  <c:v>5456410.0058069509</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1758574.9131944806</c:v>
+                  <c:v>7529845.8080135919</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2374076.1328125489</c:v>
+                  <c:v>10391187.215058755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,7 +1440,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1600,7 +1642,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$50</c:f>
+              <c:f>Sheet1!$P$3:$P$50</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="48"/>
@@ -2031,7 +2073,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2233,7 +2275,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$50</c:f>
+              <c:f>Sheet1!$O$3:$O$50</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="48"/>
@@ -4183,13 +4225,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -4219,13 +4261,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -4315,13 +4357,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
@@ -4411,13 +4453,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -4507,13 +4549,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>684609</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4603,13 +4645,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>1095374</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4696,13 +4738,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4801,13 +4843,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>684608</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>220265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>1095374</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4906,13 +4948,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>1093938</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5011,13 +5053,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
@@ -5047,13 +5089,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
@@ -5350,12 +5392,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="F1:AC57"/>
+  <dimension ref="F1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AE7" sqref="AE7"/>
+      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5364,14 +5406,15 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.625" customWidth="1"/>
-    <col min="22" max="22" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.625" customWidth="1"/>
+    <col min="24" max="24" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5394,54 +5437,60 @@
         <v>23</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="75"/>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="75"/>
+      <c r="U1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
@@ -5464,55 +5513,57 @@
       <c r="L2" s="22">
         <v>0</v>
       </c>
-      <c r="M2" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="57" t="s">
-        <v>32</v>
-      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="57" t="s">
         <v>32</v>
       </c>
       <c r="P2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="73">
-        <f t="shared" ref="Q2:Q49" si="0">SUM(M2:P2)</f>
+      <c r="Q2" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="73">
+        <f t="shared" ref="S2:S49" si="0">SUM(O2:R2)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="1">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1.78</v>
-      </c>
+      <c r="T2" s="73"/>
       <c r="U2" s="1">
+        <v>1.222</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="W2" s="1">
         <v>1.08</v>
       </c>
-      <c r="V2" s="21">
+      <c r="X2" s="21">
         <v>1.1499999999999999</v>
       </c>
-      <c r="W2" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="AA2" s="1">
         <v>1</v>
       </c>
-      <c r="Z2" s="21">
+      <c r="AB2" s="21">
         <v>0.02</v>
       </c>
-      <c r="AA2" s="74">
+      <c r="AC2" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AB2" s="74">
+      <c r="AD2" s="74">
         <v>1.15E-2</v>
       </c>
-      <c r="AC2" s="74">
+      <c r="AE2" s="74">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
@@ -5520,15 +5571,15 @@
         <v>2</v>
       </c>
       <c r="H3" s="39">
-        <f>H2*$S$2</f>
-        <v>122.50000000000001</v>
+        <f>H2*$U$2</f>
+        <v>122.2</v>
       </c>
       <c r="I3" s="39">
         <v>0</v>
       </c>
       <c r="J3" s="39">
         <f t="shared" ref="J3:J50" si="1">H3+I3</f>
-        <v>122.50000000000001</v>
+        <v>122.2</v>
       </c>
       <c r="K3" s="39">
         <v>0</v>
@@ -5536,38 +5587,46 @@
       <c r="L3" s="23">
         <v>150</v>
       </c>
-      <c r="M3" s="58">
+      <c r="M3" s="23">
+        <f>(J3-L3)+H4</f>
+        <v>121.52839999999999</v>
+      </c>
+      <c r="N3" s="23">
+        <f>M3/L3</f>
+        <v>0.81018933333333332</v>
+      </c>
+      <c r="O3" s="58">
         <v>1</v>
       </c>
-      <c r="N3" s="58">
-        <f>100%-(M3+O3+P3)</f>
+      <c r="P3" s="58">
+        <f>100%-(O3+Q3+R3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="77">
+      <c r="Q3" s="77">
         <v>0</v>
       </c>
-      <c r="P3" s="77">
+      <c r="R3" s="77">
         <v>0</v>
       </c>
-      <c r="Q3" s="73">
+      <c r="S3" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R3" s="73"/>
-      <c r="V3" s="2" t="s">
+      <c r="T3" s="73"/>
+      <c r="X3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -5575,59 +5634,67 @@
         <v>1</v>
       </c>
       <c r="H4" s="40">
-        <f t="shared" ref="H4:H50" si="2">H3*$S$2</f>
-        <v>150.06250000000003</v>
+        <f t="shared" ref="H4:H50" si="2">H3*$U$2</f>
+        <v>149.32839999999999</v>
       </c>
       <c r="I4" s="40">
         <v>500</v>
       </c>
       <c r="J4" s="40">
         <f t="shared" si="1"/>
-        <v>650.0625</v>
+        <v>649.32839999999999</v>
       </c>
       <c r="K4" s="40">
         <v>0</v>
       </c>
       <c r="L4" s="24">
-        <f>L3*$V$4</f>
-        <v>187.5</v>
-      </c>
-      <c r="M4" s="59">
-        <f>M3-$Z$2</f>
+        <f>L3*$X$4</f>
+        <v>172.5</v>
+      </c>
+      <c r="M4" s="23">
+        <f t="shared" ref="M4:M50" si="3">(J4-L4)+H5</f>
+        <v>659.30770480000001</v>
+      </c>
+      <c r="N4" s="23">
+        <f t="shared" ref="N4:N50" si="4">M4/L4</f>
+        <v>3.822073651014493</v>
+      </c>
+      <c r="O4" s="59">
+        <f>O3-$AB$2</f>
         <v>0.98</v>
       </c>
-      <c r="N4" s="59">
-        <f t="shared" ref="N4:N49" si="3">100%-(M4+O4+P4)</f>
+      <c r="P4" s="59">
+        <f t="shared" ref="P4:P49" si="5">100%-(O4+Q4+R4)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="O4" s="78">
+      <c r="Q4" s="78">
         <v>0</v>
       </c>
-      <c r="P4" s="78">
+      <c r="R4" s="78">
         <v>0</v>
       </c>
-      <c r="Q4" s="73">
+      <c r="S4" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R4" s="73"/>
-      <c r="S4" s="88" t="s">
+      <c r="T4" s="73"/>
+      <c r="U4" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="21">
-        <v>1.25</v>
-      </c>
-      <c r="W4" s="21">
-        <v>1.35</v>
-      </c>
-      <c r="AB4" s="21">
+      <c r="X4" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>1.38</v>
+      </c>
+      <c r="AD4" s="21">
         <v>0.01</v>
       </c>
-      <c r="AC4" s="74">
+      <c r="AE4" s="74">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="6:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:31" x14ac:dyDescent="0.3">
       <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
@@ -5636,44 +5703,52 @@
       </c>
       <c r="H5" s="40">
         <f t="shared" si="2"/>
-        <v>183.82656250000005</v>
+        <v>182.47930479999999</v>
       </c>
       <c r="I5" s="40"/>
       <c r="J5" s="40">
-        <f t="shared" si="1"/>
-        <v>183.82656250000005</v>
+        <f>H5+I5</f>
+        <v>182.47930479999999</v>
       </c>
       <c r="K5" s="40">
         <v>0</v>
       </c>
       <c r="L5" s="24">
-        <f>L4*$V$2</f>
-        <v>215.62499999999997</v>
-      </c>
-      <c r="M5" s="59">
-        <f t="shared" ref="M5:M9" si="4">M4-$Z$2</f>
+        <f>L4*$X$2</f>
+        <v>198.37499999999997</v>
+      </c>
+      <c r="M5" s="23">
+        <f t="shared" si="3"/>
+        <v>207.09401526560001</v>
+      </c>
+      <c r="N5" s="23">
+        <f t="shared" si="4"/>
+        <v>1.0439521878543165</v>
+      </c>
+      <c r="O5" s="59">
+        <f t="shared" ref="O5:O9" si="6">O4-$AB$2</f>
         <v>0.96</v>
       </c>
-      <c r="N5" s="59">
-        <f t="shared" si="3"/>
+      <c r="P5" s="59">
+        <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="O5" s="78">
+      <c r="Q5" s="78">
         <v>0</v>
       </c>
-      <c r="P5" s="78">
+      <c r="R5" s="78">
         <v>0</v>
       </c>
-      <c r="Q5" s="73">
+      <c r="S5" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R5" s="73"/>
-      <c r="S5" s="89" t="s">
+      <c r="T5" s="73"/>
+      <c r="U5" s="89" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="6:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:31" x14ac:dyDescent="0.3">
       <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
@@ -5682,41 +5757,49 @@
       </c>
       <c r="H6" s="40">
         <f t="shared" si="2"/>
-        <v>225.18753906250006</v>
+        <v>222.98971046559998</v>
       </c>
       <c r="I6" s="40"/>
       <c r="J6" s="40">
-        <f t="shared" si="1"/>
-        <v>225.18753906250006</v>
+        <f>H6+I6</f>
+        <v>222.98971046559998</v>
       </c>
       <c r="K6" s="40">
         <v>0</v>
       </c>
       <c r="L6" s="24">
-        <f t="shared" ref="L6:L9" si="5">L5*$V$2</f>
-        <v>247.96874999999994</v>
-      </c>
-      <c r="M6" s="59">
+        <f t="shared" ref="L6:L9" si="7">L5*$X$2</f>
+        <v>228.13124999999994</v>
+      </c>
+      <c r="M6" s="23">
+        <f t="shared" si="3"/>
+        <v>267.3518866545632</v>
+      </c>
+      <c r="N6" s="23">
         <f t="shared" si="4"/>
+        <v>1.1719213683112826</v>
+      </c>
+      <c r="O6" s="59">
+        <f t="shared" si="6"/>
         <v>0.94</v>
       </c>
-      <c r="N6" s="59">
-        <f t="shared" si="3"/>
+      <c r="P6" s="59">
+        <f t="shared" si="5"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="O6" s="78">
+      <c r="Q6" s="78">
         <v>0</v>
       </c>
-      <c r="P6" s="78">
+      <c r="R6" s="78">
         <v>0</v>
       </c>
-      <c r="Q6" s="73">
+      <c r="S6" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R6" s="73"/>
+      <c r="T6" s="73"/>
     </row>
-    <row r="7" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
@@ -5725,41 +5808,49 @@
       </c>
       <c r="H7" s="40">
         <f t="shared" si="2"/>
-        <v>275.85473535156262</v>
+        <v>272.49342618896316</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="40">
         <f t="shared" si="1"/>
-        <v>275.85473535156262</v>
+        <v>272.49342618896316</v>
       </c>
       <c r="K7" s="40">
         <v>0</v>
       </c>
       <c r="L7" s="24">
+        <f t="shared" si="7"/>
+        <v>262.35093749999993</v>
+      </c>
+      <c r="M7" s="23">
+        <f t="shared" si="3"/>
+        <v>343.12945549187617</v>
+      </c>
+      <c r="N7" s="23">
+        <f t="shared" si="4"/>
+        <v>1.3079025322403366</v>
+      </c>
+      <c r="O7" s="59">
+        <f t="shared" si="6"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="P7" s="59">
         <f t="shared" si="5"/>
-        <v>285.16406249999989</v>
-      </c>
-      <c r="M7" s="59">
-        <f t="shared" si="4"/>
-        <v>0.91999999999999993</v>
-      </c>
-      <c r="N7" s="59">
-        <f t="shared" si="3"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="O7" s="78">
+      <c r="Q7" s="78">
         <v>0</v>
       </c>
-      <c r="P7" s="78">
+      <c r="R7" s="78">
         <v>0</v>
       </c>
-      <c r="Q7" s="73">
+      <c r="S7" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R7" s="73"/>
+      <c r="T7" s="73"/>
     </row>
-    <row r="8" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
@@ -5768,52 +5859,60 @@
       </c>
       <c r="H8" s="40">
         <f t="shared" si="2"/>
-        <v>337.92205080566424</v>
+        <v>332.98696680291295</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="40">
         <f t="shared" si="1"/>
-        <v>337.92205080566424</v>
+        <v>332.98696680291295</v>
       </c>
       <c r="K8" s="40">
         <v>0</v>
       </c>
       <c r="L8" s="24">
+        <f t="shared" si="7"/>
+        <v>301.70357812499992</v>
+      </c>
+      <c r="M8" s="23">
+        <f t="shared" si="3"/>
+        <v>438.19346211107262</v>
+      </c>
+      <c r="N8" s="23">
+        <f t="shared" si="4"/>
+        <v>1.4523972994762531</v>
+      </c>
+      <c r="O8" s="59">
+        <f t="shared" si="6"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="P8" s="59">
         <f t="shared" si="5"/>
-        <v>327.93867187499984</v>
-      </c>
-      <c r="M8" s="59">
-        <f t="shared" si="4"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="N8" s="59">
-        <f t="shared" si="3"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O8" s="78">
+      <c r="Q8" s="78">
         <v>0</v>
       </c>
-      <c r="P8" s="78">
+      <c r="R8" s="78">
         <v>0</v>
       </c>
-      <c r="Q8" s="73">
+      <c r="S8" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R8" s="73"/>
-      <c r="S8" s="90">
+      <c r="T8" s="73"/>
+      <c r="U8" s="90">
         <f>SUM(L2:L19)</f>
-        <v>11836.199776625674</v>
-      </c>
-      <c r="T8" s="91"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="93">
+        <v>9761.2640045671742</v>
+      </c>
+      <c r="V8" s="91"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="93">
         <f>SUM(J2:J19)</f>
-        <v>21158.478446091838</v>
-      </c>
-      <c r="W8" s="92"/>
+        <v>19910.449883927638</v>
+      </c>
+      <c r="Y8" s="92"/>
     </row>
-    <row r="9" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
@@ -5822,41 +5921,49 @@
       </c>
       <c r="H9" s="40">
         <f t="shared" si="2"/>
-        <v>413.95451223693874</v>
+        <v>406.9100734331596</v>
       </c>
       <c r="I9" s="40"/>
       <c r="J9" s="40">
         <f t="shared" si="1"/>
-        <v>413.95451223693874</v>
+        <v>406.9100734331596</v>
       </c>
       <c r="K9" s="40">
         <v>0</v>
       </c>
       <c r="L9" s="24">
+        <f t="shared" si="7"/>
+        <v>346.95911484374989</v>
+      </c>
+      <c r="M9" s="23">
+        <f t="shared" si="3"/>
+        <v>557.19506832473076</v>
+      </c>
+      <c r="N9" s="23">
+        <f t="shared" si="4"/>
+        <v>1.6059386956173751</v>
+      </c>
+      <c r="O9" s="59">
+        <f t="shared" si="6"/>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="P9" s="59">
         <f t="shared" si="5"/>
-        <v>377.12947265624979</v>
-      </c>
-      <c r="M9" s="59">
-        <f t="shared" si="4"/>
-        <v>0.87999999999999989</v>
-      </c>
-      <c r="N9" s="59">
-        <f t="shared" si="3"/>
         <v>0.12000000000000011</v>
       </c>
-      <c r="O9" s="78">
+      <c r="Q9" s="78">
         <v>0</v>
       </c>
-      <c r="P9" s="78">
+      <c r="R9" s="78">
         <v>0</v>
       </c>
-      <c r="Q9" s="73">
+      <c r="S9" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R9" s="73"/>
+      <c r="T9" s="73"/>
     </row>
-    <row r="10" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
@@ -5865,55 +5972,63 @@
       </c>
       <c r="H10" s="41">
         <f t="shared" si="2"/>
-        <v>507.09427749024997</v>
+        <v>497.24410973532099</v>
       </c>
       <c r="I10" s="41">
-        <f>H10*$T$2</f>
-        <v>902.62781393264493</v>
+        <f>H10*$V$2</f>
+        <v>745.86616460298148</v>
       </c>
       <c r="J10" s="41">
         <f t="shared" si="1"/>
-        <v>1409.7220914228949</v>
+        <v>1243.1102743383026</v>
       </c>
       <c r="K10" s="41">
         <v>0</v>
       </c>
       <c r="L10" s="25">
-        <f>L9*$V$4</f>
-        <v>471.41184082031225</v>
-      </c>
-      <c r="M10" s="60">
-        <f>M9-$Z$2</f>
+        <f>L9*$X$4</f>
+        <v>399.00298207031233</v>
+      </c>
+      <c r="M10" s="23">
+        <f t="shared" si="3"/>
+        <v>1451.7395943645524</v>
+      </c>
+      <c r="N10" s="23">
+        <f t="shared" si="4"/>
+        <v>3.6384179056304067</v>
+      </c>
+      <c r="O10" s="60">
+        <f>O9-$AB$2</f>
         <v>0.85999999999999988</v>
       </c>
-      <c r="N10" s="60">
-        <f t="shared" si="3"/>
+      <c r="P10" s="60">
+        <f t="shared" si="5"/>
         <v>0.14000000000000012</v>
       </c>
-      <c r="O10" s="79">
+      <c r="Q10" s="79">
         <v>0</v>
       </c>
-      <c r="P10" s="79">
+      <c r="R10" s="79">
         <v>0</v>
       </c>
-      <c r="Q10" s="73">
+      <c r="S10" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R10" s="73"/>
-      <c r="S10" s="90">
+      <c r="T10" s="73"/>
+      <c r="U10" s="90">
         <f>SUM(L2:L28)</f>
-        <v>71388.737290618927</v>
-      </c>
-      <c r="T10" s="91"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="93">
+        <v>77552.798784751198</v>
+      </c>
+      <c r="V10" s="91"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="93">
         <f>SUM(J2:J28)</f>
-        <v>153248.81577491676</v>
-      </c>
-      <c r="W10" s="92"/>
+        <v>138422.88651280088</v>
+      </c>
+      <c r="Y10" s="92"/>
     </row>
-    <row r="11" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F11" s="6" t="s">
         <v>8</v>
       </c>
@@ -5922,41 +6037,49 @@
       </c>
       <c r="H11" s="41">
         <f t="shared" si="2"/>
-        <v>621.19048992555622</v>
+        <v>607.63230209656228</v>
       </c>
       <c r="I11" s="41"/>
       <c r="J11" s="41">
         <f t="shared" si="1"/>
-        <v>621.19048992555622</v>
+        <v>607.63230209656228</v>
       </c>
       <c r="K11" s="41">
         <v>0</v>
       </c>
       <c r="L11" s="25">
-        <f>L10*$V$2</f>
-        <v>542.12361694335902</v>
-      </c>
-      <c r="M11" s="60">
-        <f>M10-$Z$2</f>
+        <f>L10*$X$2</f>
+        <v>458.85342938085915</v>
+      </c>
+      <c r="M11" s="23">
+        <f t="shared" si="3"/>
+        <v>891.30554587770212</v>
+      </c>
+      <c r="N11" s="23">
+        <f t="shared" si="4"/>
+        <v>1.9424624265756496</v>
+      </c>
+      <c r="O11" s="60">
+        <f>O10-$AB$2</f>
         <v>0.83999999999999986</v>
       </c>
-      <c r="N11" s="60">
-        <f t="shared" si="3"/>
+      <c r="P11" s="60">
+        <f t="shared" si="5"/>
         <v>0.16000000000000014</v>
       </c>
-      <c r="O11" s="79">
+      <c r="Q11" s="79">
         <v>0</v>
       </c>
-      <c r="P11" s="79">
+      <c r="R11" s="79">
         <v>0</v>
       </c>
-      <c r="Q11" s="73">
+      <c r="S11" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R11" s="73"/>
+      <c r="T11" s="73"/>
     </row>
-    <row r="12" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="6" t="s">
         <v>8</v>
       </c>
@@ -5965,52 +6088,60 @@
       </c>
       <c r="H12" s="41">
         <f t="shared" si="2"/>
-        <v>760.95835015880641</v>
+        <v>742.52667316199904</v>
       </c>
       <c r="I12" s="41"/>
       <c r="J12" s="41">
         <f t="shared" si="1"/>
-        <v>760.95835015880641</v>
+        <v>742.52667316199904</v>
       </c>
       <c r="K12" s="41">
         <v>0</v>
       </c>
       <c r="L12" s="25">
-        <f t="shared" ref="L12:L15" si="6">L11*$V$2</f>
-        <v>623.44215948486283</v>
-      </c>
-      <c r="M12" s="60">
-        <f t="shared" ref="M12:M15" si="7">M11-$Z$2</f>
+        <f t="shared" ref="L12:L15" si="8">L11*$X$2</f>
+        <v>527.68144378798797</v>
+      </c>
+      <c r="M12" s="23">
+        <f t="shared" si="3"/>
+        <v>1122.212823977974</v>
+      </c>
+      <c r="N12" s="23">
+        <f t="shared" si="4"/>
+        <v>2.1266861611090819</v>
+      </c>
+      <c r="O12" s="60">
+        <f t="shared" ref="O12:O15" si="9">O11-$AB$2</f>
         <v>0.81999999999999984</v>
       </c>
-      <c r="N12" s="60">
-        <f t="shared" si="3"/>
+      <c r="P12" s="60">
+        <f t="shared" si="5"/>
         <v>0.18000000000000016</v>
       </c>
-      <c r="O12" s="79">
+      <c r="Q12" s="79">
         <v>0</v>
       </c>
-      <c r="P12" s="79">
+      <c r="R12" s="79">
         <v>0</v>
       </c>
-      <c r="Q12" s="73">
+      <c r="S12" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R12" s="73"/>
-      <c r="S12" s="90">
+      <c r="T12" s="73"/>
+      <c r="U12" s="90">
         <f>SUM(L2:L46)</f>
-        <v>3723136.3616102319</v>
-      </c>
-      <c r="T12" s="91"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="93">
+        <v>11846132.10434635</v>
+      </c>
+      <c r="V12" s="91"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="93">
         <f>SUM(J2:J46)</f>
-        <v>6070851.991775875</v>
-      </c>
-      <c r="W12" s="92"/>
+        <v>5234223.5374012599</v>
+      </c>
+      <c r="Y12" s="92"/>
     </row>
-    <row r="13" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="6" t="s">
         <v>8</v>
       </c>
@@ -6019,41 +6150,49 @@
       </c>
       <c r="H13" s="41">
         <f t="shared" si="2"/>
-        <v>932.17397894453791</v>
+        <v>907.36759460396286</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="41">
         <f t="shared" si="1"/>
-        <v>932.17397894453791</v>
+        <v>907.36759460396286</v>
       </c>
       <c r="K13" s="41">
         <v>0</v>
       </c>
       <c r="L13" s="25">
-        <f t="shared" si="6"/>
-        <v>716.95848340759221</v>
-      </c>
-      <c r="M13" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>606.8336603561861</v>
+      </c>
+      <c r="M13" s="23">
+        <f t="shared" si="3"/>
+        <v>1409.3371348538194</v>
+      </c>
+      <c r="N13" s="23">
+        <f t="shared" si="4"/>
+        <v>2.322443903369825</v>
+      </c>
+      <c r="O13" s="60">
+        <f t="shared" si="9"/>
         <v>0.79999999999999982</v>
       </c>
-      <c r="N13" s="60">
-        <f t="shared" si="3"/>
+      <c r="P13" s="60">
+        <f t="shared" si="5"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="O13" s="79">
+      <c r="Q13" s="79">
         <v>0</v>
       </c>
-      <c r="P13" s="79">
+      <c r="R13" s="79">
         <v>0</v>
       </c>
-      <c r="Q13" s="73">
+      <c r="S13" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R13" s="73"/>
+      <c r="T13" s="73"/>
     </row>
-    <row r="14" spans="6:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
@@ -6062,52 +6201,60 @@
       </c>
       <c r="H14" s="41">
         <f t="shared" si="2"/>
-        <v>1141.9131242070591</v>
+        <v>1108.8032006060425</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="41">
         <f t="shared" si="1"/>
-        <v>1141.9131242070591</v>
+        <v>1108.8032006060425</v>
       </c>
       <c r="K14" s="41">
         <v>0</v>
       </c>
       <c r="L14" s="25">
-        <f t="shared" si="6"/>
-        <v>824.50225591873095</v>
-      </c>
-      <c r="M14" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>697.85870940961399</v>
+      </c>
+      <c r="M14" s="23">
+        <f t="shared" si="3"/>
+        <v>1765.9020023370124</v>
+      </c>
+      <c r="N14" s="23">
+        <f t="shared" si="4"/>
+        <v>2.5304577825373267</v>
+      </c>
+      <c r="O14" s="60">
+        <f t="shared" si="9"/>
         <v>0.7799999999999998</v>
       </c>
-      <c r="N14" s="60">
-        <f t="shared" si="3"/>
+      <c r="P14" s="60">
+        <f t="shared" si="5"/>
         <v>0.2200000000000002</v>
       </c>
-      <c r="O14" s="79">
+      <c r="Q14" s="79">
         <v>0</v>
       </c>
-      <c r="P14" s="79">
+      <c r="R14" s="79">
         <v>0</v>
       </c>
-      <c r="Q14" s="73">
+      <c r="S14" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R14" s="73"/>
-      <c r="S14" s="90">
+      <c r="T14" s="73"/>
+      <c r="U14" s="90">
         <f>SUM(L2:L50)</f>
-        <v>10123359.998018922</v>
-      </c>
-      <c r="T14" s="91"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="93">
+        <v>39177495.427288651</v>
+      </c>
+      <c r="V14" s="91"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="93">
         <f>SUM(J2:J50)</f>
-        <v>20377812.273321323</v>
-      </c>
-      <c r="W14" s="92"/>
+        <v>16706776.707720473</v>
+      </c>
+      <c r="Y14" s="92"/>
     </row>
-    <row r="15" spans="6:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:31" x14ac:dyDescent="0.3">
       <c r="F15" s="6" t="s">
         <v>8</v>
       </c>
@@ -6116,41 +6263,49 @@
       </c>
       <c r="H15" s="41">
         <f t="shared" si="2"/>
-        <v>1398.8435771536476</v>
+        <v>1354.9575111405838</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="41">
         <f t="shared" si="1"/>
-        <v>1398.8435771536476</v>
+        <v>1354.9575111405838</v>
       </c>
       <c r="K15" s="41">
         <v>0</v>
       </c>
       <c r="L15" s="25">
-        <f t="shared" si="6"/>
-        <v>948.17759430654053</v>
-      </c>
-      <c r="M15" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>802.53751582105599</v>
+      </c>
+      <c r="M15" s="23">
+        <f t="shared" si="3"/>
+        <v>2208.1780739333212</v>
+      </c>
+      <c r="N15" s="23">
+        <f t="shared" si="4"/>
+        <v>2.751495139357055</v>
+      </c>
+      <c r="O15" s="60">
+        <f t="shared" si="9"/>
         <v>0.75999999999999979</v>
       </c>
-      <c r="N15" s="60">
-        <f t="shared" si="3"/>
+      <c r="P15" s="60">
+        <f t="shared" si="5"/>
         <v>0.24000000000000021</v>
       </c>
-      <c r="O15" s="79">
+      <c r="Q15" s="79">
         <v>0</v>
       </c>
-      <c r="P15" s="79">
+      <c r="R15" s="79">
         <v>0</v>
       </c>
-      <c r="Q15" s="73">
+      <c r="S15" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R15" s="73"/>
+      <c r="T15" s="73"/>
     </row>
-    <row r="16" spans="6:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:31" x14ac:dyDescent="0.3">
       <c r="F16" s="7" t="s">
         <v>9</v>
       </c>
@@ -6159,44 +6314,52 @@
       </c>
       <c r="H16" s="42">
         <f t="shared" si="2"/>
-        <v>1713.5833820132184</v>
+        <v>1655.7580786137935</v>
       </c>
       <c r="I16" s="42">
-        <f>H16*$T$2</f>
-        <v>3050.1784199835288</v>
+        <f>H16*$V$2</f>
+        <v>2483.6371179206903</v>
       </c>
       <c r="J16" s="42">
         <f t="shared" si="1"/>
-        <v>4763.7618019967467</v>
+        <v>4139.3951965344841</v>
       </c>
       <c r="K16" s="42">
         <v>0</v>
       </c>
       <c r="L16" s="26">
-        <f>L15*$V$4</f>
-        <v>1185.2219928831757</v>
-      </c>
-      <c r="M16" s="61">
-        <f>M15-$Z$2</f>
+        <f>L15*$X$4</f>
+        <v>922.91814319421428</v>
+      </c>
+      <c r="M16" s="23">
+        <f t="shared" si="3"/>
+        <v>5239.8134254063252</v>
+      </c>
+      <c r="N16" s="23">
+        <f t="shared" si="4"/>
+        <v>5.6774411295798801</v>
+      </c>
+      <c r="O16" s="61">
+        <f>O15-$AB$2</f>
         <v>0.73999999999999977</v>
       </c>
-      <c r="N16" s="61">
-        <f t="shared" si="3"/>
+      <c r="P16" s="61">
+        <f t="shared" si="5"/>
         <v>0.26000000000000023</v>
       </c>
-      <c r="O16" s="80">
+      <c r="Q16" s="80">
         <v>0</v>
       </c>
-      <c r="P16" s="80">
+      <c r="R16" s="80">
         <v>0</v>
       </c>
-      <c r="Q16" s="73">
+      <c r="S16" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R16" s="73"/>
+      <c r="T16" s="73"/>
     </row>
-    <row r="17" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F17" s="7" t="s">
         <v>9</v>
       </c>
@@ -6205,41 +6368,49 @@
       </c>
       <c r="H17" s="42">
         <f t="shared" si="2"/>
-        <v>2099.1396429661927</v>
+        <v>2023.3363720660557</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="42">
         <f t="shared" si="1"/>
-        <v>2099.1396429661927</v>
+        <v>2023.3363720660557</v>
       </c>
       <c r="K17" s="42">
         <v>0</v>
       </c>
       <c r="L17" s="26">
-        <f>L16*$V$2</f>
-        <v>1363.0052918156521</v>
-      </c>
-      <c r="M17" s="61">
-        <f>M16-$Z$2</f>
+        <f>L16*$X$2</f>
+        <v>1061.3558646733463</v>
+      </c>
+      <c r="M17" s="23">
+        <f t="shared" si="3"/>
+        <v>3434.4975540574296</v>
+      </c>
+      <c r="N17" s="23">
+        <f t="shared" si="4"/>
+        <v>3.2359528678107088</v>
+      </c>
+      <c r="O17" s="61">
+        <f>O16-$AB$2</f>
         <v>0.71999999999999975</v>
       </c>
-      <c r="N17" s="61">
-        <f t="shared" si="3"/>
+      <c r="P17" s="61">
+        <f t="shared" si="5"/>
         <v>0.28000000000000025</v>
       </c>
-      <c r="O17" s="80">
+      <c r="Q17" s="80">
         <v>0</v>
       </c>
-      <c r="P17" s="80">
+      <c r="R17" s="80">
         <v>0</v>
       </c>
-      <c r="Q17" s="73">
+      <c r="S17" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R17" s="73"/>
+      <c r="T17" s="73"/>
     </row>
-    <row r="18" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F18" s="7" t="s">
         <v>9</v>
       </c>
@@ -6248,41 +6419,49 @@
       </c>
       <c r="H18" s="42">
         <f t="shared" si="2"/>
-        <v>2571.4460626335863</v>
+        <v>2472.5170466647201</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="42">
         <f t="shared" si="1"/>
-        <v>2571.4460626335863</v>
+        <v>2472.5170466647201</v>
       </c>
       <c r="K18" s="42">
         <v>0</v>
       </c>
       <c r="L18" s="26">
-        <f t="shared" ref="L18:L19" si="8">L17*$V$2</f>
-        <v>1567.4560855879997</v>
-      </c>
-      <c r="M18" s="61">
-        <f t="shared" ref="M18" si="9">M17-$Z$2</f>
+        <f t="shared" ref="L18:L19" si="10">L17*$X$2</f>
+        <v>1220.5592443743483</v>
+      </c>
+      <c r="M18" s="23">
+        <f t="shared" si="3"/>
+        <v>4273.3736333146599</v>
+      </c>
+      <c r="N18" s="23">
+        <f t="shared" si="4"/>
+        <v>3.5011603517084229</v>
+      </c>
+      <c r="O18" s="61">
+        <f t="shared" ref="O18" si="11">O17-$AB$2</f>
         <v>0.69999999999999973</v>
       </c>
-      <c r="N18" s="61">
-        <f t="shared" si="3"/>
+      <c r="P18" s="61">
+        <f t="shared" si="5"/>
         <v>0.30000000000000027</v>
       </c>
-      <c r="O18" s="80">
+      <c r="Q18" s="80">
         <v>0</v>
       </c>
-      <c r="P18" s="80">
+      <c r="R18" s="80">
         <v>0</v>
       </c>
-      <c r="Q18" s="73">
+      <c r="S18" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R18" s="73"/>
+      <c r="T18" s="73"/>
     </row>
-    <row r="19" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F19" s="7" t="s">
         <v>9</v>
       </c>
@@ -6291,41 +6470,49 @@
       </c>
       <c r="H19" s="42">
         <f t="shared" si="2"/>
-        <v>3150.0214267261435</v>
+        <v>3021.4158310242879</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="42">
         <f t="shared" si="1"/>
-        <v>3150.0214267261435</v>
+        <v>3021.4158310242879</v>
       </c>
       <c r="K19" s="42">
         <v>0</v>
       </c>
       <c r="L19" s="26">
-        <f t="shared" si="8"/>
-        <v>1802.5744984261996</v>
-      </c>
-      <c r="M19" s="61">
-        <f>M18-$Z$2</f>
+        <f t="shared" si="10"/>
+        <v>1403.6431310305004</v>
+      </c>
+      <c r="M19" s="23">
+        <f t="shared" si="3"/>
+        <v>5309.9428455054667</v>
+      </c>
+      <c r="N19" s="23">
+        <f t="shared" si="4"/>
+        <v>3.7829721302501671</v>
+      </c>
+      <c r="O19" s="61">
+        <f>O18-$AB$2</f>
         <v>0.67999999999999972</v>
       </c>
-      <c r="N19" s="61">
-        <f t="shared" si="3"/>
+      <c r="P19" s="61">
+        <f t="shared" si="5"/>
         <v>0.32000000000000028</v>
       </c>
-      <c r="O19" s="80">
+      <c r="Q19" s="80">
         <v>0</v>
       </c>
-      <c r="P19" s="80">
+      <c r="R19" s="80">
         <v>0</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="S19" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R19" s="73"/>
+      <c r="T19" s="73"/>
     </row>
-    <row r="20" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F20" s="8" t="s">
         <v>10</v>
       </c>
@@ -6334,46 +6521,54 @@
       </c>
       <c r="H20" s="43">
         <f t="shared" si="2"/>
-        <v>3858.7762477395263</v>
+        <v>3692.1701455116795</v>
       </c>
       <c r="I20" s="43">
-        <f>H20*$T$2</f>
-        <v>6868.6217209763572</v>
+        <f>H20*$V$2</f>
+        <v>5538.255218267519</v>
       </c>
       <c r="J20" s="43">
         <f t="shared" si="1"/>
-        <v>10727.397968715883</v>
+        <v>9230.425363779199</v>
       </c>
       <c r="K20" s="43">
-        <f>(I20+J20)*$U$2</f>
-        <v>19003.701264867621</v>
+        <f>(I20+J20)*$W$2</f>
+        <v>15950.175028610456</v>
       </c>
       <c r="L20" s="27">
-        <f>L19*$W$4</f>
-        <v>2433.4755728753698</v>
-      </c>
-      <c r="M20" s="62">
-        <f>M19-$AA$2</f>
+        <f>L19*$Y$4</f>
+        <v>1937.0275208220903</v>
+      </c>
+      <c r="M20" s="23">
+        <f>(J20-L20)+H21</f>
+        <v>11805.229760772381</v>
+      </c>
+      <c r="N20" s="23">
+        <f t="shared" si="4"/>
+        <v>6.0945080200833415</v>
+      </c>
+      <c r="O20" s="62">
+        <f>O19-$AC$2</f>
         <v>0.6579999999999997</v>
       </c>
-      <c r="N20" s="62">
-        <f t="shared" si="3"/>
+      <c r="P20" s="62">
+        <f t="shared" si="5"/>
         <v>0.33200000000000029</v>
       </c>
-      <c r="O20" s="62">
-        <f>AB4</f>
+      <c r="Q20" s="62">
+        <f>AD4</f>
         <v>0.01</v>
       </c>
-      <c r="P20" s="81">
+      <c r="R20" s="81">
         <v>0</v>
       </c>
-      <c r="Q20" s="73">
+      <c r="S20" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R20" s="73"/>
+      <c r="T20" s="73"/>
     </row>
-    <row r="21" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F21" s="8" t="s">
         <v>10</v>
       </c>
@@ -6382,40 +6577,48 @@
       </c>
       <c r="H21" s="43">
         <f t="shared" si="2"/>
-        <v>4727.00090348092</v>
+        <v>4511.8319178152724</v>
       </c>
       <c r="I21" s="43"/>
       <c r="J21" s="43">
         <f t="shared" si="1"/>
-        <v>4727.00090348092</v>
+        <v>4511.8319178152724</v>
       </c>
       <c r="K21" s="43"/>
       <c r="L21" s="27">
-        <f>L20*$W$2</f>
-        <v>2920.1706874504439</v>
-      </c>
-      <c r="M21" s="62">
-        <f>M20-$Z$2</f>
+        <f>L20*$Y$2</f>
+        <v>2518.1357770687173</v>
+      </c>
+      <c r="M21" s="23">
+        <f t="shared" si="3"/>
+        <v>7507.1547443168174</v>
+      </c>
+      <c r="N21" s="23">
+        <f t="shared" si="4"/>
+        <v>2.9812350917215671</v>
+      </c>
+      <c r="O21" s="62">
+        <f>O20-$AB$2</f>
         <v>0.63799999999999968</v>
       </c>
-      <c r="N21" s="62">
-        <f t="shared" si="3"/>
+      <c r="P21" s="62">
+        <f t="shared" si="5"/>
         <v>0.34050000000000036</v>
       </c>
-      <c r="O21" s="62">
-        <f>O20+$AB$2</f>
+      <c r="Q21" s="62">
+        <f>Q20+$AD$2</f>
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="P21" s="81">
+      <c r="R21" s="81">
         <v>0</v>
       </c>
-      <c r="Q21" s="73">
+      <c r="S21" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R21" s="73"/>
+      <c r="T21" s="73"/>
     </row>
-    <row r="22" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F22" s="8" t="s">
         <v>10</v>
       </c>
@@ -6424,40 +6627,48 @@
       </c>
       <c r="H22" s="43">
         <f t="shared" si="2"/>
-        <v>5790.576106764127</v>
+        <v>5513.4586035702623</v>
       </c>
       <c r="I22" s="43"/>
       <c r="J22" s="43">
         <f t="shared" si="1"/>
-        <v>5790.576106764127</v>
+        <v>5513.4586035702623</v>
       </c>
       <c r="K22" s="43"/>
       <c r="L22" s="27">
-        <f>L21*$W$2</f>
-        <v>3504.2048249405325</v>
-      </c>
-      <c r="M22" s="62">
-        <f>M21-$Z$2</f>
+        <f>L21*$Y$2</f>
+        <v>3273.5765101893326</v>
+      </c>
+      <c r="M22" s="23">
+        <f t="shared" si="3"/>
+        <v>8977.3285069437898</v>
+      </c>
+      <c r="N22" s="23">
+        <f t="shared" si="4"/>
+        <v>2.742360986218273</v>
+      </c>
+      <c r="O22" s="62">
+        <f>O21-$AB$2</f>
         <v>0.61799999999999966</v>
       </c>
-      <c r="N22" s="62">
-        <f t="shared" si="3"/>
+      <c r="P22" s="62">
+        <f t="shared" si="5"/>
         <v>0.34900000000000031</v>
       </c>
-      <c r="O22" s="62">
-        <f t="shared" ref="O22:O50" si="10">O21+$AB$2</f>
+      <c r="Q22" s="62">
+        <f t="shared" ref="Q22:Q50" si="12">Q21+$AD$2</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="P22" s="81">
+      <c r="R22" s="81">
         <v>0</v>
       </c>
-      <c r="Q22" s="73">
+      <c r="S22" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R22" s="73"/>
+      <c r="T22" s="73"/>
     </row>
-    <row r="23" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F23" s="9" t="s">
         <v>11</v>
       </c>
@@ -6466,46 +6677,54 @@
       </c>
       <c r="H23" s="44">
         <f t="shared" si="2"/>
-        <v>7093.4557307860559</v>
+        <v>6737.4464135628605</v>
       </c>
       <c r="I23" s="44">
-        <f>H23*$T$2</f>
-        <v>12626.351200799179</v>
+        <f>H23*$V$2</f>
+        <v>10106.169620344292</v>
       </c>
       <c r="J23" s="44">
         <f t="shared" si="1"/>
-        <v>19719.806931585234</v>
+        <v>16843.61603390715</v>
       </c>
       <c r="K23" s="44">
-        <f>(I23+J23)*$U$2</f>
-        <v>34933.850782975169</v>
+        <f>(I23+J23)*$W$2</f>
+        <v>29105.768506591558</v>
       </c>
       <c r="L23" s="28">
-        <f>L22*$W$4</f>
-        <v>4730.6765136697195</v>
-      </c>
-      <c r="M23" s="63">
-        <f>M22-$AA$2</f>
+        <f>L22*$Y$4</f>
+        <v>4517.5355840612783</v>
+      </c>
+      <c r="M23" s="23">
+        <f t="shared" si="3"/>
+        <v>20559.239967219684</v>
+      </c>
+      <c r="N23" s="23">
+        <f t="shared" si="4"/>
+        <v>4.550985727651284</v>
+      </c>
+      <c r="O23" s="63">
+        <f>O22-$AC$2</f>
         <v>0.59599999999999964</v>
       </c>
-      <c r="N23" s="63">
-        <f t="shared" si="3"/>
+      <c r="P23" s="63">
+        <f t="shared" si="5"/>
         <v>0.35950000000000037</v>
       </c>
-      <c r="O23" s="63">
-        <f t="shared" si="10"/>
+      <c r="Q23" s="63">
+        <f t="shared" si="12"/>
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="P23" s="82">
+      <c r="R23" s="82">
         <v>0</v>
       </c>
-      <c r="Q23" s="73">
+      <c r="S23" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R23" s="73"/>
+      <c r="T23" s="73"/>
     </row>
-    <row r="24" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F24" s="9" t="s">
         <v>11</v>
       </c>
@@ -6514,40 +6733,48 @@
       </c>
       <c r="H24" s="44">
         <f t="shared" si="2"/>
-        <v>8689.4832702129188</v>
+        <v>8233.1595173738151</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44">
         <f t="shared" si="1"/>
-        <v>8689.4832702129188</v>
+        <v>8233.1595173738151</v>
       </c>
       <c r="K24" s="44"/>
       <c r="L24" s="28">
-        <f>L23*$W$2</f>
-        <v>5676.8118164036632</v>
-      </c>
-      <c r="M24" s="63">
-        <f>M23-$Z$2</f>
+        <f>L23*$Y$2</f>
+        <v>5872.7962592796621</v>
+      </c>
+      <c r="M24" s="23">
+        <f t="shared" si="3"/>
+        <v>12421.284188324957</v>
+      </c>
+      <c r="N24" s="23">
+        <f t="shared" si="4"/>
+        <v>2.1150545055429033</v>
+      </c>
+      <c r="O24" s="63">
+        <f>O23-$AB$2</f>
         <v>0.57599999999999962</v>
       </c>
-      <c r="N24" s="63">
-        <f t="shared" si="3"/>
+      <c r="P24" s="63">
+        <f t="shared" si="5"/>
         <v>0.36800000000000033</v>
       </c>
-      <c r="O24" s="63">
-        <f t="shared" si="10"/>
+      <c r="Q24" s="63">
+        <f t="shared" si="12"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="P24" s="82">
+      <c r="R24" s="82">
         <v>0</v>
       </c>
-      <c r="Q24" s="73">
+      <c r="S24" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R24" s="73"/>
+      <c r="T24" s="73"/>
     </row>
-    <row r="25" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
@@ -6556,40 +6783,48 @@
       </c>
       <c r="H25" s="44">
         <f t="shared" si="2"/>
-        <v>10644.617006010827</v>
+        <v>10060.920930230803</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44">
         <f t="shared" si="1"/>
-        <v>10644.617006010827</v>
+        <v>10060.920930230803</v>
       </c>
       <c r="K25" s="44"/>
       <c r="L25" s="28">
-        <f>L24*$W$2</f>
-        <v>6812.1741796843953</v>
-      </c>
-      <c r="M25" s="63">
-        <f>M24-$Z$2</f>
+        <f>L24*$Y$2</f>
+        <v>7634.6351370635612</v>
+      </c>
+      <c r="M25" s="23">
+        <f t="shared" si="3"/>
+        <v>14720.731169909282</v>
+      </c>
+      <c r="N25" s="23">
+        <f t="shared" si="4"/>
+        <v>1.9281512352103287</v>
+      </c>
+      <c r="O25" s="63">
+        <f>O24-$AB$2</f>
         <v>0.55599999999999961</v>
       </c>
-      <c r="N25" s="63">
-        <f t="shared" si="3"/>
+      <c r="P25" s="63">
+        <f t="shared" si="5"/>
         <v>0.37650000000000039</v>
       </c>
-      <c r="O25" s="63">
-        <f t="shared" si="10"/>
+      <c r="Q25" s="63">
+        <f t="shared" si="12"/>
         <v>6.7499999999999991E-2</v>
       </c>
-      <c r="P25" s="82">
+      <c r="R25" s="82">
         <v>0</v>
       </c>
-      <c r="Q25" s="73">
+      <c r="S25" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R25" s="73"/>
+      <c r="T25" s="73"/>
     </row>
-    <row r="26" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F26" s="10" t="s">
         <v>12</v>
       </c>
@@ -6598,46 +6833,54 @@
       </c>
       <c r="H26" s="45">
         <f t="shared" si="2"/>
-        <v>13039.655832363263</v>
+        <v>12294.44537674204</v>
       </c>
       <c r="I26" s="45">
-        <f>H26*$T$2</f>
-        <v>23210.587381606609</v>
+        <f>H26*$V$2</f>
+        <v>18441.668065113059</v>
       </c>
       <c r="J26" s="45">
         <f t="shared" si="1"/>
-        <v>36250.243213969872</v>
+        <v>30736.113441855101</v>
       </c>
       <c r="K26" s="45">
-        <f>(I26+J26)*$U$2</f>
-        <v>64217.697043222601</v>
+        <f>(I26+J26)*$W$2</f>
+        <v>53112.004027525618</v>
       </c>
       <c r="L26" s="29">
-        <f>L25*$W$4</f>
-        <v>9196.4351425739351</v>
-      </c>
-      <c r="M26" s="64">
-        <f>M25-$AA$2</f>
+        <f>L25*$Y$4</f>
+        <v>10535.796489147713</v>
+      </c>
+      <c r="M26" s="23">
+        <f t="shared" si="3"/>
+        <v>35224.129203086159</v>
+      </c>
+      <c r="N26" s="23">
+        <f t="shared" si="4"/>
+        <v>3.3432810931160644</v>
+      </c>
+      <c r="O26" s="64">
+        <f>O25-$AC$2</f>
         <v>0.53399999999999959</v>
       </c>
-      <c r="N26" s="64">
-        <f t="shared" si="3"/>
+      <c r="P26" s="64">
+        <f t="shared" si="5"/>
         <v>0.38700000000000045</v>
       </c>
-      <c r="O26" s="64">
-        <f t="shared" si="10"/>
+      <c r="Q26" s="64">
+        <f t="shared" si="12"/>
         <v>7.8999999999999987E-2</v>
       </c>
-      <c r="P26" s="83">
+      <c r="R26" s="83">
         <v>0</v>
       </c>
-      <c r="Q26" s="73">
+      <c r="S26" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R26" s="73"/>
+      <c r="T26" s="73"/>
     </row>
-    <row r="27" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F27" s="10" t="s">
         <v>12</v>
       </c>
@@ -6646,40 +6889,48 @@
       </c>
       <c r="H27" s="45">
         <f t="shared" si="2"/>
-        <v>15973.578394644999</v>
+        <v>15023.812250378773</v>
       </c>
       <c r="I27" s="45"/>
       <c r="J27" s="45">
         <f t="shared" si="1"/>
-        <v>15973.578394644999</v>
+        <v>15023.812250378773</v>
       </c>
       <c r="K27" s="45"/>
       <c r="L27" s="29">
-        <f>L26*$W$2</f>
-        <v>11035.722171088722</v>
-      </c>
-      <c r="M27" s="64">
-        <f>M26-$Z$2</f>
+        <f>L26*$Y$2</f>
+        <v>13696.535435892027</v>
+      </c>
+      <c r="M27" s="23">
+        <f t="shared" si="3"/>
+        <v>19686.375384449602</v>
+      </c>
+      <c r="N27" s="23">
+        <f t="shared" si="4"/>
+        <v>1.4373251890300001</v>
+      </c>
+      <c r="O27" s="64">
+        <f>O26-$AB$2</f>
         <v>0.51399999999999957</v>
       </c>
-      <c r="N27" s="64">
-        <f t="shared" si="3"/>
+      <c r="P27" s="64">
+        <f t="shared" si="5"/>
         <v>0.39550000000000041</v>
       </c>
-      <c r="O27" s="64">
-        <f t="shared" si="10"/>
+      <c r="Q27" s="64">
+        <f t="shared" si="12"/>
         <v>9.0499999999999983E-2</v>
       </c>
-      <c r="P27" s="83">
+      <c r="R27" s="83">
         <v>0</v>
       </c>
-      <c r="Q27" s="73">
+      <c r="S27" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R27" s="73"/>
+      <c r="T27" s="73"/>
     </row>
-    <row r="28" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F28" s="10" t="s">
         <v>12</v>
       </c>
@@ -6688,40 +6939,48 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="2"/>
-        <v>19567.633533440126</v>
+        <v>18359.098569962858</v>
       </c>
       <c r="I28" s="45"/>
       <c r="J28" s="45">
         <f t="shared" si="1"/>
-        <v>19567.633533440126</v>
+        <v>18359.098569962858</v>
       </c>
       <c r="K28" s="45"/>
       <c r="L28" s="29">
-        <f>L27*$W$2</f>
-        <v>13242.866605306466</v>
-      </c>
-      <c r="M28" s="64">
-        <f>M27-$Z$2</f>
+        <f>L27*$Y$2</f>
+        <v>17805.496066659634</v>
+      </c>
+      <c r="M28" s="23">
+        <f t="shared" si="3"/>
+        <v>22988.420955797836</v>
+      </c>
+      <c r="N28" s="23">
+        <f t="shared" si="4"/>
+        <v>1.2910856776882</v>
+      </c>
+      <c r="O28" s="64">
+        <f>O27-$AB$2</f>
         <v>0.49399999999999955</v>
       </c>
-      <c r="N28" s="64">
-        <f t="shared" si="3"/>
+      <c r="P28" s="64">
+        <f t="shared" si="5"/>
         <v>0.40400000000000047</v>
       </c>
-      <c r="O28" s="64">
-        <f t="shared" si="10"/>
+      <c r="Q28" s="64">
+        <f t="shared" si="12"/>
         <v>0.10199999999999998</v>
       </c>
-      <c r="P28" s="83">
+      <c r="R28" s="83">
         <v>0</v>
       </c>
-      <c r="Q28" s="73">
+      <c r="S28" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R28" s="73"/>
+      <c r="T28" s="73"/>
     </row>
-    <row r="29" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F29" s="11" t="s">
         <v>13</v>
       </c>
@@ -6730,46 +6989,54 @@
       </c>
       <c r="H29" s="46">
         <f t="shared" si="2"/>
-        <v>23970.351078464158</v>
+        <v>22434.818452494612</v>
       </c>
       <c r="I29" s="46">
-        <f>H29*$T$2</f>
-        <v>42667.224919666201</v>
+        <f>H29*$V$2</f>
+        <v>33652.227678741918</v>
       </c>
       <c r="J29" s="46">
         <f t="shared" si="1"/>
-        <v>66637.575998130356</v>
+        <v>56087.04613123653</v>
       </c>
       <c r="K29" s="46">
-        <f>(I29+J29)*$U$2</f>
-        <v>118049.18499122029</v>
+        <f>(I29+J29)*$W$2</f>
+        <v>96918.415714776726</v>
       </c>
       <c r="L29" s="30">
-        <f>L28*$W$4</f>
-        <v>17877.869917163731</v>
-      </c>
-      <c r="M29" s="65">
-        <f>M28-$AA$2</f>
+        <f>L28*$Y$4</f>
+        <v>24571.584571990294</v>
+      </c>
+      <c r="M29" s="23">
+        <f>(J29-L29)+H30</f>
+        <v>58930.809708194647</v>
+      </c>
+      <c r="N29" s="23">
+        <f t="shared" si="4"/>
+        <v>2.3983316800566135</v>
+      </c>
+      <c r="O29" s="65">
+        <f>O28-$AC$2</f>
         <v>0.47199999999999953</v>
       </c>
-      <c r="N29" s="65">
-        <f t="shared" si="3"/>
+      <c r="P29" s="65">
+        <f t="shared" si="5"/>
         <v>0.41450000000000053</v>
       </c>
-      <c r="O29" s="65">
-        <f t="shared" si="10"/>
+      <c r="Q29" s="65">
+        <f t="shared" si="12"/>
         <v>0.11349999999999998</v>
       </c>
-      <c r="P29" s="84">
+      <c r="R29" s="84">
         <v>0</v>
       </c>
-      <c r="Q29" s="73">
+      <c r="S29" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R29" s="73"/>
+      <c r="T29" s="73"/>
     </row>
-    <row r="30" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F30" s="11" t="s">
         <v>13</v>
       </c>
@@ -6778,40 +7045,48 @@
       </c>
       <c r="H30" s="46">
         <f t="shared" si="2"/>
-        <v>29363.680071118597</v>
+        <v>27415.348148948415</v>
       </c>
       <c r="I30" s="46"/>
       <c r="J30" s="46">
         <f t="shared" si="1"/>
-        <v>29363.680071118597</v>
+        <v>27415.348148948415</v>
       </c>
       <c r="K30" s="46"/>
       <c r="L30" s="30">
-        <f>L29*$W$2</f>
-        <v>21453.443900596478</v>
-      </c>
-      <c r="M30" s="65">
-        <f>M29-$Z$2</f>
+        <f>L29*$Y$2</f>
+        <v>31943.059943587381</v>
+      </c>
+      <c r="M30" s="23">
+        <f t="shared" si="3"/>
+        <v>28973.843643375996</v>
+      </c>
+      <c r="N30" s="23">
+        <f t="shared" si="4"/>
+        <v>0.90704659148324773</v>
+      </c>
+      <c r="O30" s="65">
+        <f>O29-$AB$2</f>
         <v>0.45199999999999951</v>
       </c>
-      <c r="N30" s="65">
-        <f t="shared" si="3"/>
+      <c r="P30" s="65">
+        <f t="shared" si="5"/>
         <v>0.42300000000000049</v>
       </c>
-      <c r="O30" s="65">
-        <f t="shared" si="10"/>
+      <c r="Q30" s="65">
+        <f t="shared" si="12"/>
         <v>0.12499999999999997</v>
       </c>
-      <c r="P30" s="84">
+      <c r="R30" s="84">
         <v>0</v>
       </c>
-      <c r="Q30" s="73">
+      <c r="S30" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R30" s="73"/>
+      <c r="T30" s="73"/>
     </row>
-    <row r="31" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F31" s="11" t="s">
         <v>13</v>
       </c>
@@ -6820,40 +7095,48 @@
       </c>
       <c r="H31" s="46">
         <f t="shared" si="2"/>
-        <v>35970.508087120281</v>
+        <v>33501.555438014962</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>35970.508087120281</v>
+        <v>33501.555438014962</v>
       </c>
       <c r="K31" s="46"/>
       <c r="L31" s="30">
-        <f>L30*$W$2</f>
-        <v>25744.132680715771</v>
-      </c>
-      <c r="M31" s="65">
-        <f>M30-$Z$2</f>
+        <f>L30*$Y$2</f>
+        <v>41525.977926663596</v>
+      </c>
+      <c r="M31" s="23">
+        <f t="shared" si="3"/>
+        <v>32914.478256605653</v>
+      </c>
+      <c r="N31" s="23">
+        <f t="shared" si="4"/>
+        <v>0.79262379599425281</v>
+      </c>
+      <c r="O31" s="65">
+        <f>O30-$AB$2</f>
         <v>0.4319999999999995</v>
       </c>
-      <c r="N31" s="65">
-        <f t="shared" si="3"/>
+      <c r="P31" s="65">
+        <f t="shared" si="5"/>
         <v>0.43150000000000055</v>
       </c>
-      <c r="O31" s="65">
-        <f t="shared" si="10"/>
+      <c r="Q31" s="65">
+        <f t="shared" si="12"/>
         <v>0.13649999999999998</v>
       </c>
-      <c r="P31" s="84">
+      <c r="R31" s="84">
         <v>0</v>
       </c>
-      <c r="Q31" s="73">
+      <c r="S31" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R31" s="73"/>
+      <c r="T31" s="73"/>
     </row>
-    <row r="32" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F32" s="12" t="s">
         <v>14</v>
       </c>
@@ -6862,46 +7145,54 @@
       </c>
       <c r="H32" s="47">
         <f t="shared" si="2"/>
-        <v>44063.872406722345</v>
+        <v>40938.900745254286</v>
       </c>
       <c r="I32" s="47">
-        <f>H32*$T$2</f>
-        <v>78433.692883965778</v>
+        <f>H32*$V$2</f>
+        <v>61408.35111788143</v>
       </c>
       <c r="J32" s="47">
         <f t="shared" si="1"/>
-        <v>122497.56529068813</v>
+        <v>102347.25186313572</v>
       </c>
       <c r="K32" s="47">
-        <f>(I32+J32)*$U$2</f>
-        <v>217005.75882862625</v>
+        <f>(I32+J32)*$W$2</f>
+        <v>176856.05121949853</v>
       </c>
       <c r="L32" s="31">
-        <f>L31*$W$4</f>
-        <v>34754.579118966292</v>
-      </c>
-      <c r="M32" s="66">
-        <f>M31-$AA$2</f>
+        <f>L31*$Y$4</f>
+        <v>57305.849538795759</v>
+      </c>
+      <c r="M32" s="23">
+        <f>(J32-L32)+H33</f>
+        <v>95068.739035040693</v>
+      </c>
+      <c r="N32" s="23">
+        <f t="shared" si="4"/>
+        <v>1.6589709392699894</v>
+      </c>
+      <c r="O32" s="66">
+        <f>O31-$AC$2</f>
         <v>0.40999999999999948</v>
       </c>
-      <c r="N32" s="66">
-        <f t="shared" si="3"/>
+      <c r="P32" s="66">
+        <f t="shared" si="5"/>
         <v>0.4420000000000005</v>
       </c>
-      <c r="O32" s="66">
-        <f t="shared" si="10"/>
+      <c r="Q32" s="66">
+        <f t="shared" si="12"/>
         <v>0.14799999999999999</v>
       </c>
-      <c r="P32" s="85">
+      <c r="R32" s="85">
         <v>0</v>
       </c>
-      <c r="Q32" s="73">
+      <c r="S32" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R32" s="73"/>
+      <c r="T32" s="73"/>
     </row>
-    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F33" s="12" t="s">
         <v>14</v>
       </c>
@@ -6910,40 +7201,48 @@
       </c>
       <c r="H33" s="47">
         <f t="shared" si="2"/>
-        <v>53978.243698234874</v>
+        <v>50027.336710700736</v>
       </c>
       <c r="I33" s="47"/>
       <c r="J33" s="47">
         <f t="shared" si="1"/>
-        <v>53978.243698234874</v>
+        <v>50027.336710700736</v>
       </c>
       <c r="K33" s="47"/>
       <c r="L33" s="31">
-        <f>L32*$W$2</f>
-        <v>41705.494942759549</v>
-      </c>
-      <c r="M33" s="66">
-        <f>M32-$Z$2</f>
+        <f>L32*$Y$2</f>
+        <v>74497.604400434488</v>
+      </c>
+      <c r="M33" s="23">
+        <f t="shared" si="3"/>
+        <v>36663.137770742549</v>
+      </c>
+      <c r="N33" s="23">
+        <f t="shared" si="4"/>
+        <v>0.49213847969759306</v>
+      </c>
+      <c r="O33" s="66">
+        <f>O32-$AB$2</f>
         <v>0.38999999999999946</v>
       </c>
-      <c r="N33" s="66">
-        <f t="shared" si="3"/>
+      <c r="P33" s="66">
+        <f t="shared" si="5"/>
         <v>0.45050000000000057</v>
       </c>
-      <c r="O33" s="66">
-        <f t="shared" si="10"/>
+      <c r="Q33" s="66">
+        <f t="shared" si="12"/>
         <v>0.1595</v>
       </c>
-      <c r="P33" s="85">
+      <c r="R33" s="85">
         <v>0</v>
       </c>
-      <c r="Q33" s="73">
+      <c r="S33" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R33" s="73"/>
+      <c r="T33" s="73"/>
     </row>
-    <row r="34" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F34" s="12" t="s">
         <v>14</v>
       </c>
@@ -6952,40 +7251,48 @@
       </c>
       <c r="H34" s="47">
         <f t="shared" si="2"/>
-        <v>66123.348530337724</v>
+        <v>61133.405460476301</v>
       </c>
       <c r="I34" s="47"/>
       <c r="J34" s="47">
         <f t="shared" si="1"/>
-        <v>66123.348530337724</v>
+        <v>61133.405460476301</v>
       </c>
       <c r="K34" s="47"/>
       <c r="L34" s="31">
-        <f>L33*$W$2</f>
-        <v>50046.593931311458</v>
-      </c>
-      <c r="M34" s="66">
-        <f>M33-$Z$2</f>
+        <f>L33*$Y$2</f>
+        <v>96846.885720564838</v>
+      </c>
+      <c r="M34" s="23">
+        <f t="shared" si="3"/>
+        <v>38991.541212613498</v>
+      </c>
+      <c r="N34" s="23">
+        <f t="shared" si="4"/>
+        <v>0.40261017091573742</v>
+      </c>
+      <c r="O34" s="66">
+        <f>O33-$AB$2</f>
         <v>0.36999999999999944</v>
       </c>
-      <c r="N34" s="66">
-        <f t="shared" si="3"/>
+      <c r="P34" s="66">
+        <f t="shared" si="5"/>
         <v>0.45900000000000052</v>
       </c>
-      <c r="O34" s="66">
-        <f t="shared" si="10"/>
+      <c r="Q34" s="66">
+        <f t="shared" si="12"/>
         <v>0.17100000000000001</v>
       </c>
-      <c r="P34" s="85">
+      <c r="R34" s="85">
         <v>0</v>
       </c>
-      <c r="Q34" s="73">
+      <c r="S34" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R34" s="73"/>
+      <c r="T34" s="73"/>
     </row>
-    <row r="35" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F35" s="13" t="s">
         <v>15</v>
       </c>
@@ -6994,46 +7301,54 @@
       </c>
       <c r="H35" s="48">
         <f t="shared" si="2"/>
-        <v>81001.101949663716</v>
+        <v>74705.021472702036</v>
       </c>
       <c r="I35" s="48">
-        <f>H35*$T$2</f>
-        <v>144181.96147040141</v>
+        <f>H35*$V$2</f>
+        <v>112057.53220905305</v>
       </c>
       <c r="J35" s="48">
         <f t="shared" si="1"/>
-        <v>225183.06342006513</v>
+        <v>186762.55368175509</v>
       </c>
       <c r="K35" s="48">
-        <f>(I35+J35)*$U$2</f>
-        <v>398914.22688170389</v>
+        <f>(I35+J35)*$W$2</f>
+        <v>322725.69276207284</v>
       </c>
       <c r="L35" s="32">
-        <f>L34*$W$4</f>
-        <v>67562.901807270478</v>
-      </c>
-      <c r="M35" s="67">
-        <f>M34-$AA$2</f>
+        <f>L34*$Y$4</f>
+        <v>133648.70229437947</v>
+      </c>
+      <c r="M35" s="23">
+        <f t="shared" si="3"/>
+        <v>144403.38762701751</v>
+      </c>
+      <c r="N35" s="23">
+        <f t="shared" si="4"/>
+        <v>1.0804698073981247</v>
+      </c>
+      <c r="O35" s="67">
+        <f>O34-$AC$2</f>
         <v>0.34799999999999942</v>
       </c>
-      <c r="N35" s="67">
-        <f t="shared" si="3"/>
+      <c r="P35" s="67">
+        <f t="shared" si="5"/>
         <v>0.46950000000000058</v>
       </c>
-      <c r="O35" s="67">
-        <f t="shared" si="10"/>
+      <c r="Q35" s="67">
+        <f t="shared" si="12"/>
         <v>0.18250000000000002</v>
       </c>
-      <c r="P35" s="86">
+      <c r="R35" s="86">
         <v>0</v>
       </c>
-      <c r="Q35" s="73">
+      <c r="S35" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R35" s="73"/>
+      <c r="T35" s="73"/>
     </row>
-    <row r="36" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F36" s="13" t="s">
         <v>15</v>
       </c>
@@ -7042,40 +7357,48 @@
       </c>
       <c r="H36" s="48">
         <f t="shared" si="2"/>
-        <v>99226.349888338053</v>
+        <v>91289.536239641879</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="48">
         <f t="shared" si="1"/>
-        <v>99226.349888338053</v>
+        <v>91289.536239641879</v>
       </c>
       <c r="K36" s="48"/>
       <c r="L36" s="32">
-        <f>L35*$W$2</f>
-        <v>81075.482168724571</v>
-      </c>
-      <c r="M36" s="67">
-        <f>M35-$Z$2</f>
+        <f>L35*$Y$2</f>
+        <v>173743.31298269331</v>
+      </c>
+      <c r="M36" s="23">
+        <f t="shared" si="3"/>
+        <v>29102.036541790934</v>
+      </c>
+      <c r="N36" s="23">
+        <f t="shared" si="4"/>
+        <v>0.16750018197644134</v>
+      </c>
+      <c r="O36" s="67">
+        <f>O35-$AB$2</f>
         <v>0.3279999999999994</v>
       </c>
-      <c r="N36" s="67">
-        <f t="shared" si="3"/>
+      <c r="P36" s="67">
+        <f t="shared" si="5"/>
         <v>0.47800000000000054</v>
       </c>
-      <c r="O36" s="67">
-        <f t="shared" si="10"/>
+      <c r="Q36" s="67">
+        <f t="shared" si="12"/>
         <v>0.19400000000000003</v>
       </c>
-      <c r="P36" s="86">
+      <c r="R36" s="86">
         <v>0</v>
       </c>
-      <c r="Q36" s="73">
+      <c r="S36" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R36" s="73"/>
+      <c r="T36" s="73"/>
     </row>
-    <row r="37" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F37" s="13" t="s">
         <v>15</v>
       </c>
@@ -7084,41 +7407,49 @@
       </c>
       <c r="H37" s="48">
         <f t="shared" si="2"/>
-        <v>121552.27861321412</v>
+        <v>111555.81328484237</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="48">
         <f t="shared" si="1"/>
-        <v>121552.27861321412</v>
+        <v>111555.81328484237</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="32">
-        <f>L36*$W$2</f>
-        <v>97290.578602469483</v>
-      </c>
-      <c r="M37" s="67">
-        <f>M36-$Z$2</f>
+        <f>L36*$Y$2</f>
+        <v>225866.30687750131</v>
+      </c>
+      <c r="M37" s="23">
+        <f>(J37-L37)+H38</f>
+        <v>22010.710241418434</v>
+      </c>
+      <c r="N37" s="23">
+        <f t="shared" si="4"/>
+        <v>9.745017105785482E-2</v>
+      </c>
+      <c r="O37" s="67">
+        <f>O36-$AB$2</f>
         <v>0.30799999999999939</v>
       </c>
-      <c r="N37" s="67">
-        <f t="shared" si="3"/>
+      <c r="P37" s="67">
+        <f t="shared" si="5"/>
         <v>0.48150000000000059</v>
       </c>
-      <c r="O37" s="67">
-        <f t="shared" si="10"/>
+      <c r="Q37" s="67">
+        <f t="shared" si="12"/>
         <v>0.20550000000000004</v>
       </c>
-      <c r="P37" s="67">
-        <f>AC4</f>
+      <c r="R37" s="67">
+        <f>AE4</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q37" s="73">
+      <c r="S37" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R37" s="73"/>
+      <c r="T37" s="73"/>
     </row>
-    <row r="38" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F38" s="14" t="s">
         <v>16</v>
       </c>
@@ -7127,47 +7458,55 @@
       </c>
       <c r="H38" s="49">
         <f t="shared" si="2"/>
-        <v>148901.5413011873</v>
+        <v>136321.20383407737</v>
       </c>
       <c r="I38" s="49">
-        <f>H38*$T$2</f>
-        <v>265044.74351611338</v>
+        <f>H38*$V$2</f>
+        <v>204481.80575111607</v>
       </c>
       <c r="J38" s="49">
         <f t="shared" si="1"/>
-        <v>413946.28481730068</v>
+        <v>340803.00958519347</v>
       </c>
       <c r="K38" s="49">
-        <f>(I38+J38)*$U$2</f>
-        <v>733310.31060008728</v>
+        <f>(I38+J38)*$W$2</f>
+        <v>588907.60056321439</v>
       </c>
       <c r="L38" s="33">
-        <f>L37*$W$4</f>
-        <v>131342.2811133338</v>
-      </c>
-      <c r="M38" s="68">
-        <f>M37-$AA$2</f>
+        <f>L37*$Y$4</f>
+        <v>311695.50349095179</v>
+      </c>
+      <c r="M38" s="23">
+        <f t="shared" si="3"/>
+        <v>195692.01717948425</v>
+      </c>
+      <c r="N38" s="23">
+        <f t="shared" si="4"/>
+        <v>0.62783073540605305</v>
+      </c>
+      <c r="O38" s="68">
+        <f>O37-$AC$2</f>
         <v>0.28599999999999937</v>
       </c>
-      <c r="N38" s="68">
-        <f t="shared" si="3"/>
+      <c r="P38" s="68">
+        <f t="shared" si="5"/>
         <v>0.47700000000000053</v>
       </c>
-      <c r="O38" s="68">
-        <f t="shared" si="10"/>
+      <c r="Q38" s="68">
+        <f t="shared" si="12"/>
         <v>0.21700000000000005</v>
       </c>
-      <c r="P38" s="68">
-        <f>(P37+$AC$2)</f>
+      <c r="R38" s="68">
+        <f>(R37+$AE$2)</f>
         <v>0.02</v>
       </c>
-      <c r="Q38" s="73">
+      <c r="S38" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R38" s="73"/>
+      <c r="T38" s="73"/>
     </row>
-    <row r="39" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F39" s="14" t="s">
         <v>16</v>
       </c>
@@ -7176,41 +7515,49 @@
       </c>
       <c r="H39" s="49">
         <f t="shared" si="2"/>
-        <v>182404.38809395445</v>
+        <v>166584.51108524256</v>
       </c>
       <c r="I39" s="49"/>
       <c r="J39" s="49">
         <f t="shared" si="1"/>
-        <v>182404.38809395445</v>
+        <v>166584.51108524256</v>
       </c>
       <c r="K39" s="49"/>
       <c r="L39" s="33">
-        <f>L38*$W$2</f>
-        <v>157610.73733600054</v>
-      </c>
-      <c r="M39" s="68">
-        <f>M38-$Z$2</f>
+        <f>L38*$Y$2</f>
+        <v>405204.15453823732</v>
+      </c>
+      <c r="M39" s="23">
+        <f t="shared" si="3"/>
+        <v>-35053.37090682835</v>
+      </c>
+      <c r="N39" s="23">
+        <f t="shared" si="4"/>
+        <v>-8.6507925731350119E-2</v>
+      </c>
+      <c r="O39" s="68">
+        <f>O38-$AB$2</f>
         <v>0.26599999999999935</v>
       </c>
-      <c r="N39" s="68">
-        <f t="shared" si="3"/>
+      <c r="P39" s="68">
+        <f t="shared" si="5"/>
         <v>0.47050000000000058</v>
       </c>
-      <c r="O39" s="68">
-        <f t="shared" si="10"/>
+      <c r="Q39" s="68">
+        <f t="shared" si="12"/>
         <v>0.22850000000000006</v>
       </c>
-      <c r="P39" s="68">
-        <f t="shared" ref="P39:P50" si="11">(P38+$AC$2)</f>
+      <c r="R39" s="68">
+        <f t="shared" ref="R39:R50" si="13">(R38+$AE$2)</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Q39" s="73">
+      <c r="S39" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R39" s="73"/>
+      <c r="T39" s="73"/>
     </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F40" s="14" t="s">
         <v>16</v>
       </c>
@@ -7219,41 +7566,49 @@
       </c>
       <c r="H40" s="49">
         <f t="shared" si="2"/>
-        <v>223445.37541509423</v>
+        <v>203566.27254616641</v>
       </c>
       <c r="I40" s="49"/>
       <c r="J40" s="49">
         <f t="shared" si="1"/>
-        <v>223445.37541509423</v>
+        <v>203566.27254616641</v>
       </c>
       <c r="K40" s="49"/>
       <c r="L40" s="33">
-        <f>L39*$W$2</f>
-        <v>189132.88480320064</v>
-      </c>
-      <c r="M40" s="68">
-        <f>M39-$Z$2</f>
+        <f>L39*$Y$2</f>
+        <v>526765.4008997085</v>
+      </c>
+      <c r="M40" s="23">
+        <f t="shared" si="3"/>
+        <v>-74441.143302126729</v>
+      </c>
+      <c r="N40" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.14131745018746908</v>
+      </c>
+      <c r="O40" s="68">
+        <f>O39-$AB$2</f>
         <v>0.24599999999999936</v>
       </c>
-      <c r="N40" s="68">
-        <f t="shared" si="3"/>
+      <c r="P40" s="68">
+        <f t="shared" si="5"/>
         <v>0.46400000000000052</v>
       </c>
-      <c r="O40" s="68">
-        <f t="shared" si="10"/>
+      <c r="Q40" s="68">
+        <f t="shared" si="12"/>
         <v>0.24000000000000007</v>
       </c>
-      <c r="P40" s="68">
-        <f t="shared" si="11"/>
+      <c r="R40" s="68">
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
-      <c r="Q40" s="73">
+      <c r="S40" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R40" s="73"/>
+      <c r="T40" s="73"/>
     </row>
-    <row r="41" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F41" s="15" t="s">
         <v>17</v>
       </c>
@@ -7262,47 +7617,55 @@
       </c>
       <c r="H41" s="50">
         <f t="shared" si="2"/>
-        <v>273720.58488349046</v>
+        <v>248757.98505141534</v>
       </c>
       <c r="I41" s="50">
-        <f>H41*$T$2</f>
-        <v>487222.64109261305</v>
+        <f>H41*$V$2</f>
+        <v>373136.97757712298</v>
       </c>
       <c r="J41" s="50">
         <f t="shared" si="1"/>
-        <v>760943.22597610345</v>
+        <v>621894.96262853825</v>
       </c>
       <c r="K41" s="50">
-        <f>(I41+J41)*$U$2</f>
-        <v>1348019.136434214</v>
+        <f>(I41+J41)*$W$2</f>
+        <v>1074634.4954221142</v>
       </c>
       <c r="L41" s="34">
-        <f>L40*$W$4</f>
-        <v>255329.39448432089</v>
-      </c>
-      <c r="M41" s="69">
-        <f>M40-$AA$2</f>
+        <f>L40*$Y$4</f>
+        <v>726936.25324159767</v>
+      </c>
+      <c r="M41" s="23">
+        <f t="shared" si="3"/>
+        <v>198940.96711977012</v>
+      </c>
+      <c r="N41" s="23">
+        <f t="shared" si="4"/>
+        <v>0.27367044391119666</v>
+      </c>
+      <c r="O41" s="69">
+        <f>O40-$AC$2</f>
         <v>0.22399999999999937</v>
       </c>
-      <c r="N41" s="69">
-        <f t="shared" si="3"/>
+      <c r="P41" s="69">
+        <f t="shared" si="5"/>
         <v>0.45950000000000057</v>
       </c>
-      <c r="O41" s="69">
-        <f t="shared" si="10"/>
+      <c r="Q41" s="69">
+        <f t="shared" si="12"/>
         <v>0.25150000000000006</v>
       </c>
-      <c r="P41" s="69">
-        <f t="shared" si="11"/>
+      <c r="R41" s="69">
+        <f t="shared" si="13"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="Q41" s="73">
+      <c r="S41" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R41" s="73"/>
+      <c r="T41" s="73"/>
     </row>
-    <row r="42" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F42" s="15" t="s">
         <v>17</v>
       </c>
@@ -7311,41 +7674,49 @@
       </c>
       <c r="H42" s="50">
         <f t="shared" si="2"/>
-        <v>335307.71648227586</v>
+        <v>303982.25773282954</v>
       </c>
       <c r="I42" s="50"/>
       <c r="J42" s="50">
         <f t="shared" si="1"/>
-        <v>335307.71648227586</v>
+        <v>303982.25773282954</v>
       </c>
       <c r="K42" s="50"/>
       <c r="L42" s="34">
-        <f>L41*$W$2</f>
-        <v>306395.27338118508</v>
-      </c>
-      <c r="M42" s="69">
-        <f>M41-$Z$2</f>
+        <f>L41*$Y$2</f>
+        <v>945017.12921407702</v>
+      </c>
+      <c r="M42" s="23">
+        <f t="shared" si="3"/>
+        <v>-269568.5525317298</v>
+      </c>
+      <c r="N42" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.28525255701546526</v>
+      </c>
+      <c r="O42" s="69">
+        <f>O41-$AB$2</f>
         <v>0.20399999999999938</v>
       </c>
-      <c r="N42" s="69">
-        <f t="shared" si="3"/>
+      <c r="P42" s="69">
+        <f t="shared" si="5"/>
         <v>0.45300000000000062</v>
       </c>
-      <c r="O42" s="69">
-        <f t="shared" si="10"/>
+      <c r="Q42" s="69">
+        <f t="shared" si="12"/>
         <v>0.26300000000000007</v>
       </c>
-      <c r="P42" s="69">
-        <f t="shared" si="11"/>
+      <c r="R42" s="69">
+        <f t="shared" si="13"/>
         <v>0.08</v>
       </c>
-      <c r="Q42" s="73">
+      <c r="S42" s="73">
         <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="R42" s="73"/>
+      <c r="T42" s="73"/>
     </row>
-    <row r="43" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F43" s="15" t="s">
         <v>17</v>
       </c>
@@ -7354,41 +7725,49 @@
       </c>
       <c r="H43" s="50">
         <f t="shared" si="2"/>
-        <v>410751.95269078796</v>
+        <v>371466.31894951768</v>
       </c>
       <c r="I43" s="50"/>
       <c r="J43" s="50">
         <f t="shared" si="1"/>
-        <v>410751.95269078796</v>
+        <v>371466.31894951768</v>
       </c>
       <c r="K43" s="50"/>
       <c r="L43" s="34">
-        <f>L42*$W$2</f>
-        <v>367674.32805742207</v>
-      </c>
-      <c r="M43" s="69">
-        <f>M42-$Z$2</f>
+        <f>L42*$Y$2</f>
+        <v>1228522.2679783001</v>
+      </c>
+      <c r="M43" s="23">
+        <f t="shared" si="3"/>
+        <v>-403124.10727247183</v>
+      </c>
+      <c r="N43" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.32813740359453736</v>
+      </c>
+      <c r="O43" s="69">
+        <f>O42-$AB$2</f>
         <v>0.18399999999999939</v>
       </c>
-      <c r="N43" s="69">
-        <f t="shared" si="3"/>
+      <c r="P43" s="69">
+        <f t="shared" si="5"/>
         <v>0.44650000000000056</v>
       </c>
-      <c r="O43" s="69">
-        <f t="shared" si="10"/>
+      <c r="Q43" s="69">
+        <f t="shared" si="12"/>
         <v>0.27450000000000008</v>
       </c>
-      <c r="P43" s="69">
-        <f t="shared" si="11"/>
+      <c r="R43" s="69">
+        <f t="shared" si="13"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="Q43" s="73">
+      <c r="S43" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R43" s="73"/>
+      <c r="T43" s="73"/>
     </row>
-    <row r="44" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F44" s="16" t="s">
         <v>18</v>
       </c>
@@ -7397,47 +7776,55 @@
       </c>
       <c r="H44" s="51">
         <f t="shared" si="2"/>
-        <v>503171.1420462153</v>
+        <v>453931.8417563106</v>
       </c>
       <c r="I44" s="51">
-        <f>H44*$T$2</f>
-        <v>895644.63284226321</v>
+        <f>H44*$V$2</f>
+        <v>680897.76263446594</v>
       </c>
       <c r="J44" s="51">
         <f t="shared" si="1"/>
-        <v>1398815.7748884785</v>
+        <v>1134829.6043907765</v>
       </c>
       <c r="K44" s="51">
-        <f>(I44+J44)*$U$2</f>
-        <v>2478017.240349201</v>
+        <f>(I44+J44)*$W$2</f>
+        <v>1960985.556387262</v>
       </c>
       <c r="L44" s="35">
-        <f>L43*$W$4</f>
-        <v>496360.34287751984</v>
-      </c>
-      <c r="M44" s="70">
-        <f>M43-$AA$2</f>
+        <f>L43*$Y$4</f>
+        <v>1695360.7298100539</v>
+      </c>
+      <c r="M44" s="23">
+        <f t="shared" si="3"/>
+        <v>-5826.4147930658655</v>
+      </c>
+      <c r="N44" s="23">
+        <f t="shared" si="4"/>
+        <v>-3.4366814628994324E-3</v>
+      </c>
+      <c r="O44" s="70">
+        <f>O43-$AC$2</f>
         <v>0.16199999999999939</v>
       </c>
-      <c r="N44" s="70">
-        <f t="shared" si="3"/>
+      <c r="P44" s="70">
+        <f t="shared" si="5"/>
         <v>0.4420000000000005</v>
       </c>
-      <c r="O44" s="70">
-        <f t="shared" si="10"/>
+      <c r="Q44" s="70">
+        <f t="shared" si="12"/>
         <v>0.28600000000000009</v>
       </c>
-      <c r="P44" s="70">
-        <f t="shared" si="11"/>
+      <c r="R44" s="70">
+        <f t="shared" si="13"/>
         <v>0.11</v>
       </c>
-      <c r="Q44" s="73">
+      <c r="S44" s="73">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="R44" s="73"/>
+      <c r="T44" s="73"/>
     </row>
-    <row r="45" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F45" s="16" t="s">
         <v>18</v>
       </c>
@@ -7446,41 +7833,49 @@
       </c>
       <c r="H45" s="51">
         <f t="shared" si="2"/>
-        <v>616384.64900661376</v>
+        <v>554704.7106262116</v>
       </c>
       <c r="I45" s="51"/>
       <c r="J45" s="51">
         <f t="shared" si="1"/>
-        <v>616384.64900661376</v>
+        <v>554704.7106262116</v>
       </c>
       <c r="K45" s="51"/>
       <c r="L45" s="35">
-        <f>L44*$W$2</f>
-        <v>595632.41145302379</v>
-      </c>
-      <c r="M45" s="70">
-        <f>M44-$Z$2</f>
+        <f>L44*$Y$2</f>
+        <v>2203968.9487530701</v>
+      </c>
+      <c r="M45" s="23">
+        <f t="shared" si="3"/>
+        <v>-971415.081741628</v>
+      </c>
+      <c r="N45" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.44075715417461814</v>
+      </c>
+      <c r="O45" s="70">
+        <f>O44-$AB$2</f>
         <v>0.1419999999999994</v>
       </c>
-      <c r="N45" s="70">
-        <f t="shared" si="3"/>
+      <c r="P45" s="70">
+        <f t="shared" si="5"/>
         <v>0.43550000000000044</v>
       </c>
-      <c r="O45" s="70">
-        <f t="shared" si="10"/>
+      <c r="Q45" s="70">
+        <f t="shared" si="12"/>
         <v>0.2975000000000001</v>
       </c>
-      <c r="P45" s="70">
-        <f t="shared" si="11"/>
+      <c r="R45" s="70">
+        <f t="shared" si="13"/>
         <v>0.125</v>
       </c>
-      <c r="Q45" s="73">
+      <c r="S45" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R45" s="73"/>
+      <c r="T45" s="73"/>
     </row>
-    <row r="46" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F46" s="16" t="s">
         <v>18</v>
       </c>
@@ -7489,41 +7884,49 @@
       </c>
       <c r="H46" s="51">
         <f t="shared" si="2"/>
-        <v>755071.19503310195</v>
+        <v>677849.1563852306</v>
       </c>
       <c r="I46" s="51"/>
       <c r="J46" s="51">
         <f t="shared" si="1"/>
-        <v>755071.19503310195</v>
+        <v>677849.1563852306</v>
       </c>
       <c r="K46" s="51"/>
       <c r="L46" s="35">
-        <f>L45*$W$2</f>
-        <v>714758.89374362852</v>
-      </c>
-      <c r="M46" s="70">
-        <f>M45-$Z$2</f>
+        <f>L45*$Y$2</f>
+        <v>2865159.6333789914</v>
+      </c>
+      <c r="M46" s="23">
+        <f t="shared" si="3"/>
+        <v>-1358978.8078910094</v>
+      </c>
+      <c r="N46" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.4743117249241412</v>
+      </c>
+      <c r="O46" s="70">
+        <f>O45-$AB$2</f>
         <v>0.1219999999999994</v>
       </c>
-      <c r="N46" s="70">
-        <f t="shared" si="3"/>
+      <c r="P46" s="70">
+        <f t="shared" si="5"/>
         <v>0.42900000000000049</v>
       </c>
-      <c r="O46" s="70">
-        <f t="shared" si="10"/>
+      <c r="Q46" s="70">
+        <f t="shared" si="12"/>
         <v>0.30900000000000011</v>
       </c>
-      <c r="P46" s="70">
-        <f t="shared" si="11"/>
+      <c r="R46" s="70">
+        <f t="shared" si="13"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q46" s="73">
+      <c r="S46" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R46" s="73"/>
+      <c r="T46" s="73"/>
     </row>
-    <row r="47" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F47" s="17" t="s">
         <v>19</v>
       </c>
@@ -7532,47 +7935,55 @@
       </c>
       <c r="H47" s="52">
         <f t="shared" si="2"/>
-        <v>924962.21391554992</v>
+        <v>828331.66910275177</v>
       </c>
       <c r="I47" s="52">
-        <f>H47*$T$2</f>
-        <v>1646432.740769679</v>
+        <f>H47*$V$2</f>
+        <v>1242497.5036541277</v>
       </c>
       <c r="J47" s="52">
         <f t="shared" si="1"/>
-        <v>2571394.9546852289</v>
+        <v>2070829.1727568796</v>
       </c>
       <c r="K47" s="52">
-        <f>(I47+J47)*$U$2</f>
-        <v>4555253.9110913007</v>
+        <f>(I47+J47)*$W$2</f>
+        <v>3578392.8105238886</v>
       </c>
       <c r="L47" s="36">
-        <f>L46*$W$4</f>
-        <v>964924.50655389857</v>
-      </c>
-      <c r="M47" s="71">
-        <f>M46-$AA$2</f>
+        <f>L46*$Y$4</f>
+        <v>3953920.2940630079</v>
+      </c>
+      <c r="M47" s="23">
+        <f t="shared" si="3"/>
+        <v>-870869.82166256569</v>
+      </c>
+      <c r="N47" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.22025477422248915</v>
+      </c>
+      <c r="O47" s="71">
+        <f>O46-$AC$2</f>
         <v>9.9999999999999395E-2</v>
       </c>
-      <c r="N47" s="76">
-        <f t="shared" si="3"/>
+      <c r="P47" s="76">
+        <f t="shared" si="5"/>
         <v>0.42450000000000043</v>
       </c>
-      <c r="O47" s="76">
-        <f t="shared" si="10"/>
+      <c r="Q47" s="76">
+        <f t="shared" si="12"/>
         <v>0.32050000000000012</v>
       </c>
-      <c r="P47" s="76">
-        <f t="shared" si="11"/>
+      <c r="R47" s="76">
+        <f t="shared" si="13"/>
         <v>0.15500000000000003</v>
       </c>
-      <c r="Q47" s="73">
+      <c r="S47" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R47" s="73"/>
+      <c r="T47" s="73"/>
     </row>
-    <row r="48" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F48" s="17" t="s">
         <v>20</v>
       </c>
@@ -7581,47 +7992,55 @@
       </c>
       <c r="H48" s="52">
         <f t="shared" si="2"/>
-        <v>1133078.7120465487</v>
+        <v>1012221.2996435626</v>
       </c>
       <c r="I48" s="52">
-        <f>H48*$T$2</f>
-        <v>2016880.1074428568</v>
+        <f>H48*$V$2</f>
+        <v>1518331.949465344</v>
       </c>
       <c r="J48" s="52">
         <f t="shared" si="1"/>
-        <v>3149958.8194894055</v>
+        <v>2530553.2491089068</v>
       </c>
       <c r="K48" s="52">
-        <f>(I48+J48)*$U$2</f>
-        <v>5580186.0410868432</v>
+        <f>(I48+J48)*$W$2</f>
+        <v>4372796.0144601911</v>
       </c>
       <c r="L48" s="36">
-        <f>L47*$W$4</f>
-        <v>1302648.0838477632</v>
-      </c>
-      <c r="M48" s="71">
-        <f t="shared" ref="M48:M50" si="12">M47-$AA$2</f>
+        <f>L47*$Y$4</f>
+        <v>5456410.0058069509</v>
+      </c>
+      <c r="M48" s="23">
+        <f t="shared" si="3"/>
+        <v>-1688922.3285336106</v>
+      </c>
+      <c r="N48" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.3095299522462911</v>
+      </c>
+      <c r="O48" s="71">
+        <f t="shared" ref="O48:O50" si="14">O47-$AC$2</f>
         <v>7.7999999999999403E-2</v>
       </c>
-      <c r="N48" s="76">
-        <f t="shared" si="3"/>
+      <c r="P48" s="76">
+        <f t="shared" si="5"/>
         <v>0.42000000000000037</v>
       </c>
-      <c r="O48" s="76">
-        <f t="shared" si="10"/>
+      <c r="Q48" s="76">
+        <f t="shared" si="12"/>
         <v>0.33200000000000013</v>
       </c>
-      <c r="P48" s="76">
-        <f t="shared" si="11"/>
+      <c r="R48" s="76">
+        <f t="shared" si="13"/>
         <v>0.17000000000000004</v>
       </c>
-      <c r="Q48" s="73">
+      <c r="S48" s="73">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="R48" s="73"/>
+      <c r="T48" s="73"/>
     </row>
-    <row r="49" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F49" s="17" t="s">
         <v>21</v>
       </c>
@@ -7630,47 +8049,55 @@
       </c>
       <c r="H49" s="52">
         <f t="shared" si="2"/>
-        <v>1388021.4222570222</v>
+        <v>1236934.4281644335</v>
       </c>
       <c r="I49" s="52">
-        <f>H49*$T$2</f>
-        <v>2470678.1316174995</v>
+        <f>H49*$V$2</f>
+        <v>1855401.6422466501</v>
       </c>
       <c r="J49" s="52">
         <f t="shared" si="1"/>
-        <v>3858699.5538745215</v>
+        <v>3092336.0704110833</v>
       </c>
       <c r="K49" s="52">
-        <f>(I49+J49)*$U$2</f>
-        <v>6835727.9003313836</v>
+        <f>(I49+J49)*$W$2</f>
+        <v>5343556.7296703523</v>
       </c>
       <c r="L49" s="36">
-        <f>L48*$W$4</f>
-        <v>1758574.9131944806</v>
-      </c>
-      <c r="M49" s="71">
+        <f>L48*$Y$4</f>
+        <v>7529845.8080135919</v>
+      </c>
+      <c r="M49" s="23">
+        <f>(J49-L49)+H50</f>
+        <v>-2925975.8663855707</v>
+      </c>
+      <c r="N49" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.38858376930794769</v>
+      </c>
+      <c r="O49" s="71">
+        <f t="shared" si="14"/>
+        <v>5.5999999999999404E-2</v>
+      </c>
+      <c r="P49" s="76">
+        <f t="shared" si="5"/>
+        <v>0.41550000000000042</v>
+      </c>
+      <c r="Q49" s="76">
         <f t="shared" si="12"/>
-        <v>5.5999999999999404E-2</v>
-      </c>
-      <c r="N49" s="76">
-        <f t="shared" si="3"/>
-        <v>0.41550000000000042</v>
-      </c>
-      <c r="O49" s="76">
-        <f t="shared" si="10"/>
         <v>0.34350000000000014</v>
       </c>
-      <c r="P49" s="76">
-        <f t="shared" si="11"/>
+      <c r="R49" s="76">
+        <f t="shared" si="13"/>
         <v>0.18500000000000005</v>
       </c>
-      <c r="Q49" s="73">
+      <c r="S49" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R49" s="73"/>
+      <c r="T49" s="73"/>
     </row>
-    <row r="50" spans="6:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F50" s="18" t="s">
         <v>22</v>
       </c>
@@ -7679,97 +8106,107 @@
       </c>
       <c r="H50" s="53">
         <f t="shared" si="2"/>
-        <v>1700326.2422648524</v>
+        <v>1511533.8712169377</v>
       </c>
       <c r="I50" s="53">
-        <f>H50*$T$2</f>
-        <v>3026580.7112314375</v>
+        <f>H50*$V$2</f>
+        <v>2267300.8068254064</v>
       </c>
       <c r="J50" s="53">
         <f t="shared" si="1"/>
-        <v>4726906.9534962904</v>
+        <v>3778834.6780423438</v>
       </c>
       <c r="K50" s="53">
-        <f>(I50+J50)*$U$2</f>
-        <v>8373766.677905947</v>
+        <f>(I50+J50)*$W$2</f>
+        <v>6529826.3236571699</v>
       </c>
       <c r="L50" s="37">
-        <f>L49*$W$4</f>
-        <v>2374076.1328125489</v>
-      </c>
-      <c r="M50" s="72">
+        <f>L49*$Y$4</f>
+        <v>10391187.215058755</v>
+      </c>
+      <c r="M50" s="23">
+        <f t="shared" si="3"/>
+        <v>1707442.0153579051</v>
+      </c>
+      <c r="N50" s="23">
+        <f t="shared" si="4"/>
+        <v>0.16431635577535408</v>
+      </c>
+      <c r="O50" s="72">
+        <f t="shared" si="14"/>
+        <v>3.3999999999999406E-2</v>
+      </c>
+      <c r="P50" s="87">
+        <f>100%-(O50+Q50+R50)</f>
+        <v>0.41100000000000037</v>
+      </c>
+      <c r="Q50" s="87">
         <f t="shared" si="12"/>
-        <v>3.3999999999999406E-2</v>
-      </c>
-      <c r="N50" s="87">
-        <f>100%-(M50+O50+P50)</f>
-        <v>0.41100000000000037</v>
-      </c>
-      <c r="O50" s="87">
-        <f t="shared" si="10"/>
         <v>0.35500000000000015</v>
       </c>
-      <c r="P50" s="87">
-        <f t="shared" si="11"/>
+      <c r="R50" s="87">
+        <f t="shared" si="13"/>
         <v>0.20000000000000007</v>
       </c>
-      <c r="Q50" s="73">
-        <f>SUM(M50:P50)</f>
+      <c r="S50" s="73">
+        <f>SUM(O50:R50)</f>
         <v>1</v>
       </c>
-      <c r="R50" s="73"/>
+      <c r="T50" s="73"/>
     </row>
-    <row r="51" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:21" x14ac:dyDescent="0.3">
       <c r="G51" s="55" t="s">
         <v>31</v>
       </c>
       <c r="H51" s="56">
         <f>SUM(H2:H50)</f>
-        <v>9256887.3189975265</v>
+        <v>8319794.5523743164</v>
       </c>
       <c r="I51" s="56">
         <f>SUM(I2:I50)</f>
-        <v>11120924.954323795</v>
+        <v>8386982.1553461589</v>
       </c>
       <c r="J51" s="56">
         <f>SUM(J2:J50)</f>
-        <v>20377812.273321323</v>
+        <v>16706776.707720473</v>
       </c>
       <c r="K51" s="56">
         <f>SUM(K2:K50)</f>
-        <v>30756405.637591593</v>
+        <v>24143767.637943268</v>
       </c>
       <c r="L51" s="56">
         <f>SUM(L2:L50)</f>
-        <v>10123359.998018922</v>
-      </c>
+        <v>39177495.427288651</v>
+      </c>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
     </row>
-    <row r="57" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="S57" t="s">
+    <row r="57" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="U57" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X14:Y14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:P50">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="F1:R2 F3:M50 O3:R50">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>ROW()=CELL("ROW")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L10 L16 L23:M23 L26:M26 L29:M29 L32:M32 L35:M35 L38:M38 L41:M41 L44:M44 M20" formula="1"/>
+    <ignoredError sqref="L10 L16 O23 O26 O29 O32 O35 O38 O41 O44 O20 L44 L41 L38 L35 L32 L29 L23" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D7983-8017-4638-A242-3D69E79F5304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E90EE4A-C23F-40B1-81A0-CB6778D865E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -659,41 +659,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -5394,10 +5360,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="F1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8199,7 +8165,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:R2 F3:M50 O3:R50">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>ROW()=CELL("ROW")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E90EE4A-C23F-40B1-81A0-CB6778D865E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B059C6-9A09-45F8-A248-3499C0BF0DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10515" yWindow="3030" windowWidth="19455" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>계급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>시도 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간부 적용 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병 적용 확률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -655,6 +663,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1616,145 +1625,145 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0000000000000018E-2</c:v>
+                  <c:v>1.3599999999999945E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0000000000000036E-2</c:v>
+                  <c:v>3.3599999999999963E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0000000000000053E-2</c:v>
+                  <c:v>5.3599999999999981E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0000000000000071E-2</c:v>
+                  <c:v>7.3599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10000000000000009</c:v>
+                  <c:v>9.3600000000000017E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12000000000000011</c:v>
+                  <c:v>0.11360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14000000000000012</c:v>
+                  <c:v>0.13360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16000000000000014</c:v>
+                  <c:v>0.15360000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18000000000000016</c:v>
+                  <c:v>0.17360000000000009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20000000000000018</c:v>
+                  <c:v>0.19360000000000011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2200000000000002</c:v>
+                  <c:v>0.21360000000000012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24000000000000021</c:v>
+                  <c:v>0.23360000000000014</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26000000000000023</c:v>
+                  <c:v>0.25360000000000016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28000000000000025</c:v>
+                  <c:v>0.27360000000000018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30000000000000027</c:v>
+                  <c:v>0.29360000000000019</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32000000000000028</c:v>
+                  <c:v>0.31360000000000021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33200000000000029</c:v>
+                  <c:v>0.32560000000000022</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.34050000000000036</c:v>
+                  <c:v>0.33410000000000029</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.34900000000000031</c:v>
+                  <c:v>0.34260000000000024</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.35950000000000037</c:v>
+                  <c:v>0.3531000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.36800000000000033</c:v>
+                  <c:v>0.36160000000000037</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.37650000000000039</c:v>
+                  <c:v>0.37010000000000032</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.38700000000000045</c:v>
+                  <c:v>0.38060000000000038</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.39550000000000041</c:v>
+                  <c:v>0.38910000000000033</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.40400000000000047</c:v>
+                  <c:v>0.3976000000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.41450000000000053</c:v>
+                  <c:v>0.40810000000000046</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.42300000000000049</c:v>
+                  <c:v>0.41660000000000041</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.43150000000000055</c:v>
+                  <c:v>0.42510000000000048</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.4420000000000005</c:v>
+                  <c:v>0.43560000000000043</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.45050000000000057</c:v>
+                  <c:v>0.44410000000000049</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.45900000000000052</c:v>
+                  <c:v>0.45260000000000045</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.46950000000000058</c:v>
+                  <c:v>0.46310000000000051</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.47800000000000054</c:v>
+                  <c:v>0.47160000000000046</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.48150000000000059</c:v>
+                  <c:v>0.47510000000000052</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.47700000000000053</c:v>
+                  <c:v>0.47060000000000046</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.47050000000000058</c:v>
+                  <c:v>0.46410000000000051</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.46400000000000052</c:v>
+                  <c:v>0.45760000000000045</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.45950000000000057</c:v>
+                  <c:v>0.4531000000000005</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.45300000000000062</c:v>
+                  <c:v>0.44660000000000055</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.44650000000000056</c:v>
+                  <c:v>0.44010000000000049</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4420000000000005</c:v>
+                  <c:v>0.43560000000000043</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.43550000000000044</c:v>
+                  <c:v>0.42910000000000048</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.42900000000000049</c:v>
+                  <c:v>0.42260000000000042</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.42450000000000043</c:v>
+                  <c:v>0.41810000000000036</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.42000000000000037</c:v>
+                  <c:v>0.41360000000000041</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.41550000000000042</c:v>
+                  <c:v>0.40910000000000035</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.41100000000000037</c:v>
+                  <c:v>0.40460000000000029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,145 +2258,145 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0.98640000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>0.96640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94</c:v>
+                  <c:v>0.94640000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91999999999999993</c:v>
+                  <c:v>0.9264</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.90639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87999999999999989</c:v>
+                  <c:v>0.88639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85999999999999988</c:v>
+                  <c:v>0.86639999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83999999999999986</c:v>
+                  <c:v>0.84639999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81999999999999984</c:v>
+                  <c:v>0.82639999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79999999999999982</c:v>
+                  <c:v>0.80639999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7799999999999998</c:v>
+                  <c:v>0.78639999999999988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.75999999999999979</c:v>
+                  <c:v>0.76639999999999986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73999999999999977</c:v>
+                  <c:v>0.74639999999999984</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.71999999999999975</c:v>
+                  <c:v>0.72639999999999982</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69999999999999973</c:v>
+                  <c:v>0.70639999999999981</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.67999999999999972</c:v>
+                  <c:v>0.68639999999999979</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6579999999999997</c:v>
+                  <c:v>0.66439999999999977</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.63799999999999968</c:v>
+                  <c:v>0.64439999999999975</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.61799999999999966</c:v>
+                  <c:v>0.62439999999999973</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.59599999999999964</c:v>
+                  <c:v>0.60239999999999971</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.57599999999999962</c:v>
+                  <c:v>0.5823999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.55599999999999961</c:v>
+                  <c:v>0.56239999999999968</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.53399999999999959</c:v>
+                  <c:v>0.54039999999999966</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.51399999999999957</c:v>
+                  <c:v>0.52039999999999964</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.49399999999999955</c:v>
+                  <c:v>0.50039999999999962</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.47199999999999953</c:v>
+                  <c:v>0.4783999999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.45199999999999951</c:v>
+                  <c:v>0.45839999999999959</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.4319999999999995</c:v>
+                  <c:v>0.43839999999999957</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.40999999999999948</c:v>
+                  <c:v>0.41639999999999955</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.38999999999999946</c:v>
+                  <c:v>0.39639999999999953</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.36999999999999944</c:v>
+                  <c:v>0.37639999999999951</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.34799999999999942</c:v>
+                  <c:v>0.35439999999999949</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.3279999999999994</c:v>
+                  <c:v>0.33439999999999948</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.30799999999999939</c:v>
+                  <c:v>0.31439999999999946</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.28599999999999937</c:v>
+                  <c:v>0.29239999999999944</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.26599999999999935</c:v>
+                  <c:v>0.27239999999999942</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.24599999999999936</c:v>
+                  <c:v>0.2523999999999994</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.22399999999999937</c:v>
+                  <c:v>0.23039999999999941</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.20399999999999938</c:v>
+                  <c:v>0.21039999999999942</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.18399999999999939</c:v>
+                  <c:v>0.19039999999999943</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.16199999999999939</c:v>
+                  <c:v>0.16839999999999944</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1419999999999994</c:v>
+                  <c:v>0.14839999999999945</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1219999999999994</c:v>
+                  <c:v>0.12839999999999946</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.9999999999999395E-2</c:v>
+                  <c:v>0.10639999999999947</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.7999999999999403E-2</c:v>
+                  <c:v>8.4399999999999475E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.5999999999999404E-2</c:v>
+                  <c:v>6.2399999999999477E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3999999999999406E-2</c:v>
+                  <c:v>4.0399999999999478E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5360,10 +5369,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="F1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5377,7 +5386,7 @@
     <col min="16" max="18" width="9.625" customWidth="1"/>
     <col min="24" max="24" width="13.75" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5444,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>33</v>
@@ -5585,6 +5594,9 @@
       <c r="Y3" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AB3" t="s">
+        <v>43</v>
+      </c>
       <c r="AD3" s="2" t="s">
         <v>37</v>
       </c>
@@ -5626,12 +5638,12 @@
         <v>3.822073651014493</v>
       </c>
       <c r="O4" s="59">
-        <f>O3-$AB$2</f>
-        <v>0.98</v>
+        <f>O3-$AB$4</f>
+        <v>0.98640000000000005</v>
       </c>
       <c r="P4" s="59">
         <f t="shared" ref="P4:P49" si="5">100%-(O4+Q4+R4)</f>
-        <v>2.0000000000000018E-2</v>
+        <v>1.3599999999999945E-2</v>
       </c>
       <c r="Q4" s="78">
         <v>0</v>
@@ -5652,6 +5664,9 @@
       </c>
       <c r="Y4" s="21">
         <v>1.38</v>
+      </c>
+      <c r="AB4" s="94">
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="AD4" s="21">
         <v>0.01</v>
@@ -5693,11 +5708,11 @@
       </c>
       <c r="O5" s="59">
         <f t="shared" ref="O5:O9" si="6">O4-$AB$2</f>
-        <v>0.96</v>
+        <v>0.96640000000000004</v>
       </c>
       <c r="P5" s="59">
         <f t="shared" si="5"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.3599999999999963E-2</v>
       </c>
       <c r="Q5" s="78">
         <v>0</v>
@@ -5747,11 +5762,11 @@
       </c>
       <c r="O6" s="59">
         <f t="shared" si="6"/>
-        <v>0.94</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="P6" s="59">
         <f t="shared" si="5"/>
-        <v>6.0000000000000053E-2</v>
+        <v>5.3599999999999981E-2</v>
       </c>
       <c r="Q6" s="78">
         <v>0</v>
@@ -5798,11 +5813,11 @@
       </c>
       <c r="O7" s="59">
         <f t="shared" si="6"/>
-        <v>0.91999999999999993</v>
+        <v>0.9264</v>
       </c>
       <c r="P7" s="59">
         <f t="shared" si="5"/>
-        <v>8.0000000000000071E-2</v>
+        <v>7.3599999999999999E-2</v>
       </c>
       <c r="Q7" s="78">
         <v>0</v>
@@ -5849,11 +5864,11 @@
       </c>
       <c r="O8" s="59">
         <f t="shared" si="6"/>
-        <v>0.89999999999999991</v>
+        <v>0.90639999999999998</v>
       </c>
       <c r="P8" s="59">
         <f t="shared" si="5"/>
-        <v>0.10000000000000009</v>
+        <v>9.3600000000000017E-2</v>
       </c>
       <c r="Q8" s="78">
         <v>0</v>
@@ -5911,11 +5926,11 @@
       </c>
       <c r="O9" s="59">
         <f t="shared" si="6"/>
-        <v>0.87999999999999989</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="P9" s="59">
         <f t="shared" si="5"/>
-        <v>0.12000000000000011</v>
+        <v>0.11360000000000003</v>
       </c>
       <c r="Q9" s="78">
         <v>0</v>
@@ -5965,11 +5980,11 @@
       </c>
       <c r="O10" s="60">
         <f>O9-$AB$2</f>
-        <v>0.85999999999999988</v>
+        <v>0.86639999999999995</v>
       </c>
       <c r="P10" s="60">
         <f t="shared" si="5"/>
-        <v>0.14000000000000012</v>
+        <v>0.13360000000000005</v>
       </c>
       <c r="Q10" s="79">
         <v>0</v>
@@ -6027,11 +6042,11 @@
       </c>
       <c r="O11" s="60">
         <f>O10-$AB$2</f>
-        <v>0.83999999999999986</v>
+        <v>0.84639999999999993</v>
       </c>
       <c r="P11" s="60">
         <f t="shared" si="5"/>
-        <v>0.16000000000000014</v>
+        <v>0.15360000000000007</v>
       </c>
       <c r="Q11" s="79">
         <v>0</v>
@@ -6078,11 +6093,11 @@
       </c>
       <c r="O12" s="60">
         <f t="shared" ref="O12:O15" si="9">O11-$AB$2</f>
-        <v>0.81999999999999984</v>
+        <v>0.82639999999999991</v>
       </c>
       <c r="P12" s="60">
         <f t="shared" si="5"/>
-        <v>0.18000000000000016</v>
+        <v>0.17360000000000009</v>
       </c>
       <c r="Q12" s="79">
         <v>0</v>
@@ -6140,11 +6155,11 @@
       </c>
       <c r="O13" s="60">
         <f t="shared" si="9"/>
-        <v>0.79999999999999982</v>
+        <v>0.80639999999999989</v>
       </c>
       <c r="P13" s="60">
         <f t="shared" si="5"/>
-        <v>0.20000000000000018</v>
+        <v>0.19360000000000011</v>
       </c>
       <c r="Q13" s="79">
         <v>0</v>
@@ -6191,11 +6206,11 @@
       </c>
       <c r="O14" s="60">
         <f t="shared" si="9"/>
-        <v>0.7799999999999998</v>
+        <v>0.78639999999999988</v>
       </c>
       <c r="P14" s="60">
         <f t="shared" si="5"/>
-        <v>0.2200000000000002</v>
+        <v>0.21360000000000012</v>
       </c>
       <c r="Q14" s="79">
         <v>0</v>
@@ -6253,11 +6268,11 @@
       </c>
       <c r="O15" s="60">
         <f t="shared" si="9"/>
-        <v>0.75999999999999979</v>
+        <v>0.76639999999999986</v>
       </c>
       <c r="P15" s="60">
         <f t="shared" si="5"/>
-        <v>0.24000000000000021</v>
+        <v>0.23360000000000014</v>
       </c>
       <c r="Q15" s="79">
         <v>0</v>
@@ -6307,11 +6322,11 @@
       </c>
       <c r="O16" s="61">
         <f>O15-$AB$2</f>
-        <v>0.73999999999999977</v>
+        <v>0.74639999999999984</v>
       </c>
       <c r="P16" s="61">
         <f t="shared" si="5"/>
-        <v>0.26000000000000023</v>
+        <v>0.25360000000000016</v>
       </c>
       <c r="Q16" s="80">
         <v>0</v>
@@ -6358,11 +6373,11 @@
       </c>
       <c r="O17" s="61">
         <f>O16-$AB$2</f>
-        <v>0.71999999999999975</v>
+        <v>0.72639999999999982</v>
       </c>
       <c r="P17" s="61">
         <f t="shared" si="5"/>
-        <v>0.28000000000000025</v>
+        <v>0.27360000000000018</v>
       </c>
       <c r="Q17" s="80">
         <v>0</v>
@@ -6409,11 +6424,11 @@
       </c>
       <c r="O18" s="61">
         <f t="shared" ref="O18" si="11">O17-$AB$2</f>
-        <v>0.69999999999999973</v>
+        <v>0.70639999999999981</v>
       </c>
       <c r="P18" s="61">
         <f t="shared" si="5"/>
-        <v>0.30000000000000027</v>
+        <v>0.29360000000000019</v>
       </c>
       <c r="Q18" s="80">
         <v>0</v>
@@ -6460,11 +6475,11 @@
       </c>
       <c r="O19" s="61">
         <f>O18-$AB$2</f>
-        <v>0.67999999999999972</v>
+        <v>0.68639999999999979</v>
       </c>
       <c r="P19" s="61">
         <f t="shared" si="5"/>
-        <v>0.32000000000000028</v>
+        <v>0.31360000000000021</v>
       </c>
       <c r="Q19" s="80">
         <v>0</v>
@@ -6515,11 +6530,11 @@
       </c>
       <c r="O20" s="62">
         <f>O19-$AC$2</f>
-        <v>0.6579999999999997</v>
+        <v>0.66439999999999977</v>
       </c>
       <c r="P20" s="62">
         <f t="shared" si="5"/>
-        <v>0.33200000000000029</v>
+        <v>0.32560000000000022</v>
       </c>
       <c r="Q20" s="62">
         <f>AD4</f>
@@ -6565,11 +6580,11 @@
       </c>
       <c r="O21" s="62">
         <f>O20-$AB$2</f>
-        <v>0.63799999999999968</v>
+        <v>0.64439999999999975</v>
       </c>
       <c r="P21" s="62">
         <f t="shared" si="5"/>
-        <v>0.34050000000000036</v>
+        <v>0.33410000000000029</v>
       </c>
       <c r="Q21" s="62">
         <f>Q20+$AD$2</f>
@@ -6615,11 +6630,11 @@
       </c>
       <c r="O22" s="62">
         <f>O21-$AB$2</f>
-        <v>0.61799999999999966</v>
+        <v>0.62439999999999973</v>
       </c>
       <c r="P22" s="62">
         <f t="shared" si="5"/>
-        <v>0.34900000000000031</v>
+        <v>0.34260000000000024</v>
       </c>
       <c r="Q22" s="62">
         <f t="shared" ref="Q22:Q50" si="12">Q21+$AD$2</f>
@@ -6671,11 +6686,11 @@
       </c>
       <c r="O23" s="63">
         <f>O22-$AC$2</f>
-        <v>0.59599999999999964</v>
+        <v>0.60239999999999971</v>
       </c>
       <c r="P23" s="63">
         <f t="shared" si="5"/>
-        <v>0.35950000000000037</v>
+        <v>0.3531000000000003</v>
       </c>
       <c r="Q23" s="63">
         <f t="shared" si="12"/>
@@ -6721,11 +6736,11 @@
       </c>
       <c r="O24" s="63">
         <f>O23-$AB$2</f>
-        <v>0.57599999999999962</v>
+        <v>0.5823999999999997</v>
       </c>
       <c r="P24" s="63">
         <f t="shared" si="5"/>
-        <v>0.36800000000000033</v>
+        <v>0.36160000000000037</v>
       </c>
       <c r="Q24" s="63">
         <f t="shared" si="12"/>
@@ -6771,11 +6786,11 @@
       </c>
       <c r="O25" s="63">
         <f>O24-$AB$2</f>
-        <v>0.55599999999999961</v>
+        <v>0.56239999999999968</v>
       </c>
       <c r="P25" s="63">
         <f t="shared" si="5"/>
-        <v>0.37650000000000039</v>
+        <v>0.37010000000000032</v>
       </c>
       <c r="Q25" s="63">
         <f t="shared" si="12"/>
@@ -6827,11 +6842,11 @@
       </c>
       <c r="O26" s="64">
         <f>O25-$AC$2</f>
-        <v>0.53399999999999959</v>
+        <v>0.54039999999999966</v>
       </c>
       <c r="P26" s="64">
         <f t="shared" si="5"/>
-        <v>0.38700000000000045</v>
+        <v>0.38060000000000038</v>
       </c>
       <c r="Q26" s="64">
         <f t="shared" si="12"/>
@@ -6877,11 +6892,11 @@
       </c>
       <c r="O27" s="64">
         <f>O26-$AB$2</f>
-        <v>0.51399999999999957</v>
+        <v>0.52039999999999964</v>
       </c>
       <c r="P27" s="64">
         <f t="shared" si="5"/>
-        <v>0.39550000000000041</v>
+        <v>0.38910000000000033</v>
       </c>
       <c r="Q27" s="64">
         <f t="shared" si="12"/>
@@ -6927,11 +6942,11 @@
       </c>
       <c r="O28" s="64">
         <f>O27-$AB$2</f>
-        <v>0.49399999999999955</v>
+        <v>0.50039999999999962</v>
       </c>
       <c r="P28" s="64">
         <f t="shared" si="5"/>
-        <v>0.40400000000000047</v>
+        <v>0.3976000000000004</v>
       </c>
       <c r="Q28" s="64">
         <f t="shared" si="12"/>
@@ -6983,11 +6998,11 @@
       </c>
       <c r="O29" s="65">
         <f>O28-$AC$2</f>
-        <v>0.47199999999999953</v>
+        <v>0.4783999999999996</v>
       </c>
       <c r="P29" s="65">
         <f t="shared" si="5"/>
-        <v>0.41450000000000053</v>
+        <v>0.40810000000000046</v>
       </c>
       <c r="Q29" s="65">
         <f t="shared" si="12"/>
@@ -7033,11 +7048,11 @@
       </c>
       <c r="O30" s="65">
         <f>O29-$AB$2</f>
-        <v>0.45199999999999951</v>
+        <v>0.45839999999999959</v>
       </c>
       <c r="P30" s="65">
         <f t="shared" si="5"/>
-        <v>0.42300000000000049</v>
+        <v>0.41660000000000041</v>
       </c>
       <c r="Q30" s="65">
         <f t="shared" si="12"/>
@@ -7083,11 +7098,11 @@
       </c>
       <c r="O31" s="65">
         <f>O30-$AB$2</f>
-        <v>0.4319999999999995</v>
+        <v>0.43839999999999957</v>
       </c>
       <c r="P31" s="65">
         <f t="shared" si="5"/>
-        <v>0.43150000000000055</v>
+        <v>0.42510000000000048</v>
       </c>
       <c r="Q31" s="65">
         <f t="shared" si="12"/>
@@ -7139,11 +7154,11 @@
       </c>
       <c r="O32" s="66">
         <f>O31-$AC$2</f>
-        <v>0.40999999999999948</v>
+        <v>0.41639999999999955</v>
       </c>
       <c r="P32" s="66">
         <f t="shared" si="5"/>
-        <v>0.4420000000000005</v>
+        <v>0.43560000000000043</v>
       </c>
       <c r="Q32" s="66">
         <f t="shared" si="12"/>
@@ -7189,11 +7204,11 @@
       </c>
       <c r="O33" s="66">
         <f>O32-$AB$2</f>
-        <v>0.38999999999999946</v>
+        <v>0.39639999999999953</v>
       </c>
       <c r="P33" s="66">
         <f t="shared" si="5"/>
-        <v>0.45050000000000057</v>
+        <v>0.44410000000000049</v>
       </c>
       <c r="Q33" s="66">
         <f t="shared" si="12"/>
@@ -7239,11 +7254,11 @@
       </c>
       <c r="O34" s="66">
         <f>O33-$AB$2</f>
-        <v>0.36999999999999944</v>
+        <v>0.37639999999999951</v>
       </c>
       <c r="P34" s="66">
         <f t="shared" si="5"/>
-        <v>0.45900000000000052</v>
+        <v>0.45260000000000045</v>
       </c>
       <c r="Q34" s="66">
         <f t="shared" si="12"/>
@@ -7295,11 +7310,11 @@
       </c>
       <c r="O35" s="67">
         <f>O34-$AC$2</f>
-        <v>0.34799999999999942</v>
+        <v>0.35439999999999949</v>
       </c>
       <c r="P35" s="67">
         <f t="shared" si="5"/>
-        <v>0.46950000000000058</v>
+        <v>0.46310000000000051</v>
       </c>
       <c r="Q35" s="67">
         <f t="shared" si="12"/>
@@ -7345,11 +7360,11 @@
       </c>
       <c r="O36" s="67">
         <f>O35-$AB$2</f>
-        <v>0.3279999999999994</v>
+        <v>0.33439999999999948</v>
       </c>
       <c r="P36" s="67">
         <f t="shared" si="5"/>
-        <v>0.47800000000000054</v>
+        <v>0.47160000000000046</v>
       </c>
       <c r="Q36" s="67">
         <f t="shared" si="12"/>
@@ -7395,11 +7410,11 @@
       </c>
       <c r="O37" s="67">
         <f>O36-$AB$2</f>
-        <v>0.30799999999999939</v>
+        <v>0.31439999999999946</v>
       </c>
       <c r="P37" s="67">
         <f t="shared" si="5"/>
-        <v>0.48150000000000059</v>
+        <v>0.47510000000000052</v>
       </c>
       <c r="Q37" s="67">
         <f t="shared" si="12"/>
@@ -7452,11 +7467,11 @@
       </c>
       <c r="O38" s="68">
         <f>O37-$AC$2</f>
-        <v>0.28599999999999937</v>
+        <v>0.29239999999999944</v>
       </c>
       <c r="P38" s="68">
         <f t="shared" si="5"/>
-        <v>0.47700000000000053</v>
+        <v>0.47060000000000046</v>
       </c>
       <c r="Q38" s="68">
         <f t="shared" si="12"/>
@@ -7503,11 +7518,11 @@
       </c>
       <c r="O39" s="68">
         <f>O38-$AB$2</f>
-        <v>0.26599999999999935</v>
+        <v>0.27239999999999942</v>
       </c>
       <c r="P39" s="68">
         <f t="shared" si="5"/>
-        <v>0.47050000000000058</v>
+        <v>0.46410000000000051</v>
       </c>
       <c r="Q39" s="68">
         <f t="shared" si="12"/>
@@ -7554,11 +7569,11 @@
       </c>
       <c r="O40" s="68">
         <f>O39-$AB$2</f>
-        <v>0.24599999999999936</v>
+        <v>0.2523999999999994</v>
       </c>
       <c r="P40" s="68">
         <f t="shared" si="5"/>
-        <v>0.46400000000000052</v>
+        <v>0.45760000000000045</v>
       </c>
       <c r="Q40" s="68">
         <f t="shared" si="12"/>
@@ -7611,11 +7626,11 @@
       </c>
       <c r="O41" s="69">
         <f>O40-$AC$2</f>
-        <v>0.22399999999999937</v>
+        <v>0.23039999999999941</v>
       </c>
       <c r="P41" s="69">
         <f t="shared" si="5"/>
-        <v>0.45950000000000057</v>
+        <v>0.4531000000000005</v>
       </c>
       <c r="Q41" s="69">
         <f t="shared" si="12"/>
@@ -7662,11 +7677,11 @@
       </c>
       <c r="O42" s="69">
         <f>O41-$AB$2</f>
-        <v>0.20399999999999938</v>
+        <v>0.21039999999999942</v>
       </c>
       <c r="P42" s="69">
         <f t="shared" si="5"/>
-        <v>0.45300000000000062</v>
+        <v>0.44660000000000055</v>
       </c>
       <c r="Q42" s="69">
         <f t="shared" si="12"/>
@@ -7713,11 +7728,11 @@
       </c>
       <c r="O43" s="69">
         <f>O42-$AB$2</f>
-        <v>0.18399999999999939</v>
+        <v>0.19039999999999943</v>
       </c>
       <c r="P43" s="69">
         <f t="shared" si="5"/>
-        <v>0.44650000000000056</v>
+        <v>0.44010000000000049</v>
       </c>
       <c r="Q43" s="69">
         <f t="shared" si="12"/>
@@ -7770,11 +7785,11 @@
       </c>
       <c r="O44" s="70">
         <f>O43-$AC$2</f>
-        <v>0.16199999999999939</v>
+        <v>0.16839999999999944</v>
       </c>
       <c r="P44" s="70">
         <f t="shared" si="5"/>
-        <v>0.4420000000000005</v>
+        <v>0.43560000000000043</v>
       </c>
       <c r="Q44" s="70">
         <f t="shared" si="12"/>
@@ -7821,11 +7836,11 @@
       </c>
       <c r="O45" s="70">
         <f>O44-$AB$2</f>
-        <v>0.1419999999999994</v>
+        <v>0.14839999999999945</v>
       </c>
       <c r="P45" s="70">
         <f t="shared" si="5"/>
-        <v>0.43550000000000044</v>
+        <v>0.42910000000000048</v>
       </c>
       <c r="Q45" s="70">
         <f t="shared" si="12"/>
@@ -7872,11 +7887,11 @@
       </c>
       <c r="O46" s="70">
         <f>O45-$AB$2</f>
-        <v>0.1219999999999994</v>
+        <v>0.12839999999999946</v>
       </c>
       <c r="P46" s="70">
         <f t="shared" si="5"/>
-        <v>0.42900000000000049</v>
+        <v>0.42260000000000042</v>
       </c>
       <c r="Q46" s="70">
         <f t="shared" si="12"/>
@@ -7929,11 +7944,11 @@
       </c>
       <c r="O47" s="71">
         <f>O46-$AC$2</f>
-        <v>9.9999999999999395E-2</v>
+        <v>0.10639999999999947</v>
       </c>
       <c r="P47" s="76">
         <f t="shared" si="5"/>
-        <v>0.42450000000000043</v>
+        <v>0.41810000000000036</v>
       </c>
       <c r="Q47" s="76">
         <f t="shared" si="12"/>
@@ -7986,11 +8001,11 @@
       </c>
       <c r="O48" s="71">
         <f t="shared" ref="O48:O50" si="14">O47-$AC$2</f>
-        <v>7.7999999999999403E-2</v>
+        <v>8.4399999999999475E-2</v>
       </c>
       <c r="P48" s="76">
         <f t="shared" si="5"/>
-        <v>0.42000000000000037</v>
+        <v>0.41360000000000041</v>
       </c>
       <c r="Q48" s="76">
         <f t="shared" si="12"/>
@@ -8002,7 +8017,7 @@
       </c>
       <c r="S48" s="73">
         <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="T48" s="73"/>
     </row>
@@ -8043,11 +8058,11 @@
       </c>
       <c r="O49" s="71">
         <f t="shared" si="14"/>
-        <v>5.5999999999999404E-2</v>
+        <v>6.2399999999999477E-2</v>
       </c>
       <c r="P49" s="76">
         <f t="shared" si="5"/>
-        <v>0.41550000000000042</v>
+        <v>0.40910000000000035</v>
       </c>
       <c r="Q49" s="76">
         <f t="shared" si="12"/>
@@ -8100,11 +8115,11 @@
       </c>
       <c r="O50" s="72">
         <f t="shared" si="14"/>
-        <v>3.3999999999999406E-2</v>
+        <v>4.0399999999999478E-2</v>
       </c>
       <c r="P50" s="87">
         <f>100%-(O50+Q50+R50)</f>
-        <v>0.41100000000000037</v>
+        <v>0.40460000000000029</v>
       </c>
       <c r="Q50" s="87">
         <f t="shared" si="12"/>
@@ -8172,7 +8187,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L10 L16 O23 O26 O29 O32 O35 O38 O41 O44 O20 L44 L41 L38 L35 L32 L29 L23" formula="1"/>
+    <ignoredError sqref="L10 L16 O23 O26 O29 O32 O35 O38 O41 O44 L44 L41 L38 L35 L32 L29 L23" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E90EE4A-C23F-40B1-81A0-CB6778D865E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DB5490-1AE7-4FD0-8E72-25C707BE4EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -659,7 +659,21 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5360,10 +5374,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="F1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
+      <selection pane="bottomLeft" activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5617,11 +5631,11 @@
         <f>L3*$X$4</f>
         <v>172.5</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="24">
         <f t="shared" ref="M4:M50" si="3">(J4-L4)+H5</f>
         <v>659.30770480000001</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="24">
         <f t="shared" ref="N4:N50" si="4">M4/L4</f>
         <v>3.822073651014493</v>
       </c>
@@ -5683,11 +5697,11 @@
         <f>L4*$X$2</f>
         <v>198.37499999999997</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="24">
         <f t="shared" si="3"/>
         <v>207.09401526560001</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="24">
         <f t="shared" si="4"/>
         <v>1.0439521878543165</v>
       </c>
@@ -5737,11 +5751,11 @@
         <f t="shared" ref="L6:L9" si="7">L5*$X$2</f>
         <v>228.13124999999994</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="24">
         <f t="shared" si="3"/>
         <v>267.3518866545632</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="24">
         <f t="shared" si="4"/>
         <v>1.1719213683112826</v>
       </c>
@@ -5788,11 +5802,11 @@
         <f t="shared" si="7"/>
         <v>262.35093749999993</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="24">
         <f t="shared" si="3"/>
         <v>343.12945549187617</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="24">
         <f t="shared" si="4"/>
         <v>1.3079025322403366</v>
       </c>
@@ -5839,11 +5853,11 @@
         <f t="shared" si="7"/>
         <v>301.70357812499992</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="24">
         <f t="shared" si="3"/>
         <v>438.19346211107262</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="24">
         <f t="shared" si="4"/>
         <v>1.4523972994762531</v>
       </c>
@@ -5901,11 +5915,11 @@
         <f t="shared" si="7"/>
         <v>346.95911484374989</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="24">
         <f t="shared" si="3"/>
         <v>557.19506832473076</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="24">
         <f t="shared" si="4"/>
         <v>1.6059386956173751</v>
       </c>
@@ -5955,11 +5969,11 @@
         <f>L9*$X$4</f>
         <v>399.00298207031233</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="25">
         <f t="shared" si="3"/>
         <v>1451.7395943645524</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="25">
         <f t="shared" si="4"/>
         <v>3.6384179056304067</v>
       </c>
@@ -6017,11 +6031,11 @@
         <f>L10*$X$2</f>
         <v>458.85342938085915</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="25">
         <f t="shared" si="3"/>
         <v>891.30554587770212</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="25">
         <f t="shared" si="4"/>
         <v>1.9424624265756496</v>
       </c>
@@ -6068,11 +6082,11 @@
         <f t="shared" ref="L12:L15" si="8">L11*$X$2</f>
         <v>527.68144378798797</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="25">
         <f t="shared" si="3"/>
         <v>1122.212823977974</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="25">
         <f t="shared" si="4"/>
         <v>2.1266861611090819</v>
       </c>
@@ -6130,11 +6144,11 @@
         <f t="shared" si="8"/>
         <v>606.8336603561861</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="25">
         <f t="shared" si="3"/>
         <v>1409.3371348538194</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="25">
         <f t="shared" si="4"/>
         <v>2.322443903369825</v>
       </c>
@@ -6181,11 +6195,11 @@
         <f t="shared" si="8"/>
         <v>697.85870940961399</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="25">
         <f t="shared" si="3"/>
         <v>1765.9020023370124</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="25">
         <f t="shared" si="4"/>
         <v>2.5304577825373267</v>
       </c>
@@ -6243,11 +6257,11 @@
         <f t="shared" si="8"/>
         <v>802.53751582105599</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="25">
         <f t="shared" si="3"/>
         <v>2208.1780739333212</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="25">
         <f t="shared" si="4"/>
         <v>2.751495139357055</v>
       </c>
@@ -6297,11 +6311,11 @@
         <f>L15*$X$4</f>
         <v>922.91814319421428</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="26">
         <f t="shared" si="3"/>
         <v>5239.8134254063252</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="26">
         <f t="shared" si="4"/>
         <v>5.6774411295798801</v>
       </c>
@@ -6348,11 +6362,11 @@
         <f>L16*$X$2</f>
         <v>1061.3558646733463</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="26">
         <f t="shared" si="3"/>
         <v>3434.4975540574296</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="26">
         <f t="shared" si="4"/>
         <v>3.2359528678107088</v>
       </c>
@@ -6399,11 +6413,11 @@
         <f t="shared" ref="L18:L19" si="10">L17*$X$2</f>
         <v>1220.5592443743483</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="26">
         <f t="shared" si="3"/>
         <v>4273.3736333146599</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="26">
         <f t="shared" si="4"/>
         <v>3.5011603517084229</v>
       </c>
@@ -6450,11 +6464,11 @@
         <f t="shared" si="10"/>
         <v>1403.6431310305004</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="26">
         <f t="shared" si="3"/>
         <v>5309.9428455054667</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="26">
         <f t="shared" si="4"/>
         <v>3.7829721302501671</v>
       </c>
@@ -6505,11 +6519,11 @@
         <f>L19*$Y$4</f>
         <v>1937.0275208220903</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="27">
         <f>(J20-L20)+H21</f>
         <v>11805.229760772381</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="27">
         <f t="shared" si="4"/>
         <v>6.0945080200833415</v>
       </c>
@@ -6555,11 +6569,11 @@
         <f>L20*$Y$2</f>
         <v>2518.1357770687173</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="27">
         <f t="shared" si="3"/>
         <v>7507.1547443168174</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="27">
         <f t="shared" si="4"/>
         <v>2.9812350917215671</v>
       </c>
@@ -6605,11 +6619,11 @@
         <f>L21*$Y$2</f>
         <v>3273.5765101893326</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="27">
         <f t="shared" si="3"/>
         <v>8977.3285069437898</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="27">
         <f t="shared" si="4"/>
         <v>2.742360986218273</v>
       </c>
@@ -6661,11 +6675,11 @@
         <f>L22*$Y$4</f>
         <v>4517.5355840612783</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="28">
         <f t="shared" si="3"/>
         <v>20559.239967219684</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="28">
         <f t="shared" si="4"/>
         <v>4.550985727651284</v>
       </c>
@@ -6711,11 +6725,11 @@
         <f>L23*$Y$2</f>
         <v>5872.7962592796621</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="28">
         <f t="shared" si="3"/>
         <v>12421.284188324957</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="28">
         <f t="shared" si="4"/>
         <v>2.1150545055429033</v>
       </c>
@@ -6761,11 +6775,11 @@
         <f>L24*$Y$2</f>
         <v>7634.6351370635612</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="28">
         <f t="shared" si="3"/>
         <v>14720.731169909282</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="28">
         <f t="shared" si="4"/>
         <v>1.9281512352103287</v>
       </c>
@@ -6817,11 +6831,11 @@
         <f>L25*$Y$4</f>
         <v>10535.796489147713</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="29">
         <f t="shared" si="3"/>
         <v>35224.129203086159</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="29">
         <f t="shared" si="4"/>
         <v>3.3432810931160644</v>
       </c>
@@ -6867,11 +6881,11 @@
         <f>L26*$Y$2</f>
         <v>13696.535435892027</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="29">
         <f t="shared" si="3"/>
         <v>19686.375384449602</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="29">
         <f t="shared" si="4"/>
         <v>1.4373251890300001</v>
       </c>
@@ -6917,11 +6931,11 @@
         <f>L27*$Y$2</f>
         <v>17805.496066659634</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="29">
         <f t="shared" si="3"/>
         <v>22988.420955797836</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="29">
         <f t="shared" si="4"/>
         <v>1.2910856776882</v>
       </c>
@@ -6973,11 +6987,11 @@
         <f>L28*$Y$4</f>
         <v>24571.584571990294</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="30">
         <f>(J29-L29)+H30</f>
         <v>58930.809708194647</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="30">
         <f t="shared" si="4"/>
         <v>2.3983316800566135</v>
       </c>
@@ -7023,11 +7037,11 @@
         <f>L29*$Y$2</f>
         <v>31943.059943587381</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="30">
         <f t="shared" si="3"/>
         <v>28973.843643375996</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N30" s="30">
         <f t="shared" si="4"/>
         <v>0.90704659148324773</v>
       </c>
@@ -7073,11 +7087,11 @@
         <f>L30*$Y$2</f>
         <v>41525.977926663596</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="30">
         <f t="shared" si="3"/>
         <v>32914.478256605653</v>
       </c>
-      <c r="N31" s="23">
+      <c r="N31" s="30">
         <f t="shared" si="4"/>
         <v>0.79262379599425281</v>
       </c>
@@ -7129,11 +7143,11 @@
         <f>L31*$Y$4</f>
         <v>57305.849538795759</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="31">
         <f>(J32-L32)+H33</f>
         <v>95068.739035040693</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="31">
         <f t="shared" si="4"/>
         <v>1.6589709392699894</v>
       </c>
@@ -7179,11 +7193,11 @@
         <f>L32*$Y$2</f>
         <v>74497.604400434488</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="31">
         <f t="shared" si="3"/>
         <v>36663.137770742549</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N33" s="31">
         <f t="shared" si="4"/>
         <v>0.49213847969759306</v>
       </c>
@@ -7229,11 +7243,11 @@
         <f>L33*$Y$2</f>
         <v>96846.885720564838</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="31">
         <f t="shared" si="3"/>
         <v>38991.541212613498</v>
       </c>
-      <c r="N34" s="23">
+      <c r="N34" s="31">
         <f t="shared" si="4"/>
         <v>0.40261017091573742</v>
       </c>
@@ -7285,11 +7299,11 @@
         <f>L34*$Y$4</f>
         <v>133648.70229437947</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="32">
         <f t="shared" si="3"/>
         <v>144403.38762701751</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N35" s="32">
         <f t="shared" si="4"/>
         <v>1.0804698073981247</v>
       </c>
@@ -7335,11 +7349,11 @@
         <f>L35*$Y$2</f>
         <v>173743.31298269331</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M36" s="32">
         <f t="shared" si="3"/>
         <v>29102.036541790934</v>
       </c>
-      <c r="N36" s="23">
+      <c r="N36" s="32">
         <f t="shared" si="4"/>
         <v>0.16750018197644134</v>
       </c>
@@ -7385,11 +7399,11 @@
         <f>L36*$Y$2</f>
         <v>225866.30687750131</v>
       </c>
-      <c r="M37" s="23">
+      <c r="M37" s="32">
         <f>(J37-L37)+H38</f>
         <v>22010.710241418434</v>
       </c>
-      <c r="N37" s="23">
+      <c r="N37" s="32">
         <f t="shared" si="4"/>
         <v>9.745017105785482E-2</v>
       </c>
@@ -7442,11 +7456,11 @@
         <f>L37*$Y$4</f>
         <v>311695.50349095179</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M38" s="33">
         <f t="shared" si="3"/>
         <v>195692.01717948425</v>
       </c>
-      <c r="N38" s="23">
+      <c r="N38" s="33">
         <f t="shared" si="4"/>
         <v>0.62783073540605305</v>
       </c>
@@ -7493,11 +7507,11 @@
         <f>L38*$Y$2</f>
         <v>405204.15453823732</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="33">
         <f t="shared" si="3"/>
         <v>-35053.37090682835</v>
       </c>
-      <c r="N39" s="23">
+      <c r="N39" s="33">
         <f t="shared" si="4"/>
         <v>-8.6507925731350119E-2</v>
       </c>
@@ -7544,11 +7558,11 @@
         <f>L39*$Y$2</f>
         <v>526765.4008997085</v>
       </c>
-      <c r="M40" s="23">
+      <c r="M40" s="33">
         <f t="shared" si="3"/>
         <v>-74441.143302126729</v>
       </c>
-      <c r="N40" s="23">
+      <c r="N40" s="33">
         <f t="shared" si="4"/>
         <v>-0.14131745018746908</v>
       </c>
@@ -7601,11 +7615,11 @@
         <f>L40*$Y$4</f>
         <v>726936.25324159767</v>
       </c>
-      <c r="M41" s="23">
+      <c r="M41" s="34">
         <f t="shared" si="3"/>
         <v>198940.96711977012</v>
       </c>
-      <c r="N41" s="23">
+      <c r="N41" s="34">
         <f t="shared" si="4"/>
         <v>0.27367044391119666</v>
       </c>
@@ -7652,11 +7666,11 @@
         <f>L41*$Y$2</f>
         <v>945017.12921407702</v>
       </c>
-      <c r="M42" s="23">
+      <c r="M42" s="34">
         <f t="shared" si="3"/>
         <v>-269568.5525317298</v>
       </c>
-      <c r="N42" s="23">
+      <c r="N42" s="34">
         <f t="shared" si="4"/>
         <v>-0.28525255701546526</v>
       </c>
@@ -7703,11 +7717,11 @@
         <f>L42*$Y$2</f>
         <v>1228522.2679783001</v>
       </c>
-      <c r="M43" s="23">
+      <c r="M43" s="34">
         <f t="shared" si="3"/>
         <v>-403124.10727247183</v>
       </c>
-      <c r="N43" s="23">
+      <c r="N43" s="34">
         <f t="shared" si="4"/>
         <v>-0.32813740359453736</v>
       </c>
@@ -7760,11 +7774,11 @@
         <f>L43*$Y$4</f>
         <v>1695360.7298100539</v>
       </c>
-      <c r="M44" s="23">
+      <c r="M44" s="35">
         <f t="shared" si="3"/>
         <v>-5826.4147930658655</v>
       </c>
-      <c r="N44" s="23">
+      <c r="N44" s="35">
         <f t="shared" si="4"/>
         <v>-3.4366814628994324E-3</v>
       </c>
@@ -7811,11 +7825,11 @@
         <f>L44*$Y$2</f>
         <v>2203968.9487530701</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M45" s="35">
         <f t="shared" si="3"/>
         <v>-971415.081741628</v>
       </c>
-      <c r="N45" s="23">
+      <c r="N45" s="35">
         <f t="shared" si="4"/>
         <v>-0.44075715417461814</v>
       </c>
@@ -7862,11 +7876,11 @@
         <f>L45*$Y$2</f>
         <v>2865159.6333789914</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M46" s="35">
         <f t="shared" si="3"/>
         <v>-1358978.8078910094</v>
       </c>
-      <c r="N46" s="23">
+      <c r="N46" s="35">
         <f t="shared" si="4"/>
         <v>-0.4743117249241412</v>
       </c>
@@ -7919,11 +7933,11 @@
         <f>L46*$Y$4</f>
         <v>3953920.2940630079</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="36">
         <f t="shared" si="3"/>
         <v>-870869.82166256569</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N47" s="36">
         <f t="shared" si="4"/>
         <v>-0.22025477422248915</v>
       </c>
@@ -7976,11 +7990,11 @@
         <f>L47*$Y$4</f>
         <v>5456410.0058069509</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="36">
         <f t="shared" si="3"/>
         <v>-1688922.3285336106</v>
       </c>
-      <c r="N48" s="23">
+      <c r="N48" s="36">
         <f t="shared" si="4"/>
         <v>-0.3095299522462911</v>
       </c>
@@ -8033,11 +8047,11 @@
         <f>L48*$Y$4</f>
         <v>7529845.8080135919</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="36">
         <f>(J49-L49)+H50</f>
         <v>-2925975.8663855707</v>
       </c>
-      <c r="N49" s="23">
+      <c r="N49" s="36">
         <f t="shared" si="4"/>
         <v>-0.38858376930794769</v>
       </c>
@@ -8090,11 +8104,11 @@
         <f>L49*$Y$4</f>
         <v>10391187.215058755</v>
       </c>
-      <c r="M50" s="23">
+      <c r="M50" s="37">
         <f t="shared" si="3"/>
         <v>1707442.0153579051</v>
       </c>
-      <c r="N50" s="23">
+      <c r="N50" s="37">
         <f t="shared" si="4"/>
         <v>0.16431635577535408</v>
       </c>
@@ -8164,11 +8178,6 @@
     <mergeCell ref="X14:Y14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:R2 F3:M50 O3:R50">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ROW()=CELL("ROW")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DB5490-1AE7-4FD0-8E72-25C707BE4EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5779E7D-AF8B-4349-BBDE-513773B8E0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14040" yWindow="3450" windowWidth="19455" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5374,10 +5374,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="F1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="S52" sqref="S52"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5779E7D-AF8B-4349-BBDE-513773B8E0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84437FD9-0149-41CE-9C02-82491E7F5679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="3450" windowWidth="19455" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14955" yWindow="2580" windowWidth="16980" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>계급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,17 +205,26 @@
     <t>시도 횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>성공 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대통령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,12 +237,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -482,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -558,7 +561,6 @@
     <xf numFmtId="176" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -599,13 +601,11 @@
     <xf numFmtId="178" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -636,13 +636,14 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,29 +660,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -831,9 +810,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$2:$F$50</c:f>
+              <c:f>Sheet1!$F$2:$F$31</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>이병</c:v>
                 </c:pt>
@@ -847,138 +826,81 @@
                   <c:v>일병</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>일병</c:v>
+                  <c:v>상병</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>일병</c:v>
+                  <c:v>상병</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>일병</c:v>
+                  <c:v>병장</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>일병</c:v>
+                  <c:v>병장</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>상병</c:v>
+                  <c:v>하사</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>상병</c:v>
+                  <c:v>하사</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>상병</c:v>
+                  <c:v>중사</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>상병</c:v>
+                  <c:v>중사</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>상병</c:v>
+                  <c:v>상사</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>상병</c:v>
+                  <c:v>상사</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>병장</c:v>
+                  <c:v>소위</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>병장</c:v>
+                  <c:v>소위</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>병장</c:v>
+                  <c:v>중위</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>병장</c:v>
+                  <c:v>중위</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>하사</c:v>
+                  <c:v>대위</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>하사</c:v>
+                  <c:v>대위</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>하사</c:v>
+                  <c:v>소령</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>중사</c:v>
+                  <c:v>소령</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>중사</c:v>
+                  <c:v>중령</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>중사</c:v>
+                  <c:v>중령</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>상사</c:v>
+                  <c:v>대령</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>상사</c:v>
+                  <c:v>대령</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>상사</c:v>
+                  <c:v>준장</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>소위</c:v>
+                  <c:v>소장</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>소위</c:v>
+                  <c:v>중장</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>소위</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>중위</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>중위</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>중위</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>대위</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>대위</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>대위</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>소령</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>소령</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>소령</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>중령</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>중령</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>중령</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>대령</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>대령</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>대령</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>준장</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>소장</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>중장</c:v>
-                </c:pt>
-                <c:pt idx="48">
                   <c:v>대장</c:v>
                 </c:pt>
               </c:strCache>
@@ -986,156 +908,99 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$50</c:f>
+              <c:f>Sheet1!$L$2:$L$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.5</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>198.37499999999997</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>228.13124999999994</c:v>
+                  <c:v>187.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>262.35093749999993</c:v>
+                  <c:v>224.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>301.70357812499992</c:v>
+                  <c:v>269.56799999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>346.95911484374989</c:v>
+                  <c:v>323.48159999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>399.00298207031233</c:v>
+                  <c:v>388.17791999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>458.85342938085915</c:v>
+                  <c:v>465.81350399999985</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>527.68144378798797</c:v>
+                  <c:v>558.97620479999978</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>606.8336603561861</c:v>
+                  <c:v>670.77144575999966</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>697.85870940961399</c:v>
+                  <c:v>804.9257349119996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>802.53751582105599</c:v>
+                  <c:v>965.91088189439949</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>922.91814319421428</c:v>
+                  <c:v>1159.0930582732794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1061.3558646733463</c:v>
+                  <c:v>1390.9116699279352</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1220.5592443743483</c:v>
+                  <c:v>1669.0940039135223</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1403.6431310305004</c:v>
+                  <c:v>2002.9128046962267</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1937.0275208220903</c:v>
+                  <c:v>2403.4953656354719</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2518.1357770687173</c:v>
+                  <c:v>2884.1944387625663</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3273.5765101893326</c:v>
+                  <c:v>3461.0333265150794</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4517.5355840612783</c:v>
+                  <c:v>4153.2399918180954</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5872.7962592796621</c:v>
+                  <c:v>4983.8879901817145</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7634.6351370635612</c:v>
+                  <c:v>5980.6655882180576</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10535.796489147713</c:v>
+                  <c:v>7176.7987058616691</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13696.535435892027</c:v>
+                  <c:v>8612.1584470340022</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17805.496066659634</c:v>
+                  <c:v>10334.590136440802</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24571.584571990294</c:v>
+                  <c:v>12401.508163728962</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31943.059943587381</c:v>
+                  <c:v>14881.809796474754</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41525.977926663596</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>57305.849538795759</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>74497.604400434488</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>96846.885720564838</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>133648.70229437947</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>173743.31298269331</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>225866.30687750131</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>311695.50349095179</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>405204.15453823732</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>526765.4008997085</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>726936.25324159767</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>945017.12921407702</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1228522.2679783001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1695360.7298100539</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2203968.9487530701</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2865159.6333789914</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3953920.2940630079</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5456410.0058069509</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7529845.8080135919</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10391187.215058755</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1470,9 +1335,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$3:$F$50</c:f>
+              <c:f>Sheet1!$F$3:$F$31</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>이병</c:v>
                 </c:pt>
@@ -1483,138 +1348,81 @@
                   <c:v>일병</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>일병</c:v>
+                  <c:v>상병</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>일병</c:v>
+                  <c:v>상병</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>일병</c:v>
+                  <c:v>병장</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>일병</c:v>
+                  <c:v>병장</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>상병</c:v>
+                  <c:v>하사</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>상병</c:v>
+                  <c:v>하사</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>상병</c:v>
+                  <c:v>중사</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>상병</c:v>
+                  <c:v>중사</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>상병</c:v>
+                  <c:v>상사</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>상병</c:v>
+                  <c:v>상사</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>병장</c:v>
+                  <c:v>소위</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>병장</c:v>
+                  <c:v>소위</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>병장</c:v>
+                  <c:v>중위</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>병장</c:v>
+                  <c:v>중위</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>하사</c:v>
+                  <c:v>대위</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>하사</c:v>
+                  <c:v>대위</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>하사</c:v>
+                  <c:v>소령</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>중사</c:v>
+                  <c:v>소령</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>중사</c:v>
+                  <c:v>중령</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>중사</c:v>
+                  <c:v>중령</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>상사</c:v>
+                  <c:v>대령</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>상사</c:v>
+                  <c:v>대령</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>상사</c:v>
+                  <c:v>준장</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>소위</c:v>
+                  <c:v>소장</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>소위</c:v>
+                  <c:v>중장</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>소위</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>중위</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>중위</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>중위</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>대위</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>대위</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>대위</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>소령</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>소령</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>소령</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>중령</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>중령</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>중령</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>대령</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>대령</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>대령</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>준장</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>소장</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>중장</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>대장</c:v>
                 </c:pt>
               </c:strCache>
@@ -1622,153 +1430,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$50</c:f>
+              <c:f>Sheet1!$P$3:$P$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0000000000000018E-2</c:v>
+                  <c:v>3.6499999999999977E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0000000000000036E-2</c:v>
+                  <c:v>7.2999999999999954E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0000000000000053E-2</c:v>
+                  <c:v>0.10949999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0000000000000071E-2</c:v>
+                  <c:v>0.14599999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10000000000000009</c:v>
+                  <c:v>0.18249999999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12000000000000011</c:v>
+                  <c:v>0.21899999999999986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14000000000000012</c:v>
+                  <c:v>0.24549999999999983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16000000000000014</c:v>
+                  <c:v>0.27049999999999985</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18000000000000016</c:v>
+                  <c:v>0.29549999999999976</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20000000000000018</c:v>
+                  <c:v>0.32049999999999979</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2200000000000002</c:v>
+                  <c:v>0.3454999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24000000000000021</c:v>
+                  <c:v>0.37049999999999972</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26000000000000023</c:v>
+                  <c:v>0.39549999999999974</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28000000000000025</c:v>
+                  <c:v>0.42049999999999965</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30000000000000027</c:v>
+                  <c:v>0.44549999999999967</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32000000000000028</c:v>
+                  <c:v>0.4704999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33200000000000029</c:v>
+                  <c:v>0.49549999999999961</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.34050000000000036</c:v>
+                  <c:v>0.52049999999999963</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.34900000000000031</c:v>
+                  <c:v>0.53049999999999953</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.35950000000000037</c:v>
+                  <c:v>0.54049999999999954</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.36800000000000033</c:v>
+                  <c:v>0.55049999999999955</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.37650000000000039</c:v>
+                  <c:v>0.56049999999999955</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.38700000000000045</c:v>
+                  <c:v>0.57049999999999956</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.39550000000000041</c:v>
+                  <c:v>0.58049999999999957</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.40400000000000047</c:v>
+                  <c:v>0.59049999999999958</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.41450000000000053</c:v>
+                  <c:v>0.60049999999999948</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.42300000000000049</c:v>
+                  <c:v>0.62399999999999989</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.43150000000000055</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.4420000000000005</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.45050000000000057</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.45900000000000052</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.46950000000000058</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.47800000000000054</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.48150000000000059</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.47700000000000053</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.47050000000000058</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.46400000000000052</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.45950000000000057</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.45300000000000062</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.44650000000000056</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.4420000000000005</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43550000000000044</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.42900000000000049</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.42450000000000043</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.42000000000000037</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.41550000000000042</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.41100000000000037</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,9 +1854,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$3:$F$50</c:f>
+              <c:f>Sheet1!$F$3:$F$31</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>이병</c:v>
                 </c:pt>
@@ -2116,138 +1867,81 @@
                   <c:v>일병</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>일병</c:v>
+                  <c:v>상병</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>일병</c:v>
+                  <c:v>상병</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>일병</c:v>
+                  <c:v>병장</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>일병</c:v>
+                  <c:v>병장</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>상병</c:v>
+                  <c:v>하사</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>상병</c:v>
+                  <c:v>하사</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>상병</c:v>
+                  <c:v>중사</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>상병</c:v>
+                  <c:v>중사</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>상병</c:v>
+                  <c:v>상사</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>상병</c:v>
+                  <c:v>상사</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>병장</c:v>
+                  <c:v>소위</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>병장</c:v>
+                  <c:v>소위</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>병장</c:v>
+                  <c:v>중위</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>병장</c:v>
+                  <c:v>중위</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>하사</c:v>
+                  <c:v>대위</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>하사</c:v>
+                  <c:v>대위</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>하사</c:v>
+                  <c:v>소령</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>중사</c:v>
+                  <c:v>소령</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>중사</c:v>
+                  <c:v>중령</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>중사</c:v>
+                  <c:v>중령</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>상사</c:v>
+                  <c:v>대령</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>상사</c:v>
+                  <c:v>대령</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>상사</c:v>
+                  <c:v>준장</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>소위</c:v>
+                  <c:v>소장</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>소위</c:v>
+                  <c:v>중장</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>소위</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>중위</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>중위</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>중위</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>대위</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>대위</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>대위</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>소령</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>소령</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>소령</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>중령</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>중령</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>중령</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>대령</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>대령</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>대령</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>준장</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>소장</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>중장</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>대장</c:v>
                 </c:pt>
               </c:strCache>
@@ -2255,153 +1949,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$50</c:f>
+              <c:f>Sheet1!$O$3:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0.96350000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>0.92700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94</c:v>
+                  <c:v>0.89050000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91999999999999993</c:v>
+                  <c:v>0.85400000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.81750000000000012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87999999999999989</c:v>
+                  <c:v>0.78100000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85999999999999988</c:v>
+                  <c:v>0.74450000000000016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83999999999999986</c:v>
+                  <c:v>0.70800000000000018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81999999999999984</c:v>
+                  <c:v>0.67150000000000021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79999999999999982</c:v>
+                  <c:v>0.63500000000000023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7799999999999998</c:v>
+                  <c:v>0.59850000000000025</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.75999999999999979</c:v>
+                  <c:v>0.56200000000000028</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73999999999999977</c:v>
+                  <c:v>0.5255000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.71999999999999975</c:v>
+                  <c:v>0.48900000000000032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69999999999999973</c:v>
+                  <c:v>0.45250000000000035</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.67999999999999972</c:v>
+                  <c:v>0.41600000000000037</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6579999999999997</c:v>
+                  <c:v>0.37950000000000039</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.63799999999999968</c:v>
+                  <c:v>0.34300000000000042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.61799999999999966</c:v>
+                  <c:v>0.30650000000000044</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.59599999999999964</c:v>
+                  <c:v>0.27000000000000046</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.57599999999999962</c:v>
+                  <c:v>0.23350000000000046</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.55599999999999961</c:v>
+                  <c:v>0.19700000000000045</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.53399999999999959</c:v>
+                  <c:v>0.16050000000000045</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.51399999999999957</c:v>
+                  <c:v>0.12400000000000044</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.49399999999999955</c:v>
+                  <c:v>8.7500000000000439E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.47199999999999953</c:v>
+                  <c:v>5.1000000000000441E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.45199999999999951</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.4319999999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.40999999999999948</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.38999999999999946</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.36999999999999944</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.34799999999999942</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.3279999999999994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.30799999999999939</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.28599999999999937</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.26599999999999935</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.24599999999999936</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.22399999999999937</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.20399999999999938</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.18399999999999939</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.16199999999999939</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.1419999999999994</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.1219999999999994</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.9999999999999395E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.7999999999999403E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.5999999999999404E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.3999999999999406E-2</c:v>
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0000%">
+                  <c:v>7.7000000000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4207,14 +3844,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4243,109 +3880,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAA47FD-2627-4276-BD6D-E7C8D67416D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9734551" y="1514476"/>
-          <a:ext cx="2057400" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>이병 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>~ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>병장 강화 총 비용</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4435,14 +3976,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4529,309 +4070,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="사각형: 둥근 모서리 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0942D9-5B45-40DC-9BF0-344794175B8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9727406" y="2839641"/>
-          <a:ext cx="2053828" cy="220265"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>이병 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>~ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>대장 강화 총 비용</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>684608</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>220265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>1095374</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="사각형: 둥근 모서리 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2388EB84-F526-4577-9456-9476FD34D7F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11791949" y="1514475"/>
-          <a:ext cx="2143125" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>이병 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>~ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>병장 총 획득 금액</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="사각형: 둥근 모서리 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41E8E90-959B-4425-A791-1CFF09DF0208}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11791950" y="1952625"/>
-          <a:ext cx="2143125" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>이병 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>~ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>상사 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>총 획득 금액</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>684608</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>220265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1095374</xdr:colOff>
-      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4928,120 +4175,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1093938</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="사각형: 둥근 모서리 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D9ACE1-6F84-4971-B7B2-F27E32C1E6D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11771586" y="2804948"/>
-          <a:ext cx="2144973" cy="216776"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>이병 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>~ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>대장 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>총 획득 금액</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5071,13 +4213,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5372,12 +4514,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="F1:AE57"/>
+  <dimension ref="F1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5410,7 +4552,7 @@
       <c r="J1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="53" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -5423,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>38</v>
@@ -5437,7 +4579,7 @@
       <c r="S1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="75"/>
+      <c r="T1" s="73"/>
       <c r="U1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5477,17 +4619,17 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="37">
         <v>100</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="37">
         <v>0</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="37">
         <f>H2+I2</f>
         <v>100</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="37">
         <v>0</v>
       </c>
       <c r="L2" s="22">
@@ -5495,23 +4637,23 @@
       </c>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="73">
-        <f t="shared" ref="S2:S49" si="0">SUM(O2:R2)</f>
+      <c r="S2" s="71">
+        <f t="shared" ref="S2:S30" si="0">SUM(O2:R2)</f>
         <v>0</v>
       </c>
-      <c r="T2" s="73"/>
+      <c r="T2" s="71"/>
       <c r="U2" s="1">
         <v>1.222</v>
       </c>
@@ -5522,7 +4664,7 @@
         <v>1.08</v>
       </c>
       <c r="X2" s="21">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Y2" s="21">
         <v>1.3</v>
@@ -5530,16 +4672,16 @@
       <c r="AA2" s="1">
         <v>1</v>
       </c>
-      <c r="AB2" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="AC2" s="74">
+      <c r="AB2" s="86">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="AC2" s="72">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AD2" s="74">
+      <c r="AD2" s="72">
         <v>1.15E-2</v>
       </c>
-      <c r="AE2" s="74">
+      <c r="AE2" s="72">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -5550,49 +4692,49 @@
       <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <f>H2*$U$2</f>
         <v>122.2</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="38">
         <v>0</v>
       </c>
-      <c r="J3" s="39">
-        <f t="shared" ref="J3:J50" si="1">H3+I3</f>
+      <c r="J3" s="38">
+        <f t="shared" ref="J3:J31" si="1">H3+I3</f>
         <v>122.2</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="38">
         <v>0</v>
       </c>
       <c r="L3" s="23">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M3" s="23">
         <f>(J3-L3)+H4</f>
-        <v>121.52839999999999</v>
+        <v>171.52839999999998</v>
       </c>
       <c r="N3" s="23">
         <f>M3/L3</f>
-        <v>0.81018933333333332</v>
-      </c>
-      <c r="O3" s="58">
+        <v>1.7152839999999998</v>
+      </c>
+      <c r="O3" s="57">
         <v>1</v>
       </c>
-      <c r="P3" s="58">
+      <c r="P3" s="57">
         <f>100%-(O3+Q3+R3)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="77">
+      <c r="Q3" s="74">
         <v>0</v>
       </c>
-      <c r="R3" s="77">
+      <c r="R3" s="74">
         <v>0</v>
       </c>
-      <c r="S3" s="73">
+      <c r="S3" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T3" s="73"/>
+      <c r="T3" s="71"/>
       <c r="X3" s="2" t="s">
         <v>28</v>
       </c>
@@ -5613,56 +4755,56 @@
       <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="40">
-        <f t="shared" ref="H4:H50" si="2">H3*$U$2</f>
+      <c r="H4" s="39">
+        <f t="shared" ref="H4:H31" si="2">H3*$U$2</f>
         <v>149.32839999999999</v>
       </c>
-      <c r="I4" s="40">
-        <v>500</v>
-      </c>
-      <c r="J4" s="40">
+      <c r="I4" s="39">
+        <v>200</v>
+      </c>
+      <c r="J4" s="39">
         <f t="shared" si="1"/>
-        <v>649.32839999999999</v>
-      </c>
-      <c r="K4" s="40">
+        <v>349.32839999999999</v>
+      </c>
+      <c r="K4" s="39">
         <v>0</v>
       </c>
       <c r="L4" s="24">
         <f>L3*$X$4</f>
-        <v>172.5</v>
+        <v>130</v>
       </c>
       <c r="M4" s="24">
-        <f t="shared" ref="M4:M50" si="3">(J4-L4)+H5</f>
-        <v>659.30770480000001</v>
+        <f>(J4-L4)+H5</f>
+        <v>401.80770480000001</v>
       </c>
       <c r="N4" s="24">
-        <f t="shared" ref="N4:N50" si="4">M4/L4</f>
-        <v>3.822073651014493</v>
-      </c>
-      <c r="O4" s="59">
+        <f t="shared" ref="N4:N31" si="3">M4/L4</f>
+        <v>3.0908284984615384</v>
+      </c>
+      <c r="O4" s="58">
         <f>O3-$AB$2</f>
-        <v>0.98</v>
-      </c>
-      <c r="P4" s="59">
-        <f t="shared" ref="P4:P49" si="5">100%-(O4+Q4+R4)</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="Q4" s="78">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="P4" s="58">
+        <f t="shared" ref="P4:P30" si="4">100%-(O4+Q4+R4)</f>
+        <v>3.6499999999999977E-2</v>
+      </c>
+      <c r="Q4" s="75">
         <v>0</v>
       </c>
-      <c r="R4" s="78">
+      <c r="R4" s="75">
         <v>0</v>
       </c>
-      <c r="S4" s="73">
+      <c r="S4" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T4" s="73"/>
-      <c r="U4" s="88" t="s">
+      <c r="T4" s="71"/>
+      <c r="U4" s="84" t="s">
         <v>25</v>
       </c>
       <c r="X4" s="21">
-        <v>1.1499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Y4" s="21">
         <v>1.38</v>
@@ -5670,121 +4812,135 @@
       <c r="AD4" s="21">
         <v>0.01</v>
       </c>
-      <c r="AE4" s="74">
+      <c r="AE4" s="72">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="6:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="39">
         <f t="shared" si="2"/>
         <v>182.47930479999999</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40">
+      <c r="I5" s="39"/>
+      <c r="J5" s="39">
         <f>H5+I5</f>
         <v>182.47930479999999</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="39">
         <v>0</v>
       </c>
       <c r="L5" s="24">
         <f>L4*$X$2</f>
-        <v>198.37499999999997</v>
+        <v>156</v>
       </c>
       <c r="M5" s="24">
+        <f t="shared" ref="M5:M31" si="5">(J5-L5)+H6</f>
+        <v>249.46901526559998</v>
+      </c>
+      <c r="N5" s="24">
         <f t="shared" si="3"/>
-        <v>207.09401526560001</v>
-      </c>
-      <c r="N5" s="24">
+        <v>1.5991603542666666</v>
+      </c>
+      <c r="O5" s="58">
+        <f t="shared" ref="O5:O29" si="6">O4-$AB$2</f>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="P5" s="58">
         <f t="shared" si="4"/>
-        <v>1.0439521878543165</v>
-      </c>
-      <c r="O5" s="59">
-        <f t="shared" ref="O5:O9" si="6">O4-$AB$2</f>
-        <v>0.96</v>
-      </c>
-      <c r="P5" s="59">
-        <f t="shared" si="5"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="Q5" s="78">
+        <v>7.2999999999999954E-2</v>
+      </c>
+      <c r="Q5" s="75">
         <v>0</v>
       </c>
-      <c r="R5" s="78">
+      <c r="R5" s="75">
         <v>0</v>
       </c>
-      <c r="S5" s="73">
+      <c r="S5" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T5" s="73"/>
-      <c r="U5" s="89" t="s">
+      <c r="T5" s="71"/>
+      <c r="U5" s="85" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="6:31" x14ac:dyDescent="0.3">
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3</v>
+    <row r="6" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
       </c>
       <c r="H6" s="40">
         <f t="shared" si="2"/>
         <v>222.98971046559998</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="40">
+        <f>H6*$V$2</f>
+        <v>334.48456569839999</v>
+      </c>
       <c r="J6" s="40">
-        <f>H6+I6</f>
-        <v>222.98971046559998</v>
+        <f t="shared" si="1"/>
+        <v>557.474276164</v>
       </c>
       <c r="K6" s="40">
         <v>0</v>
       </c>
-      <c r="L6" s="24">
-        <f t="shared" ref="L6:L9" si="7">L5*$X$2</f>
-        <v>228.13124999999994</v>
-      </c>
-      <c r="M6" s="24">
+      <c r="L6" s="25">
+        <f t="shared" ref="L6:L30" si="7">L5*$X$2</f>
+        <v>187.2</v>
+      </c>
+      <c r="M6" s="25">
+        <f t="shared" si="5"/>
+        <v>642.76770235296317</v>
+      </c>
+      <c r="N6" s="25">
         <f t="shared" si="3"/>
-        <v>267.3518866545632</v>
-      </c>
-      <c r="N6" s="24">
-        <f t="shared" si="4"/>
-        <v>1.1719213683112826</v>
+        <v>3.4335881535948891</v>
       </c>
       <c r="O6" s="59">
         <f t="shared" si="6"/>
-        <v>0.94</v>
+        <v>0.89050000000000007</v>
       </c>
       <c r="P6" s="59">
-        <f t="shared" si="5"/>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="Q6" s="78">
+        <f t="shared" si="4"/>
+        <v>0.10949999999999993</v>
+      </c>
+      <c r="Q6" s="76">
         <v>0</v>
       </c>
-      <c r="R6" s="78">
+      <c r="R6" s="76">
         <v>0</v>
       </c>
-      <c r="S6" s="73">
+      <c r="S6" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T6" s="73"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="88">
+        <f>SUM(L2:L15)</f>
+        <v>5245.4652913663986</v>
+      </c>
+      <c r="V6" s="89"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="91">
+        <f>SUM(J2:J15)</f>
+        <v>11564.745264192919</v>
+      </c>
+      <c r="Y6" s="90"/>
     </row>
-    <row r="7" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4</v>
+    <row r="7" spans="6:31" x14ac:dyDescent="0.3">
+      <c r="F7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
       </c>
       <c r="H7" s="40">
         <f t="shared" si="2"/>
@@ -5798,2391 +4954,1353 @@
       <c r="K7" s="40">
         <v>0</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="25">
         <f t="shared" si="7"/>
-        <v>262.35093749999993</v>
-      </c>
-      <c r="M7" s="24">
+        <v>224.64</v>
+      </c>
+      <c r="M7" s="25">
+        <f t="shared" si="5"/>
+        <v>380.84039299187612</v>
+      </c>
+      <c r="N7" s="25">
         <f t="shared" si="3"/>
-        <v>343.12945549187617</v>
-      </c>
-      <c r="N7" s="24">
-        <f t="shared" si="4"/>
-        <v>1.3079025322403366</v>
+        <v>1.695336507264406</v>
       </c>
       <c r="O7" s="59">
         <f t="shared" si="6"/>
-        <v>0.91999999999999993</v>
+        <v>0.85400000000000009</v>
       </c>
       <c r="P7" s="59">
-        <f t="shared" si="5"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="Q7" s="78">
+        <f t="shared" si="4"/>
+        <v>0.14599999999999991</v>
+      </c>
+      <c r="Q7" s="76">
         <v>0</v>
       </c>
-      <c r="R7" s="78">
+      <c r="R7" s="76">
         <v>0</v>
       </c>
-      <c r="S7" s="73">
+      <c r="S7" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T7" s="73"/>
+      <c r="T7" s="71"/>
     </row>
-    <row r="8" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5">
-        <v>5</v>
-      </c>
-      <c r="H8" s="40">
+    <row r="8" spans="6:31" x14ac:dyDescent="0.3">
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="41">
         <f t="shared" si="2"/>
         <v>332.98696680291295</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40">
+      <c r="I8" s="41">
+        <f>H8*$V$2</f>
+        <v>499.48045020436939</v>
+      </c>
+      <c r="J8" s="41">
         <f t="shared" si="1"/>
-        <v>332.98696680291295</v>
-      </c>
-      <c r="K8" s="40">
+        <v>832.46741700728239</v>
+      </c>
+      <c r="K8" s="41">
         <v>0</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="26">
         <f t="shared" si="7"/>
-        <v>301.70357812499992</v>
-      </c>
-      <c r="M8" s="24">
+        <v>269.56799999999998</v>
+      </c>
+      <c r="M8" s="26">
+        <f t="shared" si="5"/>
+        <v>969.809490440442</v>
+      </c>
+      <c r="N8" s="26">
         <f t="shared" si="3"/>
-        <v>438.19346211107262</v>
-      </c>
-      <c r="N8" s="24">
+        <v>3.5976432308005477</v>
+      </c>
+      <c r="O8" s="60">
+        <f t="shared" si="6"/>
+        <v>0.81750000000000012</v>
+      </c>
+      <c r="P8" s="60">
         <f t="shared" si="4"/>
-        <v>1.4523972994762531</v>
-      </c>
-      <c r="O8" s="59">
-        <f t="shared" si="6"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="P8" s="59">
-        <f t="shared" si="5"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="Q8" s="78">
+        <v>0.18249999999999988</v>
+      </c>
+      <c r="Q8" s="77">
         <v>0</v>
       </c>
-      <c r="R8" s="78">
+      <c r="R8" s="77">
         <v>0</v>
       </c>
-      <c r="S8" s="73">
+      <c r="S8" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T8" s="73"/>
-      <c r="U8" s="90">
-        <f>SUM(L2:L19)</f>
-        <v>9761.2640045671742</v>
-      </c>
-      <c r="V8" s="91"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="93">
-        <f>SUM(J2:J19)</f>
-        <v>19910.449883927638</v>
-      </c>
-      <c r="Y8" s="92"/>
+      <c r="T8" s="71"/>
     </row>
-    <row r="9" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="5">
-        <v>6</v>
-      </c>
-      <c r="H9" s="40">
+    <row r="9" spans="6:31" x14ac:dyDescent="0.3">
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="41">
         <f t="shared" si="2"/>
         <v>406.9100734331596</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40">
+      <c r="I9" s="41"/>
+      <c r="J9" s="41">
         <f t="shared" si="1"/>
         <v>406.9100734331596</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="41">
         <v>0</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="26">
         <f t="shared" si="7"/>
-        <v>346.95911484374989</v>
-      </c>
-      <c r="M9" s="24">
+        <v>323.48159999999996</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" si="5"/>
+        <v>580.67258316848063</v>
+      </c>
+      <c r="N9" s="26">
         <f t="shared" si="3"/>
-        <v>557.19506832473076</v>
-      </c>
-      <c r="N9" s="24">
+        <v>1.7950714450790421</v>
+      </c>
+      <c r="O9" s="60">
+        <f t="shared" si="6"/>
+        <v>0.78100000000000014</v>
+      </c>
+      <c r="P9" s="60">
         <f t="shared" si="4"/>
-        <v>1.6059386956173751</v>
-      </c>
-      <c r="O9" s="59">
-        <f t="shared" si="6"/>
-        <v>0.87999999999999989</v>
-      </c>
-      <c r="P9" s="59">
-        <f t="shared" si="5"/>
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="Q9" s="78">
+        <v>0.21899999999999986</v>
+      </c>
+      <c r="Q9" s="77">
         <v>0</v>
       </c>
-      <c r="R9" s="78">
+      <c r="R9" s="77">
         <v>0</v>
       </c>
-      <c r="S9" s="73">
+      <c r="S9" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T9" s="73"/>
+      <c r="T9" s="71"/>
     </row>
-    <row r="10" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="6">
+    <row r="10" spans="6:31" x14ac:dyDescent="0.3">
+      <c r="F10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="42">
         <f t="shared" si="2"/>
         <v>497.24410973532099</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="42">
         <f>H10*$V$2</f>
         <v>745.86616460298148</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="42">
         <f t="shared" si="1"/>
         <v>1243.1102743383026</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="42">
+        <f>(I10+J10)*$W$2</f>
+        <v>2148.0945540565867</v>
+      </c>
+      <c r="L10" s="27">
+        <f t="shared" si="7"/>
+        <v>388.17791999999992</v>
+      </c>
+      <c r="M10" s="27">
+        <f t="shared" si="5"/>
+        <v>1462.5646564348649</v>
+      </c>
+      <c r="N10" s="27">
+        <f t="shared" si="3"/>
+        <v>3.7677688015713651</v>
+      </c>
+      <c r="O10" s="61">
+        <f t="shared" si="6"/>
+        <v>0.74450000000000016</v>
+      </c>
+      <c r="P10" s="61">
+        <f t="shared" si="4"/>
+        <v>0.24549999999999983</v>
+      </c>
+      <c r="Q10" s="61">
+        <f>AD4</f>
+        <v>0.01</v>
+      </c>
+      <c r="R10" s="78">
         <v>0</v>
       </c>
-      <c r="L10" s="25">
-        <f>L9*$X$4</f>
-        <v>399.00298207031233</v>
-      </c>
-      <c r="M10" s="25">
-        <f t="shared" si="3"/>
-        <v>1451.7395943645524</v>
-      </c>
-      <c r="N10" s="25">
-        <f t="shared" si="4"/>
-        <v>3.6384179056304067</v>
-      </c>
-      <c r="O10" s="60">
-        <f>O9-$AB$2</f>
-        <v>0.85999999999999988</v>
-      </c>
-      <c r="P10" s="60">
-        <f t="shared" si="5"/>
-        <v>0.14000000000000012</v>
-      </c>
-      <c r="Q10" s="79">
-        <v>0</v>
-      </c>
-      <c r="R10" s="79">
-        <v>0</v>
-      </c>
-      <c r="S10" s="73">
+      <c r="S10" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T10" s="73"/>
-      <c r="U10" s="90">
-        <f>SUM(L2:L28)</f>
-        <v>77552.798784751198</v>
-      </c>
-      <c r="V10" s="91"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="93">
-        <f>SUM(J2:J28)</f>
-        <v>138422.88651280088</v>
-      </c>
-      <c r="Y10" s="92"/>
+      <c r="T10" s="71"/>
     </row>
-    <row r="11" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="6">
+    <row r="11" spans="6:31" x14ac:dyDescent="0.3">
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8">
         <v>2</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="42">
         <f t="shared" si="2"/>
         <v>607.63230209656228</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41">
+      <c r="I11" s="42"/>
+      <c r="J11" s="42">
         <f t="shared" si="1"/>
         <v>607.63230209656228</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="42"/>
+      <c r="L11" s="27">
+        <f t="shared" si="7"/>
+        <v>465.81350399999985</v>
+      </c>
+      <c r="M11" s="27">
+        <f t="shared" si="5"/>
+        <v>884.34547125856147</v>
+      </c>
+      <c r="N11" s="27">
+        <f t="shared" si="3"/>
+        <v>1.8984968526343147</v>
+      </c>
+      <c r="O11" s="61">
+        <f t="shared" si="6"/>
+        <v>0.70800000000000018</v>
+      </c>
+      <c r="P11" s="61">
+        <f t="shared" si="4"/>
+        <v>0.27049999999999985</v>
+      </c>
+      <c r="Q11" s="61">
+        <f>Q10+$AD$2</f>
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="R11" s="78">
         <v>0</v>
       </c>
-      <c r="L11" s="25">
-        <f>L10*$X$2</f>
-        <v>458.85342938085915</v>
-      </c>
-      <c r="M11" s="25">
-        <f t="shared" si="3"/>
-        <v>891.30554587770212</v>
-      </c>
-      <c r="N11" s="25">
-        <f t="shared" si="4"/>
-        <v>1.9424624265756496</v>
-      </c>
-      <c r="O11" s="60">
-        <f>O10-$AB$2</f>
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="P11" s="60">
-        <f t="shared" si="5"/>
-        <v>0.16000000000000014</v>
-      </c>
-      <c r="Q11" s="79">
-        <v>0</v>
-      </c>
-      <c r="R11" s="79">
-        <v>0</v>
-      </c>
-      <c r="S11" s="73">
+      <c r="S11" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T11" s="73"/>
+      <c r="T11" s="71"/>
     </row>
-    <row r="12" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3</v>
-      </c>
-      <c r="H12" s="41">
+    <row r="12" spans="6:31" x14ac:dyDescent="0.3">
+      <c r="F12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="43">
         <f t="shared" si="2"/>
         <v>742.52667316199904</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41">
+      <c r="I12" s="43">
+        <f>H12*$V$2</f>
+        <v>1113.7900097429986</v>
+      </c>
+      <c r="J12" s="43">
         <f t="shared" si="1"/>
-        <v>742.52667316199904</v>
-      </c>
-      <c r="K12" s="41">
-        <v>0</v>
-      </c>
-      <c r="L12" s="25">
-        <f t="shared" ref="L12:L15" si="8">L11*$X$2</f>
-        <v>527.68144378798797</v>
-      </c>
-      <c r="M12" s="25">
+        <v>1856.3166829049976</v>
+      </c>
+      <c r="K12" s="43">
+        <f>(I12+J12)*$W$2</f>
+        <v>3207.7152280598361</v>
+      </c>
+      <c r="L12" s="28">
+        <f t="shared" si="7"/>
+        <v>558.97620479999978</v>
+      </c>
+      <c r="M12" s="28">
+        <f t="shared" si="5"/>
+        <v>2204.7080727089606</v>
+      </c>
+      <c r="N12" s="28">
         <f t="shared" si="3"/>
-        <v>1122.212823977974</v>
-      </c>
-      <c r="N12" s="25">
+        <v>3.9441894910317323</v>
+      </c>
+      <c r="O12" s="62">
+        <f t="shared" si="6"/>
+        <v>0.67150000000000021</v>
+      </c>
+      <c r="P12" s="62">
         <f t="shared" si="4"/>
-        <v>2.1266861611090819</v>
-      </c>
-      <c r="O12" s="60">
-        <f t="shared" ref="O12:O15" si="9">O11-$AB$2</f>
-        <v>0.81999999999999984</v>
-      </c>
-      <c r="P12" s="60">
-        <f t="shared" si="5"/>
-        <v>0.18000000000000016</v>
-      </c>
-      <c r="Q12" s="79">
-        <v>0</v>
+        <v>0.29549999999999976</v>
+      </c>
+      <c r="Q12" s="62">
+        <f t="shared" ref="Q12:Q30" si="8">Q11+$AD$2</f>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="R12" s="79">
         <v>0</v>
       </c>
-      <c r="S12" s="73">
+      <c r="S12" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T12" s="73"/>
-      <c r="U12" s="90">
-        <f>SUM(L2:L46)</f>
-        <v>11846132.10434635</v>
-      </c>
-      <c r="V12" s="91"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="93">
-        <f>SUM(J2:J46)</f>
-        <v>5234223.5374012599</v>
-      </c>
-      <c r="Y12" s="92"/>
+      <c r="T12" s="71"/>
     </row>
-    <row r="13" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="6">
-        <v>4</v>
-      </c>
-      <c r="H13" s="41">
+    <row r="13" spans="6:31" x14ac:dyDescent="0.3">
+      <c r="F13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+      <c r="H13" s="43">
         <f t="shared" si="2"/>
         <v>907.36759460396286</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41">
+      <c r="I13" s="43"/>
+      <c r="J13" s="43">
         <f t="shared" si="1"/>
         <v>907.36759460396286</v>
       </c>
-      <c r="K13" s="41">
-        <v>0</v>
-      </c>
-      <c r="L13" s="25">
+      <c r="K13" s="43"/>
+      <c r="L13" s="28">
+        <f t="shared" si="7"/>
+        <v>670.77144575999966</v>
+      </c>
+      <c r="M13" s="28">
+        <f t="shared" si="5"/>
+        <v>1345.3993494500057</v>
+      </c>
+      <c r="N13" s="28">
+        <f t="shared" si="3"/>
+        <v>2.0057492875619309</v>
+      </c>
+      <c r="O13" s="62">
+        <f t="shared" si="6"/>
+        <v>0.63500000000000023</v>
+      </c>
+      <c r="P13" s="62">
+        <f t="shared" si="4"/>
+        <v>0.32049999999999979</v>
+      </c>
+      <c r="Q13" s="62">
         <f t="shared" si="8"/>
-        <v>606.8336603561861</v>
-      </c>
-      <c r="M13" s="25">
-        <f t="shared" si="3"/>
-        <v>1409.3371348538194</v>
-      </c>
-      <c r="N13" s="25">
-        <f t="shared" si="4"/>
-        <v>2.322443903369825</v>
-      </c>
-      <c r="O13" s="60">
-        <f t="shared" si="9"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="P13" s="60">
-        <f t="shared" si="5"/>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="Q13" s="79">
-        <v>0</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="R13" s="79">
         <v>0</v>
       </c>
-      <c r="S13" s="73">
+      <c r="S13" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T13" s="73"/>
+      <c r="T13" s="71"/>
     </row>
-    <row r="14" spans="6:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="6">
-        <v>5</v>
-      </c>
-      <c r="H14" s="41">
+    <row r="14" spans="6:31" x14ac:dyDescent="0.3">
+      <c r="F14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="44">
         <f t="shared" si="2"/>
         <v>1108.8032006060425</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41">
+      <c r="I14" s="44">
+        <f>H14*$V$2</f>
+        <v>1663.2048009090638</v>
+      </c>
+      <c r="J14" s="44">
         <f t="shared" si="1"/>
-        <v>1108.8032006060425</v>
-      </c>
-      <c r="K14" s="41">
+        <v>2772.0080015151061</v>
+      </c>
+      <c r="K14" s="44">
+        <f>(I14+J14)*$W$2</f>
+        <v>4790.0298266181044</v>
+      </c>
+      <c r="L14" s="29">
+        <f t="shared" si="7"/>
+        <v>804.9257349119996</v>
+      </c>
+      <c r="M14" s="29">
+        <f t="shared" si="5"/>
+        <v>3322.0397777436901</v>
+      </c>
+      <c r="N14" s="29">
+        <f t="shared" si="3"/>
+        <v>4.1271382360596034</v>
+      </c>
+      <c r="O14" s="63">
+        <f t="shared" si="6"/>
+        <v>0.59850000000000025</v>
+      </c>
+      <c r="P14" s="63">
+        <f t="shared" si="4"/>
+        <v>0.3454999999999997</v>
+      </c>
+      <c r="Q14" s="63">
+        <f t="shared" si="8"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="R14" s="80">
         <v>0</v>
       </c>
-      <c r="L14" s="25">
-        <f t="shared" si="8"/>
-        <v>697.85870940961399</v>
-      </c>
-      <c r="M14" s="25">
-        <f t="shared" si="3"/>
-        <v>1765.9020023370124</v>
-      </c>
-      <c r="N14" s="25">
-        <f t="shared" si="4"/>
-        <v>2.5304577825373267</v>
-      </c>
-      <c r="O14" s="60">
-        <f t="shared" si="9"/>
-        <v>0.7799999999999998</v>
-      </c>
-      <c r="P14" s="60">
-        <f t="shared" si="5"/>
-        <v>0.2200000000000002</v>
-      </c>
-      <c r="Q14" s="79">
-        <v>0</v>
-      </c>
-      <c r="R14" s="79">
-        <v>0</v>
-      </c>
-      <c r="S14" s="73">
+      <c r="S14" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T14" s="73"/>
-      <c r="U14" s="90">
-        <f>SUM(L2:L50)</f>
-        <v>39177495.427288651</v>
-      </c>
-      <c r="V14" s="91"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="93">
-        <f>SUM(J2:J50)</f>
-        <v>16706776.707720473</v>
-      </c>
-      <c r="Y14" s="92"/>
+      <c r="T14" s="71"/>
     </row>
     <row r="15" spans="6:31" x14ac:dyDescent="0.3">
-      <c r="F15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="6">
-        <v>6</v>
-      </c>
-      <c r="H15" s="41">
+      <c r="F15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2</v>
+      </c>
+      <c r="H15" s="44">
         <f t="shared" si="2"/>
         <v>1354.9575111405838</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41">
+      <c r="I15" s="44"/>
+      <c r="J15" s="44">
         <f t="shared" si="1"/>
         <v>1354.9575111405838</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="44"/>
+      <c r="L15" s="29">
+        <f t="shared" si="7"/>
+        <v>965.91088189439949</v>
+      </c>
+      <c r="M15" s="29">
+        <f t="shared" si="5"/>
+        <v>2044.804707859978</v>
+      </c>
+      <c r="N15" s="29">
+        <f t="shared" si="3"/>
+        <v>2.1169703605052987</v>
+      </c>
+      <c r="O15" s="63">
+        <f t="shared" si="6"/>
+        <v>0.56200000000000028</v>
+      </c>
+      <c r="P15" s="63">
+        <f t="shared" si="4"/>
+        <v>0.37049999999999972</v>
+      </c>
+      <c r="Q15" s="63">
+        <f t="shared" si="8"/>
+        <v>6.7499999999999991E-2</v>
+      </c>
+      <c r="R15" s="80">
         <v>0</v>
       </c>
-      <c r="L15" s="25">
-        <f t="shared" si="8"/>
-        <v>802.53751582105599</v>
-      </c>
-      <c r="M15" s="25">
-        <f t="shared" si="3"/>
-        <v>2208.1780739333212</v>
-      </c>
-      <c r="N15" s="25">
-        <f t="shared" si="4"/>
-        <v>2.751495139357055</v>
-      </c>
-      <c r="O15" s="60">
-        <f t="shared" si="9"/>
-        <v>0.75999999999999979</v>
-      </c>
-      <c r="P15" s="60">
-        <f t="shared" si="5"/>
-        <v>0.24000000000000021</v>
-      </c>
-      <c r="Q15" s="79">
-        <v>0</v>
-      </c>
-      <c r="R15" s="79">
-        <v>0</v>
-      </c>
-      <c r="S15" s="73">
+      <c r="S15" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T15" s="73"/>
+      <c r="T15" s="71"/>
     </row>
     <row r="16" spans="6:31" x14ac:dyDescent="0.3">
-      <c r="F16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11">
         <v>1</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="45">
         <f t="shared" si="2"/>
         <v>1655.7580786137935</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="45">
         <f>H16*$V$2</f>
         <v>2483.6371179206903</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="45">
         <f t="shared" si="1"/>
         <v>4139.3951965344841</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="45">
+        <f>(I16+J16)*$W$2</f>
+        <v>7152.8748996115892</v>
+      </c>
+      <c r="L16" s="30">
+        <f t="shared" si="7"/>
+        <v>1159.0930582732794</v>
+      </c>
+      <c r="M16" s="30">
+        <f t="shared" si="5"/>
+        <v>5003.6385103272605</v>
+      </c>
+      <c r="N16" s="30">
+        <f t="shared" si="3"/>
+        <v>4.3168565928444655</v>
+      </c>
+      <c r="O16" s="64">
+        <f t="shared" si="6"/>
+        <v>0.5255000000000003</v>
+      </c>
+      <c r="P16" s="64">
+        <f t="shared" si="4"/>
+        <v>0.39549999999999974</v>
+      </c>
+      <c r="Q16" s="64">
+        <f t="shared" si="8"/>
+        <v>7.8999999999999987E-2</v>
+      </c>
+      <c r="R16" s="81">
         <v>0</v>
       </c>
-      <c r="L16" s="26">
-        <f>L15*$X$4</f>
-        <v>922.91814319421428</v>
-      </c>
-      <c r="M16" s="26">
-        <f t="shared" si="3"/>
-        <v>5239.8134254063252</v>
-      </c>
-      <c r="N16" s="26">
-        <f t="shared" si="4"/>
-        <v>5.6774411295798801</v>
-      </c>
-      <c r="O16" s="61">
-        <f>O15-$AB$2</f>
-        <v>0.73999999999999977</v>
-      </c>
-      <c r="P16" s="61">
-        <f t="shared" si="5"/>
-        <v>0.26000000000000023</v>
-      </c>
-      <c r="Q16" s="80">
-        <v>0</v>
-      </c>
-      <c r="R16" s="80">
-        <v>0</v>
-      </c>
-      <c r="S16" s="73">
+      <c r="S16" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T16" s="73"/>
+      <c r="T16" s="71"/>
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="11">
         <v>2</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="45">
         <f t="shared" si="2"/>
         <v>2023.3363720660557</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42">
+      <c r="I17" s="45"/>
+      <c r="J17" s="45">
         <f t="shared" si="1"/>
         <v>2023.3363720660557</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="45"/>
+      <c r="L17" s="30">
+        <f t="shared" si="7"/>
+        <v>1390.9116699279352</v>
+      </c>
+      <c r="M17" s="30">
+        <f t="shared" si="5"/>
+        <v>3104.9417488028403</v>
+      </c>
+      <c r="N17" s="30">
+        <f t="shared" si="3"/>
+        <v>2.2323069220949963</v>
+      </c>
+      <c r="O17" s="64">
+        <f t="shared" si="6"/>
+        <v>0.48900000000000032</v>
+      </c>
+      <c r="P17" s="64">
+        <f t="shared" si="4"/>
+        <v>0.42049999999999965</v>
+      </c>
+      <c r="Q17" s="64">
+        <f t="shared" si="8"/>
+        <v>9.0499999999999983E-2</v>
+      </c>
+      <c r="R17" s="81">
         <v>0</v>
       </c>
-      <c r="L17" s="26">
-        <f>L16*$X$2</f>
-        <v>1061.3558646733463</v>
-      </c>
-      <c r="M17" s="26">
-        <f t="shared" si="3"/>
-        <v>3434.4975540574296</v>
-      </c>
-      <c r="N17" s="26">
-        <f t="shared" si="4"/>
-        <v>3.2359528678107088</v>
-      </c>
-      <c r="O17" s="61">
-        <f>O16-$AB$2</f>
-        <v>0.71999999999999975</v>
-      </c>
-      <c r="P17" s="61">
-        <f t="shared" si="5"/>
-        <v>0.28000000000000025</v>
-      </c>
-      <c r="Q17" s="80">
-        <v>0</v>
-      </c>
-      <c r="R17" s="80">
-        <v>0</v>
-      </c>
-      <c r="S17" s="73">
+      <c r="S17" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T17" s="73"/>
+      <c r="T17" s="71"/>
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="7">
-        <v>3</v>
-      </c>
-      <c r="H18" s="42">
+      <c r="F18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="46">
         <f t="shared" si="2"/>
         <v>2472.5170466647201</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42">
+      <c r="I18" s="46">
+        <f>H18*$V$2</f>
+        <v>3708.7755699970803</v>
+      </c>
+      <c r="J18" s="46">
         <f t="shared" si="1"/>
-        <v>2472.5170466647201</v>
-      </c>
-      <c r="K18" s="42">
+        <v>6181.2926166617999</v>
+      </c>
+      <c r="K18" s="46">
+        <f>(I18+J18)*$W$2</f>
+        <v>10681.273641591592</v>
+      </c>
+      <c r="L18" s="31">
+        <f t="shared" si="7"/>
+        <v>1669.0940039135223</v>
+      </c>
+      <c r="M18" s="31">
+        <f t="shared" si="5"/>
+        <v>7533.6144437725652</v>
+      </c>
+      <c r="N18" s="31">
+        <f t="shared" si="3"/>
+        <v>4.5135950558258013</v>
+      </c>
+      <c r="O18" s="65">
+        <f t="shared" si="6"/>
+        <v>0.45250000000000035</v>
+      </c>
+      <c r="P18" s="65">
+        <f t="shared" si="4"/>
+        <v>0.44549999999999967</v>
+      </c>
+      <c r="Q18" s="65">
+        <f t="shared" si="8"/>
+        <v>0.10199999999999998</v>
+      </c>
+      <c r="R18" s="82">
         <v>0</v>
       </c>
-      <c r="L18" s="26">
-        <f t="shared" ref="L18:L19" si="10">L17*$X$2</f>
-        <v>1220.5592443743483</v>
-      </c>
-      <c r="M18" s="26">
-        <f t="shared" si="3"/>
-        <v>4273.3736333146599</v>
-      </c>
-      <c r="N18" s="26">
-        <f t="shared" si="4"/>
-        <v>3.5011603517084229</v>
-      </c>
-      <c r="O18" s="61">
-        <f t="shared" ref="O18" si="11">O17-$AB$2</f>
-        <v>0.69999999999999973</v>
-      </c>
-      <c r="P18" s="61">
-        <f t="shared" si="5"/>
-        <v>0.30000000000000027</v>
-      </c>
-      <c r="Q18" s="80">
-        <v>0</v>
-      </c>
-      <c r="R18" s="80">
-        <v>0</v>
-      </c>
-      <c r="S18" s="73">
+      <c r="S18" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T18" s="73"/>
+      <c r="T18" s="71"/>
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="7">
-        <v>4</v>
-      </c>
-      <c r="H19" s="42">
+      <c r="F19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="12">
+        <v>2</v>
+      </c>
+      <c r="H19" s="46">
         <f t="shared" si="2"/>
         <v>3021.4158310242879</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42">
+      <c r="I19" s="46"/>
+      <c r="J19" s="46">
         <f t="shared" si="1"/>
         <v>3021.4158310242879</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="46"/>
+      <c r="L19" s="31">
+        <f t="shared" si="7"/>
+        <v>2002.9128046962267</v>
+      </c>
+      <c r="M19" s="31">
+        <f t="shared" si="5"/>
+        <v>4710.6731718397405</v>
+      </c>
+      <c r="N19" s="31">
+        <f t="shared" si="3"/>
+        <v>2.35191125684285</v>
+      </c>
+      <c r="O19" s="65">
+        <f t="shared" si="6"/>
+        <v>0.41600000000000037</v>
+      </c>
+      <c r="P19" s="65">
+        <f t="shared" si="4"/>
+        <v>0.4704999999999997</v>
+      </c>
+      <c r="Q19" s="65">
+        <f t="shared" si="8"/>
+        <v>0.11349999999999998</v>
+      </c>
+      <c r="R19" s="82">
         <v>0</v>
       </c>
-      <c r="L19" s="26">
-        <f t="shared" si="10"/>
-        <v>1403.6431310305004</v>
-      </c>
-      <c r="M19" s="26">
-        <f t="shared" si="3"/>
-        <v>5309.9428455054667</v>
-      </c>
-      <c r="N19" s="26">
-        <f t="shared" si="4"/>
-        <v>3.7829721302501671</v>
-      </c>
-      <c r="O19" s="61">
-        <f>O18-$AB$2</f>
-        <v>0.67999999999999972</v>
-      </c>
-      <c r="P19" s="61">
-        <f t="shared" si="5"/>
-        <v>0.32000000000000028</v>
-      </c>
-      <c r="Q19" s="80">
-        <v>0</v>
-      </c>
-      <c r="R19" s="80">
-        <v>0</v>
-      </c>
-      <c r="S19" s="73">
+      <c r="S19" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T19" s="73"/>
+      <c r="T19" s="71"/>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="13">
         <v>1</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="47">
         <f t="shared" si="2"/>
         <v>3692.1701455116795</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="47">
         <f>H20*$V$2</f>
         <v>5538.255218267519</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="47">
         <f t="shared" si="1"/>
         <v>9230.425363779199</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="47">
         <f>(I20+J20)*$W$2</f>
         <v>15950.175028610456</v>
       </c>
-      <c r="L20" s="27">
-        <f>L19*$Y$4</f>
-        <v>1937.0275208220903</v>
-      </c>
-      <c r="M20" s="27">
-        <f>(J20-L20)+H21</f>
-        <v>11805.229760772381</v>
-      </c>
-      <c r="N20" s="27">
+      <c r="L20" s="32">
+        <f t="shared" si="7"/>
+        <v>2403.4953656354719</v>
+      </c>
+      <c r="M20" s="32">
+        <f t="shared" si="5"/>
+        <v>11338.761915958999</v>
+      </c>
+      <c r="N20" s="32">
+        <f t="shared" si="3"/>
+        <v>4.7176133884331781</v>
+      </c>
+      <c r="O20" s="66">
+        <f t="shared" si="6"/>
+        <v>0.37950000000000039</v>
+      </c>
+      <c r="P20" s="66">
         <f t="shared" si="4"/>
-        <v>6.0945080200833415</v>
-      </c>
-      <c r="O20" s="62">
-        <f>O19-$AC$2</f>
-        <v>0.6579999999999997</v>
-      </c>
-      <c r="P20" s="62">
-        <f t="shared" si="5"/>
-        <v>0.33200000000000029</v>
-      </c>
-      <c r="Q20" s="62">
-        <f>AD4</f>
-        <v>0.01</v>
-      </c>
-      <c r="R20" s="81">
+        <v>0.49549999999999961</v>
+      </c>
+      <c r="Q20" s="66">
+        <f t="shared" si="8"/>
+        <v>0.12499999999999997</v>
+      </c>
+      <c r="R20" s="83">
         <v>0</v>
       </c>
-      <c r="S20" s="73">
+      <c r="S20" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T20" s="73"/>
+      <c r="T20" s="71"/>
     </row>
     <row r="21" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="13">
         <v>2</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="47">
         <f t="shared" si="2"/>
         <v>4511.8319178152724</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43">
+      <c r="I21" s="47"/>
+      <c r="J21" s="47">
         <f t="shared" si="1"/>
         <v>4511.8319178152724</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="27">
-        <f>L20*$Y$2</f>
-        <v>2518.1357770687173</v>
-      </c>
-      <c r="M21" s="27">
+      <c r="K21" s="47"/>
+      <c r="L21" s="32">
+        <f t="shared" si="7"/>
+        <v>2884.1944387625663</v>
+      </c>
+      <c r="M21" s="32">
+        <f t="shared" si="5"/>
+        <v>7141.0960826229684</v>
+      </c>
+      <c r="N21" s="32">
         <f t="shared" si="3"/>
-        <v>7507.1547443168174</v>
-      </c>
-      <c r="N21" s="27">
+        <v>2.4759412842106379</v>
+      </c>
+      <c r="O21" s="66">
+        <f t="shared" si="6"/>
+        <v>0.34300000000000042</v>
+      </c>
+      <c r="P21" s="66">
         <f t="shared" si="4"/>
-        <v>2.9812350917215671</v>
-      </c>
-      <c r="O21" s="62">
-        <f>O20-$AB$2</f>
-        <v>0.63799999999999968</v>
-      </c>
-      <c r="P21" s="62">
-        <f t="shared" si="5"/>
-        <v>0.34050000000000036</v>
-      </c>
-      <c r="Q21" s="62">
-        <f>Q20+$AD$2</f>
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="R21" s="81">
+        <v>0.52049999999999963</v>
+      </c>
+      <c r="Q21" s="66">
+        <f t="shared" si="8"/>
+        <v>0.13649999999999998</v>
+      </c>
+      <c r="R21" s="83">
         <v>0</v>
       </c>
-      <c r="S21" s="73">
+      <c r="S21" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T21" s="73"/>
+      <c r="T21" s="71"/>
     </row>
     <row r="22" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="8">
-        <v>3</v>
-      </c>
-      <c r="H22" s="43">
+      <c r="F22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="48">
         <f t="shared" si="2"/>
         <v>5513.4586035702623</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43">
+      <c r="I22" s="48">
+        <f>H22*$V$2</f>
+        <v>8270.187905355393</v>
+      </c>
+      <c r="J22" s="48">
         <f t="shared" si="1"/>
-        <v>5513.4586035702623</v>
-      </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="27">
-        <f>L21*$Y$2</f>
-        <v>3273.5765101893326</v>
-      </c>
-      <c r="M22" s="27">
+        <v>13783.646508925656</v>
+      </c>
+      <c r="K22" s="48">
+        <f>(I22+J22)*$W$2</f>
+        <v>23818.141167423535</v>
+      </c>
+      <c r="L22" s="33">
+        <f t="shared" si="7"/>
+        <v>3461.0333265150794</v>
+      </c>
+      <c r="M22" s="33">
+        <f t="shared" si="5"/>
+        <v>17060.059595973435</v>
+      </c>
+      <c r="N22" s="33">
         <f t="shared" si="3"/>
-        <v>8977.3285069437898</v>
-      </c>
-      <c r="N22" s="27">
+        <v>4.9291809660646173</v>
+      </c>
+      <c r="O22" s="67">
+        <f t="shared" si="6"/>
+        <v>0.30650000000000044</v>
+      </c>
+      <c r="P22" s="67">
         <f t="shared" si="4"/>
-        <v>2.742360986218273</v>
-      </c>
-      <c r="O22" s="62">
-        <f>O21-$AB$2</f>
-        <v>0.61799999999999966</v>
-      </c>
-      <c r="P22" s="62">
-        <f t="shared" si="5"/>
-        <v>0.34900000000000031</v>
-      </c>
-      <c r="Q22" s="62">
-        <f t="shared" ref="Q22:Q50" si="12">Q21+$AD$2</f>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="R22" s="81">
-        <v>0</v>
-      </c>
-      <c r="S22" s="73">
+        <v>0.53049999999999953</v>
+      </c>
+      <c r="Q22" s="67">
+        <f t="shared" si="8"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="R22" s="67">
+        <f>($AE$2)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S22" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T22" s="73"/>
+      <c r="T22" s="71"/>
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="44">
+      <c r="F23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="14">
+        <v>2</v>
+      </c>
+      <c r="H23" s="48">
         <f t="shared" si="2"/>
         <v>6737.4464135628605</v>
       </c>
-      <c r="I23" s="44">
-        <f>H23*$V$2</f>
-        <v>10106.169620344292</v>
-      </c>
-      <c r="J23" s="44">
+      <c r="I23" s="48"/>
+      <c r="J23" s="48">
         <f t="shared" si="1"/>
-        <v>16843.61603390715</v>
-      </c>
-      <c r="K23" s="44">
-        <f>(I23+J23)*$W$2</f>
-        <v>29105.768506591558</v>
-      </c>
-      <c r="L23" s="28">
-        <f>L22*$Y$4</f>
-        <v>4517.5355840612783</v>
-      </c>
-      <c r="M23" s="28">
+        <v>6737.4464135628605</v>
+      </c>
+      <c r="K23" s="48"/>
+      <c r="L23" s="33">
+        <f t="shared" si="7"/>
+        <v>4153.2399918180954</v>
+      </c>
+      <c r="M23" s="33">
+        <f t="shared" si="5"/>
+        <v>10817.365939118579</v>
+      </c>
+      <c r="N23" s="33">
         <f t="shared" si="3"/>
-        <v>20559.239967219684</v>
-      </c>
-      <c r="N23" s="28">
+        <v>2.6045607671188873</v>
+      </c>
+      <c r="O23" s="67">
+        <f t="shared" si="6"/>
+        <v>0.27000000000000046</v>
+      </c>
+      <c r="P23" s="67">
         <f t="shared" si="4"/>
-        <v>4.550985727651284</v>
-      </c>
-      <c r="O23" s="63">
-        <f>O22-$AC$2</f>
-        <v>0.59599999999999964</v>
-      </c>
-      <c r="P23" s="63">
-        <f t="shared" si="5"/>
-        <v>0.35950000000000037</v>
-      </c>
-      <c r="Q23" s="63">
-        <f t="shared" si="12"/>
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="R23" s="82">
-        <v>0</v>
-      </c>
-      <c r="S23" s="73">
+        <v>0.54049999999999954</v>
+      </c>
+      <c r="Q23" s="67">
+        <f t="shared" si="8"/>
+        <v>0.1595</v>
+      </c>
+      <c r="R23" s="67">
+        <f>(R22+$AE$2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="S23" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T23" s="73"/>
+      <c r="T23" s="71"/>
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="9">
-        <v>2</v>
-      </c>
-      <c r="H24" s="44">
+      <c r="F24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="49">
         <f t="shared" si="2"/>
         <v>8233.1595173738151</v>
       </c>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44">
+      <c r="I24" s="49">
+        <f>H24*$V$2</f>
+        <v>12349.739276060722</v>
+      </c>
+      <c r="J24" s="49">
         <f t="shared" si="1"/>
-        <v>8233.1595173738151</v>
-      </c>
-      <c r="K24" s="44"/>
-      <c r="L24" s="28">
-        <f>L23*$Y$2</f>
-        <v>5872.7962592796621</v>
-      </c>
-      <c r="M24" s="28">
+        <v>20582.898793434535</v>
+      </c>
+      <c r="K24" s="49">
+        <f>(I24+J24)*$W$2</f>
+        <v>35567.249115054874</v>
+      </c>
+      <c r="L24" s="34">
+        <f t="shared" si="7"/>
+        <v>4983.8879901817145</v>
+      </c>
+      <c r="M24" s="34">
+        <f t="shared" si="5"/>
+        <v>25659.931733483623</v>
+      </c>
+      <c r="N24" s="34">
         <f t="shared" si="3"/>
-        <v>12421.284188324957</v>
-      </c>
-      <c r="N24" s="28">
+        <v>5.1485771317561353</v>
+      </c>
+      <c r="O24" s="68">
+        <f t="shared" si="6"/>
+        <v>0.23350000000000046</v>
+      </c>
+      <c r="P24" s="68">
         <f t="shared" si="4"/>
-        <v>2.1150545055429033</v>
-      </c>
-      <c r="O24" s="63">
-        <f>O23-$AB$2</f>
-        <v>0.57599999999999962</v>
-      </c>
-      <c r="P24" s="63">
-        <f t="shared" si="5"/>
-        <v>0.36800000000000033</v>
-      </c>
-      <c r="Q24" s="63">
-        <f t="shared" si="12"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="R24" s="82">
-        <v>0</v>
-      </c>
-      <c r="S24" s="73">
+        <v>0.55049999999999955</v>
+      </c>
+      <c r="Q24" s="68">
+        <f t="shared" si="8"/>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="R24" s="68">
+        <f t="shared" ref="R24:R30" si="9">(R23+$AE$2)</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S24" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T24" s="73"/>
+      <c r="T24" s="71"/>
     </row>
     <row r="25" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="9">
-        <v>3</v>
-      </c>
-      <c r="H25" s="44">
+      <c r="F25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="15">
+        <v>2</v>
+      </c>
+      <c r="H25" s="49">
         <f t="shared" si="2"/>
         <v>10060.920930230803</v>
       </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44">
+      <c r="I25" s="49"/>
+      <c r="J25" s="49">
         <f t="shared" si="1"/>
         <v>10060.920930230803</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="28">
-        <f>L24*$Y$2</f>
-        <v>7634.6351370635612</v>
-      </c>
-      <c r="M25" s="28">
+      <c r="K25" s="49"/>
+      <c r="L25" s="34">
+        <f t="shared" si="7"/>
+        <v>5980.6655882180576</v>
+      </c>
+      <c r="M25" s="34">
+        <f t="shared" si="5"/>
+        <v>16374.700718754786</v>
+      </c>
+      <c r="N25" s="34">
         <f t="shared" si="3"/>
-        <v>14720.731169909282</v>
-      </c>
-      <c r="N25" s="28">
+        <v>2.7379395281710837</v>
+      </c>
+      <c r="O25" s="68">
+        <f t="shared" si="6"/>
+        <v>0.19700000000000045</v>
+      </c>
+      <c r="P25" s="68">
         <f t="shared" si="4"/>
-        <v>1.9281512352103287</v>
-      </c>
-      <c r="O25" s="63">
-        <f>O24-$AB$2</f>
-        <v>0.55599999999999961</v>
-      </c>
-      <c r="P25" s="63">
-        <f t="shared" si="5"/>
-        <v>0.37650000000000039</v>
-      </c>
-      <c r="Q25" s="63">
-        <f t="shared" si="12"/>
-        <v>6.7499999999999991E-2</v>
-      </c>
-      <c r="R25" s="82">
-        <v>0</v>
-      </c>
-      <c r="S25" s="73">
+        <v>0.56049999999999955</v>
+      </c>
+      <c r="Q25" s="68">
+        <f t="shared" si="8"/>
+        <v>0.18250000000000002</v>
+      </c>
+      <c r="R25" s="68">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+      <c r="S25" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T25" s="73"/>
+      <c r="T25" s="71"/>
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="F26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="16">
         <v>1</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="50">
         <f t="shared" si="2"/>
         <v>12294.44537674204</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="50">
         <f>H26*$V$2</f>
         <v>18441.668065113059</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="50">
         <f t="shared" si="1"/>
         <v>30736.113441855101</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="50">
         <f>(I26+J26)*$W$2</f>
         <v>53112.004027525618</v>
       </c>
-      <c r="L26" s="29">
-        <f>L25*$Y$4</f>
-        <v>10535.796489147713</v>
-      </c>
-      <c r="M26" s="29">
+      <c r="L26" s="35">
+        <f t="shared" si="7"/>
+        <v>7176.7987058616691</v>
+      </c>
+      <c r="M26" s="35">
+        <f t="shared" si="5"/>
+        <v>38583.126986372205</v>
+      </c>
+      <c r="N26" s="35">
         <f t="shared" si="3"/>
-        <v>35224.129203086159</v>
-      </c>
-      <c r="N26" s="29">
+        <v>5.3760915650120342</v>
+      </c>
+      <c r="O26" s="69">
+        <f t="shared" si="6"/>
+        <v>0.16050000000000045</v>
+      </c>
+      <c r="P26" s="69">
         <f t="shared" si="4"/>
-        <v>3.3432810931160644</v>
-      </c>
-      <c r="O26" s="64">
-        <f>O25-$AC$2</f>
-        <v>0.53399999999999959</v>
-      </c>
-      <c r="P26" s="64">
-        <f t="shared" si="5"/>
-        <v>0.38700000000000045</v>
-      </c>
-      <c r="Q26" s="64">
-        <f t="shared" si="12"/>
-        <v>7.8999999999999987E-2</v>
-      </c>
-      <c r="R26" s="83">
-        <v>0</v>
-      </c>
-      <c r="S26" s="73">
+        <v>0.57049999999999956</v>
+      </c>
+      <c r="Q26" s="69">
+        <f t="shared" si="8"/>
+        <v>0.19400000000000003</v>
+      </c>
+      <c r="R26" s="69">
+        <f t="shared" si="9"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="S26" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T26" s="73"/>
+      <c r="T26" s="71"/>
     </row>
     <row r="27" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="F27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="16">
         <v>2</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="50">
         <f t="shared" si="2"/>
         <v>15023.812250378773</v>
       </c>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45">
+      <c r="I27" s="50"/>
+      <c r="J27" s="50">
         <f t="shared" si="1"/>
         <v>15023.812250378773</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="29">
-        <f>L26*$Y$2</f>
-        <v>13696.535435892027</v>
-      </c>
-      <c r="M27" s="29">
+      <c r="K27" s="50"/>
+      <c r="L27" s="35">
+        <f t="shared" si="7"/>
+        <v>8612.1584470340022</v>
+      </c>
+      <c r="M27" s="35">
+        <f t="shared" si="5"/>
+        <v>24770.75237330763</v>
+      </c>
+      <c r="N27" s="35">
         <f t="shared" si="3"/>
-        <v>19686.375384449602</v>
-      </c>
-      <c r="N27" s="29">
+        <v>2.8762536738787698</v>
+      </c>
+      <c r="O27" s="69">
+        <f t="shared" si="6"/>
+        <v>0.12400000000000044</v>
+      </c>
+      <c r="P27" s="69">
         <f t="shared" si="4"/>
-        <v>1.4373251890300001</v>
-      </c>
-      <c r="O27" s="64">
-        <f>O26-$AB$2</f>
-        <v>0.51399999999999957</v>
-      </c>
-      <c r="P27" s="64">
-        <f t="shared" si="5"/>
-        <v>0.39550000000000041</v>
-      </c>
-      <c r="Q27" s="64">
-        <f t="shared" si="12"/>
-        <v>9.0499999999999983E-2</v>
-      </c>
-      <c r="R27" s="83">
-        <v>0</v>
-      </c>
-      <c r="S27" s="73">
+        <v>0.58049999999999957</v>
+      </c>
+      <c r="Q27" s="69">
+        <f t="shared" si="8"/>
+        <v>0.20550000000000004</v>
+      </c>
+      <c r="R27" s="69">
+        <f t="shared" si="9"/>
+        <v>0.09</v>
+      </c>
+      <c r="S27" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T27" s="73"/>
+      <c r="T27" s="71"/>
     </row>
     <row r="28" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="10">
-        <v>3</v>
-      </c>
-      <c r="H28" s="45">
+      <c r="F28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28" s="51">
         <f t="shared" si="2"/>
         <v>18359.098569962858</v>
       </c>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45">
+      <c r="I28" s="51">
+        <f>H28*$V$2</f>
+        <v>27538.647854944287</v>
+      </c>
+      <c r="J28" s="51">
         <f t="shared" si="1"/>
-        <v>18359.098569962858</v>
-      </c>
-      <c r="K28" s="45"/>
-      <c r="L28" s="29">
-        <f>L27*$Y$2</f>
-        <v>17805.496066659634</v>
-      </c>
-      <c r="M28" s="29">
+        <v>45897.746424907149</v>
+      </c>
+      <c r="K28" s="51">
+        <f>(I28+J28)*$W$2</f>
+        <v>79311.305822239548</v>
+      </c>
+      <c r="L28" s="36">
+        <f t="shared" si="7"/>
+        <v>10334.590136440802</v>
+      </c>
+      <c r="M28" s="36">
+        <f t="shared" si="5"/>
+        <v>57997.974740960955</v>
+      </c>
+      <c r="N28" s="36">
         <f t="shared" si="3"/>
-        <v>22988.420955797836</v>
-      </c>
-      <c r="N28" s="29">
+        <v>5.6120246642829379</v>
+      </c>
+      <c r="O28" s="70">
+        <f t="shared" si="6"/>
+        <v>8.7500000000000439E-2</v>
+      </c>
+      <c r="P28" s="70">
         <f t="shared" si="4"/>
-        <v>1.2910856776882</v>
-      </c>
-      <c r="O28" s="64">
-        <f>O27-$AB$2</f>
-        <v>0.49399999999999955</v>
-      </c>
-      <c r="P28" s="64">
+        <v>0.59049999999999958</v>
+      </c>
+      <c r="Q28" s="70">
+        <f t="shared" si="8"/>
+        <v>0.21700000000000005</v>
+      </c>
+      <c r="R28" s="70">
+        <f t="shared" si="9"/>
+        <v>0.105</v>
+      </c>
+      <c r="S28" s="71">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="T28" s="71"/>
+    </row>
+    <row r="29" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="51">
+        <f t="shared" si="2"/>
+        <v>22434.818452494612</v>
+      </c>
+      <c r="I29" s="51">
+        <f>H29*$V$2</f>
+        <v>33652.227678741918</v>
+      </c>
+      <c r="J29" s="51">
+        <f t="shared" si="1"/>
+        <v>56087.04613123653</v>
+      </c>
+      <c r="K29" s="51">
+        <f>(I29+J29)*$W$2</f>
+        <v>96918.415714776726</v>
+      </c>
+      <c r="L29" s="36">
+        <f t="shared" si="7"/>
+        <v>12401.508163728962</v>
+      </c>
+      <c r="M29" s="36">
         <f t="shared" si="5"/>
-        <v>0.40400000000000047</v>
-      </c>
-      <c r="Q28" s="64">
-        <f t="shared" si="12"/>
-        <v>0.10199999999999998</v>
-      </c>
-      <c r="R28" s="83">
-        <v>0</v>
-      </c>
-      <c r="S28" s="73">
+        <v>71100.886116455978</v>
+      </c>
+      <c r="N29" s="36">
+        <f t="shared" si="3"/>
+        <v>5.7332451164614584</v>
+      </c>
+      <c r="O29" s="70">
+        <f t="shared" si="6"/>
+        <v>5.1000000000000441E-2</v>
+      </c>
+      <c r="P29" s="70">
+        <f t="shared" si="4"/>
+        <v>0.60049999999999948</v>
+      </c>
+      <c r="Q29" s="70">
+        <f t="shared" si="8"/>
+        <v>0.22850000000000006</v>
+      </c>
+      <c r="R29" s="70">
+        <f t="shared" si="9"/>
+        <v>0.12</v>
+      </c>
+      <c r="S29" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T28" s="73"/>
+      <c r="T29" s="71"/>
     </row>
-    <row r="29" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="11">
+    <row r="30" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="17">
         <v>1</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H30" s="51">
         <f t="shared" si="2"/>
-        <v>22434.818452494612</v>
-      </c>
-      <c r="I29" s="46">
-        <f>H29*$V$2</f>
-        <v>33652.227678741918</v>
-      </c>
-      <c r="J29" s="46">
+        <v>27415.348148948415</v>
+      </c>
+      <c r="I30" s="51">
+        <f>H30*$V$2</f>
+        <v>41123.022223422624</v>
+      </c>
+      <c r="J30" s="51">
         <f t="shared" si="1"/>
-        <v>56087.04613123653</v>
-      </c>
-      <c r="K29" s="46">
-        <f>(I29+J29)*$W$2</f>
-        <v>96918.415714776726</v>
-      </c>
-      <c r="L29" s="30">
-        <f>L28*$Y$4</f>
-        <v>24571.584571990294</v>
-      </c>
-      <c r="M29" s="30">
-        <f>(J29-L29)+H30</f>
-        <v>58930.809708194647</v>
-      </c>
-      <c r="N29" s="30">
+        <v>68538.370372371035</v>
+      </c>
+      <c r="K30" s="51">
+        <f>(I30+J30)*$W$2</f>
+        <v>118434.30400345716</v>
+      </c>
+      <c r="L30" s="36">
+        <f t="shared" si="7"/>
+        <v>14881.809796474754</v>
+      </c>
+      <c r="M30" s="36">
+        <f t="shared" si="5"/>
+        <v>87158.116013911233</v>
+      </c>
+      <c r="N30" s="36">
+        <f t="shared" si="3"/>
+        <v>5.8566879435965848</v>
+      </c>
+      <c r="O30" s="70">
+        <v>1E-3</v>
+      </c>
+      <c r="P30" s="70">
         <f t="shared" si="4"/>
-        <v>2.3983316800566135</v>
-      </c>
-      <c r="O29" s="65">
-        <f>O28-$AC$2</f>
-        <v>0.47199999999999953</v>
-      </c>
-      <c r="P29" s="65">
-        <f t="shared" si="5"/>
-        <v>0.41450000000000053</v>
-      </c>
-      <c r="Q29" s="65">
-        <f t="shared" si="12"/>
-        <v>0.11349999999999998</v>
-      </c>
-      <c r="R29" s="84">
-        <v>0</v>
-      </c>
-      <c r="S29" s="73">
+        <v>0.62399999999999989</v>
+      </c>
+      <c r="Q30" s="70">
+        <f t="shared" si="8"/>
+        <v>0.24000000000000007</v>
+      </c>
+      <c r="R30" s="70">
+        <f t="shared" si="9"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S30" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T29" s="73"/>
+      <c r="T30" s="71"/>
     </row>
-    <row r="30" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="11">
-        <v>2</v>
-      </c>
-      <c r="H30" s="46">
-        <f t="shared" si="2"/>
-        <v>27415.348148948415</v>
-      </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46">
-        <f t="shared" si="1"/>
-        <v>27415.348148948415</v>
-      </c>
-      <c r="K30" s="46"/>
-      <c r="L30" s="30">
-        <f>L29*$Y$2</f>
-        <v>31943.059943587381</v>
-      </c>
-      <c r="M30" s="30">
-        <f t="shared" si="3"/>
-        <v>28973.843643375996</v>
-      </c>
-      <c r="N30" s="30">
-        <f t="shared" si="4"/>
-        <v>0.90704659148324773</v>
-      </c>
-      <c r="O30" s="65">
-        <f>O29-$AB$2</f>
-        <v>0.45199999999999951</v>
-      </c>
-      <c r="P30" s="65">
-        <f t="shared" si="5"/>
-        <v>0.42300000000000049</v>
-      </c>
-      <c r="Q30" s="65">
-        <f t="shared" si="12"/>
-        <v>0.12499999999999997</v>
-      </c>
-      <c r="R30" s="84">
-        <v>0</v>
-      </c>
-      <c r="S30" s="73">
-        <f t="shared" si="0"/>
+    <row r="31" spans="6:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="18">
         <v>1</v>
       </c>
-      <c r="T30" s="73"/>
-    </row>
-    <row r="31" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11">
-        <v>3</v>
-      </c>
-      <c r="H31" s="46">
+      <c r="H31" s="51">
         <f t="shared" si="2"/>
         <v>33501.555438014962</v>
       </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46">
+      <c r="I31" s="52">
+        <f>H31*$V$2</f>
+        <v>50252.33315702244</v>
+      </c>
+      <c r="J31" s="52">
         <f t="shared" si="1"/>
-        <v>33501.555438014962</v>
-      </c>
-      <c r="K31" s="46"/>
-      <c r="L31" s="30">
-        <f>L30*$Y$2</f>
-        <v>41525.977926663596</v>
-      </c>
-      <c r="M31" s="30">
+        <v>83753.888595037395</v>
+      </c>
+      <c r="K31" s="52">
+        <f>(I31+J31)*$W$2</f>
+        <v>144726.71949222463</v>
+      </c>
+      <c r="L31" s="36">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="36">
+        <f t="shared" si="5"/>
+        <v>82753.888595037395</v>
+      </c>
+      <c r="N31" s="36">
         <f t="shared" si="3"/>
-        <v>32914.478256605653</v>
-      </c>
-      <c r="N31" s="30">
-        <f t="shared" si="4"/>
-        <v>0.79262379599425281</v>
-      </c>
-      <c r="O31" s="65">
-        <f>O30-$AB$2</f>
-        <v>0.4319999999999995</v>
-      </c>
-      <c r="P31" s="65">
-        <f t="shared" si="5"/>
-        <v>0.43150000000000055</v>
-      </c>
-      <c r="Q31" s="65">
-        <f t="shared" si="12"/>
-        <v>0.13649999999999998</v>
-      </c>
-      <c r="R31" s="84">
+        <v>82.753888595037395</v>
+      </c>
+      <c r="O31" s="87">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="P31" s="70">
         <v>0</v>
       </c>
-      <c r="S31" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T31" s="73"/>
+      <c r="Q31" s="70">
+        <v>0</v>
+      </c>
+      <c r="R31" s="87">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="S31" s="71">
+        <f>SUM(O31:R31)</f>
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="T31" s="71"/>
     </row>
     <row r="32" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F32" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="12">
-        <v>1</v>
-      </c>
-      <c r="H32" s="47">
-        <f t="shared" si="2"/>
-        <v>40938.900745254286</v>
-      </c>
-      <c r="I32" s="47">
-        <f>H32*$V$2</f>
-        <v>61408.35111788143</v>
-      </c>
-      <c r="J32" s="47">
-        <f t="shared" si="1"/>
-        <v>102347.25186313572</v>
-      </c>
-      <c r="K32" s="47">
-        <f>(I32+J32)*$W$2</f>
-        <v>176856.05121949853</v>
-      </c>
-      <c r="L32" s="31">
-        <f>L31*$Y$4</f>
-        <v>57305.849538795759</v>
-      </c>
-      <c r="M32" s="31">
-        <f>(J32-L32)+H33</f>
-        <v>95068.739035040693</v>
-      </c>
-      <c r="N32" s="31">
-        <f t="shared" si="4"/>
-        <v>1.6589709392699894</v>
-      </c>
-      <c r="O32" s="66">
-        <f>O31-$AC$2</f>
-        <v>0.40999999999999948</v>
-      </c>
-      <c r="P32" s="66">
-        <f t="shared" si="5"/>
-        <v>0.4420000000000005</v>
-      </c>
-      <c r="Q32" s="66">
-        <f t="shared" si="12"/>
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="R32" s="85">
-        <v>0</v>
-      </c>
-      <c r="S32" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T32" s="73"/>
+      <c r="F32" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
     </row>
-    <row r="33" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F33" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="12">
-        <v>2</v>
-      </c>
-      <c r="H33" s="47">
-        <f t="shared" si="2"/>
-        <v>50027.336710700736</v>
-      </c>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47">
-        <f t="shared" si="1"/>
-        <v>50027.336710700736</v>
-      </c>
-      <c r="K33" s="47"/>
-      <c r="L33" s="31">
-        <f>L32*$Y$2</f>
-        <v>74497.604400434488</v>
-      </c>
-      <c r="M33" s="31">
-        <f t="shared" si="3"/>
-        <v>36663.137770742549</v>
-      </c>
-      <c r="N33" s="31">
-        <f t="shared" si="4"/>
-        <v>0.49213847969759306</v>
-      </c>
-      <c r="O33" s="66">
-        <f>O32-$AB$2</f>
-        <v>0.38999999999999946</v>
-      </c>
-      <c r="P33" s="66">
-        <f t="shared" si="5"/>
-        <v>0.45050000000000057</v>
-      </c>
-      <c r="Q33" s="66">
-        <f t="shared" si="12"/>
-        <v>0.1595</v>
-      </c>
-      <c r="R33" s="85">
-        <v>0</v>
-      </c>
-      <c r="S33" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T33" s="73"/>
-    </row>
-    <row r="34" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F34" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="12">
-        <v>3</v>
-      </c>
-      <c r="H34" s="47">
-        <f t="shared" si="2"/>
-        <v>61133.405460476301</v>
-      </c>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47">
-        <f t="shared" si="1"/>
-        <v>61133.405460476301</v>
-      </c>
-      <c r="K34" s="47"/>
-      <c r="L34" s="31">
-        <f>L33*$Y$2</f>
-        <v>96846.885720564838</v>
-      </c>
-      <c r="M34" s="31">
-        <f t="shared" si="3"/>
-        <v>38991.541212613498</v>
-      </c>
-      <c r="N34" s="31">
-        <f t="shared" si="4"/>
-        <v>0.40261017091573742</v>
-      </c>
-      <c r="O34" s="66">
-        <f>O33-$AB$2</f>
-        <v>0.36999999999999944</v>
-      </c>
-      <c r="P34" s="66">
-        <f t="shared" si="5"/>
-        <v>0.45900000000000052</v>
-      </c>
-      <c r="Q34" s="66">
-        <f t="shared" si="12"/>
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="R34" s="85">
-        <v>0</v>
-      </c>
-      <c r="S34" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T34" s="73"/>
-    </row>
-    <row r="35" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="13">
-        <v>1</v>
-      </c>
-      <c r="H35" s="48">
-        <f t="shared" si="2"/>
-        <v>74705.021472702036</v>
-      </c>
-      <c r="I35" s="48">
-        <f>H35*$V$2</f>
-        <v>112057.53220905305</v>
-      </c>
-      <c r="J35" s="48">
-        <f t="shared" si="1"/>
-        <v>186762.55368175509</v>
-      </c>
-      <c r="K35" s="48">
-        <f>(I35+J35)*$W$2</f>
-        <v>322725.69276207284</v>
-      </c>
-      <c r="L35" s="32">
-        <f>L34*$Y$4</f>
-        <v>133648.70229437947</v>
-      </c>
-      <c r="M35" s="32">
-        <f t="shared" si="3"/>
-        <v>144403.38762701751</v>
-      </c>
-      <c r="N35" s="32">
-        <f t="shared" si="4"/>
-        <v>1.0804698073981247</v>
-      </c>
-      <c r="O35" s="67">
-        <f>O34-$AC$2</f>
-        <v>0.34799999999999942</v>
-      </c>
-      <c r="P35" s="67">
-        <f t="shared" si="5"/>
-        <v>0.46950000000000058</v>
-      </c>
-      <c r="Q35" s="67">
-        <f t="shared" si="12"/>
-        <v>0.18250000000000002</v>
-      </c>
-      <c r="R35" s="86">
-        <v>0</v>
-      </c>
-      <c r="S35" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T35" s="73"/>
-    </row>
-    <row r="36" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="13">
-        <v>2</v>
-      </c>
-      <c r="H36" s="48">
-        <f t="shared" si="2"/>
-        <v>91289.536239641879</v>
-      </c>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48">
-        <f t="shared" si="1"/>
-        <v>91289.536239641879</v>
-      </c>
-      <c r="K36" s="48"/>
-      <c r="L36" s="32">
-        <f>L35*$Y$2</f>
-        <v>173743.31298269331</v>
-      </c>
-      <c r="M36" s="32">
-        <f t="shared" si="3"/>
-        <v>29102.036541790934</v>
-      </c>
-      <c r="N36" s="32">
-        <f t="shared" si="4"/>
-        <v>0.16750018197644134</v>
-      </c>
-      <c r="O36" s="67">
-        <f>O35-$AB$2</f>
-        <v>0.3279999999999994</v>
-      </c>
-      <c r="P36" s="67">
-        <f t="shared" si="5"/>
-        <v>0.47800000000000054</v>
-      </c>
-      <c r="Q36" s="67">
-        <f t="shared" si="12"/>
-        <v>0.19400000000000003</v>
-      </c>
-      <c r="R36" s="86">
-        <v>0</v>
-      </c>
-      <c r="S36" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T36" s="73"/>
-    </row>
-    <row r="37" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F37" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="13">
-        <v>3</v>
-      </c>
-      <c r="H37" s="48">
-        <f t="shared" si="2"/>
-        <v>111555.81328484237</v>
-      </c>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48">
-        <f t="shared" si="1"/>
-        <v>111555.81328484237</v>
-      </c>
-      <c r="K37" s="48"/>
-      <c r="L37" s="32">
-        <f>L36*$Y$2</f>
-        <v>225866.30687750131</v>
-      </c>
-      <c r="M37" s="32">
-        <f>(J37-L37)+H38</f>
-        <v>22010.710241418434</v>
-      </c>
-      <c r="N37" s="32">
-        <f t="shared" si="4"/>
-        <v>9.745017105785482E-2</v>
-      </c>
-      <c r="O37" s="67">
-        <f>O36-$AB$2</f>
-        <v>0.30799999999999939</v>
-      </c>
-      <c r="P37" s="67">
-        <f t="shared" si="5"/>
-        <v>0.48150000000000059</v>
-      </c>
-      <c r="Q37" s="67">
-        <f t="shared" si="12"/>
-        <v>0.20550000000000004</v>
-      </c>
-      <c r="R37" s="67">
-        <f>AE4</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="S37" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T37" s="73"/>
-    </row>
-    <row r="38" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="14">
-        <v>1</v>
-      </c>
-      <c r="H38" s="49">
-        <f t="shared" si="2"/>
-        <v>136321.20383407737</v>
-      </c>
-      <c r="I38" s="49">
-        <f>H38*$V$2</f>
-        <v>204481.80575111607</v>
-      </c>
-      <c r="J38" s="49">
-        <f t="shared" si="1"/>
-        <v>340803.00958519347</v>
-      </c>
-      <c r="K38" s="49">
-        <f>(I38+J38)*$W$2</f>
-        <v>588907.60056321439</v>
-      </c>
-      <c r="L38" s="33">
-        <f>L37*$Y$4</f>
-        <v>311695.50349095179</v>
-      </c>
-      <c r="M38" s="33">
-        <f t="shared" si="3"/>
-        <v>195692.01717948425</v>
-      </c>
-      <c r="N38" s="33">
-        <f t="shared" si="4"/>
-        <v>0.62783073540605305</v>
-      </c>
-      <c r="O38" s="68">
-        <f>O37-$AC$2</f>
-        <v>0.28599999999999937</v>
-      </c>
-      <c r="P38" s="68">
-        <f t="shared" si="5"/>
-        <v>0.47700000000000053</v>
-      </c>
-      <c r="Q38" s="68">
-        <f t="shared" si="12"/>
-        <v>0.21700000000000005</v>
-      </c>
-      <c r="R38" s="68">
-        <f>(R37+$AE$2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="S38" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T38" s="73"/>
-    </row>
-    <row r="39" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="14">
-        <v>2</v>
-      </c>
-      <c r="H39" s="49">
-        <f t="shared" si="2"/>
-        <v>166584.51108524256</v>
-      </c>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49">
-        <f t="shared" si="1"/>
-        <v>166584.51108524256</v>
-      </c>
-      <c r="K39" s="49"/>
-      <c r="L39" s="33">
-        <f>L38*$Y$2</f>
-        <v>405204.15453823732</v>
-      </c>
-      <c r="M39" s="33">
-        <f t="shared" si="3"/>
-        <v>-35053.37090682835</v>
-      </c>
-      <c r="N39" s="33">
-        <f t="shared" si="4"/>
-        <v>-8.6507925731350119E-2</v>
-      </c>
-      <c r="O39" s="68">
-        <f>O38-$AB$2</f>
-        <v>0.26599999999999935</v>
-      </c>
-      <c r="P39" s="68">
-        <f t="shared" si="5"/>
-        <v>0.47050000000000058</v>
-      </c>
-      <c r="Q39" s="68">
-        <f t="shared" si="12"/>
-        <v>0.22850000000000006</v>
-      </c>
-      <c r="R39" s="68">
-        <f t="shared" ref="R39:R50" si="13">(R38+$AE$2)</f>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="S39" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T39" s="73"/>
-    </row>
-    <row r="40" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F40" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="14">
-        <v>3</v>
-      </c>
-      <c r="H40" s="49">
-        <f t="shared" si="2"/>
-        <v>203566.27254616641</v>
-      </c>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49">
-        <f t="shared" si="1"/>
-        <v>203566.27254616641</v>
-      </c>
-      <c r="K40" s="49"/>
-      <c r="L40" s="33">
-        <f>L39*$Y$2</f>
-        <v>526765.4008997085</v>
-      </c>
-      <c r="M40" s="33">
-        <f t="shared" si="3"/>
-        <v>-74441.143302126729</v>
-      </c>
-      <c r="N40" s="33">
-        <f t="shared" si="4"/>
-        <v>-0.14131745018746908</v>
-      </c>
-      <c r="O40" s="68">
-        <f>O39-$AB$2</f>
-        <v>0.24599999999999936</v>
-      </c>
-      <c r="P40" s="68">
-        <f t="shared" si="5"/>
-        <v>0.46400000000000052</v>
-      </c>
-      <c r="Q40" s="68">
-        <f t="shared" si="12"/>
-        <v>0.24000000000000007</v>
-      </c>
-      <c r="R40" s="68">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
-      </c>
-      <c r="S40" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T40" s="73"/>
-    </row>
-    <row r="41" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F41" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="15">
-        <v>1</v>
-      </c>
-      <c r="H41" s="50">
-        <f t="shared" si="2"/>
-        <v>248757.98505141534</v>
-      </c>
-      <c r="I41" s="50">
-        <f>H41*$V$2</f>
-        <v>373136.97757712298</v>
-      </c>
-      <c r="J41" s="50">
-        <f t="shared" si="1"/>
-        <v>621894.96262853825</v>
-      </c>
-      <c r="K41" s="50">
-        <f>(I41+J41)*$W$2</f>
-        <v>1074634.4954221142</v>
-      </c>
-      <c r="L41" s="34">
-        <f>L40*$Y$4</f>
-        <v>726936.25324159767</v>
-      </c>
-      <c r="M41" s="34">
-        <f t="shared" si="3"/>
-        <v>198940.96711977012</v>
-      </c>
-      <c r="N41" s="34">
-        <f t="shared" si="4"/>
-        <v>0.27367044391119666</v>
-      </c>
-      <c r="O41" s="69">
-        <f>O40-$AC$2</f>
-        <v>0.22399999999999937</v>
-      </c>
-      <c r="P41" s="69">
-        <f t="shared" si="5"/>
-        <v>0.45950000000000057</v>
-      </c>
-      <c r="Q41" s="69">
-        <f t="shared" si="12"/>
-        <v>0.25150000000000006</v>
-      </c>
-      <c r="R41" s="69">
-        <f t="shared" si="13"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="S41" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T41" s="73"/>
-    </row>
-    <row r="42" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F42" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="15">
-        <v>2</v>
-      </c>
-      <c r="H42" s="50">
-        <f t="shared" si="2"/>
-        <v>303982.25773282954</v>
-      </c>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50">
-        <f t="shared" si="1"/>
-        <v>303982.25773282954</v>
-      </c>
-      <c r="K42" s="50"/>
-      <c r="L42" s="34">
-        <f>L41*$Y$2</f>
-        <v>945017.12921407702</v>
-      </c>
-      <c r="M42" s="34">
-        <f t="shared" si="3"/>
-        <v>-269568.5525317298</v>
-      </c>
-      <c r="N42" s="34">
-        <f t="shared" si="4"/>
-        <v>-0.28525255701546526</v>
-      </c>
-      <c r="O42" s="69">
-        <f>O41-$AB$2</f>
-        <v>0.20399999999999938</v>
-      </c>
-      <c r="P42" s="69">
-        <f t="shared" si="5"/>
-        <v>0.45300000000000062</v>
-      </c>
-      <c r="Q42" s="69">
-        <f t="shared" si="12"/>
-        <v>0.26300000000000007</v>
-      </c>
-      <c r="R42" s="69">
-        <f t="shared" si="13"/>
-        <v>0.08</v>
-      </c>
-      <c r="S42" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="T42" s="73"/>
-    </row>
-    <row r="43" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F43" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="15">
-        <v>3</v>
-      </c>
-      <c r="H43" s="50">
-        <f t="shared" si="2"/>
-        <v>371466.31894951768</v>
-      </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50">
-        <f t="shared" si="1"/>
-        <v>371466.31894951768</v>
-      </c>
-      <c r="K43" s="50"/>
-      <c r="L43" s="34">
-        <f>L42*$Y$2</f>
-        <v>1228522.2679783001</v>
-      </c>
-      <c r="M43" s="34">
-        <f t="shared" si="3"/>
-        <v>-403124.10727247183</v>
-      </c>
-      <c r="N43" s="34">
-        <f t="shared" si="4"/>
-        <v>-0.32813740359453736</v>
-      </c>
-      <c r="O43" s="69">
-        <f>O42-$AB$2</f>
-        <v>0.18399999999999939</v>
-      </c>
-      <c r="P43" s="69">
-        <f t="shared" si="5"/>
-        <v>0.44650000000000056</v>
-      </c>
-      <c r="Q43" s="69">
-        <f t="shared" si="12"/>
-        <v>0.27450000000000008</v>
-      </c>
-      <c r="R43" s="69">
-        <f t="shared" si="13"/>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="S43" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T43" s="73"/>
-    </row>
-    <row r="44" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F44" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="16">
-        <v>1</v>
-      </c>
-      <c r="H44" s="51">
-        <f t="shared" si="2"/>
-        <v>453931.8417563106</v>
-      </c>
-      <c r="I44" s="51">
-        <f>H44*$V$2</f>
-        <v>680897.76263446594</v>
-      </c>
-      <c r="J44" s="51">
-        <f t="shared" si="1"/>
-        <v>1134829.6043907765</v>
-      </c>
-      <c r="K44" s="51">
-        <f>(I44+J44)*$W$2</f>
-        <v>1960985.556387262</v>
-      </c>
-      <c r="L44" s="35">
-        <f>L43*$Y$4</f>
-        <v>1695360.7298100539</v>
-      </c>
-      <c r="M44" s="35">
-        <f t="shared" si="3"/>
-        <v>-5826.4147930658655</v>
-      </c>
-      <c r="N44" s="35">
-        <f t="shared" si="4"/>
-        <v>-3.4366814628994324E-3</v>
-      </c>
-      <c r="O44" s="70">
-        <f>O43-$AC$2</f>
-        <v>0.16199999999999939</v>
-      </c>
-      <c r="P44" s="70">
-        <f t="shared" si="5"/>
-        <v>0.4420000000000005</v>
-      </c>
-      <c r="Q44" s="70">
-        <f t="shared" si="12"/>
-        <v>0.28600000000000009</v>
-      </c>
-      <c r="R44" s="70">
-        <f t="shared" si="13"/>
-        <v>0.11</v>
-      </c>
-      <c r="S44" s="73">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="T44" s="73"/>
-    </row>
-    <row r="45" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F45" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="16">
-        <v>2</v>
-      </c>
-      <c r="H45" s="51">
-        <f t="shared" si="2"/>
-        <v>554704.7106262116</v>
-      </c>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51">
-        <f t="shared" si="1"/>
-        <v>554704.7106262116</v>
-      </c>
-      <c r="K45" s="51"/>
-      <c r="L45" s="35">
-        <f>L44*$Y$2</f>
-        <v>2203968.9487530701</v>
-      </c>
-      <c r="M45" s="35">
-        <f t="shared" si="3"/>
-        <v>-971415.081741628</v>
-      </c>
-      <c r="N45" s="35">
-        <f t="shared" si="4"/>
-        <v>-0.44075715417461814</v>
-      </c>
-      <c r="O45" s="70">
-        <f>O44-$AB$2</f>
-        <v>0.1419999999999994</v>
-      </c>
-      <c r="P45" s="70">
-        <f t="shared" si="5"/>
-        <v>0.43550000000000044</v>
-      </c>
-      <c r="Q45" s="70">
-        <f t="shared" si="12"/>
-        <v>0.2975000000000001</v>
-      </c>
-      <c r="R45" s="70">
-        <f t="shared" si="13"/>
-        <v>0.125</v>
-      </c>
-      <c r="S45" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T45" s="73"/>
-    </row>
-    <row r="46" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F46" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="16">
-        <v>3</v>
-      </c>
-      <c r="H46" s="51">
-        <f t="shared" si="2"/>
-        <v>677849.1563852306</v>
-      </c>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51">
-        <f t="shared" si="1"/>
-        <v>677849.1563852306</v>
-      </c>
-      <c r="K46" s="51"/>
-      <c r="L46" s="35">
-        <f>L45*$Y$2</f>
-        <v>2865159.6333789914</v>
-      </c>
-      <c r="M46" s="35">
-        <f t="shared" si="3"/>
-        <v>-1358978.8078910094</v>
-      </c>
-      <c r="N46" s="35">
-        <f t="shared" si="4"/>
-        <v>-0.4743117249241412</v>
-      </c>
-      <c r="O46" s="70">
-        <f>O45-$AB$2</f>
-        <v>0.1219999999999994</v>
-      </c>
-      <c r="P46" s="70">
-        <f t="shared" si="5"/>
-        <v>0.42900000000000049</v>
-      </c>
-      <c r="Q46" s="70">
-        <f t="shared" si="12"/>
-        <v>0.30900000000000011</v>
-      </c>
-      <c r="R46" s="70">
-        <f t="shared" si="13"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S46" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T46" s="73"/>
-    </row>
-    <row r="47" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F47" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="17">
-        <v>1</v>
-      </c>
-      <c r="H47" s="52">
-        <f t="shared" si="2"/>
-        <v>828331.66910275177</v>
-      </c>
-      <c r="I47" s="52">
-        <f>H47*$V$2</f>
-        <v>1242497.5036541277</v>
-      </c>
-      <c r="J47" s="52">
-        <f t="shared" si="1"/>
-        <v>2070829.1727568796</v>
-      </c>
-      <c r="K47" s="52">
-        <f>(I47+J47)*$W$2</f>
-        <v>3578392.8105238886</v>
-      </c>
-      <c r="L47" s="36">
-        <f>L46*$Y$4</f>
-        <v>3953920.2940630079</v>
-      </c>
-      <c r="M47" s="36">
-        <f t="shared" si="3"/>
-        <v>-870869.82166256569</v>
-      </c>
-      <c r="N47" s="36">
-        <f t="shared" si="4"/>
-        <v>-0.22025477422248915</v>
-      </c>
-      <c r="O47" s="71">
-        <f>O46-$AC$2</f>
-        <v>9.9999999999999395E-2</v>
-      </c>
-      <c r="P47" s="76">
-        <f t="shared" si="5"/>
-        <v>0.42450000000000043</v>
-      </c>
-      <c r="Q47" s="76">
-        <f t="shared" si="12"/>
-        <v>0.32050000000000012</v>
-      </c>
-      <c r="R47" s="76">
-        <f t="shared" si="13"/>
-        <v>0.15500000000000003</v>
-      </c>
-      <c r="S47" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T47" s="73"/>
-    </row>
-    <row r="48" spans="6:20" x14ac:dyDescent="0.3">
-      <c r="F48" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="17">
-        <v>1</v>
-      </c>
-      <c r="H48" s="52">
-        <f t="shared" si="2"/>
-        <v>1012221.2996435626</v>
-      </c>
-      <c r="I48" s="52">
-        <f>H48*$V$2</f>
-        <v>1518331.949465344</v>
-      </c>
-      <c r="J48" s="52">
-        <f t="shared" si="1"/>
-        <v>2530553.2491089068</v>
-      </c>
-      <c r="K48" s="52">
-        <f>(I48+J48)*$W$2</f>
-        <v>4372796.0144601911</v>
-      </c>
-      <c r="L48" s="36">
-        <f>L47*$Y$4</f>
-        <v>5456410.0058069509</v>
-      </c>
-      <c r="M48" s="36">
-        <f t="shared" si="3"/>
-        <v>-1688922.3285336106</v>
-      </c>
-      <c r="N48" s="36">
-        <f t="shared" si="4"/>
-        <v>-0.3095299522462911</v>
-      </c>
-      <c r="O48" s="71">
-        <f t="shared" ref="O48:O50" si="14">O47-$AC$2</f>
-        <v>7.7999999999999403E-2</v>
-      </c>
-      <c r="P48" s="76">
-        <f t="shared" si="5"/>
-        <v>0.42000000000000037</v>
-      </c>
-      <c r="Q48" s="76">
-        <f t="shared" si="12"/>
-        <v>0.33200000000000013</v>
-      </c>
-      <c r="R48" s="76">
-        <f t="shared" si="13"/>
-        <v>0.17000000000000004</v>
-      </c>
-      <c r="S48" s="73">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="T48" s="73"/>
-    </row>
-    <row r="49" spans="6:21" x14ac:dyDescent="0.3">
-      <c r="F49" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="17">
-        <v>1</v>
-      </c>
-      <c r="H49" s="52">
-        <f t="shared" si="2"/>
-        <v>1236934.4281644335</v>
-      </c>
-      <c r="I49" s="52">
-        <f>H49*$V$2</f>
-        <v>1855401.6422466501</v>
-      </c>
-      <c r="J49" s="52">
-        <f t="shared" si="1"/>
-        <v>3092336.0704110833</v>
-      </c>
-      <c r="K49" s="52">
-        <f>(I49+J49)*$W$2</f>
-        <v>5343556.7296703523</v>
-      </c>
-      <c r="L49" s="36">
-        <f>L48*$Y$4</f>
-        <v>7529845.8080135919</v>
-      </c>
-      <c r="M49" s="36">
-        <f>(J49-L49)+H50</f>
-        <v>-2925975.8663855707</v>
-      </c>
-      <c r="N49" s="36">
-        <f t="shared" si="4"/>
-        <v>-0.38858376930794769</v>
-      </c>
-      <c r="O49" s="71">
-        <f t="shared" si="14"/>
-        <v>5.5999999999999404E-2</v>
-      </c>
-      <c r="P49" s="76">
-        <f t="shared" si="5"/>
-        <v>0.41550000000000042</v>
-      </c>
-      <c r="Q49" s="76">
-        <f t="shared" si="12"/>
-        <v>0.34350000000000014</v>
-      </c>
-      <c r="R49" s="76">
-        <f t="shared" si="13"/>
-        <v>0.18500000000000005</v>
-      </c>
-      <c r="S49" s="73">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T49" s="73"/>
-    </row>
-    <row r="50" spans="6:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F50" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1</v>
-      </c>
-      <c r="H50" s="53">
-        <f t="shared" si="2"/>
-        <v>1511533.8712169377</v>
-      </c>
-      <c r="I50" s="53">
-        <f>H50*$V$2</f>
-        <v>2267300.8068254064</v>
-      </c>
-      <c r="J50" s="53">
-        <f t="shared" si="1"/>
-        <v>3778834.6780423438</v>
-      </c>
-      <c r="K50" s="53">
-        <f>(I50+J50)*$W$2</f>
-        <v>6529826.3236571699</v>
-      </c>
-      <c r="L50" s="37">
-        <f>L49*$Y$4</f>
-        <v>10391187.215058755</v>
-      </c>
-      <c r="M50" s="37">
-        <f t="shared" si="3"/>
-        <v>1707442.0153579051</v>
-      </c>
-      <c r="N50" s="37">
-        <f t="shared" si="4"/>
-        <v>0.16431635577535408</v>
-      </c>
-      <c r="O50" s="72">
-        <f t="shared" si="14"/>
-        <v>3.3999999999999406E-2</v>
-      </c>
-      <c r="P50" s="87">
-        <f>100%-(O50+Q50+R50)</f>
-        <v>0.41100000000000037</v>
-      </c>
-      <c r="Q50" s="87">
-        <f t="shared" si="12"/>
-        <v>0.35500000000000015</v>
-      </c>
-      <c r="R50" s="87">
-        <f t="shared" si="13"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="S50" s="73">
-        <f>SUM(O50:R50)</f>
-        <v>1</v>
-      </c>
-      <c r="T50" s="73"/>
-    </row>
-    <row r="51" spans="6:21" x14ac:dyDescent="0.3">
-      <c r="G51" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="56">
-        <f>SUM(H2:H50)</f>
-        <v>8319794.5523743164</v>
-      </c>
-      <c r="I51" s="56">
-        <f>SUM(I2:I50)</f>
-        <v>8386982.1553461589</v>
-      </c>
-      <c r="J51" s="56">
-        <f>SUM(J2:J50)</f>
-        <v>16706776.707720473</v>
-      </c>
-      <c r="K51" s="56">
-        <f>SUM(K2:K50)</f>
-        <v>24143767.637943268</v>
-      </c>
-      <c r="L51" s="56">
-        <f>SUM(L2:L50)</f>
-        <v>39177495.427288651</v>
-      </c>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-    </row>
-    <row r="57" spans="6:21" x14ac:dyDescent="0.3">
-      <c r="U57" t="s">
+    <row r="38" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U38" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X14:Y14"/>
+  <mergeCells count="2">
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Y6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="L10 L16 O23 O26 O29 O32 O35 O38 O41 O44 O20 L44 L41 L38 L35 L32 L29 L23" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84437FD9-0149-41CE-9C02-82491E7F5679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A8E9E0-8B65-4D5E-8996-8DF1654875DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14955" yWindow="2580" windowWidth="16980" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4517,9 +4517,9 @@
   <dimension ref="F1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A8E9E0-8B65-4D5E-8996-8DF1654875DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157EA91-FF7D-45B8-BBEB-D8DDCF862ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14955" yWindow="2580" windowWidth="16980" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4519,7 +4519,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157EA91-FF7D-45B8-BBEB-D8DDCF862ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E91AF57-A15D-4890-AD79-525671A49D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14955" yWindow="2580" windowWidth="16980" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15300" yWindow="2925" windowWidth="16980" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1518,8 +1518,8 @@
                 <c:pt idx="27">
                   <c:v>0.62399999999999989</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
+                <c:pt idx="28" formatCode="0.0000%">
+                  <c:v>0.99992199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4516,10 +4516,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="F1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6204,7 +6204,7 @@
         <v>1E-3</v>
       </c>
       <c r="P30" s="70">
-        <f t="shared" si="4"/>
+        <f>100%-(O30+Q30+R30)</f>
         <v>0.62399999999999989</v>
       </c>
       <c r="Q30" s="70">
@@ -6258,8 +6258,9 @@
       <c r="O31" s="87">
         <v>7.7000000000000001E-5</v>
       </c>
-      <c r="P31" s="70">
-        <v>0</v>
+      <c r="P31" s="87">
+        <f>100%-(O31+Q31+R31)</f>
+        <v>0.99992199999999998</v>
       </c>
       <c r="Q31" s="70">
         <v>0</v>
@@ -6269,7 +6270,7 @@
       </c>
       <c r="S31" s="71">
         <f>SUM(O31:R31)</f>
-        <v>7.7999999999999999E-5</v>
+        <v>1</v>
       </c>
       <c r="T31" s="71"/>
     </row>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E91AF57-A15D-4890-AD79-525671A49D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B202F97D-9C5F-435E-A760-47ADDAAC9B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="2925" windowWidth="16980" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -656,6 +656,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1438,85 +1439,85 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6499999999999977E-2</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2999999999999954E-2</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10949999999999993</c:v>
+                  <c:v>0.11099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14599999999999991</c:v>
+                  <c:v>0.14799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18249999999999988</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21899999999999986</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24549999999999983</c:v>
+                  <c:v>0.25900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27049999999999985</c:v>
+                  <c:v>0.29599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29549999999999976</c:v>
+                  <c:v>0.33299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32049999999999979</c:v>
+                  <c:v>0.36999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3454999999999997</c:v>
+                  <c:v>0.40699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.37049999999999972</c:v>
+                  <c:v>0.44399999999999989</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39549999999999974</c:v>
+                  <c:v>0.48099999999999987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.42049999999999965</c:v>
+                  <c:v>0.5179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.44549999999999967</c:v>
+                  <c:v>0.55499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.4704999999999997</c:v>
+                  <c:v>0.59199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.49549999999999961</c:v>
+                  <c:v>0.629</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.52049999999999963</c:v>
+                  <c:v>0.66600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.53049999999999953</c:v>
+                  <c:v>0.70300000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.54049999999999954</c:v>
+                  <c:v>0.7400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.55049999999999955</c:v>
+                  <c:v>0.77700000000000014</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.56049999999999955</c:v>
+                  <c:v>0.81400000000000017</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.57049999999999956</c:v>
+                  <c:v>0.8510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.58049999999999957</c:v>
+                  <c:v>0.88800000000000023</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.59049999999999958</c:v>
+                  <c:v>0.92500000000000027</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.60049999999999948</c:v>
+                  <c:v>0.9620000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.62399999999999989</c:v>
+                  <c:v>0.99900000000000033</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.0000%">
                   <c:v>0.99992199999999998</c:v>
@@ -1957,85 +1958,85 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96350000000000002</c:v>
+                  <c:v>0.96299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92700000000000005</c:v>
+                  <c:v>0.92600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89050000000000007</c:v>
+                  <c:v>0.88900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85400000000000009</c:v>
+                  <c:v>0.85199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81750000000000012</c:v>
+                  <c:v>0.81499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78100000000000014</c:v>
+                  <c:v>0.77800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74450000000000016</c:v>
+                  <c:v>0.74099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70800000000000018</c:v>
+                  <c:v>0.70399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67150000000000021</c:v>
+                  <c:v>0.66700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63500000000000023</c:v>
+                  <c:v>0.63000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59850000000000025</c:v>
+                  <c:v>0.59300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56200000000000028</c:v>
+                  <c:v>0.55600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5255000000000003</c:v>
+                  <c:v>0.51900000000000013</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.48900000000000032</c:v>
+                  <c:v>0.4820000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.45250000000000035</c:v>
+                  <c:v>0.44500000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41600000000000037</c:v>
+                  <c:v>0.40800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.37950000000000039</c:v>
+                  <c:v>0.371</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.34300000000000042</c:v>
+                  <c:v>0.33399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30650000000000044</c:v>
+                  <c:v>0.29699999999999993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.27000000000000046</c:v>
+                  <c:v>0.2599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.23350000000000046</c:v>
+                  <c:v>0.22299999999999986</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19700000000000045</c:v>
+                  <c:v>0.18599999999999983</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.16050000000000045</c:v>
+                  <c:v>0.1489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.12400000000000044</c:v>
+                  <c:v>0.11199999999999977</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.7500000000000439E-2</c:v>
+                  <c:v>7.4999999999999734E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.1000000000000441E-2</c:v>
+                  <c:v>3.7999999999999701E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1E-3</c:v>
+                  <c:v>9.9999999999966782E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.0000%">
                   <c:v>7.7000000000000001E-5</c:v>
@@ -4516,10 +4517,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="F1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4673,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="AB2" s="86">
-        <v>3.6499999999999998E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AC2" s="72">
         <v>2.1999999999999999E-2</v>
@@ -4782,12 +4783,12 @@
         <v>3.0908284984615384</v>
       </c>
       <c r="O4" s="58">
-        <f>O3-$AB$2</f>
-        <v>0.96350000000000002</v>
+        <f>100%-P4</f>
+        <v>0.96299999999999997</v>
       </c>
       <c r="P4" s="58">
-        <f t="shared" ref="P4:P30" si="4">100%-(O4+Q4+R4)</f>
-        <v>3.6499999999999977E-2</v>
+        <f>P3+$AB$2</f>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="Q4" s="75">
         <v>0</v>
@@ -4840,7 +4841,7 @@
         <v>156</v>
       </c>
       <c r="M5" s="24">
-        <f t="shared" ref="M5:M31" si="5">(J5-L5)+H6</f>
+        <f t="shared" ref="M5:M31" si="4">(J5-L5)+H6</f>
         <v>249.46901526559998</v>
       </c>
       <c r="N5" s="24">
@@ -4848,12 +4849,12 @@
         <v>1.5991603542666666</v>
       </c>
       <c r="O5" s="58">
-        <f t="shared" ref="O5:O29" si="6">O4-$AB$2</f>
-        <v>0.92700000000000005</v>
+        <f t="shared" ref="O5:O31" si="5">100%-P5</f>
+        <v>0.92600000000000005</v>
       </c>
       <c r="P5" s="58">
-        <f t="shared" si="4"/>
-        <v>7.2999999999999954E-2</v>
+        <f t="shared" ref="P5:P31" si="6">P4+$AB$2</f>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="Q5" s="75">
         <v>0</v>
@@ -4897,7 +4898,7 @@
         <v>187.2</v>
       </c>
       <c r="M6" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>642.76770235296317</v>
       </c>
       <c r="N6" s="25">
@@ -4905,12 +4906,12 @@
         <v>3.4335881535948891</v>
       </c>
       <c r="O6" s="59">
+        <f t="shared" si="5"/>
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="P6" s="59">
         <f t="shared" si="6"/>
-        <v>0.89050000000000007</v>
-      </c>
-      <c r="P6" s="59">
-        <f t="shared" si="4"/>
-        <v>0.10949999999999993</v>
+        <v>0.11099999999999999</v>
       </c>
       <c r="Q6" s="76">
         <v>0</v>
@@ -4959,7 +4960,7 @@
         <v>224.64</v>
       </c>
       <c r="M7" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>380.84039299187612</v>
       </c>
       <c r="N7" s="25">
@@ -4967,12 +4968,12 @@
         <v>1.695336507264406</v>
       </c>
       <c r="O7" s="59">
+        <f t="shared" si="5"/>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="P7" s="59">
         <f t="shared" si="6"/>
-        <v>0.85400000000000009</v>
-      </c>
-      <c r="P7" s="59">
-        <f t="shared" si="4"/>
-        <v>0.14599999999999991</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="Q7" s="76">
         <v>0</v>
@@ -5013,7 +5014,7 @@
         <v>269.56799999999998</v>
       </c>
       <c r="M8" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>969.809490440442</v>
       </c>
       <c r="N8" s="26">
@@ -5021,12 +5022,12 @@
         <v>3.5976432308005477</v>
       </c>
       <c r="O8" s="60">
+        <f t="shared" si="5"/>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="P8" s="60">
         <f t="shared" si="6"/>
-        <v>0.81750000000000012</v>
-      </c>
-      <c r="P8" s="60">
-        <f t="shared" si="4"/>
-        <v>0.18249999999999988</v>
+        <v>0.185</v>
       </c>
       <c r="Q8" s="77">
         <v>0</v>
@@ -5064,7 +5065,7 @@
         <v>323.48159999999996</v>
       </c>
       <c r="M9" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>580.67258316848063</v>
       </c>
       <c r="N9" s="26">
@@ -5072,12 +5073,12 @@
         <v>1.7950714450790421</v>
       </c>
       <c r="O9" s="60">
+        <f t="shared" si="5"/>
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="P9" s="60">
         <f t="shared" si="6"/>
-        <v>0.78100000000000014</v>
-      </c>
-      <c r="P9" s="60">
-        <f t="shared" si="4"/>
-        <v>0.21899999999999986</v>
+        <v>0.222</v>
       </c>
       <c r="Q9" s="77">
         <v>0</v>
@@ -5119,7 +5120,7 @@
         <v>388.17791999999992</v>
       </c>
       <c r="M10" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1462.5646564348649</v>
       </c>
       <c r="N10" s="27">
@@ -5127,12 +5128,12 @@
         <v>3.7677688015713651</v>
       </c>
       <c r="O10" s="61">
+        <f t="shared" si="5"/>
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="P10" s="61">
         <f t="shared" si="6"/>
-        <v>0.74450000000000016</v>
-      </c>
-      <c r="P10" s="61">
-        <f t="shared" si="4"/>
-        <v>0.24549999999999983</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="Q10" s="61">
         <f>AD4</f>
@@ -5143,7 +5144,7 @@
       </c>
       <c r="S10" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="T10" s="71"/>
     </row>
@@ -5169,7 +5170,7 @@
         <v>465.81350399999985</v>
       </c>
       <c r="M11" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>884.34547125856147</v>
       </c>
       <c r="N11" s="27">
@@ -5177,12 +5178,12 @@
         <v>1.8984968526343147</v>
       </c>
       <c r="O11" s="61">
+        <f t="shared" si="5"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="P11" s="61">
         <f t="shared" si="6"/>
-        <v>0.70800000000000018</v>
-      </c>
-      <c r="P11" s="61">
-        <f t="shared" si="4"/>
-        <v>0.27049999999999985</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="Q11" s="61">
         <f>Q10+$AD$2</f>
@@ -5193,7 +5194,7 @@
       </c>
       <c r="S11" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0215000000000001</v>
       </c>
       <c r="T11" s="71"/>
     </row>
@@ -5225,7 +5226,7 @@
         <v>558.97620479999978</v>
       </c>
       <c r="M12" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2204.7080727089606</v>
       </c>
       <c r="N12" s="28">
@@ -5233,12 +5234,12 @@
         <v>3.9441894910317323</v>
       </c>
       <c r="O12" s="62">
+        <f t="shared" si="5"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="P12" s="62">
         <f t="shared" si="6"/>
-        <v>0.67150000000000021</v>
-      </c>
-      <c r="P12" s="62">
-        <f t="shared" si="4"/>
-        <v>0.29549999999999976</v>
+        <v>0.33299999999999996</v>
       </c>
       <c r="Q12" s="62">
         <f t="shared" ref="Q12:Q30" si="8">Q11+$AD$2</f>
@@ -5249,7 +5250,7 @@
       </c>
       <c r="S12" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="T12" s="71"/>
     </row>
@@ -5275,7 +5276,7 @@
         <v>670.77144575999966</v>
       </c>
       <c r="M13" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1345.3993494500057</v>
       </c>
       <c r="N13" s="28">
@@ -5283,12 +5284,12 @@
         <v>2.0057492875619309</v>
       </c>
       <c r="O13" s="62">
+        <f t="shared" si="5"/>
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="P13" s="62">
         <f t="shared" si="6"/>
-        <v>0.63500000000000023</v>
-      </c>
-      <c r="P13" s="62">
-        <f t="shared" si="4"/>
-        <v>0.32049999999999979</v>
+        <v>0.36999999999999994</v>
       </c>
       <c r="Q13" s="62">
         <f t="shared" si="8"/>
@@ -5299,7 +5300,7 @@
       </c>
       <c r="S13" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0445</v>
       </c>
       <c r="T13" s="71"/>
     </row>
@@ -5331,7 +5332,7 @@
         <v>804.9257349119996</v>
       </c>
       <c r="M14" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3322.0397777436901</v>
       </c>
       <c r="N14" s="29">
@@ -5339,12 +5340,12 @@
         <v>4.1271382360596034</v>
       </c>
       <c r="O14" s="63">
+        <f t="shared" si="5"/>
+        <v>0.59300000000000008</v>
+      </c>
+      <c r="P14" s="63">
         <f t="shared" si="6"/>
-        <v>0.59850000000000025</v>
-      </c>
-      <c r="P14" s="63">
-        <f t="shared" si="4"/>
-        <v>0.3454999999999997</v>
+        <v>0.40699999999999992</v>
       </c>
       <c r="Q14" s="63">
         <f t="shared" si="8"/>
@@ -5355,7 +5356,7 @@
       </c>
       <c r="S14" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.056</v>
       </c>
       <c r="T14" s="71"/>
     </row>
@@ -5381,7 +5382,7 @@
         <v>965.91088189439949</v>
       </c>
       <c r="M15" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2044.804707859978</v>
       </c>
       <c r="N15" s="29">
@@ -5389,12 +5390,12 @@
         <v>2.1169703605052987</v>
       </c>
       <c r="O15" s="63">
+        <f t="shared" si="5"/>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="P15" s="63">
         <f t="shared" si="6"/>
-        <v>0.56200000000000028</v>
-      </c>
-      <c r="P15" s="63">
-        <f t="shared" si="4"/>
-        <v>0.37049999999999972</v>
+        <v>0.44399999999999989</v>
       </c>
       <c r="Q15" s="63">
         <f t="shared" si="8"/>
@@ -5405,7 +5406,7 @@
       </c>
       <c r="S15" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0674999999999999</v>
       </c>
       <c r="T15" s="71"/>
     </row>
@@ -5437,7 +5438,7 @@
         <v>1159.0930582732794</v>
       </c>
       <c r="M16" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5003.6385103272605</v>
       </c>
       <c r="N16" s="30">
@@ -5445,12 +5446,12 @@
         <v>4.3168565928444655</v>
       </c>
       <c r="O16" s="64">
+        <f t="shared" si="5"/>
+        <v>0.51900000000000013</v>
+      </c>
+      <c r="P16" s="64">
         <f t="shared" si="6"/>
-        <v>0.5255000000000003</v>
-      </c>
-      <c r="P16" s="64">
-        <f t="shared" si="4"/>
-        <v>0.39549999999999974</v>
+        <v>0.48099999999999987</v>
       </c>
       <c r="Q16" s="64">
         <f t="shared" si="8"/>
@@ -5461,7 +5462,7 @@
       </c>
       <c r="S16" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.079</v>
       </c>
       <c r="T16" s="71"/>
     </row>
@@ -5487,7 +5488,7 @@
         <v>1390.9116699279352</v>
       </c>
       <c r="M17" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3104.9417488028403</v>
       </c>
       <c r="N17" s="30">
@@ -5495,12 +5496,12 @@
         <v>2.2323069220949963</v>
       </c>
       <c r="O17" s="64">
+        <f t="shared" si="5"/>
+        <v>0.4820000000000001</v>
+      </c>
+      <c r="P17" s="64">
         <f t="shared" si="6"/>
-        <v>0.48900000000000032</v>
-      </c>
-      <c r="P17" s="64">
-        <f t="shared" si="4"/>
-        <v>0.42049999999999965</v>
+        <v>0.5179999999999999</v>
       </c>
       <c r="Q17" s="64">
         <f t="shared" si="8"/>
@@ -5511,7 +5512,7 @@
       </c>
       <c r="S17" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0905</v>
       </c>
       <c r="T17" s="71"/>
     </row>
@@ -5543,7 +5544,7 @@
         <v>1669.0940039135223</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7533.6144437725652</v>
       </c>
       <c r="N18" s="31">
@@ -5551,12 +5552,12 @@
         <v>4.5135950558258013</v>
       </c>
       <c r="O18" s="65">
+        <f t="shared" si="5"/>
+        <v>0.44500000000000006</v>
+      </c>
+      <c r="P18" s="65">
         <f t="shared" si="6"/>
-        <v>0.45250000000000035</v>
-      </c>
-      <c r="P18" s="65">
-        <f t="shared" si="4"/>
-        <v>0.44549999999999967</v>
+        <v>0.55499999999999994</v>
       </c>
       <c r="Q18" s="65">
         <f t="shared" si="8"/>
@@ -5567,7 +5568,7 @@
       </c>
       <c r="S18" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1019999999999999</v>
       </c>
       <c r="T18" s="71"/>
     </row>
@@ -5593,7 +5594,7 @@
         <v>2002.9128046962267</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4710.6731718397405</v>
       </c>
       <c r="N19" s="31">
@@ -5601,12 +5602,12 @@
         <v>2.35191125684285</v>
       </c>
       <c r="O19" s="65">
+        <f t="shared" si="5"/>
+        <v>0.40800000000000003</v>
+      </c>
+      <c r="P19" s="65">
         <f t="shared" si="6"/>
-        <v>0.41600000000000037</v>
-      </c>
-      <c r="P19" s="65">
-        <f t="shared" si="4"/>
-        <v>0.4704999999999997</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="Q19" s="65">
         <f t="shared" si="8"/>
@@ -5617,7 +5618,7 @@
       </c>
       <c r="S19" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1134999999999999</v>
       </c>
       <c r="T19" s="71"/>
     </row>
@@ -5649,7 +5650,7 @@
         <v>2403.4953656354719</v>
       </c>
       <c r="M20" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11338.761915958999</v>
       </c>
       <c r="N20" s="32">
@@ -5657,12 +5658,12 @@
         <v>4.7176133884331781</v>
       </c>
       <c r="O20" s="66">
+        <f t="shared" si="5"/>
+        <v>0.371</v>
+      </c>
+      <c r="P20" s="66">
         <f t="shared" si="6"/>
-        <v>0.37950000000000039</v>
-      </c>
-      <c r="P20" s="66">
-        <f t="shared" si="4"/>
-        <v>0.49549999999999961</v>
+        <v>0.629</v>
       </c>
       <c r="Q20" s="66">
         <f t="shared" si="8"/>
@@ -5673,7 +5674,7 @@
       </c>
       <c r="S20" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="T20" s="71"/>
     </row>
@@ -5699,7 +5700,7 @@
         <v>2884.1944387625663</v>
       </c>
       <c r="M21" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7141.0960826229684</v>
       </c>
       <c r="N21" s="32">
@@ -5707,12 +5708,12 @@
         <v>2.4759412842106379</v>
       </c>
       <c r="O21" s="66">
+        <f t="shared" si="5"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="P21" s="66">
         <f t="shared" si="6"/>
-        <v>0.34300000000000042</v>
-      </c>
-      <c r="P21" s="66">
-        <f t="shared" si="4"/>
-        <v>0.52049999999999963</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="Q21" s="66">
         <f t="shared" si="8"/>
@@ -5723,7 +5724,7 @@
       </c>
       <c r="S21" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1365000000000001</v>
       </c>
       <c r="T21" s="71"/>
     </row>
@@ -5755,7 +5756,7 @@
         <v>3461.0333265150794</v>
       </c>
       <c r="M22" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17060.059595973435</v>
       </c>
       <c r="N22" s="33">
@@ -5763,12 +5764,12 @@
         <v>4.9291809660646173</v>
       </c>
       <c r="O22" s="67">
+        <f t="shared" si="5"/>
+        <v>0.29699999999999993</v>
+      </c>
+      <c r="P22" s="67">
         <f t="shared" si="6"/>
-        <v>0.30650000000000044</v>
-      </c>
-      <c r="P22" s="67">
-        <f t="shared" si="4"/>
-        <v>0.53049999999999953</v>
+        <v>0.70300000000000007</v>
       </c>
       <c r="Q22" s="67">
         <f t="shared" si="8"/>
@@ -5780,7 +5781,7 @@
       </c>
       <c r="S22" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1629999999999998</v>
       </c>
       <c r="T22" s="71"/>
     </row>
@@ -5806,7 +5807,7 @@
         <v>4153.2399918180954</v>
       </c>
       <c r="M23" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10817.365939118579</v>
       </c>
       <c r="N23" s="33">
@@ -5814,12 +5815,12 @@
         <v>2.6045607671188873</v>
       </c>
       <c r="O23" s="67">
+        <f t="shared" si="5"/>
+        <v>0.2599999999999999</v>
+      </c>
+      <c r="P23" s="67">
         <f t="shared" si="6"/>
-        <v>0.27000000000000046</v>
-      </c>
-      <c r="P23" s="67">
-        <f t="shared" si="4"/>
-        <v>0.54049999999999954</v>
+        <v>0.7400000000000001</v>
       </c>
       <c r="Q23" s="67">
         <f t="shared" si="8"/>
@@ -5831,7 +5832,7 @@
       </c>
       <c r="S23" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1895</v>
       </c>
       <c r="T23" s="71"/>
     </row>
@@ -5863,7 +5864,7 @@
         <v>4983.8879901817145</v>
       </c>
       <c r="M24" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25659.931733483623</v>
       </c>
       <c r="N24" s="34">
@@ -5871,12 +5872,12 @@
         <v>5.1485771317561353</v>
       </c>
       <c r="O24" s="68">
+        <f t="shared" si="5"/>
+        <v>0.22299999999999986</v>
+      </c>
+      <c r="P24" s="68">
         <f t="shared" si="6"/>
-        <v>0.23350000000000046</v>
-      </c>
-      <c r="P24" s="68">
-        <f t="shared" si="4"/>
-        <v>0.55049999999999955</v>
+        <v>0.77700000000000014</v>
       </c>
       <c r="Q24" s="68">
         <f t="shared" si="8"/>
@@ -5888,7 +5889,7 @@
       </c>
       <c r="S24" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.216</v>
       </c>
       <c r="T24" s="71"/>
     </row>
@@ -5914,7 +5915,7 @@
         <v>5980.6655882180576</v>
       </c>
       <c r="M25" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16374.700718754786</v>
       </c>
       <c r="N25" s="34">
@@ -5922,12 +5923,12 @@
         <v>2.7379395281710837</v>
       </c>
       <c r="O25" s="68">
+        <f t="shared" si="5"/>
+        <v>0.18599999999999983</v>
+      </c>
+      <c r="P25" s="68">
         <f t="shared" si="6"/>
-        <v>0.19700000000000045</v>
-      </c>
-      <c r="P25" s="68">
-        <f t="shared" si="4"/>
-        <v>0.56049999999999955</v>
+        <v>0.81400000000000017</v>
       </c>
       <c r="Q25" s="68">
         <f t="shared" si="8"/>
@@ -5939,7 +5940,7 @@
       </c>
       <c r="S25" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.2425000000000002</v>
       </c>
       <c r="T25" s="71"/>
     </row>
@@ -5971,7 +5972,7 @@
         <v>7176.7987058616691</v>
       </c>
       <c r="M26" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>38583.126986372205</v>
       </c>
       <c r="N26" s="35">
@@ -5979,12 +5980,12 @@
         <v>5.3760915650120342</v>
       </c>
       <c r="O26" s="69">
+        <f t="shared" si="5"/>
+        <v>0.1489999999999998</v>
+      </c>
+      <c r="P26" s="69">
         <f t="shared" si="6"/>
-        <v>0.16050000000000045</v>
-      </c>
-      <c r="P26" s="69">
-        <f t="shared" si="4"/>
-        <v>0.57049999999999956</v>
+        <v>0.8510000000000002</v>
       </c>
       <c r="Q26" s="69">
         <f t="shared" si="8"/>
@@ -5996,7 +5997,7 @@
       </c>
       <c r="S26" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="T26" s="71"/>
     </row>
@@ -6022,7 +6023,7 @@
         <v>8612.1584470340022</v>
       </c>
       <c r="M27" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24770.75237330763</v>
       </c>
       <c r="N27" s="35">
@@ -6030,12 +6031,12 @@
         <v>2.8762536738787698</v>
       </c>
       <c r="O27" s="69">
+        <f t="shared" si="5"/>
+        <v>0.11199999999999977</v>
+      </c>
+      <c r="P27" s="69">
         <f t="shared" si="6"/>
-        <v>0.12400000000000044</v>
-      </c>
-      <c r="P27" s="69">
-        <f t="shared" si="4"/>
-        <v>0.58049999999999957</v>
+        <v>0.88800000000000023</v>
       </c>
       <c r="Q27" s="69">
         <f t="shared" si="8"/>
@@ -6047,7 +6048,7 @@
       </c>
       <c r="S27" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.2955000000000001</v>
       </c>
       <c r="T27" s="71"/>
     </row>
@@ -6079,7 +6080,7 @@
         <v>10334.590136440802</v>
       </c>
       <c r="M28" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57997.974740960955</v>
       </c>
       <c r="N28" s="36">
@@ -6087,12 +6088,12 @@
         <v>5.6120246642829379</v>
       </c>
       <c r="O28" s="70">
+        <f t="shared" si="5"/>
+        <v>7.4999999999999734E-2</v>
+      </c>
+      <c r="P28" s="70">
         <f t="shared" si="6"/>
-        <v>8.7500000000000439E-2</v>
-      </c>
-      <c r="P28" s="70">
-        <f t="shared" si="4"/>
-        <v>0.59049999999999958</v>
+        <v>0.92500000000000027</v>
       </c>
       <c r="Q28" s="70">
         <f t="shared" si="8"/>
@@ -6104,7 +6105,7 @@
       </c>
       <c r="S28" s="71">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="T28" s="71"/>
     </row>
@@ -6136,7 +6137,7 @@
         <v>12401.508163728962</v>
       </c>
       <c r="M29" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>71100.886116455978</v>
       </c>
       <c r="N29" s="36">
@@ -6144,15 +6145,15 @@
         <v>5.7332451164614584</v>
       </c>
       <c r="O29" s="70">
+        <f t="shared" si="5"/>
+        <v>3.7999999999999701E-2</v>
+      </c>
+      <c r="P29" s="70">
         <f t="shared" si="6"/>
-        <v>5.1000000000000441E-2</v>
-      </c>
-      <c r="P29" s="70">
-        <f t="shared" si="4"/>
-        <v>0.60049999999999948</v>
+        <v>0.9620000000000003</v>
       </c>
       <c r="Q29" s="70">
-        <f t="shared" si="8"/>
+        <f>Q28+$AD$2</f>
         <v>0.22850000000000006</v>
       </c>
       <c r="R29" s="70">
@@ -6161,7 +6162,7 @@
       </c>
       <c r="S29" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.3485</v>
       </c>
       <c r="T29" s="71"/>
     </row>
@@ -6193,7 +6194,7 @@
         <v>14881.809796474754</v>
       </c>
       <c r="M30" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>87158.116013911233</v>
       </c>
       <c r="N30" s="36">
@@ -6201,11 +6202,12 @@
         <v>5.8566879435965848</v>
       </c>
       <c r="O30" s="70">
-        <v>1E-3</v>
+        <f t="shared" si="5"/>
+        <v>9.9999999999966782E-4</v>
       </c>
       <c r="P30" s="70">
-        <f>100%-(O30+Q30+R30)</f>
-        <v>0.62399999999999989</v>
+        <f t="shared" si="6"/>
+        <v>0.99900000000000033</v>
       </c>
       <c r="Q30" s="70">
         <f t="shared" si="8"/>
@@ -6217,7 +6219,7 @@
       </c>
       <c r="S30" s="71">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="T30" s="71"/>
     </row>
@@ -6248,7 +6250,7 @@
         <v>1000</v>
       </c>
       <c r="M31" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>82753.888595037395</v>
       </c>
       <c r="N31" s="36">
@@ -6259,7 +6261,6 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="P31" s="87">
-        <f>100%-(O31+Q31+R31)</f>
         <v>0.99992199999999998</v>
       </c>
       <c r="Q31" s="70">
@@ -6289,7 +6290,12 @@
       <c r="M32" s="55"/>
       <c r="N32" s="55"/>
     </row>
-    <row r="38" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:21" x14ac:dyDescent="0.3">
+      <c r="N37" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="14:21" x14ac:dyDescent="0.3">
       <c r="U38" t="s">
         <v>34</v>
       </c>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B202F97D-9C5F-435E-A760-47ADDAAC9B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6F72D-40CB-4A34-A24B-513B395B95FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4520,7 +4520,7 @@
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/돈 관련.xlsx
+++ b/돈 관련.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\YuhanTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6F72D-40CB-4A34-A24B-513B395B95FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86EE2F8-C6DA-4B24-9D25-95B9F4B7BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,6 +644,7 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,7 +657,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4517,10 +4517,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="F1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
+      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4662,7 +4662,7 @@
         <v>1.5</v>
       </c>
       <c r="W2" s="1">
-        <v>1.08</v>
+        <v>2.15</v>
       </c>
       <c r="X2" s="21">
         <v>1.2</v>
@@ -4849,11 +4849,11 @@
         <v>1.5991603542666666</v>
       </c>
       <c r="O5" s="58">
-        <f t="shared" ref="O5:O31" si="5">100%-P5</f>
+        <f t="shared" ref="O5:O30" si="5">100%-P5</f>
         <v>0.92600000000000005</v>
       </c>
       <c r="P5" s="58">
-        <f t="shared" ref="P5:P31" si="6">P4+$AB$2</f>
+        <f t="shared" ref="P5:P30" si="6">P4+$AB$2</f>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="Q5" s="75">
@@ -4924,17 +4924,17 @@
         <v>1</v>
       </c>
       <c r="T6" s="71"/>
-      <c r="U6" s="88">
+      <c r="U6" s="89">
         <f>SUM(L2:L15)</f>
         <v>5245.4652913663986</v>
       </c>
-      <c r="V6" s="89"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="91">
+      <c r="V6" s="90"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="92">
         <f>SUM(J2:J15)</f>
         <v>11564.745264192919</v>
       </c>
-      <c r="Y6" s="90"/>
+      <c r="Y6" s="91"/>
     </row>
     <row r="7" spans="6:31" x14ac:dyDescent="0.3">
       <c r="F7" s="6" t="s">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="K10" s="42">
         <f>(I10+J10)*$W$2</f>
-        <v>2148.0945540565867</v>
+        <v>4276.2993437237601</v>
       </c>
       <c r="L10" s="27">
         <f t="shared" si="7"/>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="K12" s="43">
         <f>(I12+J12)*$W$2</f>
-        <v>3207.7152280598361</v>
+        <v>6385.7293891931913</v>
       </c>
       <c r="L12" s="28">
         <f t="shared" si="7"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="K14" s="44">
         <f>(I14+J14)*$W$2</f>
-        <v>4790.0298266181044</v>
+        <v>9535.7075252119648</v>
       </c>
       <c r="L14" s="29">
         <f t="shared" si="7"/>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="K16" s="45">
         <f>(I16+J16)*$W$2</f>
-        <v>7152.8748996115892</v>
+        <v>14239.519476078625</v>
       </c>
       <c r="L16" s="30">
         <f t="shared" si="7"/>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="K18" s="46">
         <f>(I18+J18)*$W$2</f>
-        <v>10681.273641591592</v>
+        <v>21263.646601316592</v>
       </c>
       <c r="L18" s="31">
         <f t="shared" si="7"/>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="K20" s="47">
         <f>(I20+J20)*$W$2</f>
-        <v>15950.175028610456</v>
+        <v>31752.663251400441</v>
       </c>
       <c r="L20" s="32">
         <f t="shared" si="7"/>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="K22" s="48">
         <f>(I22+J22)*$W$2</f>
-        <v>23818.141167423535</v>
+        <v>47415.743990704257</v>
       </c>
       <c r="L22" s="33">
         <f t="shared" si="7"/>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="K24" s="49">
         <f>(I24+J24)*$W$2</f>
-        <v>35567.249115054874</v>
+        <v>70805.171849414794</v>
       </c>
       <c r="L24" s="34">
         <f t="shared" si="7"/>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="K26" s="50">
         <f>(I26+J26)*$W$2</f>
-        <v>53112.004027525618</v>
+        <v>105732.23023998154</v>
       </c>
       <c r="L26" s="35">
         <f t="shared" si="7"/>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="K28" s="51">
         <f>(I28+J28)*$W$2</f>
-        <v>79311.305822239548</v>
+        <v>157888.24770168058</v>
       </c>
       <c r="L28" s="36">
         <f t="shared" si="7"/>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="K29" s="51">
         <f>(I29+J29)*$W$2</f>
-        <v>96918.415714776726</v>
+        <v>192939.43869145366</v>
       </c>
       <c r="L29" s="36">
         <f t="shared" si="7"/>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="K30" s="51">
         <f>(I30+J30)*$W$2</f>
-        <v>118434.30400345716</v>
+        <v>235771.99408095636</v>
       </c>
       <c r="L30" s="36">
         <f t="shared" si="7"/>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="K31" s="52">
         <f>(I31+J31)*$W$2</f>
-        <v>144726.71949222463</v>
+        <v>288113.37676692859</v>
       </c>
       <c r="L31" s="36">
         <v>1000</v>
@@ -6291,7 +6291,7 @@
       <c r="N32" s="55"/>
     </row>
     <row r="37" spans="14:21" x14ac:dyDescent="0.3">
-      <c r="N37" s="92">
+      <c r="N37" s="88">
         <v>1</v>
       </c>
     </row>
